--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1339.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1339.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.3981849768479517</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04413402646387327</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04413402646387327</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07061444234219724</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1664468733444803</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.05560887334448033</v>
+        <v>0.1895826526259745</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001616734555992784</v>
+        <v>0.005511797079909952</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.02648041587832397</v>
+        <v>0.04012754846979116</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005389115186642613</v>
+        <v>0.0007661505111622062</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.03522327627495966</v>
+        <v>0.07525170180570326</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007358733349724185</v>
+        <v>0.0007656006151228024</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.08102528942480228</v>
+        <v>0.1085424294666926</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007698091164799669</v>
+        <v>0.0007656127683199985</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.105528336806731</v>
+        <v>0.04012754846979116</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007267049423445284</v>
+        <v>0.0007661505111622062</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.05560887334448033</v>
+        <v>0.0665028</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001616734555992784</v>
+        <v>0.001353420018329939</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
+        <v>0.1265028</v>
+      </c>
+      <c r="K67" s="171" t="n">
+        <v>0.00138104083503055</v>
+      </c>
+      <c r="L67" s="172" t="n">
+        <v>0.1865028</v>
+      </c>
+      <c r="M67" s="170" t="n">
+        <v>0.001409812519093687</v>
+      </c>
+      <c r="N67" s="171" t="n">
         <v>0.0665028</v>
       </c>
-      <c r="K67" s="171" t="n">
+      <c r="O67" s="172" t="n">
         <v>0.001353420018329939</v>
-      </c>
-      <c r="L67" s="172" t="n">
-        <v>0.1265028</v>
-      </c>
-      <c r="M67" s="170" t="n">
-        <v>0.001253166683638832</v>
-      </c>
-      <c r="N67" s="171" t="n">
-        <v>0.1865028</v>
-      </c>
-      <c r="O67" s="172" t="n">
-        <v>0.001314000017796057</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.05236412465890754</v>
+        <v>0.1026933697938086</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002299567792107127</v>
+        <v>0.002298451533486619</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.09735062411982218</v>
+        <v>0.1885981266403109</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002207620004917256</v>
+        <v>0.002296801845368407</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.2044775604359379</v>
+        <v>0.2705421192141695</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002309427349439901</v>
+        <v>0.002296838304959995</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2705197578992534</v>
+        <v>0.1026933697938086</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002180114827033585</v>
+        <v>0.002298451533486619</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.05737409233907292</v>
+        <v>0.1275521241253247</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00306609038947617</v>
+        <v>0.003064602044648825</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.1237994629181868</v>
+        <v>0.2385783371452287</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002943493339889674</v>
+        <v>0.003062402460491209</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.2517683029402403</v>
+        <v>0.3481040164970825</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003079236465919868</v>
+        <v>0.003062451073279994</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.3469800497504982</v>
+        <v>0.1275521241253247</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002906819769378113</v>
+        <v>0.003064602044648825</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005389115186642613</v>
+        <v>0.001353420018329939</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02648041587832397</v>
+        <v>0.0665028</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.05617179962541916</v>
+        <v>0.1538126918243386</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003832612986845212</v>
+        <v>0.00383075255581103</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.1453261838071082</v>
+        <v>0.2844966178792475</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003679366674862093</v>
+        <v>0.003828003075614012</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.2984119190767167</v>
+        <v>0.4050370726818912</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003849045582399835</v>
+        <v>0.003828063841599992</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.4103141572974667</v>
+        <v>0.1538126918243386</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003633524711722642</v>
+        <v>0.00383075255581103</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.06076258289328782</v>
+        <v>0.1728047796395098</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004599135584214254</v>
+        <v>0.004596903066973237</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.1651584902333036</v>
+        <v>0.3200058767917412</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004415240009834512</v>
+        <v>0.004593603690736814</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.3407222129167822</v>
+        <v>0.4530446429276004</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00482182128552556</v>
+        <v>0.004593676609919991</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.460582679334028</v>
+        <v>0.1728047796395098</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00436022965406717</v>
+        <v>0.004596903066973237</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.06415177851802048</v>
+        <v>0.1895826526259745</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005365658181583297</v>
+        <v>0.005511797079909952</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
+        <v>0.3407222129167822</v>
+      </c>
+      <c r="K72" s="171" t="n">
+        <v>0.00531384386568123</v>
+      </c>
+      <c r="L72" s="172" t="n">
+        <v>0.4918617732075898</v>
+      </c>
+      <c r="M72" s="170" t="n">
+        <v>0.005311547107616612</v>
+      </c>
+      <c r="N72" s="171" t="n">
         <v>0.1895826526259745</v>
       </c>
-      <c r="K72" s="171" t="n">
+      <c r="O72" s="172" t="n">
         <v>0.005511797079909952</v>
-      </c>
-      <c r="L72" s="172" t="n">
-        <v>0.351746484985616</v>
-      </c>
-      <c r="M72" s="170" t="n">
-        <v>0.005388663815359769</v>
-      </c>
-      <c r="N72" s="171" t="n">
-        <v>0.4918617732075898</v>
-      </c>
-      <c r="O72" s="172" t="n">
-        <v>0.004950568177972766</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.07234472287495872</v>
+        <v>0.1935448562590015</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006132180778952339</v>
+        <v>0.006129204089297649</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.195468641888412</v>
+        <v>0.3555954242734798</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.005886986679779348</v>
+        <v>0.006124804920982419</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.3782781506334872</v>
+        <v>0.5130592637206035</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006158472931839735</v>
+        <v>0.006124902146559988</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.5252318446306989</v>
+        <v>0.1935448562590015</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005813639538756227</v>
+        <v>0.006129204089297649</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0723467523394441</v>
+        <v>0.2036933888953125</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006898703376321382</v>
+        <v>0.006895354600459856</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.204935072577705</v>
+        <v>0.3633581064247622</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006622860014751766</v>
+        <v>0.006890405536105221</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.3977748172459622</v>
+        <v>0.5338457735699418</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006928282048319702</v>
+        <v>0.006890514914879985</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.5556660447324184</v>
+        <v>0.2036933888953125</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006540344481100755</v>
+        <v>0.006895354600459856</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.07916320328681822</v>
+        <v>0.2085540550775327</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007665225973690425</v>
+        <v>0.00766150511162206</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.2175534046081413</v>
+        <v>0.3808770507232757</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007358733349724185</v>
+        <v>0.007656006151228023</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.4145194019871249</v>
+        <v>0.5455371325775371</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.00769809116479967</v>
+        <v>0.007656127683199984</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.5825145002781416</v>
+        <v>0.2085540550775327</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007267049423445283</v>
+        <v>0.00766150511162206</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.08579941209242262</v>
+        <v>0.2178279113394873</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008431748571059466</v>
+        <v>0.008427655622784268</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.2257088856243749</v>
+        <v>0.3946544609765503</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008094606684696604</v>
+        <v>0.008421606766350826</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.43299482202106</v>
+        <v>0.563536489226242</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008467900281279637</v>
+        <v>0.008421740451519983</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.6033531938315431</v>
+        <v>0.2178279113394873</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.007993754365789812</v>
+        <v>0.008427655622784268</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.07926071513159888</v>
+        <v>0.2263160142150012</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009198271168428508</v>
+        <v>0.009193806133946474</v>
       </c>
       <c r="J77" t="n">
-        <v>0.2392867632710601</v>
+        <v>0.4059925409921159</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008830480019669023</v>
+        <v>0.009187207381473628</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4564839945118517</v>
+        <v>0.5858469919989098</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009237709397759603</v>
+        <v>0.009187353219839982</v>
       </c>
       <c r="N77" t="n">
-        <v>0.6314581079562989</v>
+        <v>0.2263160142150012</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008720459308134341</v>
+        <v>0.009193806133946474</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.08755244877968857</v>
+        <v>0.2324194202378996</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00996479376579755</v>
+        <v>0.009959956645108679</v>
       </c>
       <c r="J78" t="n">
-        <v>0.246272285192851</v>
+        <v>0.4164934945775024</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009566353354641441</v>
+        <v>0.00995280799659643</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4712698366235847</v>
+        <v>0.6010717893783935</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01000751851423957</v>
+        <v>0.00995296598815998</v>
       </c>
       <c r="N78" t="n">
-        <v>0.6567052252160839</v>
+        <v>0.2324194202378996</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009447164250478868</v>
+        <v>0.009959956645108679</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0876799494120333</v>
+        <v>0.2395391859420075</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01073131636316659</v>
+        <v>0.01072610715627089</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2568506990344019</v>
+        <v>0.4329595255402402</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01030222668961386</v>
+        <v>0.01071840861171923</v>
       </c>
       <c r="L79" t="n">
-        <v>0.488435265520343</v>
+        <v>0.6204140298475456</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01077732763071954</v>
+        <v>0.01071857875647998</v>
       </c>
       <c r="N79" t="n">
-        <v>0.6869705281745742</v>
+        <v>0.2395391859420075</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0101738691928234</v>
+        <v>0.01072610715627089</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0936485534039746</v>
+        <v>0.24387636786115</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01149783896053564</v>
+        <v>0.01149225766743309</v>
       </c>
       <c r="J80" t="n">
-        <v>0.267707252440367</v>
+        <v>0.4436928376878588</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01103810002458628</v>
+        <v>0.01148400922684203</v>
       </c>
       <c r="L80" t="n">
-        <v>0.5090631983662114</v>
+        <v>0.6369768618892193</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0115471367471995</v>
+        <v>0.01148419152479998</v>
       </c>
       <c r="N80" t="n">
-        <v>0.7056299993954451</v>
+        <v>0.24387636786115</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01090057413516792</v>
+        <v>0.01149225766743309</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.09346359713085406</v>
+        <v>0.250032022529152</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01226436155790468</v>
+        <v>0.0122584081785953</v>
       </c>
       <c r="J81" t="n">
-        <v>0.2779271930554003</v>
+        <v>0.4571956348278886</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0117739733595587</v>
+        <v>0.01224960984196484</v>
       </c>
       <c r="L81" t="n">
-        <v>0.5269365523252739</v>
+        <v>0.658963433986268</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01231694586367947</v>
+        <v>0.01224980429311998</v>
       </c>
       <c r="N81" t="n">
-        <v>0.7350596214423721</v>
+        <v>0.250032022529152</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01162727907751245</v>
+        <v>0.0122584081785953</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.09413041696801322</v>
+        <v>0.2573072064798388</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01303088415527372</v>
+        <v>0.0130245586897575</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2860957685241561</v>
+        <v>0.4697701207678594</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01250984669453111</v>
+        <v>0.01301521045708764</v>
       </c>
       <c r="L82" t="n">
-        <v>0.5382382445616153</v>
+        <v>0.6732768946215442</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01308675498015944</v>
+        <v>0.01301541706143997</v>
       </c>
       <c r="N82" t="n">
-        <v>0.7515353768790309</v>
+        <v>0.2573072064798388</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01235398401985698</v>
+        <v>0.0130245586897575</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.08865434929079374</v>
+        <v>0.2633029762470352</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01379740675264276</v>
+        <v>0.01379070920091971</v>
       </c>
       <c r="J83" t="n">
-        <v>0.2930982264912886</v>
+        <v>0.4794184993153014</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01324572002950353</v>
+        <v>0.01378081107221044</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5517511922393197</v>
+        <v>0.6859203922779009</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0138565640966394</v>
+        <v>0.01378102982975997</v>
       </c>
       <c r="N83" t="n">
-        <v>0.7759332482690964</v>
+        <v>0.2633029762470352</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01308068896220151</v>
+        <v>0.01379070920091971</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.09504073047453707</v>
+        <v>0.2697203883645665</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01456392935001181</v>
+        <v>0.01455685971208191</v>
       </c>
       <c r="J84" t="n">
-        <v>0.302919814601452</v>
+        <v>0.4916429742777446</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01398159336447595</v>
+        <v>0.01454641168733324</v>
       </c>
       <c r="L84" t="n">
-        <v>0.5695583125224715</v>
+        <v>0.7072970754381915</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01462637321311937</v>
+        <v>0.01454664259807997</v>
       </c>
       <c r="N84" t="n">
-        <v>0.7986292181762447</v>
+        <v>0.2697203883645665</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01380739390454604</v>
+        <v>0.01455685971208191</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1002948968945849</v>
+        <v>0.2752604993662575</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01533045194738085</v>
+        <v>0.01532301022324412</v>
       </c>
       <c r="J85" t="n">
-        <v>0.3094457804993004</v>
+        <v>0.4958457494627185</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01471746669944837</v>
+        <v>0.01531201230245605</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5831425225751551</v>
+        <v>0.7224100925852686</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01539618232959934</v>
+        <v>0.01531225536639997</v>
       </c>
       <c r="N85" t="n">
-        <v>0.8123992691641508</v>
+        <v>0.2752604993662575</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01453409884689057</v>
+        <v>0.01532301022324412</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.09742218492627869</v>
+        <v>0.2832243657859335</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01609697454474989</v>
+        <v>0.01608916073440633</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3196613718294881</v>
+        <v>0.5086290286777536</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01545334003442079</v>
+        <v>0.01607761291757885</v>
       </c>
       <c r="L86" t="n">
-        <v>0.5952867395614552</v>
+        <v>0.7389625922019851</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01616599144607931</v>
+        <v>0.01607786813471997</v>
       </c>
       <c r="N86" t="n">
-        <v>0.8301193837964906</v>
+        <v>0.2832243657859335</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01526080378923509</v>
+        <v>0.01608916073440633</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.09742793094496013</v>
+        <v>0.2886130441574194</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01686349714211893</v>
+        <v>0.01685531124556854</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3242518362366691</v>
+        <v>0.5218950157303801</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01618921336939321</v>
+        <v>0.01684321353270165</v>
       </c>
       <c r="L87" t="n">
-        <v>0.6041738806454559</v>
+        <v>0.7538577227711942</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01693580056255927</v>
+        <v>0.01684348090303997</v>
       </c>
       <c r="N87" t="n">
-        <v>0.8476655446369394</v>
+        <v>0.2886130441574194</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01598750873157962</v>
+        <v>0.01685531124556854</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1003174713259707</v>
+        <v>0.2942275910145402</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01763001973948798</v>
+        <v>0.01762146175673074</v>
       </c>
       <c r="J88" t="n">
-        <v>0.3312024213654979</v>
+        <v>0.5278459144281273</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01692508670436563</v>
+        <v>0.01760881414782445</v>
       </c>
       <c r="L88" t="n">
-        <v>0.6110868629912418</v>
+        <v>0.7667986327757488</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01770560967903924</v>
+        <v>0.01760909367135996</v>
       </c>
       <c r="N88" t="n">
-        <v>0.8689137342491728</v>
+        <v>0.2942275910145402</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01671421367392415</v>
+        <v>0.01762146175673074</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.106096142444652</v>
+        <v>0.2979690628911212</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01839654233685702</v>
+        <v>0.01838761226789295</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3384983748606284</v>
+        <v>0.5361839285785257</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01766096003933805</v>
+        <v>0.01837441476294726</v>
       </c>
       <c r="L89" t="n">
-        <v>0.6228086037628969</v>
+        <v>0.772588470698502</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01847541879551921</v>
+        <v>0.01837470643967996</v>
       </c>
       <c r="N89" t="n">
-        <v>0.8761399351968662</v>
+        <v>0.2979690628911212</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01744091861626868</v>
+        <v>0.01838761226789295</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1007692806763456</v>
+        <v>0.3015385163209872</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01916306493422606</v>
+        <v>0.01915376277905515</v>
       </c>
       <c r="J90" t="n">
-        <v>0.342324944366715</v>
+        <v>0.5479112619891054</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01839683337431046</v>
+        <v>0.01914001537807006</v>
       </c>
       <c r="L90" t="n">
-        <v>0.631122020124506</v>
+        <v>0.7900303850223067</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01924522791199917</v>
+        <v>0.01914031920799996</v>
       </c>
       <c r="N90" t="n">
-        <v>0.8972201300436951</v>
+        <v>0.3015385163209872</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01816762355861321</v>
+        <v>0.01915376277905515</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.09734222239639312</v>
+        <v>0.3074370078379634</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0199295875315951</v>
+        <v>0.01991991329021736</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3495673775284117</v>
+        <v>0.557930118467396</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01913270670928288</v>
+        <v>0.01990561599319286</v>
       </c>
       <c r="L91" t="n">
-        <v>0.6401100292401534</v>
+        <v>0.8021275242300159</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02001503702847914</v>
+        <v>0.01990593197631996</v>
       </c>
       <c r="N91" t="n">
-        <v>0.9020303013533351</v>
+        <v>0.3074370078379634</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01889432850095774</v>
+        <v>0.01991991329021736</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.09882030398013605</v>
+        <v>0.3118655939758748</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02069611012896415</v>
+        <v>0.02068606380137956</v>
       </c>
       <c r="J92" t="n">
-        <v>0.3522109219903727</v>
+        <v>0.5663427018209279</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0198685800442553</v>
+        <v>0.02067121660831566</v>
       </c>
       <c r="L92" t="n">
-        <v>0.6445555482739236</v>
+        <v>0.8097830368044823</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02078484614495911</v>
+        <v>0.02067154474463996</v>
       </c>
       <c r="N92" t="n">
-        <v>0.9178464316894615</v>
+        <v>0.3118655939758748</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01962103344330227</v>
+        <v>0.02068606380137956</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1072088618029161</v>
+        <v>0.3161253312685464</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02146263272633319</v>
+        <v>0.02145221431254177</v>
       </c>
       <c r="J93" t="n">
-        <v>0.3570408253972523</v>
+        <v>0.5695512158572308</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02060445337922772</v>
+        <v>0.02143681722343847</v>
       </c>
       <c r="L93" t="n">
-        <v>0.6534414943899007</v>
+        <v>0.8292000712285592</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02155465526143908</v>
+        <v>0.02143715751295996</v>
       </c>
       <c r="N93" t="n">
-        <v>0.9252445036157497</v>
+        <v>0.3161253312685464</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02034773838564679</v>
+        <v>0.02145221431254177</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1005132322400746</v>
+        <v>0.3216172762498034</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02222915532370223</v>
+        <v>0.02221836482370398</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3612423353937047</v>
+        <v>0.5770578643838348</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02134032671420014</v>
+        <v>0.02220241783856127</v>
       </c>
       <c r="L94" t="n">
-        <v>0.6534507847521692</v>
+        <v>0.8390817759850995</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02232446437791904</v>
+        <v>0.02220277028127995</v>
       </c>
       <c r="N94" t="n">
-        <v>0.9325004996958761</v>
+        <v>0.3216172762498034</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02107444332799132</v>
+        <v>0.02221836482370398</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1077387516669534</v>
+        <v>0.3256424854534706</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02299567792107127</v>
+        <v>0.02298451533486618</v>
       </c>
       <c r="J95" t="n">
-        <v>0.3635006996243839</v>
+        <v>0.58546485120827</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02207620004917256</v>
+        <v>0.02296801845368407</v>
       </c>
       <c r="L95" t="n">
-        <v>0.6598663365248136</v>
+        <v>0.8490312995569562</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02309427349439901</v>
+        <v>0.02296838304959995</v>
       </c>
       <c r="N95" t="n">
-        <v>0.9416904024935149</v>
+        <v>0.3256424854534706</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02180114827033585</v>
+        <v>0.02298451533486618</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1008907564588939</v>
+        <v>0.3306020154133734</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02376220051844031</v>
+        <v>0.02375066584602839</v>
       </c>
       <c r="J96" t="n">
-        <v>0.3675011657339443</v>
+        <v>0.5954743801380664</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02281207338414497</v>
+        <v>0.02373361906880687</v>
       </c>
       <c r="L96" t="n">
-        <v>0.6615710668719182</v>
+        <v>0.8549517904269821</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02386408261087898</v>
+        <v>0.02373399581791995</v>
       </c>
       <c r="N96" t="n">
-        <v>0.9454901945723422</v>
+        <v>0.3306020154133734</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02252785321268038</v>
+        <v>0.02375066584602839</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1059745829912377</v>
+        <v>0.3314969226633367</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02452872311580936</v>
+        <v>0.0245168163571906</v>
       </c>
       <c r="J97" t="n">
-        <v>0.3676289813670399</v>
+        <v>0.6020886549807538</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02354794671911739</v>
+        <v>0.02449921968392968</v>
       </c>
       <c r="L97" t="n">
-        <v>0.6634478929575677</v>
+        <v>0.8638463970780308</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02463389172735894</v>
+        <v>0.02449960858623995</v>
       </c>
       <c r="N97" t="n">
-        <v>0.9568758584960335</v>
+        <v>0.3314969226633367</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02325455815502491</v>
+        <v>0.0245168163571906</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.09899524389257566</v>
+        <v>0.3369282637371854</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0252952457131784</v>
+        <v>0.0252829668683528</v>
       </c>
       <c r="J98" t="n">
-        <v>0.367969394168325</v>
+        <v>0.6060098795438628</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02428382005408981</v>
+        <v>0.02526482029905248</v>
       </c>
       <c r="L98" t="n">
-        <v>0.6675797319458462</v>
+        <v>0.8750182679929548</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02540370084383891</v>
+        <v>0.02526522135455995</v>
       </c>
       <c r="N98" t="n">
-        <v>0.9607233768282644</v>
+        <v>0.3369282637371854</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02398126309736943</v>
+        <v>0.0252829668683528</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1079403059229</v>
+        <v>0.3387970951687448</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02606176831054744</v>
+        <v>0.02604911737951501</v>
       </c>
       <c r="J99" t="n">
-        <v>0.3685076517824539</v>
+        <v>0.6124402576349225</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02501969338906223</v>
+        <v>0.02603042091417528</v>
       </c>
       <c r="L99" t="n">
-        <v>0.6625038152533588</v>
+        <v>0.8858705516546066</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02617350996031888</v>
+        <v>0.02603083412287995</v>
       </c>
       <c r="N99" t="n">
-        <v>0.9576087321327105</v>
+        <v>0.3387970951687448</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02470796803971397</v>
+        <v>0.02604911737951501</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1058062114878171</v>
+        <v>0.3423044734918397</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02682829090791649</v>
+        <v>0.02681526789067721</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3712416909499062</v>
+        <v>0.6187819930614635</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02575556672403465</v>
+        <v>0.02679602152929808</v>
       </c>
       <c r="L100" t="n">
-        <v>0.6638778538044893</v>
+        <v>0.8957063965458396</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02694331907679885</v>
+        <v>0.02679644689119995</v>
       </c>
       <c r="N100" t="n">
-        <v>0.9626079069730467</v>
+        <v>0.3423044734918397</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02543467298205849</v>
+        <v>0.02681526789067721</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.09860009539571798</v>
+        <v>0.3481514552402954</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02759481350528553</v>
+        <v>0.02758141840183942</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3702646030057666</v>
+        <v>0.6210372896310158</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02649144005900706</v>
+        <v>0.02756162214442089</v>
       </c>
       <c r="L101" t="n">
-        <v>0.6658725988699228</v>
+        <v>0.8963289511495076</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02771312819327881</v>
+        <v>0.02756205965951994</v>
       </c>
       <c r="N101" t="n">
-        <v>0.9592212734698351</v>
+        <v>0.3481514552402954</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02616137792440302</v>
+        <v>0.02758141840183942</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1073290924549935</v>
+        <v>0.3509390969479369</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02836133610265457</v>
+        <v>0.02834756891300163</v>
       </c>
       <c r="J102" t="n">
-        <v>0.3678718633099811</v>
+        <v>0.630708351151109</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02722731339397948</v>
+        <v>0.02832722275954368</v>
       </c>
       <c r="L102" t="n">
-        <v>0.6595571365640822</v>
+        <v>0.9108413639484623</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02848293730975878</v>
+        <v>0.02832767242783995</v>
       </c>
       <c r="N102" t="n">
-        <v>0.9544967092823045</v>
+        <v>0.3509390969479369</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02688808286674755</v>
+        <v>0.02834756891300163</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1040003374740345</v>
+        <v>0.3505684551485891</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02912785870002361</v>
+        <v>0.02911371942416383</v>
       </c>
       <c r="J103" t="n">
-        <v>0.3699969962372333</v>
+        <v>0.6328973814292734</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0279631867289519</v>
+        <v>0.02909282337466649</v>
       </c>
       <c r="L103" t="n">
-        <v>0.6601005530013901</v>
+        <v>0.9128467834255569</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02925274642623875</v>
+        <v>0.02909328519615994</v>
       </c>
       <c r="N103" t="n">
-        <v>0.9604904563294965</v>
+        <v>0.3505684551485891</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02761478780909208</v>
+        <v>0.02911371942416383</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1056209652612319</v>
+        <v>0.3535405863760772</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02989438129739265</v>
+        <v>0.02987986993532604</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3667735261622067</v>
+        <v>0.6385065842730393</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02869906006392432</v>
+        <v>0.02985842398978929</v>
       </c>
       <c r="L104" t="n">
-        <v>0.6539719342962697</v>
+        <v>0.9212483580636452</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03002255554271871</v>
+        <v>0.02985889796447994</v>
       </c>
       <c r="N104" t="n">
-        <v>0.9540570095864847</v>
+        <v>0.3535405863760772</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0283414927514366</v>
+        <v>0.02987986993532604</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0961981106249766</v>
+        <v>0.3591565471642262</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0306609038947617</v>
+        <v>0.03064602044648824</v>
       </c>
       <c r="J105" t="n">
-        <v>0.367134977459585</v>
+        <v>0.6451381634899362</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02943493339889674</v>
+        <v>0.03062402460491209</v>
       </c>
       <c r="L105" t="n">
-        <v>0.6539403665631436</v>
+        <v>0.9260492363455797</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03079236465919868</v>
+        <v>0.03062451073279994</v>
       </c>
       <c r="N105" t="n">
-        <v>0.9522508640283425</v>
+        <v>0.3591565471642262</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02906819769378113</v>
+        <v>0.03064602044648824</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1007389083736596</v>
+        <v>0.3605173940468612</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03142742649213074</v>
+        <v>0.03141217095765046</v>
       </c>
       <c r="J106" t="n">
-        <v>0.3631148745040518</v>
+        <v>0.6437943228874942</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03017080673386916</v>
+        <v>0.0313896252200349</v>
       </c>
       <c r="L106" t="n">
-        <v>0.6497749359164346</v>
+        <v>0.9302525667542132</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03156217377567865</v>
+        <v>0.03139012350111994</v>
       </c>
       <c r="N106" t="n">
-        <v>0.9524265146301445</v>
+        <v>0.3605173940468612</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02979490263612566</v>
+        <v>0.03141217095765046</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1022504933156716</v>
+        <v>0.3614241835578071</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03219394908949978</v>
+        <v>0.03217832146881266</v>
       </c>
       <c r="J107" t="n">
-        <v>0.3619467416702907</v>
+        <v>0.6516772662732436</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03090668006884157</v>
+        <v>0.0321552258351577</v>
       </c>
       <c r="L107" t="n">
-        <v>0.6466447284705655</v>
+        <v>0.9392614977723988</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03233198289215861</v>
+        <v>0.03215573626943993</v>
       </c>
       <c r="N107" t="n">
-        <v>0.943738456366964</v>
+        <v>0.3614241835578071</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03052160757847019</v>
+        <v>0.03217832146881266</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1017400002594036</v>
+        <v>0.3630779722308892</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03296047168686882</v>
+        <v>0.03294447197997486</v>
       </c>
       <c r="J108" t="n">
-        <v>0.3623641033329852</v>
+        <v>0.6558891974547145</v>
       </c>
       <c r="K108" t="n">
-        <v>0.031642553403814</v>
+        <v>0.0329208264502805</v>
       </c>
       <c r="L108" t="n">
-        <v>0.6426188303399595</v>
+        <v>0.9446791778829895</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03310179200863858</v>
+        <v>0.03292134903775994</v>
       </c>
       <c r="N108" t="n">
-        <v>0.947641184213875</v>
+        <v>0.3630779722308892</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03124831252081472</v>
+        <v>0.03294447197997486</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.09621456401324649</v>
+        <v>0.3659798165999323</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03372699428423787</v>
+        <v>0.03371062249113707</v>
       </c>
       <c r="J109" t="n">
-        <v>0.359400483866819</v>
+        <v>0.6608323202394361</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03237842673878642</v>
+        <v>0.03368642706540331</v>
       </c>
       <c r="L109" t="n">
-        <v>0.6411663276390389</v>
+        <v>0.9452087555688384</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03387160112511855</v>
+        <v>0.03368696180607993</v>
       </c>
       <c r="N109" t="n">
-        <v>0.9442891931459512</v>
+        <v>0.3659798165999323</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03197501746315925</v>
+        <v>0.03371062249113707</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.09768131938559116</v>
+        <v>0.3659307731987618</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03449351688160691</v>
+        <v>0.03447677300229927</v>
       </c>
       <c r="J110" t="n">
-        <v>0.3588894076464755</v>
+        <v>0.6580088384349392</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03311430007375884</v>
+        <v>0.03445202768052611</v>
       </c>
       <c r="L110" t="n">
-        <v>0.6327563064822268</v>
+        <v>0.9511533793127986</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03464141024159852</v>
+        <v>0.03445257457439993</v>
       </c>
       <c r="N110" t="n">
-        <v>0.9325369781382664</v>
+        <v>0.3659307731987618</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03270172240550378</v>
+        <v>0.03447677300229927</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.09814740118482851</v>
+        <v>0.3698318985612022</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03526003947897596</v>
+        <v>0.03524292351346148</v>
       </c>
       <c r="J111" t="n">
-        <v>0.3543643990466386</v>
+        <v>0.6626209558487535</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03385017340873125</v>
+        <v>0.03521762829564891</v>
       </c>
       <c r="L111" t="n">
-        <v>0.628457852983946</v>
+        <v>0.9584161975977223</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03541121935807848</v>
+        <v>0.03521818734271993</v>
       </c>
       <c r="N111" t="n">
-        <v>0.9290390341658945</v>
+        <v>0.3698318985612022</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0334284273478483</v>
+        <v>0.03524292351346148</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.09961994421934939</v>
+        <v>0.3696842492210792</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03602656207634499</v>
+        <v>0.03600907402462369</v>
       </c>
       <c r="J112" t="n">
-        <v>0.3550589824419916</v>
+        <v>0.6639708762884088</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03458604674370367</v>
+        <v>0.03598322891077171</v>
       </c>
       <c r="L112" t="n">
-        <v>0.6305400532586194</v>
+        <v>0.9630003589064635</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03618102847455845</v>
+        <v>0.03598380011103993</v>
       </c>
       <c r="N112" t="n">
-        <v>0.9312498562039095</v>
+        <v>0.3696842492210792</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03415513229019283</v>
+        <v>0.03600907402462369</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1021060832975448</v>
+        <v>0.3733888817122174</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03679308467371403</v>
+        <v>0.0367752245357859</v>
       </c>
       <c r="J113" t="n">
-        <v>0.3507066822072183</v>
+        <v>0.6686608035614355</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03532192007867609</v>
+        <v>0.03674882952589451</v>
       </c>
       <c r="L113" t="n">
-        <v>0.6254719934206696</v>
+        <v>0.9643090117218747</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03695083759103841</v>
+        <v>0.03674941287935993</v>
       </c>
       <c r="N113" t="n">
-        <v>0.9212239392273847</v>
+        <v>0.3733888817122174</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03488183723253736</v>
+        <v>0.0367752245357859</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1016129532278054</v>
+        <v>0.373346852568442</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03755960727108307</v>
+        <v>0.0375413750469481</v>
       </c>
       <c r="J114" t="n">
-        <v>0.3484410227170022</v>
+        <v>0.6712929414753637</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03605779341364851</v>
+        <v>0.03751443014101732</v>
       </c>
       <c r="L114" t="n">
-        <v>0.6240227595845196</v>
+        <v>0.9730453045268088</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03772064670751838</v>
+        <v>0.03751502564767992</v>
       </c>
       <c r="N114" t="n">
-        <v>0.9200157782113942</v>
+        <v>0.373346852568442</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03560854217488189</v>
+        <v>0.0375413750469481</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0931476888185224</v>
+        <v>0.3751592183235781</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03832612986845212</v>
+        <v>0.0383075255581103</v>
       </c>
       <c r="J115" t="n">
-        <v>0.3470955283460269</v>
+        <v>0.6728694938377228</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03679366674862092</v>
+        <v>0.03828003075614012</v>
       </c>
       <c r="L115" t="n">
-        <v>0.6184614378645923</v>
+        <v>0.9743123858041183</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03849045582399835</v>
+        <v>0.03828063841599992</v>
       </c>
       <c r="N115" t="n">
-        <v>0.9144798681310125</v>
+        <v>0.3751592183235781</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03633524711722642</v>
+        <v>0.0383075255581103</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.09071742487808651</v>
+        <v>0.3753270355114506</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03909265246582116</v>
+        <v>0.03907367606927251</v>
       </c>
       <c r="J116" t="n">
-        <v>0.347703723468976</v>
+        <v>0.6760926644560432</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03752954008359335</v>
+        <v>0.03904563137126291</v>
       </c>
       <c r="L116" t="n">
-        <v>0.6163571143753104</v>
+        <v>0.9742134040366572</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03926026494047832</v>
+        <v>0.03904625118431992</v>
       </c>
       <c r="N116" t="n">
-        <v>0.914470703961312</v>
+        <v>0.3753270355114506</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03706195205957095</v>
+        <v>0.03907367606927251</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.09132929621488861</v>
+        <v>0.3768513606658848</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0398591750631902</v>
+        <v>0.03983982658043472</v>
       </c>
       <c r="J117" t="n">
-        <v>0.3455991324605331</v>
+        <v>0.6722646571378551</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03826541341856576</v>
+        <v>0.03981123198638572</v>
       </c>
       <c r="L117" t="n">
-        <v>0.6140788752310967</v>
+        <v>0.9724515077072782</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04003007405695828</v>
+        <v>0.03981186395263992</v>
       </c>
       <c r="N117" t="n">
-        <v>0.9012427806773675</v>
+        <v>0.3768513606658848</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03778865700191547</v>
+        <v>0.03983982658043472</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.09299043763731965</v>
+        <v>0.3767332503207055</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04062569766055925</v>
+        <v>0.04060597709159693</v>
       </c>
       <c r="J118" t="n">
-        <v>0.3444152796953818</v>
+        <v>0.677787675690688</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03900128675353818</v>
+        <v>0.04057683260150852</v>
       </c>
       <c r="L118" t="n">
-        <v>0.6135958065463741</v>
+        <v>0.9734298452988341</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04079988317343824</v>
+        <v>0.04057747672095992</v>
       </c>
       <c r="N118" t="n">
-        <v>0.8975505932542527</v>
+        <v>0.3767332503207055</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03851536194426</v>
+        <v>0.04060597709159693</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.08970798395377053</v>
+        <v>0.3786737610097379</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04139222025792829</v>
+        <v>0.04137212760275913</v>
       </c>
       <c r="J119" t="n">
-        <v>0.3441856895482057</v>
+        <v>0.6751639239220724</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0397371600885106</v>
+        <v>0.04134243321663132</v>
       </c>
       <c r="L119" t="n">
-        <v>0.6128627126319882</v>
+        <v>0.9765515652941774</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04156969228991822</v>
+        <v>0.04134308948927991</v>
       </c>
       <c r="N119" t="n">
-        <v>0.9024486366670414</v>
+        <v>0.3786737610097379</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03924206688660453</v>
+        <v>0.04137212760275913</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.1004890699726321</v>
+        <v>0.3785739492668071</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04215874285529733</v>
+        <v>0.04213827811392133</v>
       </c>
       <c r="J120" t="n">
-        <v>0.3429438863936883</v>
+        <v>0.6761956056395381</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04047303342348302</v>
+        <v>0.04210803383175413</v>
       </c>
       <c r="L120" t="n">
-        <v>0.6155272896334787</v>
+        <v>0.9742198161761622</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04233950140639818</v>
+        <v>0.04210870225759992</v>
       </c>
       <c r="N120" t="n">
-        <v>0.8939914058908074</v>
+        <v>0.3785739492668071</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03996877182894906</v>
+        <v>0.04213827811392133</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.09834083050229528</v>
+        <v>0.3791653052519491</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04292526545266637</v>
+        <v>0.04290442862508354</v>
       </c>
       <c r="J121" t="n">
-        <v>0.3413233946065133</v>
+        <v>0.6814444258335643</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04120890675845543</v>
+        <v>0.04287363444687693</v>
       </c>
       <c r="L121" t="n">
-        <v>0.6132057424035701</v>
+        <v>0.9837235464151797</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04310931052287816</v>
+        <v>0.04287431502591992</v>
       </c>
       <c r="N121" t="n">
-        <v>0.8960333959006239</v>
+        <v>0.3791653052519491</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04069547677129359</v>
+        <v>0.04290442862508354</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.09927040035115095</v>
+        <v>0.3757618934108637</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04369178805003542</v>
+        <v>0.04367057913624574</v>
       </c>
       <c r="J122" t="n">
-        <v>0.3422222961653114</v>
+        <v>0.6777419425028733</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04194478009342786</v>
+        <v>0.04363923506199973</v>
       </c>
       <c r="L122" t="n">
-        <v>0.614867038382626</v>
+        <v>0.9791195971697162</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04387911963935812</v>
+        <v>0.04363992779423992</v>
       </c>
       <c r="N122" t="n">
-        <v>0.8947291016715657</v>
+        <v>0.3757618934108637</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04142218171363812</v>
+        <v>0.04367057913624574</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.09428698839217378</v>
+        <v>0.3756118099154691</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04445831064740446</v>
+        <v>0.04443672964740795</v>
       </c>
       <c r="J123" t="n">
-        <v>0.342084104464815</v>
+        <v>0.6755968425794238</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04268065342840027</v>
+        <v>0.04440483567712254</v>
       </c>
       <c r="L123" t="n">
-        <v>0.6194801450110101</v>
+        <v>0.9740481823762048</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04464892875583808</v>
+        <v>0.04440554056255991</v>
       </c>
       <c r="N123" t="n">
-        <v>0.8933330181787063</v>
+        <v>0.3756118099154691</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04214888665598265</v>
+        <v>0.04443672964740795</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.09339780470716133</v>
+        <v>0.376103596684114</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0452248332447735</v>
+        <v>0.04520288015857016</v>
       </c>
       <c r="J124" t="n">
-        <v>0.3428875260617447</v>
+        <v>0.6799961472213176</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04341652676337269</v>
+        <v>0.04517043629224534</v>
       </c>
       <c r="L124" t="n">
-        <v>0.6209140297290866</v>
+        <v>0.9770886875971936</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04541873787231805</v>
+        <v>0.04517115333087991</v>
       </c>
       <c r="N124" t="n">
-        <v>0.8838996403971191</v>
+        <v>0.376103596684114</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04287559159832717</v>
+        <v>0.04520288015857016</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.09359606788234071</v>
+        <v>0.3784393657913969</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04599135584214255</v>
+        <v>0.04596903066973237</v>
       </c>
       <c r="J125" t="n">
-        <v>0.3461119821496678</v>
+        <v>0.6806412369605437</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04415240009834511</v>
+        <v>0.04593603690736814</v>
       </c>
       <c r="L125" t="n">
-        <v>0.6260376599772185</v>
+        <v>0.9801431231003748</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04618854698879802</v>
+        <v>0.04593676609919991</v>
       </c>
       <c r="N125" t="n">
-        <v>0.8887834633018783</v>
+        <v>0.3784393657913969</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04360229654067169</v>
+        <v>0.04596903066973237</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.09887417304681248</v>
+        <v>0.3777212293119159</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04675787843951159</v>
+        <v>0.04673518118089457</v>
       </c>
       <c r="J126" t="n">
-        <v>0.3453368939221516</v>
+        <v>0.6797334923290902</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04488827343331753</v>
+        <v>0.04670163752249094</v>
       </c>
       <c r="L126" t="n">
-        <v>0.6234200031957698</v>
+        <v>0.9824134991534408</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04695835610527799</v>
+        <v>0.04670237886751991</v>
       </c>
       <c r="N126" t="n">
-        <v>0.8844963822440988</v>
+        <v>0.3777212293119159</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04432900148301623</v>
+        <v>0.04673518118089457</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.09622451532967721</v>
+        <v>0.3769512993202697</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04752440103688062</v>
+        <v>0.04750133169205678</v>
       </c>
       <c r="J127" t="n">
-        <v>0.3471416825727633</v>
+        <v>0.6739742938589457</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04562414676828994</v>
+        <v>0.04746723813761375</v>
       </c>
       <c r="L127" t="n">
-        <v>0.6313300268251043</v>
+        <v>0.9816018260240837</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04772816522175796</v>
+        <v>0.0474679916358399</v>
       </c>
       <c r="N127" t="n">
-        <v>0.8881823196817678</v>
+        <v>0.3769512993202697</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04505570642536075</v>
+        <v>0.04750133169205678</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.09163948986003542</v>
+        <v>0.3773316878910565</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04829092363424967</v>
+        <v>0.04826748220321899</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3486057692950703</v>
+        <v>0.6789650220820987</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04636002010326237</v>
+        <v>0.04823283875273655</v>
       </c>
       <c r="L128" t="n">
-        <v>0.6313366983055857</v>
+        <v>0.9776101139799958</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04849797433823792</v>
+        <v>0.04823360440415991</v>
       </c>
       <c r="N128" t="n">
-        <v>0.8949737500477668</v>
+        <v>0.3773316878910565</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04578241136770528</v>
+        <v>0.04826748220321899</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.1001114917669877</v>
+        <v>0.3746645070988746</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04905744623161871</v>
+        <v>0.04903363271438119</v>
       </c>
       <c r="J129" t="n">
-        <v>0.34990857528264</v>
+        <v>0.6767070575305377</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04709589343823478</v>
+        <v>0.04899843936785935</v>
       </c>
       <c r="L129" t="n">
-        <v>0.6333089850775775</v>
+        <v>0.9762403732888694</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04926778345471788</v>
+        <v>0.0489992171724799</v>
       </c>
       <c r="N129" t="n">
-        <v>0.8959928520097449</v>
+        <v>0.3746645070988746</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04650911631004982</v>
+        <v>0.04903363271438119</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.09363291617963468</v>
+        <v>0.3740518690183225</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04982396882898776</v>
+        <v>0.0497997832255434</v>
       </c>
       <c r="J130" t="n">
-        <v>0.3509295217290395</v>
+        <v>0.6757017807362509</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0478317667732072</v>
+        <v>0.04976403998298216</v>
       </c>
       <c r="L130" t="n">
-        <v>0.6375158545814436</v>
+        <v>0.9792946142183971</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05003759257119785</v>
+        <v>0.0497648299407999</v>
       </c>
       <c r="N130" t="n">
-        <v>0.8921618042353516</v>
+        <v>0.3740518690183225</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04723582125239434</v>
+        <v>0.0497997832255434</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0931961582270768</v>
+        <v>0.3763958857239985</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0505904914263568</v>
+        <v>0.05056593373670561</v>
       </c>
       <c r="J131" t="n">
-        <v>0.3543480298278363</v>
+        <v>0.678150572231227</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04856764010817962</v>
+        <v>0.05052964059810496</v>
       </c>
       <c r="L131" t="n">
-        <v>0.6403262742575475</v>
+        <v>0.9797748470362713</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05080740168767782</v>
+        <v>0.0505304427091199</v>
       </c>
       <c r="N131" t="n">
-        <v>0.8994027853922366</v>
+        <v>0.3763958857239985</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04796252619473887</v>
+        <v>0.05056593373670561</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.09579361303841469</v>
+        <v>0.372898669290501</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05135701402372584</v>
+        <v>0.05133208424786781</v>
       </c>
       <c r="J132" t="n">
-        <v>0.3562435207725976</v>
+        <v>0.6761548125474544</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04930351344315204</v>
+        <v>0.05129524121322776</v>
       </c>
       <c r="L132" t="n">
-        <v>0.6407092115462532</v>
+        <v>0.9746830820101839</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05157721080415779</v>
+        <v>0.05129605547743989</v>
       </c>
       <c r="N132" t="n">
-        <v>0.9032379741480487</v>
+        <v>0.372898669290501</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0486892311370834</v>
+        <v>0.05133208424786781</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0974176757427489</v>
+        <v>0.3744623317924283</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05212353662109488</v>
+        <v>0.05209823475903002</v>
       </c>
       <c r="J133" t="n">
-        <v>0.3553954157568908</v>
+        <v>0.6746158822169216</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05003938677812446</v>
+        <v>0.05206084182835056</v>
       </c>
       <c r="L133" t="n">
-        <v>0.6465336338879242</v>
+        <v>0.9755213294078275</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05234701992063776</v>
+        <v>0.0520616682457599</v>
       </c>
       <c r="N133" t="n">
-        <v>0.9133895491704376</v>
+        <v>0.3744623317924283</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04941593607942793</v>
+        <v>0.05209823475903002</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.10106074146918</v>
+        <v>0.3718889853043789</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05289005921846392</v>
+        <v>0.05286438527019223</v>
       </c>
       <c r="J134" t="n">
-        <v>0.3590831359742831</v>
+        <v>0.6738351617716168</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05077526011309687</v>
+        <v>0.05282644244347336</v>
       </c>
       <c r="L134" t="n">
-        <v>0.648568508722924</v>
+        <v>0.9714915994968942</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05311682903711773</v>
+        <v>0.05282728101407989</v>
       </c>
       <c r="N134" t="n">
-        <v>0.9160796891270526</v>
+        <v>0.3718889853043789</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05014264102177245</v>
+        <v>0.05286438527019223</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.09971520534680847</v>
+        <v>0.3723807419009512</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05365658181583297</v>
+        <v>0.05363053578135443</v>
       </c>
       <c r="J135" t="n">
-        <v>0.359986102618342</v>
+        <v>0.6745140317435288</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05151113344806929</v>
+        <v>0.05359204305859616</v>
       </c>
       <c r="L135" t="n">
-        <v>0.6506828034916167</v>
+        <v>0.9723959025450766</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05388663815359769</v>
+        <v>0.0535928937823999</v>
       </c>
       <c r="N135" t="n">
-        <v>0.9176305726855432</v>
+        <v>0.3723807419009512</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05086934596411698</v>
+        <v>0.05363053578135443</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.101373462504735</v>
+        <v>0.3728397136567433</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05442310441320201</v>
+        <v>0.05439668629251664</v>
       </c>
       <c r="J136" t="n">
-        <v>0.3609837368826345</v>
+        <v>0.6696538726646457</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05224700678304171</v>
+        <v>0.05435764367371897</v>
       </c>
       <c r="L136" t="n">
-        <v>0.6532454856343658</v>
+        <v>0.9699362488200669</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05465644727007766</v>
+        <v>0.05435850655071989</v>
       </c>
       <c r="N136" t="n">
-        <v>0.921564378513559</v>
+        <v>0.3728397136567433</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05159605090646151</v>
+        <v>0.05439668629251664</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.09702790807206005</v>
+        <v>0.3701680126463539</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05518962701057106</v>
+        <v>0.05516283680367885</v>
       </c>
       <c r="J137" t="n">
-        <v>0.3624554599607282</v>
+        <v>0.6733560650669564</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05298288011801413</v>
+        <v>0.05512324428884177</v>
       </c>
       <c r="L137" t="n">
-        <v>0.6563255225915349</v>
+        <v>0.9654146485895574</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05542625638655762</v>
+        <v>0.05512411931903988</v>
       </c>
       <c r="N137" t="n">
-        <v>0.9352032852787486</v>
+        <v>0.3701680126463539</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05232275584880604</v>
+        <v>0.05516283680367885</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1056709371778842</v>
+        <v>0.3722677509443811</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0559561496079401</v>
+        <v>0.05592898731484104</v>
       </c>
       <c r="J138" t="n">
-        <v>0.3671806930461903</v>
+        <v>0.6684219894824491</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05371875345298655</v>
+        <v>0.05588884490396456</v>
       </c>
       <c r="L138" t="n">
-        <v>0.663391881803488</v>
+        <v>0.9643331121212404</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05619606550303759</v>
+        <v>0.05588973208735989</v>
       </c>
       <c r="N138" t="n">
-        <v>0.9348694716487618</v>
+        <v>0.3722677509443811</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05304946079115056</v>
+        <v>0.05592898731484104</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.09729494495130808</v>
+        <v>0.3710410406254234</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05672267220530913</v>
+        <v>0.05669513782600325</v>
       </c>
       <c r="J139" t="n">
-        <v>0.366438857332588</v>
+        <v>0.6738530264431122</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05445462678795896</v>
+        <v>0.05665444551908737</v>
       </c>
       <c r="L139" t="n">
-        <v>0.6655135307105886</v>
+        <v>0.9628936496828084</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05696587461951756</v>
+        <v>0.05665534485567989</v>
       </c>
       <c r="N139" t="n">
-        <v>0.9389851162912481</v>
+        <v>0.3710410406254234</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05377616573349509</v>
+        <v>0.05669513782600325</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1028923265214322</v>
+        <v>0.3676899937640792</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05748919480267818</v>
+        <v>0.05746128833716546</v>
       </c>
       <c r="J140" t="n">
-        <v>0.3693093740134889</v>
+        <v>0.6695505564809341</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05519050012293138</v>
+        <v>0.05742004613421017</v>
       </c>
       <c r="L140" t="n">
-        <v>0.6701594367532003</v>
+        <v>0.9612982715419534</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05773568373599752</v>
+        <v>0.05742095762399989</v>
       </c>
       <c r="N140" t="n">
-        <v>0.9480723978738568</v>
+        <v>0.3676899937640792</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05450287067583963</v>
+        <v>0.05746128833716546</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.105455477017357</v>
+        <v>0.3675167224349468</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05825571740004722</v>
+        <v>0.05822743884832766</v>
       </c>
       <c r="J141" t="n">
-        <v>0.36937166428246</v>
+        <v>0.6676159601279036</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05592637345790381</v>
+        <v>0.05818564674933298</v>
       </c>
       <c r="L141" t="n">
-        <v>0.6718985673716871</v>
+        <v>0.9643489879663683</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05850549285247749</v>
+        <v>0.05818657039231988</v>
       </c>
       <c r="N141" t="n">
-        <v>0.9539534950642372</v>
+        <v>0.3675167224349468</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05522957561818415</v>
+        <v>0.05822743884832766</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.1059767915681833</v>
+        <v>0.3661233387126246</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05902223999741627</v>
+        <v>0.05899358935948987</v>
       </c>
       <c r="J142" t="n">
-        <v>0.3737051493330688</v>
+        <v>0.6704506179160088</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05666224679287623</v>
+        <v>0.05895124736445578</v>
       </c>
       <c r="L142" t="n">
-        <v>0.6704998900064124</v>
+        <v>0.9622478092237448</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05927530196895745</v>
+        <v>0.05895218316063988</v>
       </c>
       <c r="N142" t="n">
-        <v>0.9573505865300387</v>
+        <v>0.3661233387126246</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05595628056052868</v>
+        <v>0.05899358935948987</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1054486653030114</v>
+        <v>0.3671119546717109</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05978876259478531</v>
+        <v>0.05975973987065208</v>
       </c>
       <c r="J143" t="n">
-        <v>0.3749892503588825</v>
+        <v>0.6670559103772383</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05739812012784864</v>
+        <v>0.05971684797957859</v>
       </c>
       <c r="L143" t="n">
-        <v>0.6738323720977399</v>
+        <v>0.9610967455817754</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06004511108543742</v>
+        <v>0.05971779592895989</v>
       </c>
       <c r="N143" t="n">
-        <v>0.9584858509389105</v>
+        <v>0.3671119546717109</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05668298550287321</v>
+        <v>0.05975973987065208</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.1058634933509421</v>
+        <v>0.3643846823868043</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06055528519215434</v>
+        <v>0.06052589038181429</v>
       </c>
       <c r="J144" t="n">
-        <v>0.3736033885534686</v>
+        <v>0.6656332180435806</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05813399346282106</v>
+        <v>0.06048244859470138</v>
       </c>
       <c r="L144" t="n">
-        <v>0.6787649810860336</v>
+        <v>0.9604978073081525</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06081492020191739</v>
+        <v>0.06048340869727988</v>
       </c>
       <c r="N144" t="n">
-        <v>0.9680814669585025</v>
+        <v>0.3643846823868043</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05740969044521773</v>
+        <v>0.06052589038181429</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1112177466889607</v>
+        <v>0.3664436339325029</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0613218077895234</v>
+        <v>0.06129204089297648</v>
       </c>
       <c r="J145" t="n">
-        <v>0.3759269851103941</v>
+        <v>0.662183921447024</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05886986679779348</v>
+        <v>0.06124804920982418</v>
       </c>
       <c r="L145" t="n">
-        <v>0.6814444258335643</v>
+        <v>0.9587530046705686</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06158472931839736</v>
+        <v>0.06124902146559987</v>
       </c>
       <c r="N145" t="n">
-        <v>0.9700596132564636</v>
+        <v>0.3664436339325029</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05813639538756227</v>
+        <v>0.06129204089297648</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.108529964989167</v>
+        <v>0.3636909213834051</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06208833038689243</v>
+        <v>0.06205819140413869</v>
       </c>
       <c r="J146" t="n">
-        <v>0.3752394612232266</v>
+        <v>0.6626094011195572</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05960574013276589</v>
+        <v>0.06201364982494699</v>
       </c>
       <c r="L146" t="n">
-        <v>0.6764350591698937</v>
+        <v>0.9573643479367158</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06235453843487732</v>
+        <v>0.06201463423391988</v>
       </c>
       <c r="N146" t="n">
-        <v>0.9784424685004431</v>
+        <v>0.3636909213834051</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0588631003299068</v>
+        <v>0.06205819140413869</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1048494090614157</v>
+        <v>0.3643286568141094</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06285485298426148</v>
+        <v>0.06282434191530091</v>
       </c>
       <c r="J147" t="n">
-        <v>0.3791653052519491</v>
+        <v>0.6649110375931685</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06034161346773832</v>
+        <v>0.06277925044006979</v>
       </c>
       <c r="L147" t="n">
-        <v>0.6836861797186178</v>
+        <v>0.9541338473742862</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06312434755135729</v>
+        <v>0.06278024700223987</v>
       </c>
       <c r="N147" t="n">
-        <v>0.9798522113580908</v>
+        <v>0.3643286568141094</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05958980527225132</v>
+        <v>0.06282434191530091</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1011708575081677</v>
+        <v>0.3617589522992142</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06362137558163052</v>
+        <v>0.0635904924264631</v>
       </c>
       <c r="J148" t="n">
-        <v>0.3790487368908814</v>
+        <v>0.6625902113998463</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06107748680271074</v>
+        <v>0.0635448510551926</v>
       </c>
       <c r="L148" t="n">
-        <v>0.6831346827152556</v>
+        <v>0.9558635132509725</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06389415666783727</v>
+        <v>0.06354585977055988</v>
       </c>
       <c r="N148" t="n">
-        <v>0.9791110204970559</v>
+        <v>0.3617589522992142</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06031651021459585</v>
+        <v>0.0635904924264631</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1114931583597063</v>
+        <v>0.3609839199133177</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06438789817899955</v>
+        <v>0.06435664293762532</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3783474769198298</v>
+        <v>0.6634483030715791</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06181336013768315</v>
+        <v>0.0643104516703154</v>
       </c>
       <c r="L149" t="n">
-        <v>0.6857755673050333</v>
+        <v>0.9501553558344673</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06466396578431723</v>
+        <v>0.06431147253887987</v>
       </c>
       <c r="N149" t="n">
-        <v>0.9740410745849875</v>
+        <v>0.3609839199133177</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06104321515694038</v>
+        <v>0.06435664293762532</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1078151596463146</v>
+        <v>0.3600056717310184</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06515442077636861</v>
+        <v>0.06512279344878752</v>
       </c>
       <c r="J150" t="n">
-        <v>0.3783541728665516</v>
+        <v>0.6572866931403555</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06254923347265558</v>
+        <v>0.0650760522854382</v>
       </c>
       <c r="L150" t="n">
-        <v>0.6876038326331763</v>
+        <v>0.9536113853924619</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0654337749007972</v>
+        <v>0.06507708530719987</v>
       </c>
       <c r="N150" t="n">
-        <v>0.9837235464151797</v>
+        <v>0.3600056717310184</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06176992009928491</v>
+        <v>0.06512279344878752</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1041357093982761</v>
+        <v>0.3607263198269147</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06592094337373765</v>
+        <v>0.06588894395994972</v>
       </c>
       <c r="J151" t="n">
-        <v>0.3763864274922375</v>
+        <v>0.6574067621381636</v>
       </c>
       <c r="K151" t="n">
-        <v>0.063285106807628</v>
+        <v>0.065841652900561</v>
       </c>
       <c r="L151" t="n">
-        <v>0.6896144778449105</v>
+        <v>0.9517336121926496</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06620358401727716</v>
+        <v>0.06584269807551987</v>
       </c>
       <c r="N151" t="n">
-        <v>0.9805604772604088</v>
+        <v>0.3607263198269147</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06249662504162944</v>
+        <v>0.06588894395994972</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1064536556458739</v>
+        <v>0.3597479762756047</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0666874659711067</v>
+        <v>0.06665509447111193</v>
       </c>
       <c r="J152" t="n">
-        <v>0.3768503650887212</v>
+        <v>0.6570098905969923</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06402098014260041</v>
+        <v>0.06660725351568381</v>
       </c>
       <c r="L152" t="n">
-        <v>0.6860025020854619</v>
+        <v>0.9455240465027224</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06697339313375712</v>
+        <v>0.06660831084383988</v>
       </c>
       <c r="N152" t="n">
-        <v>0.9830824907947544</v>
+        <v>0.3597479762756047</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06322332998397397</v>
+        <v>0.06665509447111193</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1057678464193912</v>
+        <v>0.3580727531516871</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06745398856847573</v>
+        <v>0.06742124498227414</v>
       </c>
       <c r="J153" t="n">
-        <v>0.3776521099478365</v>
+        <v>0.6573974590488297</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06475685347757283</v>
+        <v>0.06737285413080661</v>
       </c>
       <c r="L153" t="n">
-        <v>0.687462904500056</v>
+        <v>0.9435846985903726</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0677432022502371</v>
+        <v>0.06737392361215987</v>
       </c>
       <c r="N153" t="n">
-        <v>0.9785037245999157</v>
+        <v>0.3580727531516871</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0639500349263185</v>
+        <v>0.06742124498227414</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1100771297491114</v>
+        <v>0.3574027625297601</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06822051116584477</v>
+        <v>0.06818739549343635</v>
       </c>
       <c r="J154" t="n">
-        <v>0.377197786361417</v>
+        <v>0.6571708480256646</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06549272681254525</v>
+        <v>0.06813845474592942</v>
       </c>
       <c r="L154" t="n">
-        <v>0.6903906842339192</v>
+        <v>0.9437175787232925</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06851301136671706</v>
+        <v>0.06813953638047987</v>
       </c>
       <c r="N154" t="n">
-        <v>0.9780241853981575</v>
+        <v>0.3574027625297601</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06467673986866301</v>
+        <v>0.06818739549343635</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1143803536653178</v>
+        <v>0.3571401164844221</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06898703376321381</v>
+        <v>0.06895354600459855</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3749935186212964</v>
+        <v>0.6570314380594852</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06622860014751768</v>
+        <v>0.06890405536105222</v>
       </c>
       <c r="L155" t="n">
-        <v>0.6941808404322767</v>
+        <v>0.9374246971691746</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06928282048319703</v>
+        <v>0.06890514914879986</v>
       </c>
       <c r="N155" t="n">
-        <v>0.9818438799117437</v>
+        <v>0.3571401164844221</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06540344481100756</v>
+        <v>0.06895354600459855</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1046763661982935</v>
+        <v>0.3538869270902715</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06975355636058285</v>
+        <v>0.06971969651576075</v>
       </c>
       <c r="J156" t="n">
-        <v>0.3744454310193083</v>
+        <v>0.65468060968228</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06696447348249009</v>
+        <v>0.06966965597617501</v>
       </c>
       <c r="L156" t="n">
-        <v>0.6930283722403546</v>
+        <v>0.943408064195711</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07005262959967699</v>
+        <v>0.06967076191711986</v>
       </c>
       <c r="N156" t="n">
-        <v>0.9788628148629395</v>
+        <v>0.3538869270902715</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06613014975335207</v>
+        <v>0.06971969651576075</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.1049640153783219</v>
+        <v>0.3529453064219066</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07052007895795191</v>
+        <v>0.07048584702692297</v>
       </c>
       <c r="J157" t="n">
-        <v>0.3752596478472865</v>
+        <v>0.6497197434260374</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06770034681746251</v>
+        <v>0.07043525659129782</v>
       </c>
       <c r="L157" t="n">
-        <v>0.6926282788033788</v>
+        <v>0.9395696900705941</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07082243871615695</v>
+        <v>0.07043637468543985</v>
       </c>
       <c r="N157" t="n">
-        <v>0.9804809969740085</v>
+        <v>0.3529453064219066</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0668568546956966</v>
+        <v>0.07048584702692297</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1052421492356861</v>
+        <v>0.3535173665539258</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07128660155532095</v>
+        <v>0.07125199753808516</v>
       </c>
       <c r="J158" t="n">
-        <v>0.3752422933970647</v>
+        <v>0.6498502198227458</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06843622015243493</v>
+        <v>0.07120085720642062</v>
       </c>
       <c r="L158" t="n">
-        <v>0.6964755592665749</v>
+        <v>0.9349115850615159</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07159224783263693</v>
+        <v>0.07120198745375986</v>
       </c>
       <c r="N158" t="n">
-        <v>0.9752984329672161</v>
+        <v>0.3535173665539258</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06758355963804114</v>
+        <v>0.07125199753808516</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1065096158006696</v>
+        <v>0.3548052195609276</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07205312415268998</v>
+        <v>0.07201814804924737</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3730994919604765</v>
+        <v>0.649773419404394</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06917209348740734</v>
+        <v>0.07196645782154343</v>
       </c>
       <c r="L159" t="n">
-        <v>0.692365212775169</v>
+        <v>0.9327357594361694</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0723620569491169</v>
+        <v>0.07196760022207986</v>
       </c>
       <c r="N159" t="n">
-        <v>0.9763151295648256</v>
+        <v>0.3548052195609276</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06831026458038565</v>
+        <v>0.07201814804924737</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1107652631035555</v>
+        <v>0.3505109775175103</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07281964675005903</v>
+        <v>0.07278429856040958</v>
       </c>
       <c r="J160" t="n">
-        <v>0.3746373678293556</v>
+        <v>0.6494907227029703</v>
       </c>
       <c r="K160" t="n">
-        <v>0.06990796682237976</v>
+        <v>0.07273205843666623</v>
       </c>
       <c r="L160" t="n">
-        <v>0.6941922384743868</v>
+        <v>0.9266442234622465</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07313186606559686</v>
+        <v>0.07273321299039986</v>
       </c>
       <c r="N160" t="n">
-        <v>0.981631093489103</v>
+        <v>0.3505109775175103</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0690369695227302</v>
+        <v>0.07278429856040958</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1160079391746271</v>
+        <v>0.3531367524982721</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07358616934742807</v>
+        <v>0.07355044907157179</v>
       </c>
       <c r="J161" t="n">
-        <v>0.3742620452955357</v>
+        <v>0.6474035102504628</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07064384015735219</v>
+        <v>0.07349765905178902</v>
       </c>
       <c r="L161" t="n">
-        <v>0.6987516355094541</v>
+        <v>0.92573898740744</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07390167518207683</v>
+        <v>0.07349882575871985</v>
       </c>
       <c r="N161" t="n">
-        <v>0.9802463314623113</v>
+        <v>0.3531367524982721</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06976367446507473</v>
+        <v>0.07355044907157179</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1112364920441676</v>
+        <v>0.3521846565778116</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07435269194479711</v>
+        <v>0.074316599582734</v>
       </c>
       <c r="J162" t="n">
-        <v>0.3712796486508504</v>
+        <v>0.6467131625788606</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0713797134923246</v>
+        <v>0.07426325966691183</v>
       </c>
       <c r="L162" t="n">
-        <v>0.7002384030255967</v>
+        <v>0.9316220615394415</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07467148429855679</v>
+        <v>0.07426443852703986</v>
       </c>
       <c r="N162" t="n">
-        <v>0.9811608502067155</v>
+        <v>0.3521846565778116</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07049037940741924</v>
+        <v>0.074316599582734</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1124497697424604</v>
+        <v>0.351256801830727</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07511921454216615</v>
+        <v>0.0750827500938962</v>
       </c>
       <c r="J163" t="n">
-        <v>0.3720963021871335</v>
+        <v>0.6424210602201517</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07211558682729702</v>
+        <v>0.07502886028203463</v>
       </c>
       <c r="L163" t="n">
-        <v>0.6966475401680403</v>
+        <v>0.9272954561259434</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07544129341503676</v>
+        <v>0.07503005129535985</v>
       </c>
       <c r="N163" t="n">
-        <v>0.9769746564445805</v>
+        <v>0.351256801830727</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07121708434976377</v>
+        <v>0.0750827500938962</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1056466202997887</v>
+        <v>0.3483547351039352</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0758857371395352</v>
+        <v>0.0758489006050584</v>
       </c>
       <c r="J164" t="n">
-        <v>0.3699181301962186</v>
+        <v>0.6414285837063245</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07285146016226944</v>
+        <v>0.07579446089715743</v>
       </c>
       <c r="L164" t="n">
-        <v>0.6991740460820109</v>
+        <v>0.9183611814346384</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07621110253151674</v>
+        <v>0.07579566406367984</v>
       </c>
       <c r="N164" t="n">
-        <v>0.98248775689817</v>
+        <v>0.3483547351039352</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0719437892921083</v>
+        <v>0.0758489006050584</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1138258917464357</v>
+        <v>0.3486676962166402</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07665225973690425</v>
+        <v>0.07661505111622061</v>
       </c>
       <c r="J165" t="n">
-        <v>0.3705512569699395</v>
+        <v>0.6450371135693678</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07358733349724185</v>
+        <v>0.07656006151228023</v>
       </c>
       <c r="L165" t="n">
-        <v>0.6970129199127345</v>
+        <v>0.9161212477332188</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0769809116479967</v>
+        <v>0.07656127683199984</v>
       </c>
       <c r="N165" t="n">
-        <v>0.982800158289749</v>
+        <v>0.3486676962166402</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07267049423445283</v>
+        <v>0.07661505111622061</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1129864321126847</v>
+        <v>0.3498900956418112</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07741878233427328</v>
+        <v>0.07738120162738282</v>
       </c>
       <c r="J166" t="n">
-        <v>0.3681018068001297</v>
+        <v>0.6438480303412697</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07432320683221427</v>
+        <v>0.07732566212740304</v>
       </c>
       <c r="L166" t="n">
-        <v>0.7002591608054366</v>
+        <v>0.9211776652893768</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07775072076447666</v>
+        <v>0.07732688960031985</v>
       </c>
       <c r="N166" t="n">
-        <v>0.9809118673415818</v>
+        <v>0.3498900956418112</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07339719917679736</v>
+        <v>0.07738120162738282</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1071270894288191</v>
+        <v>0.3472209105767395</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07818530493164233</v>
+        <v>0.07814735213854503</v>
       </c>
       <c r="J167" t="n">
-        <v>0.3677759039786229</v>
+        <v>0.6385627145540189</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0750590801671867</v>
+        <v>0.07809126274252583</v>
       </c>
       <c r="L167" t="n">
-        <v>0.7009077679053433</v>
+        <v>0.9194324443708048</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07852052988095663</v>
+        <v>0.07809250236863985</v>
       </c>
       <c r="N167" t="n">
-        <v>0.9806228907759329</v>
+        <v>0.3472209105767395</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0741239041191419</v>
+        <v>0.07814735213854503</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1142467117251219</v>
+        <v>0.3463591182187167</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07895182752901136</v>
+        <v>0.07891350264970723</v>
       </c>
       <c r="J168" t="n">
-        <v>0.368379672797253</v>
+        <v>0.6391589570710704</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0757949535021591</v>
+        <v>0.07885686335764863</v>
       </c>
       <c r="L168" t="n">
-        <v>0.7030537403576801</v>
+        <v>0.914287595245195</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07929033899743661</v>
+        <v>0.07885811513695984</v>
       </c>
       <c r="N168" t="n">
-        <v>0.9756332353150665</v>
+        <v>0.3463591182187167</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07485060906148641</v>
+        <v>0.07891350264970723</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1063441470318766</v>
+        <v>0.347903695765034</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0797183501263804</v>
+        <v>0.07967965316086943</v>
       </c>
       <c r="J169" t="n">
-        <v>0.3689192375478536</v>
+        <v>0.6365721355375581</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07653082683713153</v>
+        <v>0.07962246397277144</v>
       </c>
       <c r="L169" t="n">
-        <v>0.7040920773076729</v>
+        <v>0.9126451281802397</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08006014811391657</v>
+        <v>0.07962372790527984</v>
       </c>
       <c r="N169" t="n">
-        <v>0.9798429076812476</v>
+        <v>0.347903695765034</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07557731400383094</v>
+        <v>0.07967965316086943</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1164182433793663</v>
+        <v>0.3445536204129829</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08048487272374945</v>
+        <v>0.08044580367203165</v>
       </c>
       <c r="J170" t="n">
-        <v>0.3663007225222581</v>
+        <v>0.6365027897135422</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07726670017210395</v>
+        <v>0.08038806458789424</v>
       </c>
       <c r="L170" t="n">
-        <v>0.6990153962433509</v>
+        <v>0.9069070534436314</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08082995723039653</v>
+        <v>0.08038934067359985</v>
       </c>
       <c r="N170" t="n">
-        <v>0.9769519145967398</v>
+        <v>0.3445536204129829</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07630401894617549</v>
+        <v>0.08044580367203165</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1154678487978743</v>
+        <v>0.3433078693598547</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0812513953211185</v>
+        <v>0.08121195418319385</v>
       </c>
       <c r="J171" t="n">
-        <v>0.3684302520123005</v>
+        <v>0.6350557184370909</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07800257350707636</v>
+        <v>0.08115366520301705</v>
       </c>
       <c r="L171" t="n">
-        <v>0.7045782032025369</v>
+        <v>0.9091753813030625</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08159976634687649</v>
+        <v>0.08115495344191985</v>
       </c>
       <c r="N171" t="n">
-        <v>0.9817602627838087</v>
+        <v>0.3433078693598547</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07703072388852</v>
+        <v>0.08121195418319385</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.117491811317684</v>
+        <v>0.342865419802941</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08201791791848755</v>
+        <v>0.08197810469435605</v>
       </c>
       <c r="J172" t="n">
-        <v>0.3678973319839128</v>
+        <v>0.6351357205462723</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07873844684204878</v>
+        <v>0.08191926581813985</v>
       </c>
       <c r="L172" t="n">
-        <v>0.6994700463541313</v>
+        <v>0.9051378369640546</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08236957546335648</v>
+        <v>0.08192056621023984</v>
       </c>
       <c r="N172" t="n">
-        <v>0.9800679589647179</v>
+        <v>0.342865419802941</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07775742883086453</v>
+        <v>0.08197810469435605</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1114801935690517</v>
+        <v>0.343725248939533</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08278444051585658</v>
+        <v>0.08274425520551826</v>
       </c>
       <c r="J173" t="n">
-        <v>0.3667719499443363</v>
+        <v>0.6338475948791543</v>
       </c>
       <c r="K173" t="n">
-        <v>0.0794743201770212</v>
+        <v>0.08268486643326264</v>
       </c>
       <c r="L173" t="n">
-        <v>0.7000978980986555</v>
+        <v>0.908065828415108</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08313938457983644</v>
+        <v>0.08268617897855983</v>
       </c>
       <c r="N173" t="n">
-        <v>0.9747750098617318</v>
+        <v>0.343725248939533</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07848413377320906</v>
+        <v>0.08274425520551826</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1143985556441786</v>
+        <v>0.3425863339669221</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08355096311322562</v>
+        <v>0.08351040571668047</v>
       </c>
       <c r="J174" t="n">
-        <v>0.3676530305778341</v>
+        <v>0.6283961402738051</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08021019351199361</v>
+        <v>0.08345046704838545</v>
       </c>
       <c r="L174" t="n">
-        <v>0.702368730836631</v>
+        <v>0.9030802102848949</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0839091936963164</v>
+        <v>0.08345179174687983</v>
       </c>
       <c r="N174" t="n">
-        <v>0.9826814221971156</v>
+        <v>0.3425863339669221</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07921083871555358</v>
+        <v>0.08351040571668047</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1112477713975785</v>
+        <v>0.3425476520823998</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08431748571059466</v>
+        <v>0.08427655622784266</v>
       </c>
       <c r="J175" t="n">
-        <v>0.366840326125787</v>
+        <v>0.6305861555682927</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08094606684696604</v>
+        <v>0.08421606766350825</v>
       </c>
       <c r="L175" t="n">
-        <v>0.6996895169685791</v>
+        <v>0.8970022770565025</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08467900281279636</v>
+        <v>0.08421740451519984</v>
       </c>
       <c r="N175" t="n">
-        <v>0.9806872026931333</v>
+        <v>0.3425476520823998</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07993754365789811</v>
+        <v>0.08427655622784266</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.11703271561494</v>
+        <v>0.3420081804832574</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0850840083079637</v>
+        <v>0.08504270673900488</v>
       </c>
       <c r="J176" t="n">
-        <v>0.3670335888295757</v>
+        <v>0.626222439600685</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08168194018193846</v>
+        <v>0.08498166827863106</v>
       </c>
       <c r="L176" t="n">
-        <v>0.6999672288950214</v>
+        <v>0.8948533232130187</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08544881192927634</v>
+        <v>0.08498301728351983</v>
       </c>
       <c r="N176" t="n">
-        <v>0.9814923580720492</v>
+        <v>0.3420081804832574</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08066424860024264</v>
+        <v>0.08504270673900488</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1117582630819517</v>
+        <v>0.3401668963667865</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08585053090533275</v>
+        <v>0.08580885725016708</v>
       </c>
       <c r="J177" t="n">
-        <v>0.3644325709305807</v>
+        <v>0.6232097912090505</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08241781351691087</v>
+        <v>0.08574726889375386</v>
       </c>
       <c r="L177" t="n">
-        <v>0.6938088390164794</v>
+        <v>0.8904546432375313</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08621862104575631</v>
+        <v>0.08574863005183983</v>
       </c>
       <c r="N177" t="n">
-        <v>0.9825968950561277</v>
+        <v>0.3401668963667865</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08139095354258717</v>
+        <v>0.08580885725016708</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.114429288584302</v>
+        <v>0.3418227769302782</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0866170535027018</v>
+        <v>0.08657500776132929</v>
       </c>
       <c r="J178" t="n">
-        <v>0.3638370246701829</v>
+        <v>0.6213530092314569</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08315368685188329</v>
+        <v>0.08651286950887667</v>
       </c>
       <c r="L178" t="n">
-        <v>0.6979213197334748</v>
+        <v>0.886627531613128</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08698843016223627</v>
+        <v>0.08651424282015983</v>
       </c>
       <c r="N178" t="n">
-        <v>0.9812008203676341</v>
+        <v>0.3418227769302782</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0821176584849317</v>
+        <v>0.08657500776132929</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1140506669076796</v>
+        <v>0.3390747993710241</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08738357610007083</v>
+        <v>0.08734115827249149</v>
       </c>
       <c r="J179" t="n">
-        <v>0.3655467022897628</v>
+        <v>0.6210568925059723</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08388956018685571</v>
+        <v>0.08727847012399946</v>
       </c>
       <c r="L179" t="n">
-        <v>0.6947116434465286</v>
+        <v>0.8893932828228965</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08775823927871623</v>
+        <v>0.08727985558847984</v>
       </c>
       <c r="N179" t="n">
-        <v>0.9841041407288316</v>
+        <v>0.3390747993710241</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08284436342727623</v>
+        <v>0.08734115827249149</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1046272728377729</v>
+        <v>0.3403219408863156</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08815009869743988</v>
+        <v>0.08810730878365371</v>
       </c>
       <c r="J180" t="n">
-        <v>0.3665613560307013</v>
+        <v>0.6180262398706649</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08462543352182812</v>
+        <v>0.08804407073912227</v>
       </c>
       <c r="L180" t="n">
-        <v>0.6910867825561627</v>
+        <v>0.879573191349925</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08852804839519619</v>
+        <v>0.08804546835679983</v>
       </c>
       <c r="N180" t="n">
-        <v>0.9784068628619855</v>
+        <v>0.3403219408863156</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08357106836962075</v>
+        <v>0.08810730878365371</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1061639811602705</v>
+        <v>0.3399631786734441</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08891662129480891</v>
+        <v>0.08887345929481591</v>
       </c>
       <c r="J181" t="n">
-        <v>0.362580738134379</v>
+        <v>0.6153658501636027</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08536130685680055</v>
+        <v>0.08880967135424507</v>
       </c>
       <c r="L181" t="n">
-        <v>0.6911537094628982</v>
+        <v>0.8765885516773002</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08929785751167617</v>
+        <v>0.08881108112511982</v>
       </c>
       <c r="N181" t="n">
-        <v>0.9834089934893606</v>
+        <v>0.3399631786734441</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08429777331196529</v>
+        <v>0.08887345929481591</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.104665666660861</v>
+        <v>0.3358974899297009</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08968314389217796</v>
+        <v>0.08963960980597811</v>
       </c>
       <c r="J182" t="n">
-        <v>0.3649046008421765</v>
+        <v>0.6152805222228538</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08609718019177297</v>
+        <v>0.08957527196936788</v>
       </c>
       <c r="L182" t="n">
-        <v>0.6933193965672569</v>
+        <v>0.8764606582881109</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09006766662815614</v>
+        <v>0.08957669389343982</v>
       </c>
       <c r="N182" t="n">
-        <v>0.9840105393332204</v>
+        <v>0.3358974899297009</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08502447825430981</v>
+        <v>0.08963960980597811</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1121372041252328</v>
+        <v>0.3353238518523774</v>
       </c>
       <c r="G183" t="n">
-        <v>0.090449666489547</v>
+        <v>0.09040576031714032</v>
       </c>
       <c r="J183" t="n">
-        <v>0.3620326963954746</v>
+        <v>0.6136750548864863</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08683305352674538</v>
+        <v>0.09034087258449068</v>
       </c>
       <c r="L183" t="n">
-        <v>0.6848908162697601</v>
+        <v>0.8726108056654442</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0908374757446361</v>
+        <v>0.09034230666175982</v>
       </c>
       <c r="N183" t="n">
-        <v>0.9820115071158297</v>
+        <v>0.3353238518523774</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08575118319665434</v>
+        <v>0.09040576031714032</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1055834683390746</v>
+        <v>0.3369412416387651</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09121618908691605</v>
+        <v>0.09117191082830253</v>
       </c>
       <c r="J184" t="n">
-        <v>0.3617647770356539</v>
+        <v>0.6094542469925681</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0875689268617178</v>
+        <v>0.09110647319961349</v>
       </c>
       <c r="L184" t="n">
-        <v>0.6888749409709294</v>
+        <v>0.8683602882923878</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09160728486111606</v>
+        <v>0.09110791943007981</v>
       </c>
       <c r="N184" t="n">
-        <v>0.9750119035594531</v>
+        <v>0.3369412416387651</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08647788813899887</v>
+        <v>0.09117191082830253</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1090093340880748</v>
+        <v>0.3360486364861552</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0919827116842851</v>
+        <v>0.09193806133946474</v>
       </c>
       <c r="J185" t="n">
-        <v>0.362700595004095</v>
+        <v>0.6125228973791677</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08830480019669022</v>
+        <v>0.09187207381473628</v>
       </c>
       <c r="L185" t="n">
-        <v>0.6873787430712861</v>
+        <v>0.8692304006520299</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09237709397759604</v>
+        <v>0.09187353219839982</v>
       </c>
       <c r="N185" t="n">
-        <v>0.9818435752923975</v>
+        <v>0.3360486364861552</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08720459308134339</v>
+        <v>0.09193806133946474</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1104196761579221</v>
+        <v>0.3355450135918395</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09274923428165413</v>
+        <v>0.09270421185062694</v>
       </c>
       <c r="J186" t="n">
-        <v>0.3617399025421789</v>
+        <v>0.6064858048843526</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08904067353166263</v>
+        <v>0.09263767442985908</v>
       </c>
       <c r="L186" t="n">
-        <v>0.6814091949713519</v>
+        <v>0.8645424372274579</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09314690309407601</v>
+        <v>0.09263914496671982</v>
       </c>
       <c r="N186" t="n">
-        <v>0.9805706024447669</v>
+        <v>0.3355450135918395</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08793129802368793</v>
+        <v>0.09270421185062694</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1018193693343048</v>
+        <v>0.3343293501531089</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09351575687902318</v>
+        <v>0.09347036236178914</v>
       </c>
       <c r="J187" t="n">
-        <v>0.3612824518912859</v>
+        <v>0.602647768346191</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08977654686663505</v>
+        <v>0.09340327504498189</v>
       </c>
       <c r="L187" t="n">
-        <v>0.678673269071648</v>
+        <v>0.8582176925017597</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09391671221055597</v>
+        <v>0.09340475773503983</v>
       </c>
       <c r="N187" t="n">
-        <v>0.976297628316676</v>
+        <v>0.3343293501531089</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08865800296603246</v>
+        <v>0.09347036236178914</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1052132884029116</v>
+        <v>0.3351006233672552</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09428227947639221</v>
+        <v>0.09423651287295134</v>
       </c>
       <c r="J188" t="n">
-        <v>0.361627995292797</v>
+        <v>0.6007135866027513</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09051242020160748</v>
+        <v>0.09416887566010469</v>
       </c>
       <c r="L188" t="n">
-        <v>0.6764779377726963</v>
+        <v>0.8532774609580225</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09468652132703594</v>
+        <v>0.09417037050335982</v>
       </c>
       <c r="N188" t="n">
-        <v>0.9784336377100065</v>
+        <v>0.3351006233672552</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08938470790837698</v>
+        <v>0.09423651287295134</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1036063081494311</v>
+        <v>0.3321578104315696</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09504880207376125</v>
+        <v>0.09500266338411356</v>
       </c>
       <c r="J189" t="n">
-        <v>0.3622762849880928</v>
+        <v>0.6005880584921013</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09124829353657989</v>
+        <v>0.0949344762752275</v>
       </c>
       <c r="L189" t="n">
-        <v>0.6782301734750178</v>
+        <v>0.8506430370793348</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09545633044351591</v>
+        <v>0.09493598327167981</v>
       </c>
       <c r="N189" t="n">
-        <v>0.9766876154266404</v>
+        <v>0.3321578104315696</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09011141285072151</v>
+        <v>0.09500266338411356</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1060033033595517</v>
+        <v>0.3333998885433435</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0958153246711303</v>
+        <v>0.09576881389527576</v>
       </c>
       <c r="J190" t="n">
-        <v>0.3618270732185539</v>
+        <v>0.598975982852309</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09198416687155231</v>
+        <v>0.0957000768903503</v>
       </c>
       <c r="L190" t="n">
-        <v>0.6721369485791342</v>
+        <v>0.8519357153487839</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09622613955999587</v>
+        <v>0.09570159603999981</v>
       </c>
       <c r="N190" t="n">
-        <v>0.9729685462684599</v>
+        <v>0.3333998885433435</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09083811779306604</v>
+        <v>0.09576881389527576</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.100409148818962</v>
+        <v>0.3330258348998684</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09658184726849935</v>
+        <v>0.09653496440643798</v>
       </c>
       <c r="J191" t="n">
-        <v>0.363380112225561</v>
+        <v>0.5970821585214429</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09272004020652473</v>
+        <v>0.09646567750547309</v>
       </c>
       <c r="L191" t="n">
-        <v>0.675105235485567</v>
+        <v>0.8410767902494576</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09699594867647585</v>
+        <v>0.09646720880831981</v>
       </c>
       <c r="N191" t="n">
-        <v>0.9769854150373463</v>
+        <v>0.3330258348998684</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09156482273541057</v>
+        <v>0.09653496440643798</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1088287193133505</v>
+        <v>0.3291346266984356</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09734836986586839</v>
+        <v>0.09730111491760017</v>
       </c>
       <c r="J192" t="n">
-        <v>0.3629351542504949</v>
+        <v>0.5959113843375705</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09345591354149714</v>
+        <v>0.0972312781205959</v>
       </c>
       <c r="L192" t="n">
-        <v>0.6730420065948376</v>
+        <v>0.8403875562644436</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09776575779295581</v>
+        <v>0.0972328215766398</v>
       </c>
       <c r="N192" t="n">
-        <v>0.9724472065351815</v>
+        <v>0.3291346266984356</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0922915276777551</v>
+        <v>0.09730111491760017</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1082668896284058</v>
+        <v>0.3284252411363365</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09811489246323743</v>
+        <v>0.09806726542876239</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3605919515347362</v>
+        <v>0.5931604497759799</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09419178687646956</v>
+        <v>0.0979968787357187</v>
       </c>
       <c r="L193" t="n">
-        <v>0.6662542343074676</v>
+        <v>0.8426893078768303</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09853556690943577</v>
+        <v>0.09799843434495981</v>
       </c>
       <c r="N193" t="n">
-        <v>0.9694629055638471</v>
+        <v>0.3284252411363365</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09301823262009963</v>
+        <v>0.09806726542876239</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.09772853454981642</v>
+        <v>0.3288966554108626</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09888141506060646</v>
+        <v>0.09883341593992459</v>
       </c>
       <c r="J194" t="n">
-        <v>0.3593502563196657</v>
+        <v>0.5912762195722177</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09492766021144199</v>
+        <v>0.09876247935084151</v>
       </c>
       <c r="L194" t="n">
-        <v>0.6631488910239783</v>
+        <v>0.8361033395697042</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09930537602591574</v>
+        <v>0.09876404711327981</v>
       </c>
       <c r="N194" t="n">
-        <v>0.9711414969252257</v>
+        <v>0.3288966554108626</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09374493756244415</v>
+        <v>0.09883341593992459</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1042185288632709</v>
+        <v>0.3275478467193051</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09964793765797551</v>
+        <v>0.09959956645108679</v>
       </c>
       <c r="J195" t="n">
-        <v>0.3596098208466638</v>
+        <v>0.5874519597556241</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09566353354641439</v>
+        <v>0.09952807996596431</v>
       </c>
       <c r="L195" t="n">
-        <v>0.6651329491448913</v>
+        <v>0.8356456311211369</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1000751851423957</v>
+        <v>0.0995296598815998</v>
       </c>
       <c r="N195" t="n">
-        <v>0.9678919654211982</v>
+        <v>0.3275478467193051</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09447164250478868</v>
+        <v>0.09959956645108679</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1007417473544577</v>
+        <v>0.3276777922589557</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1004144602553445</v>
+        <v>0.100365716962249</v>
       </c>
       <c r="J196" t="n">
-        <v>0.3592703973571115</v>
+        <v>0.5891924453914521</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09639940688138682</v>
+        <v>0.1002936805810871</v>
       </c>
       <c r="L196" t="n">
-        <v>0.661413381070728</v>
+        <v>0.8308231474602352</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1008449942588757</v>
+        <v>0.1002952726499198</v>
       </c>
       <c r="N196" t="n">
-        <v>0.9695232958536468</v>
+        <v>0.3276777922589557</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09519834744713322</v>
+        <v>0.100365716962249</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.09630306480906553</v>
+        <v>0.3262854692271055</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1011809828527136</v>
+        <v>0.1011318674734112</v>
       </c>
       <c r="J197" t="n">
-        <v>0.3592317380923893</v>
+        <v>0.5868024515449551</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09713528021635924</v>
+        <v>0.1010592811962099</v>
       </c>
       <c r="L197" t="n">
-        <v>0.6575971592020099</v>
+        <v>0.830589946237299</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1016148033753556</v>
+        <v>0.1010608854182398</v>
       </c>
       <c r="N197" t="n">
-        <v>0.9661444730244533</v>
+        <v>0.3262854692271055</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09592505238947774</v>
+        <v>0.1011318674734112</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1049073560127828</v>
+        <v>0.3270698548210461</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1019475054500826</v>
+        <v>0.1018980179845734</v>
       </c>
       <c r="J198" t="n">
-        <v>0.361593595293878</v>
+        <v>0.5805867532813863</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09787115355133165</v>
+        <v>0.1018248818113327</v>
       </c>
       <c r="L198" t="n">
-        <v>0.6570912559392587</v>
+        <v>0.8303394766977559</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1023846124918356</v>
+        <v>0.1018264981865598</v>
       </c>
       <c r="N198" t="n">
-        <v>0.9627644817354997</v>
+        <v>0.3270698548210461</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09665175733182227</v>
+        <v>0.1018980179845734</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.09555949575129805</v>
+        <v>0.3225299262380688</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1027140280474517</v>
+        <v>0.1026641684957356</v>
       </c>
       <c r="J199" t="n">
-        <v>0.3605557212029582</v>
+        <v>0.5820501256659988</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09860702688630407</v>
+        <v>0.1025904824264555</v>
       </c>
       <c r="L199" t="n">
-        <v>0.6532026436829955</v>
+        <v>0.8232651880870328</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1031544216083156</v>
+        <v>0.1025921109548798</v>
       </c>
       <c r="N199" t="n">
-        <v>0.9558923067886671</v>
+        <v>0.3225299262380688</v>
       </c>
       <c r="O199" t="n">
-        <v>0.0973784622741668</v>
+        <v>0.1026641684957356</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1022643588102999</v>
+        <v>0.325064660675465</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1034805506448207</v>
+        <v>0.1034303190068978</v>
       </c>
       <c r="J200" t="n">
-        <v>0.3605178680610106</v>
+        <v>0.5810973437640458</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09934290022127649</v>
+        <v>0.1033560830415783</v>
       </c>
       <c r="L200" t="n">
-        <v>0.6489382948337419</v>
+        <v>0.8286605296505571</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1039242307247955</v>
+        <v>0.1033577237231998</v>
       </c>
       <c r="N200" t="n">
-        <v>0.9612369329858383</v>
+        <v>0.325064660675465</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09810516721651132</v>
+        <v>0.1034303190068978</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.09402681997547674</v>
+        <v>0.3240730353305262</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1042470732421898</v>
+        <v>0.10419646951806</v>
       </c>
       <c r="J201" t="n">
-        <v>0.3610797881094159</v>
+        <v>0.5757331826407808</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1000787735562489</v>
+        <v>0.1041216836567011</v>
       </c>
       <c r="L201" t="n">
-        <v>0.6473051817920196</v>
+        <v>0.8255189506337561</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1046940398412755</v>
+        <v>0.1041233364915198</v>
       </c>
       <c r="N201" t="n">
-        <v>0.9573073451288945</v>
+        <v>0.3240730353305262</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09883187215885586</v>
+        <v>0.10419646951806</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1048517540325173</v>
+        <v>0.3229079677198092</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1050135958395588</v>
+        <v>0.1049626200292222</v>
       </c>
       <c r="J202" t="n">
-        <v>0.3602412335895548</v>
+        <v>0.5751624173614562</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1008146468912213</v>
+        <v>0.1048872842718239</v>
       </c>
       <c r="L202" t="n">
-        <v>0.6436102769583497</v>
+        <v>0.8264339002820575</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1054638489577555</v>
+        <v>0.1048889492598398</v>
       </c>
       <c r="N202" t="n">
-        <v>0.9507125280197173</v>
+        <v>0.3229079677198092</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09955857710120038</v>
+        <v>0.1049626200292222</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.09874403576710999</v>
+        <v>0.3218895688290351</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1057801184369278</v>
+        <v>0.1057287705403845</v>
       </c>
       <c r="J203" t="n">
-        <v>0.3594019567428081</v>
+        <v>0.5721898229913263</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1015505202261937</v>
+        <v>0.1056528848869467</v>
       </c>
       <c r="L203" t="n">
-        <v>0.6474605527332541</v>
+        <v>0.818498827840888</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1062336580742355</v>
+        <v>0.1056545620281598</v>
       </c>
       <c r="N203" t="n">
-        <v>0.9521614664601892</v>
+        <v>0.3218895688290351</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1002852820435449</v>
+        <v>0.1057287705403845</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.09470850739397885</v>
+        <v>0.3190327410007485</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1065466410342969</v>
+        <v>0.1064949210515466</v>
       </c>
       <c r="J204" t="n">
-        <v>0.3605617098105562</v>
+        <v>0.5671201745956436</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1022863935611662</v>
+        <v>0.1064184855020695</v>
       </c>
       <c r="L204" t="n">
-        <v>0.6441629815172539</v>
+        <v>0.8220071825556752</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1070034671907154</v>
+        <v>0.1064201747964798</v>
       </c>
       <c r="N204" t="n">
-        <v>0.9530631452521914</v>
+        <v>0.3190327410007485</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1010119869858894</v>
+        <v>0.1064949210515466</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0957085127943651</v>
+        <v>0.3167547272684911</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1073131636316659</v>
+        <v>0.1072610715627089</v>
       </c>
       <c r="J205" t="n">
-        <v>0.35852024503418</v>
+        <v>0.5677582472396613</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1030222668961386</v>
+        <v>0.1071840861171923</v>
       </c>
       <c r="L205" t="n">
-        <v>0.6417243542009746</v>
+        <v>0.8188524136718465</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1077732763071954</v>
+        <v>0.1071857875647998</v>
       </c>
       <c r="N205" t="n">
-        <v>0.9473265491976057</v>
+        <v>0.3167547272684911</v>
       </c>
       <c r="O205" t="n">
-        <v>0.101738691928234</v>
+        <v>0.1072610715627089</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1017085487920351</v>
+        <v>0.3149727706658051</v>
       </c>
       <c r="G206" t="n">
-        <v>0.108079686229035</v>
+        <v>0.1080272220738711</v>
       </c>
       <c r="J206" t="n">
-        <v>0.3572773146550601</v>
+        <v>0.5632088159886329</v>
       </c>
       <c r="K206" t="n">
-        <v>0.103758140231111</v>
+        <v>0.1079496867323151</v>
       </c>
       <c r="L206" t="n">
-        <v>0.6364039686652637</v>
+        <v>0.822027970434829</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1085430854236753</v>
+        <v>0.1079514003331198</v>
       </c>
       <c r="N206" t="n">
-        <v>0.9384606630983146</v>
+        <v>0.3149727706658051</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1024653968705785</v>
+        <v>0.1080272220738711</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.09770864511948507</v>
+        <v>0.3133041142262323</v>
       </c>
       <c r="G207" t="n">
-        <v>0.108846208826404</v>
+        <v>0.1087933725850333</v>
       </c>
       <c r="J207" t="n">
-        <v>0.3578326709145774</v>
+        <v>0.5626766559078116</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1044940135660834</v>
+        <v>0.1087152873474379</v>
       </c>
       <c r="L207" t="n">
-        <v>0.636066889383796</v>
+        <v>0.8134273020900495</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1093128945401553</v>
+        <v>0.1087170131014398</v>
       </c>
       <c r="N207" t="n">
-        <v>0.9397744717561989</v>
+        <v>0.3133041142262323</v>
       </c>
       <c r="O207" t="n">
-        <v>0.103192101812923</v>
+        <v>0.1087933725850333</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.09370883150921114</v>
+        <v>0.3110660009833146</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1096127314237731</v>
+        <v>0.1095595230961955</v>
       </c>
       <c r="J208" t="n">
-        <v>0.3563860660541123</v>
+        <v>0.5601665420624502</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1052298869010558</v>
+        <v>0.1094808879625607</v>
       </c>
       <c r="L208" t="n">
-        <v>0.6330131233220921</v>
+        <v>0.8130438578829366</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1100827036566353</v>
+        <v>0.1094826258697598</v>
       </c>
       <c r="N208" t="n">
-        <v>0.9367769599731415</v>
+        <v>0.3110660009833146</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1039188067552675</v>
+        <v>0.1095595230961955</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.09470913769370951</v>
+        <v>0.3086756739705939</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1103792540211421</v>
+        <v>0.1103256736073577</v>
       </c>
       <c r="J209" t="n">
-        <v>0.3556372523150456</v>
+        <v>0.5577832495178023</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1059657602360283</v>
+        <v>0.1102464885776835</v>
       </c>
       <c r="L209" t="n">
-        <v>0.6318426774456729</v>
+        <v>0.8175710870589163</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1108525127731152</v>
+        <v>0.1102482386380798</v>
       </c>
       <c r="N209" t="n">
-        <v>0.9321771125510232</v>
+        <v>0.3086756739705939</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1046455116976121</v>
+        <v>0.1103256736073577</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1007095934054764</v>
+        <v>0.3080503762216121</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1111457766185111</v>
+        <v>0.1110918241185199</v>
       </c>
       <c r="J210" t="n">
-        <v>0.3571859819387579</v>
+        <v>0.5573315533391209</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1067016335710007</v>
+        <v>0.1110120891928063</v>
       </c>
       <c r="L210" t="n">
-        <v>0.6305555587200588</v>
+        <v>0.8069024388634163</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1116223218895952</v>
+        <v>0.1110138514063998</v>
       </c>
       <c r="N210" t="n">
-        <v>0.9329839142917264</v>
+        <v>0.3080503762216121</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1053722166399566</v>
+        <v>0.1110918241185199</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1037102283770079</v>
+        <v>0.3076073507699113</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1119122992158802</v>
+        <v>0.1118579746296821</v>
       </c>
       <c r="J211" t="n">
-        <v>0.3573320071666301</v>
+        <v>0.5534162285916595</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1074375069059731</v>
+        <v>0.1117776898079291</v>
       </c>
       <c r="L211" t="n">
-        <v>0.6304517741107707</v>
+        <v>0.8128313625418642</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1123921310060752</v>
+        <v>0.1117794641747198</v>
       </c>
       <c r="N211" t="n">
-        <v>0.9335063499971328</v>
+        <v>0.3076073507699113</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1060989215823011</v>
+        <v>0.1118579746296821</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.09971107234080015</v>
+        <v>0.3066638406490333</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1126788218132492</v>
+        <v>0.1126241251408443</v>
       </c>
       <c r="J212" t="n">
-        <v>0.3554751671153865</v>
+        <v>0.5533420503406707</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1081733802409455</v>
+        <v>0.1125432904230519</v>
       </c>
       <c r="L212" t="n">
-        <v>0.6256313305833289</v>
+        <v>0.8079513073396869</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1131619401225552</v>
+        <v>0.1125450769430398</v>
       </c>
       <c r="N212" t="n">
-        <v>0.9324534044691244</v>
+        <v>0.3066638406490333</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1068256265246457</v>
+        <v>0.1126241251408443</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.09471215502934946</v>
+        <v>0.3032370888925199</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1134453444106183</v>
+        <v>0.1133902756520065</v>
       </c>
       <c r="J213" t="n">
-        <v>0.3557175198518808</v>
+        <v>0.5544137936514084</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1089092535759179</v>
+        <v>0.1133088910381747</v>
       </c>
       <c r="L213" t="n">
-        <v>0.6206942351032545</v>
+        <v>0.8121557225023117</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1139317492390351</v>
+        <v>0.1133106897113598</v>
       </c>
       <c r="N213" t="n">
-        <v>0.9212340625095825</v>
+        <v>0.3032370888925199</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1075523314669902</v>
+        <v>0.1133902756520065</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.09871350617515198</v>
+        <v>0.3000443385339133</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1142118670079873</v>
+        <v>0.1141564261631687</v>
       </c>
       <c r="J214" t="n">
-        <v>0.3546600274649944</v>
+        <v>0.5465362335891254</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1096451269108903</v>
+        <v>0.1140744916532975</v>
       </c>
       <c r="L214" t="n">
-        <v>0.6218404946360682</v>
+        <v>0.8098380572751662</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1147015583555151</v>
+        <v>0.1140763024796798</v>
       </c>
       <c r="N214" t="n">
-        <v>0.9179287607458451</v>
+        <v>0.3000443385339133</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1082790364093347</v>
+        <v>0.1141564261631687</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1047151555107038</v>
+        <v>0.2985028326067551</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1149783896053564</v>
+        <v>0.1149225766743309</v>
       </c>
       <c r="J215" t="n">
-        <v>0.354502690914081</v>
+        <v>0.5484953066951928</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1103810002458628</v>
+        <v>0.1148400922684203</v>
       </c>
       <c r="L215" t="n">
-        <v>0.6187701161472902</v>
+        <v>0.8012917609036774</v>
       </c>
       <c r="M215" t="n">
-        <v>0.115471367471995</v>
+        <v>0.1148419152479998</v>
       </c>
       <c r="N215" t="n">
-        <v>0.9184591062611898</v>
+        <v>0.2985028326067551</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1090057413516793</v>
+        <v>0.1149225766743309</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.09571713276850125</v>
+        <v>0.2963298141445875</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1157449122027254</v>
+        <v>0.1156887271854931</v>
       </c>
       <c r="J216" t="n">
-        <v>0.3562455111584936</v>
+        <v>0.5483609023148467</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1111168735808352</v>
+        <v>0.1156056928835432</v>
       </c>
       <c r="L216" t="n">
-        <v>0.6145831066024415</v>
+        <v>0.8041102826332731</v>
       </c>
       <c r="M216" t="n">
-        <v>0.116241176588475</v>
+        <v>0.1156075280163198</v>
       </c>
       <c r="N216" t="n">
-        <v>0.9188203324178383</v>
+        <v>0.2963298141445875</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1097324462940238</v>
+        <v>0.1156887271854931</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.09371946768104034</v>
+        <v>0.2948425261809524</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1165114348000944</v>
+        <v>0.1164548776966553</v>
       </c>
       <c r="J217" t="n">
-        <v>0.3541884891575859</v>
+        <v>0.5456327088737334</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1118527469158076</v>
+        <v>0.116371293498666</v>
       </c>
       <c r="L217" t="n">
-        <v>0.6145794729670427</v>
+        <v>0.8059870717093798</v>
       </c>
       <c r="M217" t="n">
-        <v>0.117010985704955</v>
+        <v>0.1163731407846398</v>
       </c>
       <c r="N217" t="n">
-        <v>0.9153128822229937</v>
+        <v>0.2948425261809524</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1104591512363683</v>
+        <v>0.1164548776966553</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1017221899808174</v>
+        <v>0.2951582117493915</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1172779573974635</v>
+        <v>0.1172210282078175</v>
       </c>
       <c r="J218" t="n">
-        <v>0.356031625870711</v>
+        <v>0.5445109497347537</v>
       </c>
       <c r="K218" t="n">
-        <v>0.11258862025078</v>
+        <v>0.1171368941137888</v>
       </c>
       <c r="L218" t="n">
-        <v>0.6161592222066146</v>
+        <v>0.799315577377425</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1177807948214349</v>
+        <v>0.1171387535529598</v>
       </c>
       <c r="N218" t="n">
-        <v>0.9133371986838577</v>
+        <v>0.2951582117493915</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1111858561787128</v>
+        <v>0.1172210282078175</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1027253294003284</v>
+        <v>0.292694113883447</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1180444799948325</v>
+        <v>0.1179871787189797</v>
       </c>
       <c r="J219" t="n">
-        <v>0.3541749222572225</v>
+        <v>0.5373958482608076</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1133244935857525</v>
+        <v>0.1179024947289116</v>
       </c>
       <c r="L219" t="n">
-        <v>0.6139223612866778</v>
+        <v>0.8025892488828366</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1185506039379149</v>
+        <v>0.1179043663212798</v>
       </c>
       <c r="N219" t="n">
-        <v>0.9131937248076327</v>
+        <v>0.292694113883447</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1119125611210574</v>
+        <v>0.1179871787189797</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1007289156720698</v>
+        <v>0.2918674756166606</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1188110025922016</v>
+        <v>0.1187533292301419</v>
       </c>
       <c r="J220" t="n">
-        <v>0.3559183792764737</v>
+        <v>0.535587627814796</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1140603669207249</v>
+        <v>0.1186680953440344</v>
       </c>
       <c r="L220" t="n">
-        <v>0.6050688971727528</v>
+        <v>0.8003015354710412</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1193204130543949</v>
+        <v>0.1186699790895998</v>
       </c>
       <c r="N220" t="n">
-        <v>0.9033829036015211</v>
+        <v>0.2918674756166606</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1126392660634019</v>
+        <v>0.1187533292301419</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1007329785285375</v>
+        <v>0.2913955399825742</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1195775251895706</v>
+        <v>0.1195194797413042</v>
       </c>
       <c r="J221" t="n">
-        <v>0.3535619978878179</v>
+        <v>0.5403865117596189</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1147962402556973</v>
+        <v>0.1194336959591572</v>
       </c>
       <c r="L221" t="n">
-        <v>0.6068988368303604</v>
+        <v>0.7998458863874665</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1200902221708748</v>
+        <v>0.1194355918579198</v>
       </c>
       <c r="N221" t="n">
-        <v>0.9046051780727251</v>
+        <v>0.2913955399825742</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1133659710057464</v>
+        <v>0.1195194797413042</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1037375477022279</v>
+        <v>0.29079555001473</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1203440477869397</v>
+        <v>0.1202856302524664</v>
       </c>
       <c r="J222" t="n">
-        <v>0.3537057790506086</v>
+        <v>0.538492723458177</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1155321135906697</v>
+        <v>0.12019929657428</v>
       </c>
       <c r="L222" t="n">
-        <v>0.6040121872250213</v>
+        <v>0.7938158796418386</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1208600312873548</v>
+        <v>0.1202012046262398</v>
       </c>
       <c r="N222" t="n">
-        <v>0.8971609912284471</v>
+        <v>0.29079555001473</v>
       </c>
       <c r="O222" t="n">
-        <v>0.114092675948091</v>
+        <v>0.1202856302524664</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.09674265292563702</v>
+        <v>0.2901847487466697</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1211105703843087</v>
+        <v>0.1210517807636286</v>
       </c>
       <c r="J223" t="n">
-        <v>0.3526497237241991</v>
+        <v>0.5330064862733707</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1162679869256421</v>
+        <v>0.1209648971894028</v>
       </c>
       <c r="L223" t="n">
-        <v>0.6042089553222563</v>
+        <v>0.7876377695789054</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1216298404038348</v>
+        <v>0.1209668173945598</v>
       </c>
       <c r="N223" t="n">
-        <v>0.9001507860758899</v>
+        <v>0.2901847487466697</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1148193808904355</v>
+        <v>0.1210517807636286</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.09874832393126112</v>
+        <v>0.2871298953222161</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1218770929816777</v>
+        <v>0.1218179312747908</v>
       </c>
       <c r="J224" t="n">
-        <v>0.3531938328679428</v>
+        <v>0.5295280235681002</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1170038602606145</v>
+        <v>0.1217304978045256</v>
       </c>
       <c r="L224" t="n">
-        <v>0.6013891480875858</v>
+        <v>0.78493500501688</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1223996495203147</v>
+        <v>0.1217324301628798</v>
       </c>
       <c r="N224" t="n">
-        <v>0.8930750056222549</v>
+        <v>0.2871298953222161</v>
       </c>
       <c r="O224" t="n">
-        <v>0.11554608583278</v>
+        <v>0.1218179312747908</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1047545904515964</v>
+        <v>0.2900926121664408</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1226436155790468</v>
+        <v>0.122584081785953</v>
       </c>
       <c r="J225" t="n">
-        <v>0.3540381074411931</v>
+        <v>0.5282575587052663</v>
       </c>
       <c r="K225" t="n">
-        <v>0.117739733595587</v>
+        <v>0.1224960984196484</v>
       </c>
       <c r="L225" t="n">
-        <v>0.5936527724865306</v>
+        <v>0.7877076567112442</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1231694586367947</v>
+        <v>0.1224980429311997</v>
       </c>
       <c r="N225" t="n">
-        <v>0.8903340928747454</v>
+        <v>0.2900926121664408</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1162727907751245</v>
+        <v>0.122584081785953</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.09576148221913891</v>
+        <v>0.2897639387696815</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1234101381764158</v>
+        <v>0.1233502322971152</v>
       </c>
       <c r="J226" t="n">
-        <v>0.3546825484033033</v>
+        <v>0.5307953150477689</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1184756069305594</v>
+        <v>0.1232616990347712</v>
       </c>
       <c r="L226" t="n">
-        <v>0.5917998354846115</v>
+        <v>0.7847557954174786</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1239392677532747</v>
+        <v>0.1232636556995198</v>
       </c>
       <c r="N226" t="n">
-        <v>0.8832284908405632</v>
+        <v>0.2897639387696815</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1169994957174691</v>
+        <v>0.1233502322971152</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.100769028966385</v>
+        <v>0.2879441344888096</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1241766607737849</v>
+        <v>0.1241163828082774</v>
       </c>
       <c r="J227" t="n">
-        <v>0.3519271567136268</v>
+        <v>0.5289415159585089</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1192114802655318</v>
+        <v>0.124027299649894</v>
       </c>
       <c r="L227" t="n">
-        <v>0.5955303440473489</v>
+        <v>0.7793794918910646</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1247090768697546</v>
+        <v>0.1240292684678398</v>
       </c>
       <c r="N227" t="n">
-        <v>0.8874586425269111</v>
+        <v>0.2879441344888096</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1177262006598136</v>
+        <v>0.1241163828082774</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.09777726042583065</v>
+        <v>0.2883334586806967</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1249431833711539</v>
+        <v>0.1248825333194396</v>
       </c>
       <c r="J228" t="n">
-        <v>0.3516719333315171</v>
+        <v>0.5245963848003867</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1199473536005042</v>
+        <v>0.1247929002650168</v>
       </c>
       <c r="L228" t="n">
-        <v>0.5870443051402637</v>
+        <v>0.7847788168874832</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1254788859862346</v>
+        <v>0.1247948812361597</v>
       </c>
       <c r="N228" t="n">
-        <v>0.8784249909409909</v>
+        <v>0.2883334586806967</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1184529056021581</v>
+        <v>0.1248825333194396</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1017862063299722</v>
+        <v>0.2851321707022143</v>
       </c>
       <c r="G229" t="n">
-        <v>0.125709705968523</v>
+        <v>0.1256486838306018</v>
       </c>
       <c r="J229" t="n">
-        <v>0.3534168792163275</v>
+        <v>0.5244601449363023</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1206832269354766</v>
+        <v>0.1255585008801396</v>
       </c>
       <c r="L229" t="n">
-        <v>0.5853417257288765</v>
+        <v>0.7774538411622154</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1262486951027146</v>
+        <v>0.1255604940044797</v>
       </c>
       <c r="N229" t="n">
-        <v>0.8745279790900051</v>
+        <v>0.2851321707022143</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1191796105445026</v>
+        <v>0.1256486838306018</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1007958964113058</v>
+        <v>0.2848405299102337</v>
       </c>
       <c r="G230" t="n">
-        <v>0.126476228565892</v>
+        <v>0.126414834341764</v>
       </c>
       <c r="J230" t="n">
-        <v>0.3510619953274113</v>
+        <v>0.5238330197291567</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1214191002704491</v>
+        <v>0.1263241014952624</v>
       </c>
       <c r="L230" t="n">
-        <v>0.588322612778708</v>
+        <v>0.7784046354707426</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1270185042191946</v>
+        <v>0.1263261067727997</v>
       </c>
       <c r="N230" t="n">
-        <v>0.8780680499811564</v>
+        <v>0.2848405299102337</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1199063154868472</v>
+        <v>0.126414834341764</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1038063604023276</v>
+        <v>0.2839587956616268</v>
       </c>
       <c r="G231" t="n">
-        <v>0.127242751163261</v>
+        <v>0.1271809848529262</v>
       </c>
       <c r="J231" t="n">
-        <v>0.352807282624122</v>
+        <v>0.5174152325418501</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1221549736054215</v>
+        <v>0.1270897021103852</v>
       </c>
       <c r="L231" t="n">
-        <v>0.5800869732552787</v>
+        <v>0.7792312705685454</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1277883133356745</v>
+        <v>0.1270917195411198</v>
       </c>
       <c r="N231" t="n">
-        <v>0.8732456466216467</v>
+        <v>0.2839587956616268</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1206330204291917</v>
+        <v>0.1271809848529262</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1008176280355338</v>
+        <v>0.2842872273132649</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1280092737606301</v>
+        <v>0.1279471353640884</v>
       </c>
       <c r="J232" t="n">
-        <v>0.3530527420658128</v>
+        <v>0.5184070067372827</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1228908469403939</v>
+        <v>0.127855302725508</v>
       </c>
       <c r="L232" t="n">
-        <v>0.5817348141241094</v>
+        <v>0.7700338172111056</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1285581224521545</v>
+        <v>0.1278573323094397</v>
       </c>
       <c r="N232" t="n">
-        <v>0.8619612120186786</v>
+        <v>0.2842872273132649</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1213597253715362</v>
+        <v>0.1279471353640884</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.09882972904342049</v>
+        <v>0.2850260842220196</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1287757963579991</v>
+        <v>0.1287132858752506</v>
       </c>
       <c r="J233" t="n">
-        <v>0.3527983746118373</v>
+        <v>0.516408565678355</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1236267202753663</v>
+        <v>0.1286209033406308</v>
       </c>
       <c r="L233" t="n">
-        <v>0.5747661423507209</v>
+        <v>0.7748123461539038</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1293279315686345</v>
+        <v>0.1286229450777597</v>
       </c>
       <c r="N233" t="n">
-        <v>0.8642151891794545</v>
+        <v>0.2850260842220196</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1220864303138808</v>
+        <v>0.1287132858752506</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.09884269315848396</v>
+        <v>0.2830756257447623</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1295423189553682</v>
+        <v>0.1294794363864128</v>
       </c>
       <c r="J234" t="n">
-        <v>0.3504441812215488</v>
+        <v>0.5133201327279677</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1243625936103387</v>
+        <v>0.1293865039557536</v>
       </c>
       <c r="L234" t="n">
-        <v>0.5767809649006337</v>
+        <v>0.7696669281524215</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1300977406851144</v>
+        <v>0.1293885578460797</v>
       </c>
       <c r="N234" t="n">
-        <v>0.8576080211111763</v>
+        <v>0.2830756257447623</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1228131352562253</v>
+        <v>0.1294794363864128</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.09585655011322033</v>
+        <v>0.2847361112383648</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1303088415527372</v>
+        <v>0.130245586897575</v>
       </c>
       <c r="J235" t="n">
-        <v>0.3492901628543006</v>
+        <v>0.5118419312490211</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1250984669453112</v>
+        <v>0.1301521045708764</v>
       </c>
       <c r="L235" t="n">
-        <v>0.5715792887393687</v>
+        <v>0.7635976339621398</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1308675498015944</v>
+        <v>0.1301541706143997</v>
       </c>
       <c r="N235" t="n">
-        <v>0.8577401508210469</v>
+        <v>0.2847361112383648</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1235398401985698</v>
+        <v>0.130245586897575</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.09487132964012579</v>
+        <v>0.2820078000596982</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1310753641501063</v>
+        <v>0.1310117374087373</v>
       </c>
       <c r="J236" t="n">
-        <v>0.3509363204694461</v>
+        <v>0.5083741846044155</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1258343402802836</v>
+        <v>0.1309177051859992</v>
       </c>
       <c r="L236" t="n">
-        <v>0.5684611208324462</v>
+        <v>0.7614045343385394</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1316373589180743</v>
+        <v>0.1309197833827197</v>
       </c>
       <c r="N236" t="n">
-        <v>0.8536120213162683</v>
+        <v>0.2820078000596982</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1242665451409143</v>
+        <v>0.1310117374087373</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.1008870614716965</v>
+        <v>0.2843909515656343</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1318418867474753</v>
+        <v>0.1317778879198994</v>
       </c>
       <c r="J237" t="n">
-        <v>0.3501826550263388</v>
+        <v>0.5103171161570516</v>
       </c>
       <c r="K237" t="n">
-        <v>0.126570213615256</v>
+        <v>0.131683305801122</v>
       </c>
       <c r="L237" t="n">
-        <v>0.568426468145387</v>
+        <v>0.7619877000371018</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1324071680345543</v>
+        <v>0.1316853961510397</v>
       </c>
       <c r="N237" t="n">
-        <v>0.8448240756040424</v>
+        <v>0.2843909515656343</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1249932500832589</v>
+        <v>0.1317778879198994</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.09590377534042874</v>
+        <v>0.2814858251130446</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1326084093448443</v>
+        <v>0.1325440384310617</v>
       </c>
       <c r="J238" t="n">
-        <v>0.3501291674843319</v>
+        <v>0.5075709492698294</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1273060869502284</v>
+        <v>0.1324489064162448</v>
       </c>
       <c r="L238" t="n">
-        <v>0.5673753376437121</v>
+        <v>0.7564472018133084</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1331769771510343</v>
+        <v>0.1324510089193597</v>
       </c>
       <c r="N238" t="n">
-        <v>0.8433767566915729</v>
+        <v>0.2814858251130446</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1257199550256034</v>
+        <v>0.1325440384310617</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.09692150097881855</v>
+        <v>0.2810926800588007</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1333749319422134</v>
+        <v>0.1333101889422239</v>
       </c>
       <c r="J239" t="n">
-        <v>0.3507758588027789</v>
+        <v>0.5079359073056496</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1280419602852008</v>
+        <v>0.1332145070313676</v>
       </c>
       <c r="L239" t="n">
-        <v>0.5623077362929416</v>
+        <v>0.7629831104226397</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1339467862675142</v>
+        <v>0.1332166216876798</v>
       </c>
       <c r="N239" t="n">
-        <v>0.8415705075860611</v>
+        <v>0.2810926800588007</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1264466599679479</v>
+        <v>0.1333101889422239</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.09594026811936215</v>
+        <v>0.2832117757597739</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1341414545395824</v>
+        <v>0.1340763394533861</v>
       </c>
       <c r="J240" t="n">
-        <v>0.3514227299410332</v>
+        <v>0.5038122136274127</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1287778336201732</v>
+        <v>0.1339801076464904</v>
       </c>
       <c r="L240" t="n">
-        <v>0.5588236710585968</v>
+        <v>0.758495496620577</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1347165953839942</v>
+        <v>0.1339822344559997</v>
       </c>
       <c r="N240" t="n">
-        <v>0.8377057712947094</v>
+        <v>0.2832117757597739</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1271733649102925</v>
+        <v>0.1340763394533861</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.09496010649455575</v>
+        <v>0.2821433715728358</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1349079771369515</v>
+        <v>0.1348424899645483</v>
       </c>
       <c r="J241" t="n">
-        <v>0.3509697818584481</v>
+        <v>0.4995000915980189</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1295137069551457</v>
+        <v>0.1347457082616132</v>
       </c>
       <c r="L241" t="n">
-        <v>0.5580231489061978</v>
+        <v>0.7559844311626016</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1354864045004742</v>
+        <v>0.1347478472243197</v>
       </c>
       <c r="N241" t="n">
-        <v>0.8311829908247204</v>
+        <v>0.2821433715728358</v>
       </c>
       <c r="O241" t="n">
-        <v>0.127900069852637</v>
+        <v>0.1348424899645483</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.1019810458368955</v>
+        <v>0.2807877268548579</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1356744997343205</v>
+        <v>0.1356086404757105</v>
       </c>
       <c r="J242" t="n">
-        <v>0.3503170155143768</v>
+        <v>0.4982997645803687</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1302495802901181</v>
+        <v>0.135511308876736</v>
       </c>
       <c r="L242" t="n">
-        <v>0.5514061768012656</v>
+        <v>0.7472499848041947</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1362562136169542</v>
+        <v>0.1355134599926398</v>
       </c>
       <c r="N242" t="n">
-        <v>0.8228026091832965</v>
+        <v>0.2807877268548579</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1286267747949815</v>
+        <v>0.1356086404757105</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.1020031158788776</v>
+        <v>0.2799451009627118</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1364410223316895</v>
+        <v>0.1363747909868727</v>
       </c>
       <c r="J243" t="n">
-        <v>0.3488644318681731</v>
+        <v>0.5008114559373628</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1309854536250905</v>
+        <v>0.1362769094918588</v>
       </c>
       <c r="L243" t="n">
-        <v>0.5530727617093208</v>
+        <v>0.7446922283008375</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1370260227334341</v>
+        <v>0.1362790727609597</v>
       </c>
       <c r="N243" t="n">
-        <v>0.8261650693776397</v>
+        <v>0.2799451009627118</v>
       </c>
       <c r="O243" t="n">
-        <v>0.129353479737326</v>
+        <v>0.1363747909868727</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.09602634635299817</v>
+        <v>0.2815157532532692</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1372075449290586</v>
+        <v>0.1371409414980349</v>
       </c>
       <c r="J244" t="n">
-        <v>0.3497120318791901</v>
+        <v>0.4947353890319013</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1317213269600629</v>
+        <v>0.1370425101069816</v>
       </c>
       <c r="L244" t="n">
-        <v>0.5523229105958842</v>
+        <v>0.7453112324080104</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1377958318499141</v>
+        <v>0.1370446855292797</v>
       </c>
       <c r="N244" t="n">
-        <v>0.8182708144149524</v>
+        <v>0.2815157532532692</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1300801846796706</v>
+        <v>0.1371409414980349</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.1040507669917535</v>
+        <v>0.2779999430834013</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1379740675264276</v>
+        <v>0.1379070920091971</v>
       </c>
       <c r="J245" t="n">
-        <v>0.3495598165067812</v>
+        <v>0.4959717872268847</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1324572002950354</v>
+        <v>0.1378081107221044</v>
       </c>
       <c r="L245" t="n">
-        <v>0.5434566304264763</v>
+        <v>0.7418070678811952</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1385656409663941</v>
+        <v>0.1378102982975997</v>
       </c>
       <c r="N245" t="n">
-        <v>0.8121202873024373</v>
+        <v>0.2779999430834013</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1308068896220151</v>
+        <v>0.1379070920091971</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.09407640752763963</v>
+        <v>0.2787979298099796</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1387405901237967</v>
+        <v>0.1386732425203593</v>
       </c>
       <c r="J246" t="n">
-        <v>0.3493077867102999</v>
+        <v>0.4936208738852136</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1331930736300077</v>
+        <v>0.1385737113372272</v>
       </c>
       <c r="L246" t="n">
-        <v>0.541173928166618</v>
+        <v>0.7373798054758731</v>
       </c>
       <c r="M246" t="n">
-        <v>0.139335450082874</v>
+        <v>0.1385759110659197</v>
       </c>
       <c r="N246" t="n">
-        <v>0.8045139310472966</v>
+        <v>0.2787979298099796</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1315335945643596</v>
+        <v>0.1386732425203593</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.09810329769315282</v>
+        <v>0.2808099727898759</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1395071127211657</v>
+        <v>0.1394393930315215</v>
       </c>
       <c r="J247" t="n">
-        <v>0.3468559434490994</v>
+        <v>0.4932828723697883</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1339289469649802</v>
+        <v>0.13933931195235</v>
       </c>
       <c r="L247" t="n">
-        <v>0.5389748107818294</v>
+        <v>0.7391295159475249</v>
       </c>
       <c r="M247" t="n">
-        <v>0.140105259199354</v>
+        <v>0.1393415238342397</v>
       </c>
       <c r="N247" t="n">
-        <v>0.8005521886567324</v>
+        <v>0.2808099727898759</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1322602995067041</v>
+        <v>0.1394393930315215</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.1051314672207893</v>
+        <v>0.2776363313799616</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1402736353185348</v>
+        <v>0.1402055435426837</v>
       </c>
       <c r="J248" t="n">
-        <v>0.3473042876825331</v>
+        <v>0.489158006043509</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1346648202999526</v>
+        <v>0.1401049125674728</v>
       </c>
       <c r="L248" t="n">
-        <v>0.5370592852376319</v>
+        <v>0.7383562700516317</v>
       </c>
       <c r="M248" t="n">
-        <v>0.140875068315834</v>
+        <v>0.1401071366025597</v>
       </c>
       <c r="N248" t="n">
-        <v>0.7958355031379474</v>
+        <v>0.2776363313799616</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1329870044490487</v>
+        <v>0.1402055435426837</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.1051609458430451</v>
+        <v>0.2781772649371081</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1410401579159038</v>
+        <v>0.1409716940538459</v>
       </c>
       <c r="J249" t="n">
-        <v>0.3489528203699546</v>
+        <v>0.4921464982692765</v>
       </c>
       <c r="K249" t="n">
-        <v>0.135400693634925</v>
+        <v>0.1408705131825956</v>
       </c>
       <c r="L249" t="n">
-        <v>0.5344273584995456</v>
+        <v>0.734960138543675</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1416448774323139</v>
+        <v>0.1408727493708797</v>
       </c>
       <c r="N249" t="n">
-        <v>0.7944643174981436</v>
+        <v>0.2781772649371081</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1337137093913932</v>
+        <v>0.1409716940538459</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.09719176329241649</v>
+        <v>0.2777330328181871</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1418066805132728</v>
+        <v>0.1417378445650081</v>
       </c>
       <c r="J250" t="n">
-        <v>0.3461015424707171</v>
+        <v>0.4906485724099909</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1361365669698974</v>
+        <v>0.1416361137977184</v>
       </c>
       <c r="L250" t="n">
-        <v>0.5341790375330916</v>
+        <v>0.7299411921791357</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1424146865487939</v>
+        <v>0.1416383621391997</v>
       </c>
       <c r="N250" t="n">
-        <v>0.7869390747445235</v>
+        <v>0.2777330328181871</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1344404143337377</v>
+        <v>0.1417378445650081</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.1052239493013997</v>
+        <v>0.27910389438007</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1425732031106419</v>
+        <v>0.1425039950761703</v>
       </c>
       <c r="J251" t="n">
-        <v>0.3474504549441739</v>
+        <v>0.4900644518285531</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1368724403048699</v>
+        <v>0.1424017144128412</v>
       </c>
       <c r="L251" t="n">
-        <v>0.5311143293037902</v>
+        <v>0.7301995017134946</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1431844956652739</v>
+        <v>0.1424039749075197</v>
       </c>
       <c r="N251" t="n">
-        <v>0.7850602178842896</v>
+        <v>0.27910389438007</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1351671192760823</v>
+        <v>0.1425039950761703</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.09425753360249073</v>
+        <v>0.2766901089796284</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1433397257080109</v>
+        <v>0.1432701455873326</v>
       </c>
       <c r="J252" t="n">
-        <v>0.3468995587496785</v>
+        <v>0.4871943598878632</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1376083136398423</v>
+        <v>0.143167315027964</v>
       </c>
       <c r="L252" t="n">
-        <v>0.5289332407771624</v>
+        <v>0.7225351379022336</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1439543047817538</v>
+        <v>0.1431695876758397</v>
       </c>
       <c r="N252" t="n">
-        <v>0.7788281899246441</v>
+        <v>0.2766901089796284</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1358938242184268</v>
+        <v>0.1432701455873326</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.100292545928186</v>
+        <v>0.2792919359737338</v>
       </c>
       <c r="G253" t="n">
-        <v>0.14410624830538</v>
+        <v>0.1440362960984947</v>
       </c>
       <c r="J253" t="n">
-        <v>0.3458488548465843</v>
+        <v>0.4859385199508214</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1383441869748147</v>
+        <v>0.1439329156430869</v>
       </c>
       <c r="L253" t="n">
-        <v>0.5233357789187288</v>
+        <v>0.7252481715008328</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1447241138982338</v>
+        <v>0.1439352004441597</v>
       </c>
       <c r="N253" t="n">
-        <v>0.7755434338727893</v>
+        <v>0.2792919359737338</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1366205291607713</v>
+        <v>0.1440362960984947</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.09932901601098146</v>
+        <v>0.2780096347192577</v>
       </c>
       <c r="G254" t="n">
-        <v>0.144872770902749</v>
+        <v>0.1448024466096569</v>
       </c>
       <c r="J254" t="n">
-        <v>0.3448983441942445</v>
+        <v>0.4818971553803286</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1390800603097871</v>
+        <v>0.1446985162582096</v>
       </c>
       <c r="L254" t="n">
-        <v>0.5249219506940099</v>
+        <v>0.7209386732647742</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1454939230147138</v>
+        <v>0.1447008132124797</v>
       </c>
       <c r="N254" t="n">
-        <v>0.7671063927359276</v>
+        <v>0.2780096347192577</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1373472341031159</v>
+        <v>0.1448024466096569</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1043669735833734</v>
+        <v>0.2774434645730716</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1456392935001181</v>
+        <v>0.1455685971208192</v>
       </c>
       <c r="J255" t="n">
-        <v>0.3441480277520128</v>
+        <v>0.482470489539285</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1398159336447595</v>
+        <v>0.1454641168733325</v>
       </c>
       <c r="L255" t="n">
-        <v>0.5169917630685263</v>
+        <v>0.7226067139495387</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1462637321311937</v>
+        <v>0.1454664259807997</v>
       </c>
       <c r="N255" t="n">
-        <v>0.7662175095212613</v>
+        <v>0.2774434645730716</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1380739390454604</v>
+        <v>0.1455685971208192</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.09640644837785803</v>
+        <v>0.2780936848920471</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1464058160974871</v>
+        <v>0.1463347476319814</v>
       </c>
       <c r="J256" t="n">
-        <v>0.3470979064792422</v>
+        <v>0.478858745790591</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1405518069797319</v>
+        <v>0.1462297174884553</v>
       </c>
       <c r="L256" t="n">
-        <v>0.5184452230077993</v>
+        <v>0.7158523643106069</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1470335412476737</v>
+        <v>0.1462320387491197</v>
       </c>
       <c r="N256" t="n">
-        <v>0.758377227235993</v>
+        <v>0.2780936848920471</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1388006439878049</v>
+        <v>0.1463347476319814</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.09644747012693147</v>
+        <v>0.2758605550330556</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1471723386948561</v>
+        <v>0.1471008981431436</v>
       </c>
       <c r="J257" t="n">
-        <v>0.3446479813352863</v>
+        <v>0.4789621474971469</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1412876803147044</v>
+        <v>0.146995318103578</v>
       </c>
       <c r="L257" t="n">
-        <v>0.5151823374773487</v>
+        <v>0.7102756951034608</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1478033503641537</v>
+        <v>0.1469976515174397</v>
       </c>
       <c r="N257" t="n">
-        <v>0.7573859888873242</v>
+        <v>0.2758605550330556</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1395273489301495</v>
+        <v>0.1471008981431436</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1024900685630899</v>
+        <v>0.2765443343529687</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1479388612922252</v>
+        <v>0.1478670486543058</v>
       </c>
       <c r="J258" t="n">
-        <v>0.3453982532794986</v>
+        <v>0.4759809180218535</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1420235536496768</v>
+        <v>0.1477609187187008</v>
       </c>
       <c r="L258" t="n">
-        <v>0.5072031134426958</v>
+        <v>0.707676777083581</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1485731594806336</v>
+        <v>0.1477632642857597</v>
       </c>
       <c r="N258" t="n">
-        <v>0.7464442374824585</v>
+        <v>0.2765443343529687</v>
       </c>
       <c r="O258" t="n">
-        <v>0.140254053872494</v>
+        <v>0.1478670486543058</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.0965342734188295</v>
+        <v>0.2759452822086579</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1487053838895942</v>
+        <v>0.148633199165468</v>
       </c>
       <c r="J259" t="n">
-        <v>0.3463487232712322</v>
+        <v>0.4738152807276109</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1427594269846492</v>
+        <v>0.1485265193338237</v>
       </c>
       <c r="L259" t="n">
-        <v>0.5043075578693611</v>
+        <v>0.706755681006449</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1493429685971136</v>
+        <v>0.1485288770540797</v>
       </c>
       <c r="N259" t="n">
-        <v>0.7432524160285972</v>
+        <v>0.2759452822086579</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1409807588148385</v>
+        <v>0.148633199165468</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.09958011442664649</v>
+        <v>0.2765636579569948</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1494719064869633</v>
+        <v>0.1493993496766302</v>
       </c>
       <c r="J260" t="n">
-        <v>0.3426993922698406</v>
+        <v>0.4736654589773198</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1434953003196216</v>
+        <v>0.1492921199489465</v>
       </c>
       <c r="L260" t="n">
-        <v>0.508195677722865</v>
+        <v>0.7070124776275453</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1501127777135936</v>
+        <v>0.1492944898223997</v>
       </c>
       <c r="N260" t="n">
-        <v>0.739110967532943</v>
+        <v>0.2765636579569948</v>
       </c>
       <c r="O260" t="n">
-        <v>0.141707463757183</v>
+        <v>0.1493993496766302</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.105627621319037</v>
+        <v>0.2786997209548508</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1502384290843323</v>
+        <v>0.1501655001877924</v>
       </c>
       <c r="J261" t="n">
-        <v>0.3432502612346772</v>
+        <v>0.4767316761338803</v>
       </c>
       <c r="K261" t="n">
-        <v>0.144231173654594</v>
+        <v>0.1500577205640693</v>
       </c>
       <c r="L261" t="n">
-        <v>0.5032674799687287</v>
+        <v>0.7073472377023517</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1508825868300735</v>
+        <v>0.1500601025907197</v>
       </c>
       <c r="N261" t="n">
-        <v>0.7328203350026987</v>
+        <v>0.2786997209548508</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1424341686995275</v>
+        <v>0.1501655001877924</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.09767682382849721</v>
+        <v>0.2769537305590976</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1510049516817014</v>
+        <v>0.1509316506989546</v>
       </c>
       <c r="J262" t="n">
-        <v>0.3425013311250953</v>
+        <v>0.4704141555601931</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1449670469895664</v>
+        <v>0.1508233211791921</v>
       </c>
       <c r="L262" t="n">
-        <v>0.4988229715724724</v>
+        <v>0.7023600319863486</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1516523959465535</v>
+        <v>0.1508257153590397</v>
       </c>
       <c r="N262" t="n">
-        <v>0.7248809614450658</v>
+        <v>0.2769537305590976</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1431608736418721</v>
+        <v>0.1509316506989546</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1037277516875233</v>
+        <v>0.2767259461266064</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1517714742790704</v>
+        <v>0.1516978012101168</v>
       </c>
       <c r="J263" t="n">
-        <v>0.3456526029004485</v>
+        <v>0.4725131206191585</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1457029203245389</v>
+        <v>0.1515889217943149</v>
       </c>
       <c r="L263" t="n">
-        <v>0.4978621594996171</v>
+        <v>0.6933509312350179</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1524222050630335</v>
+        <v>0.1515913281273597</v>
       </c>
       <c r="N263" t="n">
-        <v>0.7286932898672476</v>
+        <v>0.2767259461266064</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1438875785842166</v>
+        <v>0.1516978012101168</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.1007804346286115</v>
+        <v>0.2763166270142491</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1525379968764394</v>
+        <v>0.152463951721279</v>
       </c>
       <c r="J264" t="n">
-        <v>0.3432040775200899</v>
+        <v>0.4702287946736771</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1464387936595113</v>
+        <v>0.1523545224094377</v>
       </c>
       <c r="L264" t="n">
-        <v>0.4902850507156831</v>
+        <v>0.6930200062038401</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1531920141795134</v>
+        <v>0.1523569408956797</v>
       </c>
       <c r="N264" t="n">
-        <v>0.7229577632764455</v>
+        <v>0.2763166270142491</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1446142835265611</v>
+        <v>0.152463951721279</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1339.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1339.xlsx
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.3981849768479517</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04413402646387327</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04413402646387327</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07061444234219724</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.1664468733444803</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.1895826526259745</v>
+        <v>0.05560887334448033</v>
       </c>
       <c r="B65" t="n">
-        <v>0.005511797079909952</v>
+        <v>0.001616734555992784</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9250,10 +9276,10 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0</v>
+        <v>0.02648041587832397</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0</v>
+        <v>0.0005389115186642613</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.04012754846979116</v>
+        <v>0.05560887334448033</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007661505111622062</v>
+        <v>0.001616734555992784</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.07525170180570326</v>
+        <v>0.0665028</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007656006151228024</v>
+        <v>0.001353420018329939</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.1085424294666926</v>
+        <v>0.1265028</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007656127683199985</v>
+        <v>0.001439808530138233</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.04012754846979116</v>
+        <v>0.1865028</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007661505111622062</v>
+        <v>0.001487274745417515</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0665028</v>
+        <v>0.06316669240145273</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001353420018329939</v>
+        <v>0.003180692895208475</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.1265028</v>
+        <v>0.1597316276118673</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00138104083503055</v>
+        <v>0.003205250940424525</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.1865028</v>
+        <v>0.2765437812659385</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001409812519093687</v>
+        <v>0.003207855619172514</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0665028</v>
+        <v>0.3847493897684767</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001353420018329939</v>
+        <v>0.003209286761341739</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.1026933697938086</v>
+        <v>0.06476329900666156</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002298451533486619</v>
+        <v>0.004771039342812713</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1885981266403109</v>
+        <v>0.1895826526259745</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002296801845368407</v>
+        <v>0.004060260054989816</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.2705421192141695</v>
+        <v>0.3407222129167822</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002296838304959995</v>
+        <v>0.004319425590414699</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.1026933697938086</v>
+        <v>0.4918617732075898</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002298451533486619</v>
+        <v>0.004461824236252546</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.1275521241253247</v>
+        <v>0.07336324188129564</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003064602044648825</v>
+        <v>0.00636138579041695</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.2385783371452287</v>
+        <v>0.2214428973166531</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003062402460491209</v>
+        <v>0.006410501880849051</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.3481040164970825</v>
+        <v>0.3892622352410541</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003062451073279994</v>
+        <v>0.006415711238345029</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.1275521241253247</v>
+        <v>0.5595821546056967</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003064602044648825</v>
+        <v>0.006418573522683478</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.001353420018329939</v>
+        <v>0.0005389115186642613</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0665028</v>
+        <v>0.02648041587832397</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.1538126918243386</v>
+        <v>0.07406826089116955</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00383075255581103</v>
+        <v>0.007951732238021187</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.2844966178792475</v>
+        <v>0.2398798979594627</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003828003075614012</v>
+        <v>0.008013127351061314</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.4050370726818912</v>
+        <v>0.4199039076993138</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003828063841599992</v>
+        <v>0.008019639047931286</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.1538126918243386</v>
+        <v>0.6039752511999024</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00383075255581103</v>
+        <v>0.008023216903354348</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.1728047796395098</v>
+        <v>0.0829800959020979</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004596903066973237</v>
+        <v>0.009542078685625425</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.3200058767917412</v>
+        <v>0.2568647392452154</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004593603690736814</v>
+        <v>0.009615752821273577</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.4530446429276004</v>
+        <v>0.4540837907808819</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004593676609919991</v>
+        <v>0.009623566857517543</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.1728047796395098</v>
+        <v>0.645026027383133</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004596903066973237</v>
+        <v>0.009627860284025215</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.1895826526259745</v>
+        <v>0.08720048677989528</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005511797079909952</v>
+        <v>0.01113242513322966</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.3407222129167822</v>
+        <v>0.2703056889010761</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00531384386568123</v>
+        <v>0.01121837829148584</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.4918617732075898</v>
+        <v>0.4821411174844684</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005311547107616612</v>
+        <v>0.0112274946671038</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.1895826526259745</v>
+        <v>0.6916989426807234</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005511797079909952</v>
+        <v>0.01123250366469609</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.1935448562590015</v>
+        <v>0.08883117339037627</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006129204089297649</v>
+        <v>0.0127227715808339</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.3555954242734798</v>
+        <v>0.2842110146542096</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006124804920982419</v>
+        <v>0.0128210037616981</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.5130592637206035</v>
+        <v>0.5057151208087839</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006124902146559988</v>
+        <v>0.01283142247669006</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.1935448562590015</v>
+        <v>0.7206584566180076</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006129204089297649</v>
+        <v>0.01283714704536696</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.2036933888953125</v>
+        <v>0.08597389559935559</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006895354600459856</v>
+        <v>0.01431311802843814</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.3633581064247622</v>
+        <v>0.2928889842317805</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006890405536105221</v>
+        <v>0.01442362923191036</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.5338457735699418</v>
+        <v>0.5217450337525381</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006890514914879985</v>
+        <v>0.01443535028627631</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.2036933888953125</v>
+        <v>0.7494690287203198</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006895354600459856</v>
+        <v>0.01444179042603782</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.2085540550775327</v>
+        <v>0.08973039327264767</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00766150511162206</v>
+        <v>0.01590346447604237</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.3808770507232757</v>
+        <v>0.3029478653609535</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007656006151228023</v>
+        <v>0.01602625470212263</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.5455371325775371</v>
+        <v>0.5368700893144414</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007656127683199984</v>
+        <v>0.01603927809586257</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.2085540550775327</v>
+        <v>0.7775951185129948</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00766150511162206</v>
+        <v>0.0160464338067087</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.2178279113394873</v>
+        <v>0.09320240627606724</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008427655622784268</v>
+        <v>0.01749381092364661</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.3946544609765503</v>
+        <v>0.3111959257688934</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008421606766350826</v>
+        <v>0.01762888017233489</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.563536489226242</v>
+        <v>0.551629520493204</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008421740451519983</v>
+        <v>0.01764320590544883</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.2178279113394873</v>
+        <v>0.8023011855213666</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008427655622784268</v>
+        <v>0.01765107718737956</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.2263160142150012</v>
+        <v>0.09249167447542889</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009193806133946474</v>
+        <v>0.01908415737125085</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4059925409921159</v>
+        <v>0.3176414331827651</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009187207381473628</v>
+        <v>0.01923150564254715</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5858469919989098</v>
+        <v>0.5689625602875361</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009187353219839982</v>
+        <v>0.01924713371503509</v>
       </c>
       <c r="N77" t="n">
-        <v>0.2263160142150012</v>
+        <v>0.82095168927077</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009193806133946474</v>
+        <v>0.01925572056805043</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.2324194202378996</v>
+        <v>0.08769993773654716</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009959956645108679</v>
+        <v>0.02067450381885509</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4164934945775024</v>
+        <v>0.3221926553297331</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00995280799659643</v>
+        <v>0.02083413111275942</v>
       </c>
       <c r="L78" t="n">
-        <v>0.6010717893783935</v>
+        <v>0.5797084416961477</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00995296598815998</v>
+        <v>0.02085106152462134</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2324194202378996</v>
+        <v>0.8352110892865392</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009959956645108679</v>
+        <v>0.0208603639487213</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.2395391859420075</v>
+        <v>0.09592893592523677</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01072610715627089</v>
+        <v>0.02226485026645933</v>
       </c>
       <c r="J79" t="n">
-        <v>0.4329595255402402</v>
+        <v>0.3268578599369622</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01071840861171923</v>
+        <v>0.02243675658297168</v>
       </c>
       <c r="L79" t="n">
-        <v>0.6204140298475456</v>
+        <v>0.5858063977177492</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01071857875647998</v>
+        <v>0.0224549893342076</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2395391859420075</v>
+        <v>0.8509438450940081</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01072610715627089</v>
+        <v>0.02246500732939217</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.24387636786115</v>
+        <v>0.09822208196826737</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01149225766743309</v>
+        <v>0.02385519671406356</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4436928376878588</v>
+        <v>0.3320453147316171</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01148400922684203</v>
+        <v>0.02403938205318394</v>
       </c>
       <c r="L80" t="n">
-        <v>0.6369768618892193</v>
+        <v>0.5997956613510508</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01148419152479998</v>
+        <v>0.02405891714379386</v>
       </c>
       <c r="N80" t="n">
-        <v>0.24387636786115</v>
+        <v>0.8644144162185123</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01149225766743309</v>
+        <v>0.02406965071006304</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.250032022529152</v>
+        <v>0.0934862472785479</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0122584081785953</v>
+        <v>0.0254455431616678</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4571956348278886</v>
+        <v>0.3383638566798233</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01224960984196484</v>
+        <v>0.0256420075233962</v>
       </c>
       <c r="L81" t="n">
-        <v>0.658963433986268</v>
+        <v>0.6043192133230558</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01224980429311998</v>
+        <v>0.02566284495338012</v>
       </c>
       <c r="N81" t="n">
-        <v>0.250032022529152</v>
+        <v>0.8759899085363363</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0122584081785953</v>
+        <v>0.02567429409073391</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.2573072064798388</v>
+        <v>0.09170863625232506</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0130245586897575</v>
+        <v>0.02703588960927204</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4697701207678594</v>
+        <v>0.3434577414905539</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01301521045708764</v>
+        <v>0.02724463299360846</v>
       </c>
       <c r="L82" t="n">
-        <v>0.6732768946215442</v>
+        <v>0.6128537495021926</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01301541706143997</v>
+        <v>0.02726677276296637</v>
       </c>
       <c r="N82" t="n">
-        <v>0.2573072064798388</v>
+        <v>0.8868733877767692</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0130245586897575</v>
+        <v>0.02727893747140478</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.2633029762470352</v>
+        <v>0.1008812720018001</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01379070920091971</v>
+        <v>0.02862623605687627</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4794184993153014</v>
+        <v>0.3462181846279437</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01378081107221044</v>
+        <v>0.02884725846382073</v>
       </c>
       <c r="L83" t="n">
-        <v>0.6859203922779009</v>
+        <v>0.6190554807107402</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01378102982975997</v>
+        <v>0.02887070057255263</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2633029762470352</v>
+        <v>0.8988263752957153</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01379070920091971</v>
+        <v>0.02888358085207565</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.2697203883645665</v>
+        <v>0.09999617763917404</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01455685971208191</v>
+        <v>0.03021658250448052</v>
       </c>
       <c r="J84" t="n">
-        <v>0.4916429742777446</v>
+        <v>0.3504173563695299</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01454641168733324</v>
+        <v>0.03044988393403299</v>
       </c>
       <c r="L84" t="n">
-        <v>0.7072970754381915</v>
+        <v>0.627774268711816</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01454664259807997</v>
+        <v>0.03047462838213889</v>
       </c>
       <c r="N84" t="n">
-        <v>0.2697203883645665</v>
+        <v>0.9044763953268975</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01455685971208191</v>
+        <v>0.03048822423274652</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.2752604993662575</v>
+        <v>0.1000453762766481</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01532301022324412</v>
+        <v>0.03180692895208475</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4958457494627185</v>
+        <v>0.3555274269928494</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01531201230245605</v>
+        <v>0.03205250940424526</v>
       </c>
       <c r="L85" t="n">
-        <v>0.7224100925852686</v>
+        <v>0.6342599752685377</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01531225536639997</v>
+        <v>0.03207855619172514</v>
       </c>
       <c r="N85" t="n">
-        <v>0.2752604993662575</v>
+        <v>0.920950972104039</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01532301022324412</v>
+        <v>0.03209286761341739</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.2832243657859335</v>
+        <v>0.09602089102642347</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01608916073440633</v>
+        <v>0.03339727539968899</v>
       </c>
       <c r="J86" t="n">
-        <v>0.5086290286777536</v>
+        <v>0.3595205667754394</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01607761291757885</v>
+        <v>0.03365513487445752</v>
       </c>
       <c r="L86" t="n">
-        <v>0.7389625922019851</v>
+        <v>0.640362462144023</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01607786813471997</v>
+        <v>0.0336824840013114</v>
       </c>
       <c r="N86" t="n">
-        <v>0.2832243657859335</v>
+        <v>0.9306776298608641</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01608916073440633</v>
+        <v>0.03369751099408826</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.2886130441574194</v>
+        <v>0.1059147450007013</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01685531124556854</v>
+        <v>0.03498762184729323</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5218950157303801</v>
+        <v>0.3619689459948368</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01684321353270165</v>
+        <v>0.03525776034466978</v>
       </c>
       <c r="L87" t="n">
-        <v>0.7538577227711942</v>
+        <v>0.6518315911013894</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01684348090303997</v>
+        <v>0.03528641181089766</v>
       </c>
       <c r="N87" t="n">
-        <v>0.2886130441574194</v>
+        <v>0.9346838928310952</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01685531124556854</v>
+        <v>0.03530215437475912</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.2942275910145402</v>
+        <v>0.1057189613116827</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01762146175673074</v>
+        <v>0.03657796829489746</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5278459144281273</v>
+        <v>0.3643447349285787</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01760881414782445</v>
+        <v>0.03686038581488204</v>
       </c>
       <c r="L88" t="n">
-        <v>0.7667986327757488</v>
+        <v>0.654817223903755</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01760909367135996</v>
+        <v>0.03689033962048392</v>
       </c>
       <c r="N88" t="n">
-        <v>0.2942275910145402</v>
+        <v>0.9497972852484564</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01762146175673074</v>
+        <v>0.03690679775542999</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.2979690628911212</v>
+        <v>0.1034255630715688</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01838761226789295</v>
+        <v>0.0381683147425017</v>
       </c>
       <c r="J89" t="n">
-        <v>0.5361839285785257</v>
+        <v>0.3673201038542022</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01837441476294726</v>
+        <v>0.03846301128509431</v>
       </c>
       <c r="L89" t="n">
-        <v>0.772588470698502</v>
+        <v>0.6582692223142373</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01837470643967996</v>
+        <v>0.03849426743007017</v>
       </c>
       <c r="N89" t="n">
-        <v>0.2979690628911212</v>
+        <v>0.9489453313466707</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01838761226789295</v>
+        <v>0.03851144113610086</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.3015385163209872</v>
+        <v>0.1050265733925609</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01915376277905515</v>
+        <v>0.03975866119010594</v>
       </c>
       <c r="J90" t="n">
-        <v>0.5479112619891054</v>
+        <v>0.3694672230492443</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01914001537807006</v>
+        <v>0.04006563675530656</v>
       </c>
       <c r="L90" t="n">
-        <v>0.7900303850223067</v>
+        <v>0.6652374480959536</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01914031920799996</v>
+        <v>0.04009819523965643</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3015385163209872</v>
+        <v>0.9637555553594617</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01915376277905515</v>
+        <v>0.04011608451677173</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.3074370078379634</v>
+        <v>0.10151401538686</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01991991329021736</v>
+        <v>0.04134900763771018</v>
       </c>
       <c r="J91" t="n">
-        <v>0.557930118467396</v>
+        <v>0.3719582627912419</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01990561599319286</v>
+        <v>0.04166826222551883</v>
       </c>
       <c r="L91" t="n">
-        <v>0.8021275242300159</v>
+        <v>0.6662717630120221</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01990593197631996</v>
+        <v>0.04170212304924269</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3074370078379634</v>
+        <v>0.9637554815205531</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01991991329021736</v>
+        <v>0.04172072789744261</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.3118655939758748</v>
+        <v>0.09987991216666731</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02068606380137956</v>
+        <v>0.04293935408531441</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5663427018209279</v>
+        <v>0.3743653933577323</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02067121660831566</v>
+        <v>0.04327088769573109</v>
       </c>
       <c r="L92" t="n">
-        <v>0.8097830368044823</v>
+        <v>0.6737220288255601</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02067154474463996</v>
+        <v>0.04330605085882894</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3118655939758748</v>
+        <v>0.974572634063668</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02068606380137956</v>
+        <v>0.04332537127811348</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.3161253312685464</v>
+        <v>0.1112177466889607</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02145221431254177</v>
+        <v>0.04452970053291865</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5695512158572308</v>
+        <v>0.3771607850262523</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02143681722343847</v>
+        <v>0.04487351316594335</v>
       </c>
       <c r="L93" t="n">
-        <v>0.8292000712285592</v>
+        <v>0.6727381072996855</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02143715751295996</v>
+        <v>0.0449099786684152</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3161253312685464</v>
+        <v>0.9700345372225296</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02145221431254177</v>
+        <v>0.04493001465878434</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.3216172762498034</v>
+        <v>0.1082151625316112</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02221836482370398</v>
+        <v>0.04612004698052288</v>
       </c>
       <c r="J94" t="n">
-        <v>0.5770578643838348</v>
+        <v>0.3749166080743391</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02220241783856127</v>
+        <v>0.04647613863615561</v>
       </c>
       <c r="L94" t="n">
-        <v>0.8390817759850995</v>
+        <v>0.6748698601975163</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02220277028127995</v>
+        <v>0.04651390647800146</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3216172762498034</v>
+        <v>0.9797687152308618</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02221836482370398</v>
+        <v>0.04653465803945521</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.3256424854534706</v>
+        <v>0.1031943642763528</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02298451533486618</v>
+        <v>0.04771039342812713</v>
       </c>
       <c r="J95" t="n">
-        <v>0.58546485120827</v>
+        <v>0.3791653052519491</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02296801845368407</v>
+        <v>0.04807876410636788</v>
       </c>
       <c r="L95" t="n">
-        <v>0.8490312995569562</v>
+        <v>0.6814444258335643</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02296838304959995</v>
+        <v>0.04811783428758772</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3256424854534706</v>
+        <v>0.9837235464151797</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02298451533486618</v>
+        <v>0.04813930142012608</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.3306020154133734</v>
+        <v>0.1041036349192542</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02375066584602839</v>
+        <v>0.04930073987573136</v>
       </c>
       <c r="J96" t="n">
-        <v>0.5954743801380664</v>
+        <v>0.376133059066854</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02373361906880687</v>
+        <v>0.04968138957658014</v>
       </c>
       <c r="L96" t="n">
-        <v>0.8549517904269821</v>
+        <v>0.6793132140162345</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02373399581791995</v>
+        <v>0.04972176209717397</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3306020154133734</v>
+        <v>0.9773946862495582</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02375066584602839</v>
+        <v>0.04974394480079695</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.3314969226633367</v>
+        <v>0.1029484871256406</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0245168163571906</v>
+        <v>0.0508910863233356</v>
       </c>
       <c r="J97" t="n">
-        <v>0.6020886549807538</v>
+        <v>0.3752890057498237</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02449921968392968</v>
+        <v>0.05128401504679241</v>
       </c>
       <c r="L97" t="n">
-        <v>0.8638463970780308</v>
+        <v>0.6758319141399463</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02449960858623995</v>
+        <v>0.05132568990676023</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3314969226633367</v>
+        <v>0.9783900688038591</v>
       </c>
       <c r="O97" t="n">
-        <v>0.0245168163571906</v>
+        <v>0.05134858818146782</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.3369282637371854</v>
+        <v>0.1087331249454226</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0252829668683528</v>
+        <v>0.05248143277093984</v>
       </c>
       <c r="J98" t="n">
-        <v>0.6060098795438628</v>
+        <v>0.3767177195171105</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02526482029905248</v>
+        <v>0.05288664051700467</v>
       </c>
       <c r="L98" t="n">
-        <v>0.8750182679929548</v>
+        <v>0.6741379790418486</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02526522135455995</v>
+        <v>0.05292961771634649</v>
       </c>
       <c r="N98" t="n">
-        <v>0.3369282637371854</v>
+        <v>0.9750864007797588</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0252829668683528</v>
+        <v>0.05295323156213869</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.3387970951687448</v>
+        <v>0.100461752428511</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02604911737951501</v>
+        <v>0.05407177921854408</v>
       </c>
       <c r="J99" t="n">
-        <v>0.6124402576349225</v>
+        <v>0.3760338674350173</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02603042091417528</v>
+        <v>0.05448926598721693</v>
       </c>
       <c r="L99" t="n">
-        <v>0.8858705516546066</v>
+        <v>0.6730578330186848</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02603083412287995</v>
+        <v>0.05453354552593274</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3387970951687448</v>
+        <v>0.9745218789961698</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02604911737951501</v>
+        <v>0.05455787494280956</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.3423044734918397</v>
+        <v>0.1101385736248164</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02681526789067721</v>
+        <v>0.05566212566614831</v>
       </c>
       <c r="J100" t="n">
-        <v>0.6187819930614635</v>
+        <v>0.3753521165698466</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02679602152929808</v>
+        <v>0.05609189145742919</v>
       </c>
       <c r="L100" t="n">
-        <v>0.8957063965458396</v>
+        <v>0.6741179003671987</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02679644689119995</v>
+        <v>0.056137473335519</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3423044734918397</v>
+        <v>0.9697347002720056</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02681526789067721</v>
+        <v>0.05616251832348042</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.3481514552402954</v>
+        <v>0.1087677925842495</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02758141840183942</v>
+        <v>0.05725247211375255</v>
       </c>
       <c r="J101" t="n">
-        <v>0.6210372896310158</v>
+        <v>0.3730871339879013</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02756162214442089</v>
+        <v>0.05769451692764146</v>
       </c>
       <c r="L101" t="n">
-        <v>0.8963289511495076</v>
+        <v>0.6706446053841336</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02756205965951994</v>
+        <v>0.05774140114510526</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3481514552402954</v>
+        <v>0.9695630614261788</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02758141840183942</v>
+        <v>0.05776716170415129</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.3509390969479369</v>
+        <v>0.105353613356721</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02834756891300163</v>
+        <v>0.05884281856135678</v>
       </c>
       <c r="J102" t="n">
-        <v>0.630708351151109</v>
+        <v>0.3738535867554838</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02832722275954368</v>
+        <v>0.05929714239785372</v>
       </c>
       <c r="L102" t="n">
-        <v>0.9108413639484623</v>
+        <v>0.6726643723662333</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02832767242783995</v>
+        <v>0.05934532895469152</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3509390969479369</v>
+        <v>0.9664451592776024</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02834756891300163</v>
+        <v>0.05937180508482217</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.3505684551485891</v>
+        <v>0.1049002399921415</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02911371942416383</v>
+        <v>0.06043316500896103</v>
       </c>
       <c r="J103" t="n">
-        <v>0.6328973814292734</v>
+        <v>0.3698661419388969</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02909282337466649</v>
+        <v>0.06089976786806597</v>
       </c>
       <c r="L103" t="n">
-        <v>0.9128467834255569</v>
+        <v>0.6645036256102415</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02909328519615994</v>
+        <v>0.06094925676427777</v>
       </c>
       <c r="N103" t="n">
-        <v>0.3505684551485891</v>
+        <v>0.9606191906451897</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02911371942416383</v>
+        <v>0.06097644846549304</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.3535405863760772</v>
+        <v>0.09841187654042186</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02987986993532604</v>
+        <v>0.06202351145656526</v>
       </c>
       <c r="J104" t="n">
-        <v>0.6385065842730393</v>
+        <v>0.3694394666044434</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02985842398978929</v>
+        <v>0.06250239333827824</v>
       </c>
       <c r="L104" t="n">
-        <v>0.9212483580636452</v>
+        <v>0.663188789412901</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02985889796447994</v>
+        <v>0.06255318457386402</v>
       </c>
       <c r="N104" t="n">
-        <v>0.3535405863760772</v>
+        <v>0.9622233523478534</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02987986993532604</v>
+        <v>0.06258109184616389</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.3591565471642262</v>
+        <v>0.1048927270514726</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03064602044648824</v>
+        <v>0.0636138579041695</v>
       </c>
       <c r="J105" t="n">
-        <v>0.6451381634899362</v>
+        <v>0.3662882278184259</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03062402460491209</v>
+        <v>0.06410501880849051</v>
       </c>
       <c r="L105" t="n">
-        <v>0.9260492363455797</v>
+        <v>0.6599462880709563</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03062451073279994</v>
+        <v>0.06415711238345029</v>
       </c>
       <c r="N105" t="n">
-        <v>0.3591565471642262</v>
+        <v>0.9544958412045064</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03064602044648824</v>
+        <v>0.06418573522683478</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.3605173940468612</v>
+        <v>0.1003469955752045</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03141217095765046</v>
+        <v>0.06520420435177374</v>
       </c>
       <c r="J106" t="n">
-        <v>0.6437943228874942</v>
+        <v>0.367427092647147</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0313896252200349</v>
+        <v>0.06570764427870276</v>
       </c>
       <c r="L106" t="n">
-        <v>0.9302525667542132</v>
+        <v>0.6614025458811504</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03139012350111994</v>
+        <v>0.06576104019303654</v>
       </c>
       <c r="N106" t="n">
-        <v>0.3605173940468612</v>
+        <v>0.9536748540340618</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03141217095765046</v>
+        <v>0.06579037860750564</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.3614241835578071</v>
+        <v>0.09877888616152811</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03217832146881266</v>
+        <v>0.06679455079937797</v>
       </c>
       <c r="J107" t="n">
-        <v>0.6516772662732436</v>
+        <v>0.3658707281569094</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0321552258351577</v>
+        <v>0.06731026974891503</v>
       </c>
       <c r="L107" t="n">
-        <v>0.9392614977723988</v>
+        <v>0.6545839871402273</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03215573626943993</v>
+        <v>0.0673649680026228</v>
       </c>
       <c r="N107" t="n">
-        <v>0.3614241835578071</v>
+        <v>0.9428985876554326</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03217832146881266</v>
+        <v>0.06739502198817651</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.3630779722308892</v>
+        <v>0.1031926028603543</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03294447197997486</v>
+        <v>0.06838489724698221</v>
       </c>
       <c r="J108" t="n">
-        <v>0.6558891974547145</v>
+        <v>0.3621338014140158</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0329208264502805</v>
+        <v>0.0689128952191273</v>
       </c>
       <c r="L108" t="n">
-        <v>0.9446791778829895</v>
+        <v>0.64971703614493</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03292134903775994</v>
+        <v>0.06896889581220905</v>
       </c>
       <c r="N108" t="n">
-        <v>0.3630779722308892</v>
+        <v>0.939905238887532</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03294447197997486</v>
+        <v>0.06899966536884738</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.3659798165999323</v>
+        <v>0.1045923497215936</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03371062249113707</v>
+        <v>0.06997524369458645</v>
       </c>
       <c r="J109" t="n">
-        <v>0.6608323202394361</v>
+        <v>0.358730979484769</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03368642706540331</v>
+        <v>0.07051552068933956</v>
       </c>
       <c r="L109" t="n">
-        <v>0.9452087555688384</v>
+        <v>0.6515281171920025</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03368696180607993</v>
+        <v>0.07057282362179532</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3659798165999323</v>
+        <v>0.9366330045492726</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03371062249113707</v>
+        <v>0.07060430874951824</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.3659307731987618</v>
+        <v>0.1009823307951567</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03447677300229927</v>
+        <v>0.07156559014219069</v>
       </c>
       <c r="J110" t="n">
-        <v>0.6580088384349392</v>
+        <v>0.3600769294354714</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03445202768052611</v>
+        <v>0.07211814615955181</v>
       </c>
       <c r="L110" t="n">
-        <v>0.9511533793127986</v>
+        <v>0.6440436545781882</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03445257457439993</v>
+        <v>0.07217675143138157</v>
       </c>
       <c r="N110" t="n">
-        <v>0.3659307731987618</v>
+        <v>0.9324200814595671</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03447677300229927</v>
+        <v>0.07220895213018912</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.3698318985612022</v>
+        <v>0.1013667501309543</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03524292351346148</v>
+        <v>0.07315593658979493</v>
       </c>
       <c r="J111" t="n">
-        <v>0.6626209558487535</v>
+        <v>0.358086318332426</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03521762829564891</v>
+        <v>0.07372077162976408</v>
       </c>
       <c r="L111" t="n">
-        <v>0.9584161975977223</v>
+        <v>0.6433900726002308</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03521818734271993</v>
+        <v>0.07378067924096783</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3698318985612022</v>
+        <v>0.9303046664373293</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03524292351346148</v>
+        <v>0.07381359551085999</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.3696842492210792</v>
+        <v>0.1037498117788972</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03600907402462369</v>
+        <v>0.07474628303739916</v>
       </c>
       <c r="J112" t="n">
-        <v>0.6639708762884088</v>
+        <v>0.3558738132419352</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03598322891077171</v>
+        <v>0.07532339709997635</v>
       </c>
       <c r="L112" t="n">
-        <v>0.9630003589064635</v>
+        <v>0.6349937955548737</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03598380011103993</v>
+        <v>0.07538460705055408</v>
       </c>
       <c r="N112" t="n">
-        <v>0.3696842492210792</v>
+        <v>0.9211249563014718</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03600907402462369</v>
+        <v>0.07541823889153086</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.3733888817122174</v>
+        <v>0.09213571978889584</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0367752245357859</v>
+        <v>0.0763366294850034</v>
       </c>
       <c r="J113" t="n">
-        <v>0.6686608035614355</v>
+        <v>0.3533540812303019</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03674882952589451</v>
+        <v>0.07692602257018862</v>
       </c>
       <c r="L113" t="n">
-        <v>0.9643090117218747</v>
+        <v>0.6333812477388606</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03674941287935993</v>
+        <v>0.07698853486014035</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3733888817122174</v>
+        <v>0.9173191478709073</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0367752245357859</v>
+        <v>0.07702288227220172</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.373346852568442</v>
+        <v>0.09252864781667719</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0375413750469481</v>
+        <v>0.07792697593260764</v>
       </c>
       <c r="J114" t="n">
-        <v>0.6712929414753637</v>
+        <v>0.3504417893638286</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03751443014101732</v>
+        <v>0.07852864804040087</v>
       </c>
       <c r="L114" t="n">
-        <v>0.9730453045268088</v>
+        <v>0.6269788534489349</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03751502564767992</v>
+        <v>0.07859246266972661</v>
       </c>
       <c r="N114" t="n">
-        <v>0.373346852568442</v>
+        <v>0.9140254379645494</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0375413750469481</v>
+        <v>0.07862752565287261</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.3751592183235781</v>
+        <v>0.0928763443952817</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0383075255581103</v>
+        <v>0.07951732238021188</v>
       </c>
       <c r="J115" t="n">
-        <v>0.6728694938377228</v>
+        <v>0.3490516047088182</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03828003075614012</v>
+        <v>0.08013127351061312</v>
       </c>
       <c r="L115" t="n">
-        <v>0.9743123858041183</v>
+        <v>0.6229130369818404</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03828063841599992</v>
+        <v>0.08019639047931286</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3751592183235781</v>
+        <v>0.9069820234013104</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0383075255581103</v>
+        <v>0.08023216903354347</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.3753270355114506</v>
+        <v>0.0911379926342917</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03907367606927251</v>
+        <v>0.0811076688278161</v>
       </c>
       <c r="J116" t="n">
-        <v>0.6760926644560432</v>
+        <v>0.3458548325461834</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03904563137126291</v>
+        <v>0.08173389898082539</v>
       </c>
       <c r="L116" t="n">
-        <v>0.9742134040366572</v>
+        <v>0.6227179276160283</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03904625118431992</v>
+        <v>0.08180031828889912</v>
       </c>
       <c r="N116" t="n">
-        <v>0.3753270355114506</v>
+        <v>0.9008956044092653</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03907367606927251</v>
+        <v>0.08183681241421434</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.3768513606658848</v>
+        <v>0.09132728983084817</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03983982658043472</v>
+        <v>0.08269801527542035</v>
       </c>
       <c r="J117" t="n">
-        <v>0.6722646571378551</v>
+        <v>0.3436564591947744</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03981123198638572</v>
+        <v>0.08333652445103766</v>
       </c>
       <c r="L117" t="n">
-        <v>0.9724515077072782</v>
+        <v>0.6150853036790495</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03981186395263992</v>
+        <v>0.08340424609848537</v>
       </c>
       <c r="N117" t="n">
-        <v>0.3768513606658848</v>
+        <v>0.8920431661952757</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03983982658043472</v>
+        <v>0.08344145579488521</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.3767332503207055</v>
+        <v>0.09645793328209223</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04060597709159693</v>
+        <v>0.08428836172302459</v>
       </c>
       <c r="J118" t="n">
-        <v>0.677787675690688</v>
+        <v>0.3414012008803647</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04057683260150852</v>
+        <v>0.08493914992124992</v>
       </c>
       <c r="L118" t="n">
-        <v>0.9734298452988341</v>
+        <v>0.6094799735764321</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04057747672095992</v>
+        <v>0.08500817390807164</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3767332503207055</v>
+        <v>0.8848995689830383</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04060597709159693</v>
+        <v>0.08504609917555607</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.3786737610097379</v>
+        <v>0.0915436202851648</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04137212760275913</v>
+        <v>0.08587870817062881</v>
       </c>
       <c r="J119" t="n">
-        <v>0.6751639239220724</v>
+        <v>0.3384368446581995</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04134243321663132</v>
+        <v>0.08654177539146218</v>
       </c>
       <c r="L119" t="n">
-        <v>0.9765515652941774</v>
+        <v>0.6090880308256011</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04134308948927991</v>
+        <v>0.08661210171765789</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3786737610097379</v>
+        <v>0.8749892625744371</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04137212760275913</v>
+        <v>0.08665074255622696</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.3785739492668071</v>
+        <v>0.08959804813720704</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04213827811392133</v>
+        <v>0.08746905461823305</v>
       </c>
       <c r="J120" t="n">
-        <v>0.6761956056395381</v>
+        <v>0.336111177583524</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04210803383175413</v>
+        <v>0.08814440086167445</v>
       </c>
       <c r="L120" t="n">
-        <v>0.9742198161761622</v>
+        <v>0.5986955689439812</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04210870225759992</v>
+        <v>0.08821602952724415</v>
       </c>
       <c r="N120" t="n">
-        <v>0.3785739492668071</v>
+        <v>0.8657366967713565</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04213827811392133</v>
+        <v>0.08825538593689781</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.3791653052519491</v>
+        <v>0.09163491413535993</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04290442862508354</v>
+        <v>0.0890594010658373</v>
       </c>
       <c r="J121" t="n">
-        <v>0.6814444258335643</v>
+        <v>0.3310719867115833</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04287363444687693</v>
+        <v>0.08974702633188671</v>
       </c>
       <c r="L121" t="n">
-        <v>0.9837235464151797</v>
+        <v>0.5992886814489968</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04287431502591992</v>
+        <v>0.0898199573368304</v>
       </c>
       <c r="N121" t="n">
-        <v>0.3791653052519491</v>
+        <v>0.8607663213756793</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04290442862508354</v>
+        <v>0.08986002931756869</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.3757618934108637</v>
+        <v>0.08866791557676454</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04367057913624574</v>
+        <v>0.09064974751344153</v>
       </c>
       <c r="J122" t="n">
-        <v>0.6777419425028733</v>
+        <v>0.3273670590976228</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04363923506199973</v>
+        <v>0.09134965180209897</v>
       </c>
       <c r="L122" t="n">
-        <v>0.9791195971697162</v>
+        <v>0.5892534618580733</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04363992779423992</v>
+        <v>0.09142388514641667</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3757618934108637</v>
+        <v>0.8503025861892899</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04367057913624574</v>
+        <v>0.09146467269823956</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.3756118099154691</v>
+        <v>0.08871074975856197</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04443672964740795</v>
+        <v>0.09224009396104577</v>
       </c>
       <c r="J123" t="n">
-        <v>0.6755968425794238</v>
+        <v>0.3243441817968875</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04440483567712254</v>
+        <v>0.09295227727231123</v>
       </c>
       <c r="L123" t="n">
-        <v>0.9740481823762048</v>
+        <v>0.5819760036886351</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04440554056255991</v>
+        <v>0.09302781295600292</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3756118099154691</v>
+        <v>0.8407699410140719</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04443672964740795</v>
+        <v>0.09306931607891042</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.376103596684114</v>
+        <v>0.0917771139778932</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04520288015857016</v>
+        <v>0.09383044040865002</v>
       </c>
       <c r="J124" t="n">
-        <v>0.6799961472213176</v>
+        <v>0.3195511418646225</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04517043629224534</v>
+        <v>0.0945549027425235</v>
       </c>
       <c r="L124" t="n">
-        <v>0.9770886875971936</v>
+        <v>0.5799424004581072</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04517115333087991</v>
+        <v>0.09463174076558918</v>
       </c>
       <c r="N124" t="n">
-        <v>0.376103596684114</v>
+        <v>0.8326928356519094</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04520288015857016</v>
+        <v>0.09467395945958129</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.3784393657913969</v>
+        <v>0.08688070553189933</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04596903066973237</v>
+        <v>0.09542078685625426</v>
       </c>
       <c r="J125" t="n">
-        <v>0.6806412369605437</v>
+        <v>0.3174357263560733</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04593603690736814</v>
+        <v>0.09615752821273577</v>
       </c>
       <c r="L125" t="n">
-        <v>0.9801431231003748</v>
+        <v>0.5690387456839141</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04593676609919991</v>
+        <v>0.09623566857517543</v>
       </c>
       <c r="N125" t="n">
-        <v>0.3784393657913969</v>
+        <v>0.8235957199046857</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04596903066973237</v>
+        <v>0.09627860284025216</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.3777212293119159</v>
+        <v>0.08900398089015973</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04673518118089457</v>
+        <v>0.09701113330385848</v>
       </c>
       <c r="J126" t="n">
-        <v>0.6797334923290902</v>
+        <v>0.3144457223264847</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04670163752249094</v>
+        <v>0.09776015368294803</v>
       </c>
       <c r="L126" t="n">
-        <v>0.9824134991534408</v>
+        <v>0.5657511328834809</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04670237886751991</v>
+        <v>0.0978395963847617</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3777212293119159</v>
+        <v>0.8177030435742854</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04673518118089457</v>
+        <v>0.09788324622092304</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.3769512993202697</v>
+        <v>0.0900503721850156</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04750133169205678</v>
+        <v>0.09860147975146272</v>
       </c>
       <c r="J127" t="n">
-        <v>0.6739742938589457</v>
+        <v>0.3111408098051833</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04746723813761375</v>
+        <v>0.09936277915316027</v>
       </c>
       <c r="L127" t="n">
-        <v>0.9816018260240837</v>
+        <v>0.5580626261881358</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0474679916358399</v>
+        <v>0.09944352419434795</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3769512993202697</v>
+        <v>0.8077271632782175</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04750133169205678</v>
+        <v>0.0994878896015939</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.3773316878910565</v>
+        <v>0.09002914390264474</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04826748220321899</v>
+        <v>0.100191826199067</v>
       </c>
       <c r="J128" t="n">
-        <v>0.6789650220820987</v>
+        <v>0.3101791323100475</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04823283875273655</v>
+        <v>0.1009654046233725</v>
       </c>
       <c r="L128" t="n">
-        <v>0.9776101139799958</v>
+        <v>0.5580508772672718</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04823360440415991</v>
+        <v>0.1010474520039342</v>
       </c>
       <c r="N128" t="n">
-        <v>0.3773316878910565</v>
+        <v>0.8032782167961807</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04826748220321899</v>
+        <v>0.1010925329822648</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.3746645070988746</v>
+        <v>0.08195990372791709</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04903363271438119</v>
+        <v>0.1017821726466712</v>
       </c>
       <c r="J129" t="n">
-        <v>0.6767070575305377</v>
+        <v>0.303779953800799</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04899843936785935</v>
+        <v>0.1025680300935848</v>
       </c>
       <c r="L129" t="n">
-        <v>0.9762403732888694</v>
+        <v>0.5465979827279743</v>
       </c>
       <c r="M129" t="n">
-        <v>0.0489992171724799</v>
+        <v>0.1026513798135205</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3746645070988746</v>
+        <v>0.7899810660225546</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04903363271438119</v>
+        <v>0.1026971763629356</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.3740518690183225</v>
+        <v>0.07786225934570282</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0497997832255434</v>
+        <v>0.1033725190942754</v>
       </c>
       <c r="J130" t="n">
-        <v>0.6757017807362509</v>
+        <v>0.300411681461021</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04976403998298216</v>
+        <v>0.1041706555637971</v>
       </c>
       <c r="L130" t="n">
-        <v>0.9792946142183971</v>
+        <v>0.5449271854656579</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0497648299407999</v>
+        <v>0.1042553076231067</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3740518690183225</v>
+        <v>0.7822138608851932</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0497997832255434</v>
+        <v>0.1043018197436065</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.3763958857239985</v>
+        <v>0.08475581844087185</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05056593373670561</v>
+        <v>0.1049628655418797</v>
       </c>
       <c r="J131" t="n">
-        <v>0.678150572231227</v>
+        <v>0.295942722474296</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05052964059810496</v>
+        <v>0.1057732810340093</v>
       </c>
       <c r="L131" t="n">
-        <v>0.9797748470362713</v>
+        <v>0.5354617283757372</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0505304427091199</v>
+        <v>0.105859235432693</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3763958857239985</v>
+        <v>0.7704547513119513</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05056593373670561</v>
+        <v>0.1059064631242774</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.372898669290501</v>
+        <v>0.07466018869829433</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05133208424786781</v>
+        <v>0.1065532119894839</v>
       </c>
       <c r="J132" t="n">
-        <v>0.6761548125474544</v>
+        <v>0.2945414840242068</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05129524121322776</v>
+        <v>0.1073759065042216</v>
       </c>
       <c r="L132" t="n">
-        <v>0.9746830820101839</v>
+        <v>0.5317248543536274</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05129605547743989</v>
+        <v>0.1074631632422792</v>
       </c>
       <c r="N132" t="n">
-        <v>0.372898669290501</v>
+        <v>0.767681887230683</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05133208424786781</v>
+        <v>0.1075111065049482</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.3744623317924283</v>
+        <v>0.08359497780284028</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05209823475903002</v>
+        <v>0.1081435584370882</v>
       </c>
       <c r="J133" t="n">
-        <v>0.6746158822169216</v>
+        <v>0.2909763732943361</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05206084182835056</v>
+        <v>0.1089785319744339</v>
       </c>
       <c r="L133" t="n">
-        <v>0.9755213294078275</v>
+        <v>0.5246398062947429</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0520616682457599</v>
+        <v>0.1090670910518655</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3744623317924283</v>
+        <v>0.7586734185692428</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05209823475903002</v>
+        <v>0.1091157498856191</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.3718889853043789</v>
+        <v>0.08157979343937974</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05286438527019223</v>
+        <v>0.1097339048846924</v>
       </c>
       <c r="J134" t="n">
-        <v>0.6738351617716168</v>
+        <v>0.2880157974682668</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05282644244347336</v>
+        <v>0.1105811574446461</v>
       </c>
       <c r="L134" t="n">
-        <v>0.9714915994968942</v>
+        <v>0.5183298270944988</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05282728101407989</v>
+        <v>0.1106710188614518</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3718889853043789</v>
+        <v>0.7455074952554848</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05286438527019223</v>
+        <v>0.11072039326629</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.3723807419009512</v>
+        <v>0.07563424329278279</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05363053578135443</v>
+        <v>0.1113242513322966</v>
       </c>
       <c r="J135" t="n">
-        <v>0.6745140317435288</v>
+        <v>0.2837281637295817</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05359204305859616</v>
+        <v>0.1121837829148584</v>
       </c>
       <c r="L135" t="n">
-        <v>0.9723959025450766</v>
+        <v>0.5073181596483098</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0535928937823999</v>
+        <v>0.112274946671038</v>
       </c>
       <c r="N135" t="n">
-        <v>0.3723807419009512</v>
+        <v>0.7337622672172639</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05363053578135443</v>
+        <v>0.1123250366469608</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.3728397136567433</v>
+        <v>0.07977793504791944</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05439668629251664</v>
+        <v>0.1129145977799009</v>
       </c>
       <c r="J136" t="n">
-        <v>0.6696538726646457</v>
+        <v>0.2785818792618633</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05435764367371897</v>
+        <v>0.1137864083850706</v>
       </c>
       <c r="L136" t="n">
-        <v>0.9699362488200669</v>
+        <v>0.5033280468515906</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05435850655071989</v>
+        <v>0.1138788744806243</v>
       </c>
       <c r="N136" t="n">
-        <v>0.3728397136567433</v>
+        <v>0.7313158843824341</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05439668629251664</v>
+        <v>0.1139296800276317</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.3701680126463539</v>
+        <v>0.07303047638965976</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05516283680367885</v>
+        <v>0.1145049442275051</v>
       </c>
       <c r="J137" t="n">
-        <v>0.6733560650669564</v>
+        <v>0.2752453512486946</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05512324428884177</v>
+        <v>0.1153890338552829</v>
       </c>
       <c r="L137" t="n">
-        <v>0.9654146485895574</v>
+        <v>0.4991827315997558</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05512411931903988</v>
+        <v>0.1154828022902105</v>
       </c>
       <c r="N137" t="n">
-        <v>0.3701680126463539</v>
+        <v>0.71604649667885</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05516283680367885</v>
+        <v>0.1155343234083026</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.3722677509443811</v>
+        <v>0.07641147500287379</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05592898731484104</v>
+        <v>0.1160952906751093</v>
       </c>
       <c r="J138" t="n">
-        <v>0.6684219894824491</v>
+        <v>0.2727869868736583</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05588884490396456</v>
+        <v>0.1169916593254952</v>
       </c>
       <c r="L138" t="n">
-        <v>0.9643331121212404</v>
+        <v>0.4934054567882205</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05588973208735989</v>
+        <v>0.1170867300997968</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3722677509443811</v>
+        <v>0.7082322540343655</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05592898731484104</v>
+        <v>0.1171389667889735</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.3710410406254234</v>
+        <v>0.0759405385724316</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05669513782600325</v>
+        <v>0.1176856371227136</v>
       </c>
       <c r="J139" t="n">
-        <v>0.6738530264431122</v>
+        <v>0.2734751933203372</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05665444551908737</v>
+        <v>0.1185942847957074</v>
       </c>
       <c r="L139" t="n">
-        <v>0.9628936496828084</v>
+        <v>0.4874194653123993</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05665534485567989</v>
+        <v>0.118690657909383</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3710410406254234</v>
+        <v>0.7028513063768358</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05669513782600325</v>
+        <v>0.1187436101696443</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.3676899937640792</v>
+        <v>0.07363727478320323</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05746128833716546</v>
+        <v>0.1192759835703178</v>
       </c>
       <c r="J140" t="n">
-        <v>0.6695505564809341</v>
+        <v>0.2706783777723139</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05742004613421017</v>
+        <v>0.1201969102659197</v>
       </c>
       <c r="L140" t="n">
-        <v>0.9612982715419534</v>
+        <v>0.4848480000677069</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05742095762399989</v>
+        <v>0.1202945857189693</v>
       </c>
       <c r="N140" t="n">
-        <v>0.3676899937640792</v>
+        <v>0.7072818036341144</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05746128833716546</v>
+        <v>0.1203482535503152</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.3675167224349468</v>
+        <v>0.07352129132005872</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05822743884832766</v>
+        <v>0.1208663300179221</v>
       </c>
       <c r="J141" t="n">
-        <v>0.6676159601279036</v>
+        <v>0.2701649474131714</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05818564674933298</v>
+        <v>0.1217995357361319</v>
       </c>
       <c r="L141" t="n">
-        <v>0.9643489879663683</v>
+        <v>0.4815143039495582</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05818657039231988</v>
+        <v>0.1218985135285555</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3675167224349468</v>
+        <v>0.703101895734056</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05822743884832766</v>
+        <v>0.1219528969309861</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.3661233387126246</v>
+        <v>0.0735334672552504</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05899358935948987</v>
+        <v>0.1224566764655263</v>
       </c>
       <c r="J142" t="n">
-        <v>0.6704506179160088</v>
+        <v>0.2709033094264924</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05895124736445578</v>
+        <v>0.1234021612063442</v>
       </c>
       <c r="L142" t="n">
-        <v>0.9622478092237448</v>
+        <v>0.4852416198533681</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05895218316063988</v>
+        <v>0.1235024413381418</v>
       </c>
       <c r="N142" t="n">
-        <v>0.3661233387126246</v>
+        <v>0.6972897326045151</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05899358935948987</v>
+        <v>0.1235575403116569</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.3671119546717109</v>
+        <v>0.07957521234844822</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05975973987065208</v>
+        <v>0.1240470229131305</v>
       </c>
       <c r="J143" t="n">
-        <v>0.6670559103772383</v>
+        <v>0.2681531274097818</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05971684797957859</v>
+        <v>0.1250047866765565</v>
       </c>
       <c r="L143" t="n">
-        <v>0.9610967455817754</v>
+        <v>0.4809055514869753</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05971779592895989</v>
+        <v>0.125106369147728</v>
       </c>
       <c r="N143" t="n">
-        <v>0.3671119546717109</v>
+        <v>0.6963550360783137</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05975973987065208</v>
+        <v>0.1251621836923278</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.3643846823868043</v>
+        <v>0.07764457155996457</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06052589038181429</v>
+        <v>0.1256373693607347</v>
       </c>
       <c r="J144" t="n">
-        <v>0.6656332180435806</v>
+        <v>0.2708033064544683</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06048244859470138</v>
+        <v>0.1266074121467687</v>
       </c>
       <c r="L144" t="n">
-        <v>0.9604978073081525</v>
+        <v>0.4862584155466282</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06048340869727988</v>
+        <v>0.1267102969573143</v>
       </c>
       <c r="N144" t="n">
-        <v>0.3643846823868043</v>
+        <v>0.6988064798972768</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06052589038181429</v>
+        <v>0.1267668270729987</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.3664436339325029</v>
+        <v>0.06874010412425774</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06129204089297648</v>
+        <v>0.127227715808339</v>
       </c>
       <c r="J145" t="n">
-        <v>0.662183921447024</v>
+        <v>0.2694487208087742</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06124804920982418</v>
+        <v>0.128210037616981</v>
       </c>
       <c r="L145" t="n">
-        <v>0.9587530046705686</v>
+        <v>0.4838835993075156</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06124902146559987</v>
+        <v>0.1283142247669006</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3664436339325029</v>
+        <v>0.699807604512525</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06129204089297648</v>
+        <v>0.1283714704536696</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.3636909213834051</v>
+        <v>0.07586036927578588</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06205819140413869</v>
+        <v>0.1288180622559432</v>
       </c>
       <c r="J146" t="n">
-        <v>0.6626094011195572</v>
+        <v>0.2699843439377683</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06201364982494699</v>
+        <v>0.1298126630871933</v>
       </c>
       <c r="L146" t="n">
-        <v>0.9573643479367158</v>
+        <v>0.483172046926576</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06201463423391988</v>
+        <v>0.1299181525764868</v>
       </c>
       <c r="N146" t="n">
-        <v>0.3636909213834051</v>
+        <v>0.7049453195322539</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06205819140413869</v>
+        <v>0.1299761138343404</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.3643286568141094</v>
+        <v>0.07800392624900718</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06282434191530091</v>
+        <v>0.1304084087035475</v>
       </c>
       <c r="J147" t="n">
-        <v>0.6649110375931685</v>
+        <v>0.2717051493065196</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06277925044006979</v>
+        <v>0.1314152885574055</v>
       </c>
       <c r="L147" t="n">
-        <v>0.9541338473742862</v>
+        <v>0.4832147025607477</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06278024700223987</v>
+        <v>0.1315220803860731</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3643286568141094</v>
+        <v>0.6996065345646594</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06282434191530091</v>
+        <v>0.1315807572150113</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.3617589522992142</v>
+        <v>0.08016933427837991</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0635904924264631</v>
+        <v>0.1319987551511517</v>
       </c>
       <c r="J148" t="n">
-        <v>0.6625902113998463</v>
+        <v>0.2720061103800969</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0635448510551926</v>
+        <v>0.1330179140276178</v>
       </c>
       <c r="L148" t="n">
-        <v>0.9558635132509725</v>
+        <v>0.4900025103669693</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06354585977055988</v>
+        <v>0.1331260081956593</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3617589522992142</v>
+        <v>0.706778159217937</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0635904924264631</v>
+        <v>0.1331854005956822</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.3609839199133177</v>
+        <v>0.0753551525983622</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06435664293762532</v>
+        <v>0.1335891015987559</v>
       </c>
       <c r="J149" t="n">
-        <v>0.6634483030715791</v>
+        <v>0.270582200623569</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0643104516703154</v>
+        <v>0.1346205394978301</v>
       </c>
       <c r="L149" t="n">
-        <v>0.9501553558344673</v>
+        <v>0.4905264145021789</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06431147253887987</v>
+        <v>0.1347299360052456</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3609839199133177</v>
+        <v>0.7084471031002819</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06435664293762532</v>
+        <v>0.134790043976353</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.3600056717310184</v>
+        <v>0.07055994044341229</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06512279344878752</v>
+        <v>0.1351794480463602</v>
       </c>
       <c r="J150" t="n">
-        <v>0.6572866931403555</v>
+        <v>0.2731283935020051</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0650760522854382</v>
+        <v>0.1362231649680423</v>
       </c>
       <c r="L150" t="n">
-        <v>0.9536113853924619</v>
+        <v>0.4895773591233151</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06507708530719987</v>
+        <v>0.1363338638148319</v>
       </c>
       <c r="N150" t="n">
-        <v>0.3600056717310184</v>
+        <v>0.7087002758198899</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06512279344878752</v>
+        <v>0.1363946873570239</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.3607263198269147</v>
+        <v>0.07278225704798838</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06588894395994972</v>
+        <v>0.1367697944939644</v>
       </c>
       <c r="J151" t="n">
-        <v>0.6574067621381636</v>
+        <v>0.2723396624804738</v>
       </c>
       <c r="K151" t="n">
-        <v>0.065841652900561</v>
+        <v>0.1378257904382546</v>
       </c>
       <c r="L151" t="n">
-        <v>0.9517336121926496</v>
+        <v>0.4929462883873162</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06584269807551987</v>
+        <v>0.1379377916244181</v>
       </c>
       <c r="N151" t="n">
-        <v>0.3607263198269147</v>
+        <v>0.7060245869849571</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06588894395994972</v>
+        <v>0.1379993307376948</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.3597479762756047</v>
+        <v>0.07902066164654867</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06665509447111193</v>
+        <v>0.1383601409415686</v>
       </c>
       <c r="J152" t="n">
-        <v>0.6570098905969923</v>
+        <v>0.2733109810240441</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06660725351568381</v>
+        <v>0.1394284159084669</v>
       </c>
       <c r="L152" t="n">
-        <v>0.9455240465027224</v>
+        <v>0.4937241464511206</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06660831084383988</v>
+        <v>0.1395417194340044</v>
       </c>
       <c r="N152" t="n">
-        <v>0.3597479762756047</v>
+        <v>0.7098069462036787</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06665509447111193</v>
+        <v>0.1396039741183656</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.3580727531516871</v>
+        <v>0.07627371347355136</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06742124498227414</v>
+        <v>0.1399504873891729</v>
       </c>
       <c r="J153" t="n">
-        <v>0.6573974590488297</v>
+        <v>0.2733373225977849</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06737285413080661</v>
+        <v>0.1410310413786791</v>
       </c>
       <c r="L153" t="n">
-        <v>0.9435846985903726</v>
+        <v>0.4946018774716665</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06737392361215987</v>
+        <v>0.1411456472435906</v>
       </c>
       <c r="N153" t="n">
-        <v>0.3580727531516871</v>
+        <v>0.7126342630842499</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06742124498227414</v>
+        <v>0.1412086174990365</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.3574027625297601</v>
+        <v>0.07358031123708586</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06818739549343635</v>
+        <v>0.1415408338367772</v>
       </c>
       <c r="J154" t="n">
-        <v>0.6571708480256646</v>
+        <v>0.273713660666765</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06813845474592942</v>
+        <v>0.1426336668488914</v>
       </c>
       <c r="L154" t="n">
-        <v>0.9437175787232925</v>
+        <v>0.4967704256058925</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06813953638047987</v>
+        <v>0.1427495750531769</v>
       </c>
       <c r="N154" t="n">
-        <v>0.3574027625297601</v>
+        <v>0.7137934472348668</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06818739549343635</v>
+        <v>0.1428132608797074</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.3571401164844221</v>
+        <v>0.0721134868288559</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06895354600459855</v>
+        <v>0.1431311802843814</v>
       </c>
       <c r="J155" t="n">
-        <v>0.6570314380594852</v>
+        <v>0.2758592302865004</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06890405536105222</v>
+        <v>0.1442362923191036</v>
       </c>
       <c r="L155" t="n">
-        <v>0.9374246971691746</v>
+        <v>0.4998314527233949</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06890514914879986</v>
+        <v>0.1443535028627631</v>
       </c>
       <c r="N155" t="n">
-        <v>0.3571401164844221</v>
+        <v>0.7174538449046399</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06895354600459855</v>
+        <v>0.1444179042603782</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.3538869270902715</v>
+        <v>0.07685586788240903</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06971969651576075</v>
+        <v>0.1447215267319856</v>
       </c>
       <c r="J156" t="n">
-        <v>0.65468060968228</v>
+        <v>0.2785176673338969</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06966965597617501</v>
+        <v>0.1458389177893159</v>
       </c>
       <c r="L156" t="n">
-        <v>0.943408064195711</v>
+        <v>0.4977300517235036</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06967076191711986</v>
+        <v>0.1459574306723494</v>
       </c>
       <c r="N156" t="n">
-        <v>0.3538869270902715</v>
+        <v>0.723162494071097</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06971969651576075</v>
+        <v>0.1460225476410491</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.3529453064219066</v>
+        <v>0.08376396116344997</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07048584702692297</v>
+        <v>0.1463118731795899</v>
       </c>
       <c r="J157" t="n">
-        <v>0.6497197434260374</v>
+        <v>0.2821753710982915</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07043525659129782</v>
+        <v>0.1474415432595282</v>
       </c>
       <c r="L157" t="n">
-        <v>0.9395696900705941</v>
+        <v>0.502611404857761</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07043637468543985</v>
+        <v>0.1475613584819357</v>
       </c>
       <c r="N157" t="n">
-        <v>0.3529453064219066</v>
+        <v>0.7286435933982922</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07048584702692297</v>
+        <v>0.14762719102172</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.3535173665539258</v>
+        <v>0.08379427343768348</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07125199753808516</v>
+        <v>0.1479022196271941</v>
       </c>
       <c r="J158" t="n">
-        <v>0.6498502198227458</v>
+        <v>0.2826806026220889</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07120085720642062</v>
+        <v>0.1490441687297404</v>
       </c>
       <c r="L158" t="n">
-        <v>0.9349115850615159</v>
+        <v>0.508502138081193</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07120198745375986</v>
+        <v>0.1491652862915219</v>
       </c>
       <c r="N158" t="n">
-        <v>0.3535173665539258</v>
+        <v>0.7413019755524368</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07125199753808516</v>
+        <v>0.1492318344023909</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.3548052195609276</v>
+        <v>0.08590331147081429</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07201814804924737</v>
+        <v>0.1494925660747983</v>
       </c>
       <c r="J159" t="n">
-        <v>0.649773419404394</v>
+        <v>0.2897816229476935</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07196645782154343</v>
+        <v>0.1506467941999527</v>
       </c>
       <c r="L159" t="n">
-        <v>0.9327357594361694</v>
+        <v>0.5202288773488257</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07196760022207986</v>
+        <v>0.1507692141011082</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3548052195609276</v>
+        <v>0.7452424731997433</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07201814804924737</v>
+        <v>0.1508364777830617</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.3505109775175103</v>
+        <v>0.08004758202854714</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07278429856040958</v>
+        <v>0.1510829125224026</v>
       </c>
       <c r="J160" t="n">
-        <v>0.6494907227029703</v>
+        <v>0.2916266931175096</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07273205843666623</v>
+        <v>0.1522494196701649</v>
       </c>
       <c r="L160" t="n">
-        <v>0.9266442234622465</v>
+        <v>0.5223182486156852</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07273321299039986</v>
+        <v>0.1523731419106944</v>
       </c>
       <c r="N160" t="n">
-        <v>0.3505109775175103</v>
+        <v>0.7584699190064244</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07278429856040958</v>
+        <v>0.1524411211637326</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.3531367524982721</v>
+        <v>0.08818359187658684</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07355044907157179</v>
+        <v>0.1526732589700068</v>
       </c>
       <c r="J161" t="n">
-        <v>0.6474035102504628</v>
+        <v>0.2941640741739417</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07349765905178902</v>
+        <v>0.1538520451403772</v>
       </c>
       <c r="L161" t="n">
-        <v>0.92573898740744</v>
+        <v>0.5284968778367977</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07349882575871985</v>
+        <v>0.1539770697202807</v>
       </c>
       <c r="N161" t="n">
-        <v>0.3531367524982721</v>
+        <v>0.7701891456386909</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07355044907157179</v>
+        <v>0.1540457645444034</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.3521846565778116</v>
+        <v>0.08326784778063809</v>
       </c>
       <c r="G162" t="n">
-        <v>0.074316599582734</v>
+        <v>0.1542636054176111</v>
       </c>
       <c r="J162" t="n">
-        <v>0.6467131625788606</v>
+        <v>0.2985420271593944</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07426325966691183</v>
+        <v>0.1554546706105895</v>
       </c>
       <c r="L162" t="n">
-        <v>0.9316220615394415</v>
+        <v>0.540791390967189</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07426443852703986</v>
+        <v>0.155580997529867</v>
       </c>
       <c r="N162" t="n">
-        <v>0.3521846565778116</v>
+        <v>0.7783049857627558</v>
       </c>
       <c r="O162" t="n">
-        <v>0.074316599582734</v>
+        <v>0.1556504079250743</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.351256801830727</v>
+        <v>0.0842568565064056</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0750827500938962</v>
+        <v>0.1558539518652153</v>
       </c>
       <c r="J163" t="n">
-        <v>0.6424210602201517</v>
+        <v>0.302608813116272</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07502886028203463</v>
+        <v>0.1570572960808017</v>
       </c>
       <c r="L163" t="n">
-        <v>0.9272954561259434</v>
+        <v>0.5477284139618853</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07503005129535985</v>
+        <v>0.1571849253394532</v>
       </c>
       <c r="N163" t="n">
-        <v>0.351256801830727</v>
+        <v>0.7824222720448304</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0750827500938962</v>
+        <v>0.1572550513057452</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.3483547351039352</v>
+        <v>0.08011250134040332</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0758489006050584</v>
+        <v>0.1574442983128195</v>
       </c>
       <c r="J164" t="n">
-        <v>0.6414285837063245</v>
+        <v>0.306612693086979</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07579446089715743</v>
+        <v>0.158659921551014</v>
       </c>
       <c r="L164" t="n">
-        <v>0.9183611814346384</v>
+        <v>0.5531345727759125</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07579566406367984</v>
+        <v>0.1587888531490395</v>
       </c>
       <c r="N164" t="n">
-        <v>0.3483547351039352</v>
+        <v>0.7936458371511275</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0758489006050584</v>
+        <v>0.1588596946864161</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.3486676962166402</v>
+        <v>0.08191008147411968</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07661505111622061</v>
+        <v>0.1590346447604238</v>
       </c>
       <c r="J165" t="n">
-        <v>0.6450371135693678</v>
+        <v>0.3104689896461154</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07656006151228023</v>
+        <v>0.1602625470212262</v>
       </c>
       <c r="L165" t="n">
-        <v>0.9161212477332188</v>
+        <v>0.5563204507318774</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07656127683199984</v>
+        <v>0.1603927809586257</v>
       </c>
       <c r="N165" t="n">
-        <v>0.3486676962166402</v>
+        <v>0.7998768968511845</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07661505111622061</v>
+        <v>0.1604643380670869</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.3498900956418112</v>
+        <v>0.08668855186896829</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07738120162738282</v>
+        <v>0.160624991208028</v>
       </c>
       <c r="J166" t="n">
-        <v>0.6438480303412697</v>
+        <v>0.3123929554864183</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07732566212740304</v>
+        <v>0.1618651724914385</v>
       </c>
       <c r="L166" t="n">
-        <v>0.9211776652893768</v>
+        <v>0.5591297344279439</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07732688960031985</v>
+        <v>0.161996708768212</v>
       </c>
       <c r="N166" t="n">
-        <v>0.3498900956418112</v>
+        <v>0.8065747884887056</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07738120162738282</v>
+        <v>0.1620689814477578</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.3472209105767395</v>
+        <v>0.0884492922612462</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07814735213854503</v>
+        <v>0.1622153376556322</v>
       </c>
       <c r="J167" t="n">
-        <v>0.6385627145540189</v>
+        <v>0.316151924580177</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07809126274252583</v>
+        <v>0.1634677979616508</v>
       </c>
       <c r="L167" t="n">
-        <v>0.9194324443708048</v>
+        <v>0.5659213245017273</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07809250236863985</v>
+        <v>0.1636006365777982</v>
       </c>
       <c r="N167" t="n">
-        <v>0.3472209105767395</v>
+        <v>0.8134020798013781</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07814735213854503</v>
+        <v>0.1636736248284287</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.3463591182187167</v>
+        <v>0.08919368238725051</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07891350264970723</v>
+        <v>0.1638056841032365</v>
       </c>
       <c r="J168" t="n">
-        <v>0.6391589570710704</v>
+        <v>0.3174507105438276</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07885686335764863</v>
+        <v>0.165070423431863</v>
       </c>
       <c r="L168" t="n">
-        <v>0.914287595245195</v>
+        <v>0.5706038932007308</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07885811513695984</v>
+        <v>0.1652045643873845</v>
       </c>
       <c r="N168" t="n">
-        <v>0.3463591182187167</v>
+        <v>0.8228713066863975</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07891350264970723</v>
+        <v>0.1652782682090995</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.347903695765034</v>
+        <v>0.08692310198327827</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07967965316086943</v>
+        <v>0.1653960305508407</v>
       </c>
       <c r="J169" t="n">
-        <v>0.6365721355375581</v>
+        <v>0.3215941269938067</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07962246397277144</v>
+        <v>0.1666730489020753</v>
       </c>
       <c r="L169" t="n">
-        <v>0.9126451281802397</v>
+        <v>0.5757861127724578</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07962372790527984</v>
+        <v>0.1668084921969707</v>
       </c>
       <c r="N169" t="n">
-        <v>0.347903695765034</v>
+        <v>0.8328950050409594</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07967965316086943</v>
+        <v>0.1668829115897704</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.3445536204129829</v>
+        <v>0.09463893078562655</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08044580367203165</v>
+        <v>0.1669863769984449</v>
       </c>
       <c r="J170" t="n">
-        <v>0.6365027897135422</v>
+        <v>0.3210869875465506</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08038806458789424</v>
+        <v>0.1682756743722876</v>
       </c>
       <c r="L170" t="n">
-        <v>0.9069070534436314</v>
+        <v>0.5806766554644115</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08038934067359985</v>
+        <v>0.168412420006557</v>
       </c>
       <c r="N170" t="n">
-        <v>0.3445536204129829</v>
+        <v>0.8359857107622606</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08044580367203165</v>
+        <v>0.1684875549704413</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.3433078693598547</v>
+        <v>0.09334254853059246</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08121195418319385</v>
+        <v>0.1685767234460492</v>
       </c>
       <c r="J171" t="n">
-        <v>0.6350557184370909</v>
+        <v>0.3237341058184955</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08115366520301705</v>
+        <v>0.1698782998424998</v>
       </c>
       <c r="L171" t="n">
-        <v>0.9091753813030625</v>
+        <v>0.5801841935240952</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08115495344191985</v>
+        <v>0.1700163478161433</v>
       </c>
       <c r="N171" t="n">
-        <v>0.3433078693598547</v>
+        <v>0.8385559597474963</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08121195418319385</v>
+        <v>0.1700921983511121</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.342865419802941</v>
+        <v>0.090035334954473</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08197810469435605</v>
+        <v>0.1701670698936534</v>
       </c>
       <c r="J172" t="n">
-        <v>0.6351357205462723</v>
+        <v>0.327640295426078</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08191926581813985</v>
+        <v>0.1714809253127121</v>
       </c>
       <c r="L172" t="n">
-        <v>0.9051378369640546</v>
+        <v>0.5879173991990124</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08192056621023984</v>
+        <v>0.1716202756257295</v>
       </c>
       <c r="N172" t="n">
-        <v>0.342865419802941</v>
+        <v>0.8521182878938627</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08197810469435605</v>
+        <v>0.171696841731783</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.343725248939533</v>
+        <v>0.0927186697935653</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08274425520551826</v>
+        <v>0.1717574163412576</v>
       </c>
       <c r="J173" t="n">
-        <v>0.6338475948791543</v>
+        <v>0.3303103699857343</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08268486643326264</v>
+        <v>0.1730835507829244</v>
       </c>
       <c r="L173" t="n">
-        <v>0.908065828415108</v>
+        <v>0.5937849447366664</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08268617897855983</v>
+        <v>0.1732242034353158</v>
       </c>
       <c r="N173" t="n">
-        <v>0.343725248939533</v>
+        <v>0.850385231098556</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08274425520551826</v>
+        <v>0.1733014851124539</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.3425863339669221</v>
+        <v>0.09739393278416641</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08351040571668047</v>
+        <v>0.1733477627888619</v>
       </c>
       <c r="J174" t="n">
-        <v>0.6283961402738051</v>
+        <v>0.3325491431139008</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08345046704838545</v>
+        <v>0.1746861762531366</v>
       </c>
       <c r="L174" t="n">
-        <v>0.9030802102848949</v>
+        <v>0.5943955023845603</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08345179174687983</v>
+        <v>0.174828131244902</v>
       </c>
       <c r="N174" t="n">
-        <v>0.3425863339669221</v>
+        <v>0.8639693252587717</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08351040571668047</v>
+        <v>0.1749061284931248</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.3425476520823998</v>
+        <v>0.09906250366257341</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08427655622784266</v>
+        <v>0.1749381092364661</v>
       </c>
       <c r="J175" t="n">
-        <v>0.6305861555682927</v>
+        <v>0.3361614284270139</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08421606766350825</v>
+        <v>0.1762888017233489</v>
       </c>
       <c r="L175" t="n">
-        <v>0.8970022770565025</v>
+        <v>0.6023577443901976</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08421740451519984</v>
+        <v>0.1764320590544883</v>
       </c>
       <c r="N175" t="n">
-        <v>0.3425476520823998</v>
+        <v>0.8694831062717059</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08427655622784266</v>
+        <v>0.1765107718737956</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.3420081804832574</v>
+        <v>0.09473862220698978</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08504270673900488</v>
+        <v>0.1765284556840704</v>
       </c>
       <c r="J176" t="n">
-        <v>0.626222439600685</v>
+        <v>0.3347520395415099</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08498166827863106</v>
+        <v>0.1778914271935611</v>
       </c>
       <c r="L176" t="n">
-        <v>0.8948533232130187</v>
+        <v>0.6026803430010813</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08498301728351983</v>
+        <v>0.1780359868640745</v>
       </c>
       <c r="N176" t="n">
-        <v>0.3420081804832574</v>
+        <v>0.8687391100345547</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08504270673900488</v>
+        <v>0.1781154152544665</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.3401668963667865</v>
+        <v>0.09545384459227316</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08580885725016708</v>
+        <v>0.1781188021316746</v>
       </c>
       <c r="J177" t="n">
-        <v>0.6232097912090505</v>
+        <v>0.3392188048602754</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08574726889375386</v>
+        <v>0.1794940526637734</v>
       </c>
       <c r="L177" t="n">
-        <v>0.8904546432375313</v>
+        <v>0.6099176131964602</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08574863005183983</v>
+        <v>0.1796399146736608</v>
       </c>
       <c r="N177" t="n">
-        <v>0.3401668963667865</v>
+        <v>0.8743438110524862</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08580885725016708</v>
+        <v>0.1797200586351374</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.3418227769302782</v>
+        <v>0.09018814745031536</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08657500776132929</v>
+        <v>0.1797091485792788</v>
       </c>
       <c r="J178" t="n">
-        <v>0.6213530092314569</v>
+        <v>0.3433067293980245</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08651286950887667</v>
+        <v>0.1810966781339857</v>
       </c>
       <c r="L178" t="n">
-        <v>0.886627531613128</v>
+        <v>0.6155821297731754</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08651424282015983</v>
+        <v>0.1812438424832471</v>
       </c>
       <c r="N178" t="n">
-        <v>0.3418227769302782</v>
+        <v>0.8872828385626004</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08657500776132929</v>
+        <v>0.1813247020158082</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.3390747993710241</v>
+        <v>0.1019178293450126</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08734115827249149</v>
+        <v>0.1812994950268831</v>
       </c>
       <c r="J179" t="n">
-        <v>0.6210568925059723</v>
+        <v>0.3438331412798029</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08727847012399946</v>
+        <v>0.1826993036041979</v>
       </c>
       <c r="L179" t="n">
-        <v>0.8893932828228965</v>
+        <v>0.620226331883706</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08727985558847984</v>
+        <v>0.1828477702928333</v>
       </c>
       <c r="N179" t="n">
-        <v>0.3390747993710241</v>
+        <v>0.8911452602524039</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08734115827249149</v>
+        <v>0.1829293453964791</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.3403219408863156</v>
+        <v>0.09661918884026127</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08810730878365371</v>
+        <v>0.1828898414744873</v>
       </c>
       <c r="J180" t="n">
-        <v>0.6180262398706649</v>
+        <v>0.3472153510651456</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08804407073912227</v>
+        <v>0.1843019290744102</v>
       </c>
       <c r="L180" t="n">
-        <v>0.879573191349925</v>
+        <v>0.6206012456114341</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08804546835679983</v>
+        <v>0.1844516981024196</v>
       </c>
       <c r="N180" t="n">
-        <v>0.3403219408863156</v>
+        <v>0.898415731517987</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08810730878365371</v>
+        <v>0.18453398877715</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.3399631786734441</v>
+        <v>0.1022685244999575</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08887345929481591</v>
+        <v>0.1844801879220915</v>
       </c>
       <c r="J181" t="n">
-        <v>0.6153658501636027</v>
+        <v>0.3473706693135875</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08880967135424507</v>
+        <v>0.1859045545446225</v>
       </c>
       <c r="L181" t="n">
-        <v>0.8765885516773002</v>
+        <v>0.6257578970397408</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08881108112511982</v>
+        <v>0.1860556259120058</v>
       </c>
       <c r="N181" t="n">
-        <v>0.3399631786734441</v>
+        <v>0.9032789077554406</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08887345929481591</v>
+        <v>0.1861386321578208</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.3358974899297009</v>
+        <v>0.1038421348879977</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08963960980597811</v>
+        <v>0.1860705343696958</v>
       </c>
       <c r="J182" t="n">
-        <v>0.6152805222228538</v>
+        <v>0.352716406584663</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08957527196936788</v>
+        <v>0.1875071800148347</v>
       </c>
       <c r="L182" t="n">
-        <v>0.8764606582881109</v>
+        <v>0.629447312252008</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08957669389343982</v>
+        <v>0.1876595537215921</v>
       </c>
       <c r="N182" t="n">
-        <v>0.3358974899297009</v>
+        <v>0.9086194443608546</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08963960980597811</v>
+        <v>0.1877432755384917</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.3353238518523774</v>
+        <v>0.0963163185682781</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09040576031714032</v>
+        <v>0.1876608808173</v>
       </c>
       <c r="J183" t="n">
-        <v>0.6136750548864863</v>
+        <v>0.3537698734379072</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09034087258449068</v>
+        <v>0.189109805485047</v>
       </c>
       <c r="L183" t="n">
-        <v>0.8726108056654442</v>
+        <v>0.6372205173316169</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09034230666175982</v>
+        <v>0.1892634815311784</v>
       </c>
       <c r="N183" t="n">
-        <v>0.3353238518523774</v>
+        <v>0.9108219967303195</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09040576031714032</v>
+        <v>0.1893479189191626</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.3369412416387651</v>
+        <v>0.09366737410469492</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09117191082830253</v>
+        <v>0.1892512272649043</v>
       </c>
       <c r="J184" t="n">
-        <v>0.6094542469925681</v>
+        <v>0.3548483804328549</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09110647319961349</v>
+        <v>0.1907124309552592</v>
       </c>
       <c r="L184" t="n">
-        <v>0.8683602882923878</v>
+        <v>0.6346285383619494</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09110791943007981</v>
+        <v>0.1908674093407646</v>
       </c>
       <c r="N184" t="n">
-        <v>0.3369412416387651</v>
+        <v>0.9209712202599261</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09117191082830253</v>
+        <v>0.1909525622998335</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.3360486364861552</v>
+        <v>0.09893534304323146</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09193806133946474</v>
+        <v>0.1908415737125085</v>
       </c>
       <c r="J185" t="n">
-        <v>0.6125228973791677</v>
+        <v>0.3565931932639028</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09187207381473628</v>
+        <v>0.1923150564254715</v>
       </c>
       <c r="L185" t="n">
-        <v>0.8692304006520299</v>
+        <v>0.6360492954492758</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09187353219839982</v>
+        <v>0.1924713371503509</v>
       </c>
       <c r="N185" t="n">
-        <v>0.3360486364861552</v>
+        <v>0.919080128708849</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09193806133946474</v>
+        <v>0.1925572056805043</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.3355450135918395</v>
+        <v>0.1051972466376828</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09270421185062694</v>
+        <v>0.1924319201601127</v>
       </c>
       <c r="J186" t="n">
-        <v>0.6064858048843526</v>
+        <v>0.3562047029208473</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09263767442985908</v>
+        <v>0.1939176818956838</v>
       </c>
       <c r="L186" t="n">
-        <v>0.8645424372274579</v>
+        <v>0.6367910384790232</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09263914496671982</v>
+        <v>0.1940752649599371</v>
       </c>
       <c r="N186" t="n">
-        <v>0.3355450135918395</v>
+        <v>0.9240529482182709</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09270421185062694</v>
+        <v>0.1941618490611752</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.3343293501531089</v>
+        <v>0.100453446896886</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09347036236178914</v>
+        <v>0.194022266607717</v>
       </c>
       <c r="J187" t="n">
-        <v>0.602647768346191</v>
+        <v>0.3582966491273051</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09340327504498189</v>
+        <v>0.1955203073658961</v>
       </c>
       <c r="L187" t="n">
-        <v>0.8582176925017597</v>
+        <v>0.6399975991901643</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09340475773503983</v>
+        <v>0.1956791927695234</v>
       </c>
       <c r="N187" t="n">
-        <v>0.3343293501531089</v>
+        <v>0.9296749612676045</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09347036236178914</v>
+        <v>0.1957664924418461</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.3351006233672552</v>
+        <v>0.09970385659634917</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09423651287295134</v>
+        <v>0.1956126130553212</v>
       </c>
       <c r="J188" t="n">
-        <v>0.6007135866027513</v>
+        <v>0.3575687275749458</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09416887566010469</v>
+        <v>0.1971229328361083</v>
       </c>
       <c r="L188" t="n">
-        <v>0.8532774609580225</v>
+        <v>0.6456684293385274</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09417037050335982</v>
+        <v>0.1972831205791096</v>
       </c>
       <c r="N188" t="n">
-        <v>0.3351006233672552</v>
+        <v>0.9263453753595676</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09423651287295134</v>
+        <v>0.1973711358225169</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.3321578104315696</v>
+        <v>0.1009483885115802</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09500266338411356</v>
+        <v>0.1972029595029254</v>
       </c>
       <c r="J189" t="n">
-        <v>0.6005880584921013</v>
+        <v>0.3607206339554397</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0949344762752275</v>
+        <v>0.1987255583063205</v>
       </c>
       <c r="L189" t="n">
-        <v>0.8506430370793348</v>
+        <v>0.6452029806799404</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09493598327167981</v>
+        <v>0.1988870483886959</v>
       </c>
       <c r="N189" t="n">
-        <v>0.3321578104315696</v>
+        <v>0.9268633979968788</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09500266338411356</v>
+        <v>0.1989757792031878</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.3333998885433435</v>
+        <v>0.09718695541808697</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09576881389527576</v>
+        <v>0.1987933059505297</v>
       </c>
       <c r="J190" t="n">
-        <v>0.598975982852309</v>
+        <v>0.3591520639604563</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0957000768903503</v>
+        <v>0.2003281837765328</v>
       </c>
       <c r="L190" t="n">
-        <v>0.8519357153487839</v>
+        <v>0.6458007049702316</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09570159603999981</v>
+        <v>0.2004909761982821</v>
       </c>
       <c r="N190" t="n">
-        <v>0.3333998885433435</v>
+        <v>0.9348282366822549</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09576881389527576</v>
+        <v>0.2005804225838587</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.3330258348998684</v>
+        <v>0.1004194700913774</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09653496440643798</v>
+        <v>0.2003836523981339</v>
       </c>
       <c r="J191" t="n">
-        <v>0.5970821585214429</v>
+        <v>0.3619627132816653</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09646567750547309</v>
+        <v>0.2019308092467451</v>
       </c>
       <c r="L191" t="n">
-        <v>0.8410767902494576</v>
+        <v>0.6508610539652291</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09646720880831981</v>
+        <v>0.2020949040078684</v>
       </c>
       <c r="N191" t="n">
-        <v>0.3330258348998684</v>
+        <v>0.9368390989184141</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09653496440643798</v>
+        <v>0.2021850659645295</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.3291346266984356</v>
+        <v>0.1036458453069595</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09730111491760017</v>
+        <v>0.2019739988457382</v>
       </c>
       <c r="J192" t="n">
-        <v>0.5959113843375705</v>
+        <v>0.3611522776107367</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0972312781205959</v>
+        <v>0.2035334347169574</v>
       </c>
       <c r="L192" t="n">
-        <v>0.8403875562644436</v>
+        <v>0.6505834794207609</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0972328215766398</v>
+        <v>0.2036988318174547</v>
       </c>
       <c r="N192" t="n">
-        <v>0.3291346266984356</v>
+        <v>0.9383951922080744</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09730111491760017</v>
+        <v>0.2037897093452004</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.3284252411363365</v>
+        <v>0.09986599384034109</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09806726542876239</v>
+        <v>0.2035643452933424</v>
       </c>
       <c r="J193" t="n">
-        <v>0.5931604497759799</v>
+        <v>0.3636204526393401</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0979968787357187</v>
+        <v>0.2051360601871696</v>
       </c>
       <c r="L193" t="n">
-        <v>0.8426893078768303</v>
+        <v>0.6472674330926553</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09799843434495981</v>
+        <v>0.2053027596270409</v>
       </c>
       <c r="N193" t="n">
-        <v>0.3284252411363365</v>
+        <v>0.9342957240539538</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09806726542876239</v>
+        <v>0.2053943527258713</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.3288966554108626</v>
+        <v>0.1060798284670302</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09883341593992459</v>
+        <v>0.2051546917409466</v>
       </c>
       <c r="J194" t="n">
-        <v>0.5912762195722177</v>
+        <v>0.3613669340591456</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09876247935084151</v>
+        <v>0.2067386856573819</v>
       </c>
       <c r="L194" t="n">
-        <v>0.8361033395697042</v>
+        <v>0.6545123667367405</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09876404711327981</v>
+        <v>0.2069066874366272</v>
       </c>
       <c r="N194" t="n">
-        <v>0.3288966554108626</v>
+        <v>0.9444399019587695</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09883341593992459</v>
+        <v>0.2069989961065422</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.3275478467193051</v>
+        <v>0.09728726196253476</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09959956645108679</v>
+        <v>0.2067450381885509</v>
       </c>
       <c r="J195" t="n">
-        <v>0.5874519597556241</v>
+        <v>0.3617914175618227</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09952807996596431</v>
+        <v>0.2083413111275942</v>
       </c>
       <c r="L195" t="n">
-        <v>0.8356456311211369</v>
+        <v>0.6549177321088443</v>
       </c>
       <c r="M195" t="n">
-        <v>0.0995296598815998</v>
+        <v>0.2085106152462134</v>
       </c>
       <c r="N195" t="n">
-        <v>0.3275478467193051</v>
+        <v>0.9402269334252393</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09959956645108679</v>
+        <v>0.208603639487213</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.3276777922589557</v>
+        <v>0.09748820710236261</v>
       </c>
       <c r="G196" t="n">
-        <v>0.100365716962249</v>
+        <v>0.2083353846361551</v>
       </c>
       <c r="J196" t="n">
-        <v>0.5891924453914521</v>
+        <v>0.3656935988390413</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1002936805810871</v>
+        <v>0.2099439365978064</v>
       </c>
       <c r="L196" t="n">
-        <v>0.8308231474602352</v>
+        <v>0.6544829809647955</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1002952726499198</v>
+        <v>0.2101145430557997</v>
       </c>
       <c r="N196" t="n">
-        <v>0.3276777922589557</v>
+        <v>0.9444560259560821</v>
       </c>
       <c r="O196" t="n">
-        <v>0.100365716962249</v>
+        <v>0.2102082828678839</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.3262854692271055</v>
+        <v>0.1026825766620218</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1011318674734112</v>
+        <v>0.2099257310837594</v>
       </c>
       <c r="J197" t="n">
-        <v>0.5868024515449551</v>
+        <v>0.3650731735824712</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1010592811962099</v>
+        <v>0.2115465620680187</v>
       </c>
       <c r="L197" t="n">
-        <v>0.830589946237299</v>
+        <v>0.6524075650604214</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1010608854182398</v>
+        <v>0.2117184708653859</v>
       </c>
       <c r="N197" t="n">
-        <v>0.3262854692271055</v>
+        <v>0.9463263870540142</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1011318674734112</v>
+        <v>0.2118129262485547</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.3270698548210461</v>
+        <v>0.1018702834170201</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1018980179845734</v>
+        <v>0.2115160775313636</v>
       </c>
       <c r="J198" t="n">
-        <v>0.5805867532813863</v>
+        <v>0.3666298374837823</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1018248818113327</v>
+        <v>0.2131491875382309</v>
       </c>
       <c r="L198" t="n">
-        <v>0.8303394766977559</v>
+        <v>0.6591909361515507</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1018264981865598</v>
+        <v>0.2133223986749722</v>
       </c>
       <c r="N198" t="n">
-        <v>0.3270698548210461</v>
+        <v>0.9458372242217548</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1018980179845734</v>
+        <v>0.2134175696292256</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.3225299262380688</v>
+        <v>0.1010512401428656</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1026641684957356</v>
+        <v>0.2131064239789678</v>
       </c>
       <c r="J199" t="n">
-        <v>0.5820501256659988</v>
+        <v>0.3649632862346443</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1025904824264555</v>
+        <v>0.2147518130084432</v>
       </c>
       <c r="L199" t="n">
-        <v>0.8232651880870328</v>
+        <v>0.6576325459940113</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1025921109548798</v>
+        <v>0.2149263264845585</v>
       </c>
       <c r="N199" t="n">
-        <v>0.3225299262380688</v>
+        <v>0.9494877449620207</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1026641684957356</v>
+        <v>0.2150222130098965</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.325064660675465</v>
+        <v>0.1052253596150662</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1034303190068978</v>
+        <v>0.214696770426572</v>
       </c>
       <c r="J200" t="n">
-        <v>0.5810973437640458</v>
+        <v>0.3686732155267269</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1033560830415783</v>
+        <v>0.2163544384786555</v>
       </c>
       <c r="L200" t="n">
-        <v>0.8286605296505571</v>
+        <v>0.6603318463436316</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1033577237231998</v>
+        <v>0.2165302542941447</v>
       </c>
       <c r="N200" t="n">
-        <v>0.325064660675465</v>
+        <v>0.9486771567775307</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1034303190068978</v>
+        <v>0.2166268563905673</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.3240730353305262</v>
+        <v>0.1063925546091297</v>
       </c>
       <c r="G201" t="n">
-        <v>0.10419646951806</v>
+        <v>0.2162871168741763</v>
       </c>
       <c r="J201" t="n">
-        <v>0.5757331826407808</v>
+        <v>0.3667593210517001</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1041216836567011</v>
+        <v>0.2179570639488677</v>
       </c>
       <c r="L201" t="n">
-        <v>0.8255189506337561</v>
+        <v>0.6617882889562394</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1041233364915198</v>
+        <v>0.218134182103731</v>
       </c>
       <c r="N201" t="n">
-        <v>0.3240730353305262</v>
+        <v>0.9558046671710017</v>
       </c>
       <c r="O201" t="n">
-        <v>0.10419646951806</v>
+        <v>0.2182314997712382</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.3229079677198092</v>
+        <v>0.1045527379005642</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1049626200292222</v>
+        <v>0.2178774633217805</v>
       </c>
       <c r="J202" t="n">
-        <v>0.5751624173614562</v>
+        <v>0.3682212985012336</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1048872842718239</v>
+        <v>0.21955968941908</v>
       </c>
       <c r="L202" t="n">
-        <v>0.8264339002820575</v>
+        <v>0.6623013255876631</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1048889492598398</v>
+        <v>0.2197381099133172</v>
       </c>
       <c r="N202" t="n">
-        <v>0.3229079677198092</v>
+        <v>0.9501694836451517</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1049626200292222</v>
+        <v>0.2198361431519091</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.3218895688290351</v>
+        <v>0.1067058222648775</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1057287705403845</v>
+        <v>0.2194678097693848</v>
       </c>
       <c r="J203" t="n">
-        <v>0.5721898229913263</v>
+        <v>0.3668588435669972</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1056528848869467</v>
+        <v>0.2211623148892922</v>
       </c>
       <c r="L203" t="n">
-        <v>0.818498827840888</v>
+        <v>0.6595704079937307</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1056545620281598</v>
+        <v>0.2213420377229035</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3218895688290351</v>
+        <v>0.9592708137026991</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1057287705403845</v>
+        <v>0.22144078653258</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.3190327410007485</v>
+        <v>0.1058517204775777</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1064949210515466</v>
+        <v>0.221058156216989</v>
       </c>
       <c r="J204" t="n">
-        <v>0.5671201745956436</v>
+        <v>0.3695716519406607</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1064184855020695</v>
+        <v>0.2227649403595045</v>
       </c>
       <c r="L204" t="n">
-        <v>0.8220071825556752</v>
+        <v>0.6646949879302704</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1064201747964798</v>
+        <v>0.2229459655324897</v>
       </c>
       <c r="N204" t="n">
-        <v>0.3190327410007485</v>
+        <v>0.9523078648463614</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1064949210515466</v>
+        <v>0.2230454299132509</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.3167547272684911</v>
+        <v>0.1079903453141725</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1072610715627089</v>
+        <v>0.2226485026645932</v>
       </c>
       <c r="J205" t="n">
-        <v>0.5677582472396613</v>
+        <v>0.3695594193138939</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1071840861171923</v>
+        <v>0.2243675658297168</v>
       </c>
       <c r="L205" t="n">
-        <v>0.8188524136718465</v>
+        <v>0.6610745171531103</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1071857875647998</v>
+        <v>0.224549893342076</v>
       </c>
       <c r="N205" t="n">
-        <v>0.3167547272684911</v>
+        <v>0.962979844578856</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1072610715627089</v>
+        <v>0.2246500732939217</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.3149727706658051</v>
+        <v>0.10012160955017</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1080272220738711</v>
+        <v>0.2242388491121975</v>
       </c>
       <c r="J206" t="n">
-        <v>0.5632088159886329</v>
+        <v>0.3716218413783666</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1079496867323151</v>
+        <v>0.225970191299929</v>
       </c>
       <c r="L206" t="n">
-        <v>0.822027970434829</v>
+        <v>0.6617084474180784</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1079514003331198</v>
+        <v>0.2261538211516623</v>
       </c>
       <c r="N206" t="n">
-        <v>0.3149727706658051</v>
+        <v>0.9586859604029012</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1080272220738711</v>
+        <v>0.2262547166745926</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.3133041142262323</v>
+        <v>0.1002454259610781</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1087933725850333</v>
+        <v>0.2258291955598017</v>
       </c>
       <c r="J207" t="n">
-        <v>0.5626766559078116</v>
+        <v>0.3699586138257485</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1087152873474379</v>
+        <v>0.2275728167701413</v>
       </c>
       <c r="L207" t="n">
-        <v>0.8134273020900495</v>
+        <v>0.6688962304810031</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1087170131014398</v>
+        <v>0.2277577489612485</v>
       </c>
       <c r="N207" t="n">
-        <v>0.3133041142262323</v>
+        <v>0.9604254198212145</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1087933725850333</v>
+        <v>0.2278593600552635</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.3110660009833146</v>
+        <v>0.1063617073224047</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1095595230961955</v>
+        <v>0.227419542007406</v>
       </c>
       <c r="J208" t="n">
-        <v>0.5601665420624502</v>
+        <v>0.3720694323477097</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1094808879625607</v>
+        <v>0.2291754422403535</v>
       </c>
       <c r="L208" t="n">
-        <v>0.8130438578829366</v>
+        <v>0.6637373180977124</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1094826258697598</v>
+        <v>0.2293616767708348</v>
       </c>
       <c r="N208" t="n">
-        <v>0.3110660009833146</v>
+        <v>0.9630974303365143</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1095595230961955</v>
+        <v>0.2294640034359343</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.3086756739705939</v>
+        <v>0.1054703664096577</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1103256736073577</v>
+        <v>0.2290098884550102</v>
       </c>
       <c r="J209" t="n">
-        <v>0.5577832495178023</v>
+        <v>0.3705539926359197</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1102464885776835</v>
+        <v>0.2307780677105658</v>
       </c>
       <c r="L209" t="n">
-        <v>0.8175710870589163</v>
+        <v>0.6675311620240344</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1102482386380798</v>
+        <v>0.230965604580421</v>
       </c>
       <c r="N209" t="n">
-        <v>0.3086756739705939</v>
+        <v>0.9625011994515178</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1103256736073577</v>
+        <v>0.2310686468166052</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.3080503762216121</v>
+        <v>0.1075713159983451</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1110918241185199</v>
+        <v>0.2306002349026144</v>
       </c>
       <c r="J210" t="n">
-        <v>0.5573315533391209</v>
+        <v>0.3732119903820484</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1110120891928063</v>
+        <v>0.2323806931807781</v>
       </c>
       <c r="L210" t="n">
-        <v>0.8069024388634163</v>
+        <v>0.6697772140157974</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1110138514063998</v>
+        <v>0.2325695323900073</v>
       </c>
       <c r="N210" t="n">
-        <v>0.3080503762216121</v>
+        <v>0.9630359346689432</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1110918241185199</v>
+        <v>0.2326732901972761</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.3076073507699113</v>
+        <v>0.1026644688639748</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1118579746296821</v>
+        <v>0.2321905813502187</v>
       </c>
       <c r="J211" t="n">
-        <v>0.5534162285916595</v>
+        <v>0.3704431212777656</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1117776898079291</v>
+        <v>0.2339833186509904</v>
       </c>
       <c r="L211" t="n">
-        <v>0.8128313625418642</v>
+        <v>0.6669749258288292</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1117794641747198</v>
+        <v>0.2341734601995936</v>
       </c>
       <c r="N211" t="n">
-        <v>0.3076073507699113</v>
+        <v>0.9677008434915082</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1118579746296821</v>
+        <v>0.2342779335779469</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.3066638406490333</v>
+        <v>0.09874973778205473</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1126241251408443</v>
+        <v>0.2337809277978229</v>
       </c>
       <c r="J212" t="n">
-        <v>0.5533420503406707</v>
+        <v>0.373247081014741</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1125432904230519</v>
+        <v>0.2355859441212026</v>
       </c>
       <c r="L212" t="n">
-        <v>0.8079513073396869</v>
+        <v>0.6694237492189583</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1125450769430398</v>
+        <v>0.2357773880091798</v>
       </c>
       <c r="N212" t="n">
-        <v>0.3066638406490333</v>
+        <v>0.9688951334219305</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1126241251408443</v>
+        <v>0.2358825769586178</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.3032370888925199</v>
+        <v>0.1088270355280929</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1133902756520065</v>
+        <v>0.2353712742454271</v>
       </c>
       <c r="J213" t="n">
-        <v>0.5544137936514084</v>
+        <v>0.3743235652846447</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1133088910381747</v>
+        <v>0.2371885695914149</v>
       </c>
       <c r="L213" t="n">
-        <v>0.8121557225023117</v>
+        <v>0.6704231359420127</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1133106897113598</v>
+        <v>0.2373813158187661</v>
       </c>
       <c r="N213" t="n">
-        <v>0.3032370888925199</v>
+        <v>0.9675180119629281</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1133902756520065</v>
+        <v>0.2374872203392887</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.3000443385339133</v>
+        <v>0.108896274877597</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1141564261631687</v>
+        <v>0.2369616206930314</v>
       </c>
       <c r="J214" t="n">
-        <v>0.5465362335891254</v>
+        <v>0.3725722697791461</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1140744916532975</v>
+        <v>0.2387911950616271</v>
       </c>
       <c r="L214" t="n">
-        <v>0.8098380572751662</v>
+        <v>0.6677725377538207</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1140763024796798</v>
+        <v>0.2389852436283523</v>
       </c>
       <c r="N214" t="n">
-        <v>0.3000443385339133</v>
+        <v>0.9666686866172187</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1141564261631687</v>
+        <v>0.2390918637199595</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.2985028326067551</v>
+        <v>0.1089573686060752</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1149225766743309</v>
+        <v>0.2385519671406356</v>
       </c>
       <c r="J215" t="n">
-        <v>0.5484953066951928</v>
+        <v>0.3737928901899153</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1148400922684203</v>
+        <v>0.2403938205318394</v>
       </c>
       <c r="L215" t="n">
-        <v>0.8012917609036774</v>
+        <v>0.6695714064102102</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1148419152479998</v>
+        <v>0.2405891714379386</v>
       </c>
       <c r="N215" t="n">
-        <v>0.2985028326067551</v>
+        <v>0.9646463648875201</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1149225766743309</v>
+        <v>0.2406965071006304</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.2963298141445875</v>
+        <v>0.1060102294890354</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1156887271854931</v>
+        <v>0.2401423135882399</v>
       </c>
       <c r="J216" t="n">
-        <v>0.5483609023148467</v>
+        <v>0.374985122208622</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1156056928835432</v>
+        <v>0.2419964460020517</v>
       </c>
       <c r="L216" t="n">
-        <v>0.8041102826332731</v>
+        <v>0.6736191936670092</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1156075280163198</v>
+        <v>0.2421930992475248</v>
       </c>
       <c r="N216" t="n">
-        <v>0.2963298141445875</v>
+        <v>0.9694502542765504</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1156887271854931</v>
+        <v>0.2423011504813013</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.2948425261809524</v>
+        <v>0.09905477030198545</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1164548776966553</v>
+        <v>0.2417326600358441</v>
       </c>
       <c r="J217" t="n">
-        <v>0.5456327088737334</v>
+        <v>0.3733486615269359</v>
       </c>
       <c r="K217" t="n">
-        <v>0.116371293498666</v>
+        <v>0.2435990714722639</v>
       </c>
       <c r="L217" t="n">
-        <v>0.8059870717093798</v>
+        <v>0.6697153512800462</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1163731407846398</v>
+        <v>0.2437970270571111</v>
       </c>
       <c r="N217" t="n">
-        <v>0.2948425261809524</v>
+        <v>0.964579562287027</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1164548776966553</v>
+        <v>0.2439057938619721</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.2951582117493915</v>
+        <v>0.1040909038204333</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1172210282078175</v>
+        <v>0.2433230064834483</v>
       </c>
       <c r="J218" t="n">
-        <v>0.5445109497347537</v>
+        <v>0.3734832038365269</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1171368941137888</v>
+        <v>0.2452016969424762</v>
       </c>
       <c r="L218" t="n">
-        <v>0.799315577377425</v>
+        <v>0.6711593310051492</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1171387535529598</v>
+        <v>0.2454009548666974</v>
       </c>
       <c r="N218" t="n">
-        <v>0.2951582117493915</v>
+        <v>0.967633496421668</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1172210282078175</v>
+        <v>0.245510437242643</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.292694113883447</v>
+        <v>0.1071185428198869</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1179871787189797</v>
+        <v>0.2449133529310526</v>
       </c>
       <c r="J219" t="n">
-        <v>0.5373958482608076</v>
+        <v>0.3722884448290649</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1179024947289116</v>
+        <v>0.2468043224126884</v>
       </c>
       <c r="L219" t="n">
-        <v>0.8025892488828366</v>
+        <v>0.6744505845981462</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1179043663212798</v>
+        <v>0.2470048826762836</v>
       </c>
       <c r="N219" t="n">
-        <v>0.292694113883447</v>
+        <v>0.9661112641831915</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1179871787189797</v>
+        <v>0.2471150806233139</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.2918674756166606</v>
+        <v>0.1051376000758542</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1187533292301419</v>
+        <v>0.2465036993786568</v>
       </c>
       <c r="J220" t="n">
-        <v>0.535587627814796</v>
+        <v>0.3744640801962195</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1186680953440344</v>
+        <v>0.2484069478829007</v>
       </c>
       <c r="L220" t="n">
-        <v>0.8003015354710412</v>
+        <v>0.6697885638148655</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1186699790895998</v>
+        <v>0.2486088104858698</v>
       </c>
       <c r="N220" t="n">
-        <v>0.2918674756166606</v>
+        <v>0.9668120730743144</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1187533292301419</v>
+        <v>0.2487197240039848</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.2913955399825742</v>
+        <v>0.1011479883638431</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1195194797413042</v>
+        <v>0.248094045826261</v>
       </c>
       <c r="J221" t="n">
-        <v>0.5403865117596189</v>
+        <v>0.3741098056296606</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1194336959591572</v>
+        <v>0.250009573353113</v>
       </c>
       <c r="L221" t="n">
-        <v>0.7998458863874665</v>
+        <v>0.6729727204111353</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1194355918579198</v>
+        <v>0.2502127382954561</v>
       </c>
       <c r="N221" t="n">
-        <v>0.2913955399825742</v>
+        <v>0.9699351305977555</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1195194797413042</v>
+        <v>0.2503243673846556</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.29079555001473</v>
+        <v>0.1061364185815606</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1202856302524664</v>
+        <v>0.2496843922738653</v>
       </c>
       <c r="J222" t="n">
-        <v>0.538492723458177</v>
+        <v>0.3719253168210581</v>
       </c>
       <c r="K222" t="n">
-        <v>0.12019929657428</v>
+        <v>0.2516121988233253</v>
       </c>
       <c r="L222" t="n">
-        <v>0.7938158796418386</v>
+        <v>0.6741025061427836</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1202012046262398</v>
+        <v>0.2518166661050424</v>
       </c>
       <c r="N222" t="n">
-        <v>0.29079555001473</v>
+        <v>0.9714796442562323</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1202856302524664</v>
+        <v>0.2519290107653265</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.2901847487466697</v>
+        <v>0.1009193963290472</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1210517807636286</v>
+        <v>0.2512747387214695</v>
       </c>
       <c r="J223" t="n">
-        <v>0.5330064862733707</v>
+        <v>0.3727672701355583</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1209648971894028</v>
+        <v>0.2532148242935375</v>
       </c>
       <c r="L223" t="n">
-        <v>0.7876377695789054</v>
+        <v>0.6701329506835568</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1209668173945598</v>
+        <v>0.2534205939146286</v>
       </c>
       <c r="N223" t="n">
-        <v>0.2901847487466697</v>
+        <v>0.9675102509926872</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1210517807636286</v>
+        <v>0.2535336541459974</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.2871298953222161</v>
+        <v>0.1094591317763723</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1218179312747908</v>
+        <v>0.2528650851690737</v>
       </c>
       <c r="J224" t="n">
-        <v>0.5295280235681002</v>
+        <v>0.3701373483173098</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1217304978045256</v>
+        <v>0.2548174497637498</v>
       </c>
       <c r="L224" t="n">
-        <v>0.78493500501688</v>
+        <v>0.6658897543507136</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1217324301628798</v>
+        <v>0.2550245217242149</v>
       </c>
       <c r="N224" t="n">
-        <v>0.2871298953222161</v>
+        <v>0.9685650632223972</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1218179312747908</v>
+        <v>0.2551382975266682</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.2900926121664408</v>
+        <v>0.1007828165817312</v>
       </c>
       <c r="G225" t="n">
-        <v>0.122584081785953</v>
+        <v>0.254455431616678</v>
       </c>
       <c r="J225" t="n">
-        <v>0.5282575587052663</v>
+        <v>0.3698303714759559</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1224960984196484</v>
+        <v>0.256420075233962</v>
       </c>
       <c r="L225" t="n">
-        <v>0.7877076567112442</v>
+        <v>0.6631421955777096</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1224980429311997</v>
+        <v>0.2566284495338012</v>
       </c>
       <c r="N225" t="n">
-        <v>0.2900926121664408</v>
+        <v>0.9546863414873528</v>
       </c>
       <c r="O225" t="n">
-        <v>0.122584081785953</v>
+        <v>0.2567429409073391</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.2897639387696815</v>
+        <v>0.09991764240331913</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1233502322971152</v>
+        <v>0.2560457780642822</v>
       </c>
       <c r="J226" t="n">
-        <v>0.5307953150477689</v>
+        <v>0.3683412057196787</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1232616990347712</v>
+        <v>0.2580227007041743</v>
       </c>
       <c r="L226" t="n">
-        <v>0.7847557954174786</v>
+        <v>0.6618611858571213</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1232636556995198</v>
+        <v>0.2582323773433874</v>
       </c>
       <c r="N226" t="n">
-        <v>0.2897639387696815</v>
+        <v>0.949221141570928</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1233502322971152</v>
+        <v>0.25834758428801</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.2879441344888096</v>
+        <v>0.1068908008993313</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1241163828082774</v>
+        <v>0.2576361245118864</v>
       </c>
       <c r="J227" t="n">
-        <v>0.5289415159585089</v>
+        <v>0.36216471715666</v>
       </c>
       <c r="K227" t="n">
-        <v>0.124027299649894</v>
+        <v>0.2596253261743866</v>
       </c>
       <c r="L227" t="n">
-        <v>0.7793794918910646</v>
+        <v>0.6524176366815247</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1240292684678398</v>
+        <v>0.2598363051529737</v>
       </c>
       <c r="N227" t="n">
-        <v>0.2879441344888096</v>
+        <v>0.9465165192564968</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1241163828082774</v>
+        <v>0.2599522276686808</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.2883334586806967</v>
+        <v>0.09472948372796283</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1248825333194396</v>
+        <v>0.2592264709594907</v>
       </c>
       <c r="J228" t="n">
-        <v>0.5245963848003867</v>
+        <v>0.3601957718950821</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1247929002650168</v>
+        <v>0.2612279516445988</v>
       </c>
       <c r="L228" t="n">
-        <v>0.7847788168874832</v>
+        <v>0.6434824595434969</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1247948812361597</v>
+        <v>0.26144023296256</v>
       </c>
       <c r="N228" t="n">
-        <v>0.2883334586806967</v>
+        <v>0.9333195303274326</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1248825333194396</v>
+        <v>0.2615568710493517</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.2851321707022143</v>
+        <v>0.1044608825474091</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1256486838306018</v>
+        <v>0.2608168174070949</v>
       </c>
       <c r="J229" t="n">
-        <v>0.5244601449363023</v>
+        <v>0.3565292360431265</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1255585008801396</v>
+        <v>0.2628305771148111</v>
       </c>
       <c r="L229" t="n">
-        <v>0.7774538411622154</v>
+        <v>0.6405265659356142</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1255604940044797</v>
+        <v>0.2630441607721462</v>
       </c>
       <c r="N229" t="n">
-        <v>0.2851321707022143</v>
+        <v>0.9217772305671104</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1256486838306018</v>
+        <v>0.2631615144300226</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.2848405299102337</v>
+        <v>0.09511218901586524</v>
       </c>
       <c r="G230" t="n">
-        <v>0.126414834341764</v>
+        <v>0.2624071638546992</v>
       </c>
       <c r="J230" t="n">
-        <v>0.5238330197291567</v>
+        <v>0.3525599757089758</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1263241014952624</v>
+        <v>0.2644332025850233</v>
       </c>
       <c r="L230" t="n">
-        <v>0.7784046354707426</v>
+        <v>0.6328208673504527</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1263261067727997</v>
+        <v>0.2646480885817324</v>
       </c>
       <c r="N230" t="n">
-        <v>0.2848405299102337</v>
+        <v>0.9153366757589039</v>
       </c>
       <c r="O230" t="n">
-        <v>0.126414834341764</v>
+        <v>0.2647661578106934</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.2839587956616268</v>
+        <v>0.09571059479152649</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1271809848529262</v>
+        <v>0.2639975103023035</v>
       </c>
       <c r="J231" t="n">
-        <v>0.5174152325418501</v>
+        <v>0.3465828570008114</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1270897021103852</v>
+        <v>0.2660358280552356</v>
       </c>
       <c r="L231" t="n">
-        <v>0.7792312705685454</v>
+        <v>0.6196362752805888</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1270917195411198</v>
+        <v>0.2662520163913187</v>
       </c>
       <c r="N231" t="n">
-        <v>0.2839587956616268</v>
+        <v>0.8966449216861863</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1271809848529262</v>
+        <v>0.2663708011913643</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.2842872273132649</v>
+        <v>0.1002832915325882</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1279471353640884</v>
+        <v>0.2655878567499076</v>
       </c>
       <c r="J232" t="n">
-        <v>0.5184070067372827</v>
+        <v>0.3423927460268158</v>
       </c>
       <c r="K232" t="n">
-        <v>0.127855302725508</v>
+        <v>0.2676384535254479</v>
       </c>
       <c r="L232" t="n">
-        <v>0.7700338172111056</v>
+        <v>0.6135437012185994</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1278573323094397</v>
+        <v>0.267855944200905</v>
       </c>
       <c r="N232" t="n">
-        <v>0.2842872273132649</v>
+        <v>0.8873490241323323</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1279471353640884</v>
+        <v>0.2679754445720352</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.2850260842220196</v>
+        <v>0.09885747089724539</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1287132858752506</v>
+        <v>0.2671782031975119</v>
       </c>
       <c r="J233" t="n">
-        <v>0.516408565678355</v>
+        <v>0.3354845088951706</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1286209033406308</v>
+        <v>0.2692410789956601</v>
       </c>
       <c r="L233" t="n">
-        <v>0.7748123461539038</v>
+        <v>0.6054140566570606</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1286229450777597</v>
+        <v>0.2694598720104912</v>
       </c>
       <c r="N233" t="n">
-        <v>0.2850260842220196</v>
+        <v>0.871696038880716</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1287132858752506</v>
+        <v>0.269580087952706</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.2830756257447623</v>
+        <v>0.08646032454369343</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1294794363864128</v>
+        <v>0.2687685496451162</v>
       </c>
       <c r="J234" t="n">
-        <v>0.5133201327279677</v>
+        <v>0.3316530117140581</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1293865039557536</v>
+        <v>0.2708437044658724</v>
       </c>
       <c r="L234" t="n">
-        <v>0.7696669281524215</v>
+        <v>0.5988182530885489</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1293885578460797</v>
+        <v>0.2710637998200774</v>
       </c>
       <c r="N234" t="n">
-        <v>0.2830756257447623</v>
+        <v>0.8556330217147108</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1294794363864128</v>
+        <v>0.2711847313333769</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.2847361112383648</v>
+        <v>0.0851190441301275</v>
       </c>
       <c r="G235" t="n">
-        <v>0.130245586897575</v>
+        <v>0.2703588960927203</v>
       </c>
       <c r="J235" t="n">
-        <v>0.5118419312490211</v>
+        <v>0.3260931205916599</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1301521045708764</v>
+        <v>0.2724463299360846</v>
       </c>
       <c r="L235" t="n">
-        <v>0.7635976339621398</v>
+        <v>0.5879272020056406</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1301541706143997</v>
+        <v>0.2726677276296637</v>
       </c>
       <c r="N235" t="n">
-        <v>0.2847361112383648</v>
+        <v>0.8519070284176911</v>
       </c>
       <c r="O235" t="n">
-        <v>0.130245586897575</v>
+        <v>0.2727893747140478</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.2820078000596982</v>
+        <v>0.08686082131474282</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1310117374087373</v>
+        <v>0.2719492425403246</v>
       </c>
       <c r="J236" t="n">
-        <v>0.5083741846044155</v>
+        <v>0.3239997016361584</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1309177051859992</v>
+        <v>0.2740489554062969</v>
       </c>
       <c r="L236" t="n">
-        <v>0.7614045343385394</v>
+        <v>0.5774118149009123</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1309197833827197</v>
+        <v>0.27427165543925</v>
       </c>
       <c r="N236" t="n">
-        <v>0.2820078000596982</v>
+        <v>0.839365114773031</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1310117374087373</v>
+        <v>0.2743940180947186</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.2843909515656343</v>
+        <v>0.08570780430932629</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1317778879198994</v>
+        <v>0.2735395889879289</v>
       </c>
       <c r="J237" t="n">
-        <v>0.5103171161570516</v>
+        <v>0.3180667012145453</v>
       </c>
       <c r="K237" t="n">
-        <v>0.131683305801122</v>
+        <v>0.2756515808765092</v>
       </c>
       <c r="L237" t="n">
-        <v>0.7619877000371018</v>
+        <v>0.5744423044878548</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1316853961510397</v>
+        <v>0.2758755832488362</v>
       </c>
       <c r="N237" t="n">
-        <v>0.2843909515656343</v>
+        <v>0.8258538355864262</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1317778879198994</v>
+        <v>0.2759986614753895</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.2814858251130446</v>
+        <v>0.08258451755451512</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1325440384310617</v>
+        <v>0.275129935435533</v>
       </c>
       <c r="J238" t="n">
-        <v>0.5075709492698294</v>
+        <v>0.3152104903011055</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1324489064162448</v>
+        <v>0.2772542063467214</v>
       </c>
       <c r="L238" t="n">
-        <v>0.7564472018133084</v>
+        <v>0.5633067526567529</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1324510089193597</v>
+        <v>0.2774795110584225</v>
       </c>
       <c r="N238" t="n">
-        <v>0.2814858251130446</v>
+        <v>0.8173377398579493</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1325440384310617</v>
+        <v>0.2776033048560604</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.2810926800588007</v>
+        <v>0.08845708929555582</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1333101889422239</v>
+        <v>0.2767202818831373</v>
       </c>
       <c r="J239" t="n">
-        <v>0.5079359073056496</v>
+        <v>0.3093399860052692</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1332145070313676</v>
+        <v>0.2788568318169337</v>
       </c>
       <c r="L239" t="n">
-        <v>0.7629831104226397</v>
+        <v>0.5551454792175284</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1332166216876798</v>
+        <v>0.2790834388680087</v>
       </c>
       <c r="N239" t="n">
-        <v>0.2810926800588007</v>
+        <v>0.8074844864266562</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1333101889422239</v>
+        <v>0.2792079482367312</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.2832117757597739</v>
+        <v>0.08732545511440168</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1340763394533861</v>
+        <v>0.2783106283307415</v>
       </c>
       <c r="J240" t="n">
-        <v>0.5038122136274127</v>
+        <v>0.3059549635857081</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1339801076464904</v>
+        <v>0.2804594572871459</v>
       </c>
       <c r="L240" t="n">
-        <v>0.758495496620577</v>
+        <v>0.5490580792745178</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1339822344559997</v>
+        <v>0.280687366677595</v>
       </c>
       <c r="N240" t="n">
-        <v>0.2832117757597739</v>
+        <v>0.7926934900082345</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1340763394533861</v>
+        <v>0.2808125916174021</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.2821433715728358</v>
+        <v>0.0831895505930062</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1348424899645483</v>
+        <v>0.2799009747783458</v>
       </c>
       <c r="J241" t="n">
-        <v>0.4995000915980189</v>
+        <v>0.301755198301094</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1347457082616132</v>
+        <v>0.2820620827573582</v>
       </c>
       <c r="L241" t="n">
-        <v>0.7559844311626016</v>
+        <v>0.5419441479320571</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1347478472243197</v>
+        <v>0.2822912944871813</v>
       </c>
       <c r="N241" t="n">
-        <v>0.2821433715728358</v>
+        <v>0.7814641653183718</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1348424899645483</v>
+        <v>0.282417234998073</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.2807877268548579</v>
+        <v>0.07904931131332263</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1356086404757105</v>
+        <v>0.28149132122595</v>
       </c>
       <c r="J242" t="n">
-        <v>0.4982997645803687</v>
+        <v>0.2998404654100986</v>
       </c>
       <c r="K242" t="n">
-        <v>0.135511308876736</v>
+        <v>0.2836647082275705</v>
       </c>
       <c r="L242" t="n">
-        <v>0.7472499848041947</v>
+        <v>0.5351032802944821</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1355134599926398</v>
+        <v>0.2838952222967675</v>
       </c>
       <c r="N242" t="n">
-        <v>0.2807877268548579</v>
+        <v>0.7787959270727558</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1356086404757105</v>
+        <v>0.2840218783787439</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.2799451009627118</v>
+        <v>0.08590467285730441</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1363747909868727</v>
+        <v>0.2830816676735543</v>
       </c>
       <c r="J243" t="n">
-        <v>0.5008114559373628</v>
+        <v>0.2939105401713936</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1362769094918588</v>
+        <v>0.2852673336977827</v>
       </c>
       <c r="L243" t="n">
-        <v>0.7446922283008375</v>
+        <v>0.5287350714661291</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1362790727609597</v>
+        <v>0.2854991501063538</v>
       </c>
       <c r="N243" t="n">
-        <v>0.2799451009627118</v>
+        <v>0.7686881899870737</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1363747909868727</v>
+        <v>0.2856265217594148</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.2815157532532692</v>
+        <v>0.08375557080690493</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1371409414980349</v>
+        <v>0.2846720141211585</v>
       </c>
       <c r="J244" t="n">
-        <v>0.4947353890319013</v>
+        <v>0.2894651978436508</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1370425101069816</v>
+        <v>0.286869959167995</v>
       </c>
       <c r="L244" t="n">
-        <v>0.7453112324080104</v>
+        <v>0.5242391165513341</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1370446855292797</v>
+        <v>0.28710307791594</v>
       </c>
       <c r="N244" t="n">
-        <v>0.2815157532532692</v>
+        <v>0.7547403687770131</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1371409414980349</v>
+        <v>0.2872311651400856</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.2779999430834013</v>
+        <v>0.07560194074407756</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1379070920091971</v>
+        <v>0.2862623605687628</v>
       </c>
       <c r="J245" t="n">
-        <v>0.4959717872268847</v>
+        <v>0.286004213685542</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1378081107221044</v>
+        <v>0.2884725846382072</v>
       </c>
       <c r="L245" t="n">
-        <v>0.7418070678811952</v>
+        <v>0.5183150106544335</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1378102982975997</v>
+        <v>0.2887070057255263</v>
       </c>
       <c r="N245" t="n">
-        <v>0.2779999430834013</v>
+        <v>0.7479518781582617</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1379070920091971</v>
+        <v>0.2888358085207565</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.2787979298099796</v>
+        <v>0.07244371825077561</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1386732425203593</v>
+        <v>0.287852707016367</v>
       </c>
       <c r="J246" t="n">
-        <v>0.4936208738852136</v>
+        <v>0.2836273629557389</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1385737113372272</v>
+        <v>0.2900752101084196</v>
       </c>
       <c r="L246" t="n">
-        <v>0.7373798054758731</v>
+        <v>0.5099623488797629</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1385759110659197</v>
+        <v>0.2903109335351126</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2787979298099796</v>
+        <v>0.7373221328465065</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1386732425203593</v>
+        <v>0.2904404519014274</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.2808099727898759</v>
+        <v>0.08128083890895255</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1394393930315215</v>
+        <v>0.2894430534639712</v>
       </c>
       <c r="J247" t="n">
-        <v>0.4932828723697883</v>
+        <v>0.2802344209129133</v>
       </c>
       <c r="K247" t="n">
-        <v>0.13933931195235</v>
+        <v>0.2916778355786318</v>
       </c>
       <c r="L247" t="n">
-        <v>0.7391295159475249</v>
+        <v>0.5012807263316587</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1393415238342397</v>
+        <v>0.2919148613446988</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2808099727898759</v>
+        <v>0.7258505475574353</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1394393930315215</v>
+        <v>0.2920450952820982</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.2776363313799616</v>
+        <v>0.07411323830056166</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1402055435426837</v>
+        <v>0.2910333999115755</v>
       </c>
       <c r="J248" t="n">
-        <v>0.489158006043509</v>
+        <v>0.2735251628157369</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1401049125674728</v>
+        <v>0.2932804610488441</v>
       </c>
       <c r="L248" t="n">
-        <v>0.7383562700516317</v>
+        <v>0.4955697381144569</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1401071366025597</v>
+        <v>0.2935187891542851</v>
       </c>
       <c r="N248" t="n">
-        <v>0.2776363313799616</v>
+        <v>0.7122365370067363</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1402055435426837</v>
+        <v>0.2936497386627691</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.2781772649371081</v>
+        <v>0.07894085200755638</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1409716940538459</v>
+        <v>0.2926237463591797</v>
       </c>
       <c r="J249" t="n">
-        <v>0.4921464982692765</v>
+        <v>0.2720993639228815</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1408705131825956</v>
+        <v>0.2948830865190563</v>
       </c>
       <c r="L249" t="n">
-        <v>0.734960138543675</v>
+        <v>0.4847289793324937</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1408727493708797</v>
+        <v>0.2951227169638713</v>
       </c>
       <c r="N249" t="n">
-        <v>0.2781772649371081</v>
+        <v>0.7004795159100954</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1409716940538459</v>
+        <v>0.29525438204344</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.2777330328181871</v>
+        <v>0.0697636156118901</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1417378445650081</v>
+        <v>0.294214092806784</v>
       </c>
       <c r="J250" t="n">
-        <v>0.4906485724099909</v>
+        <v>0.2682567994930187</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1416361137977184</v>
+        <v>0.2964857119892686</v>
       </c>
       <c r="L250" t="n">
-        <v>0.7299411921791357</v>
+        <v>0.482658045090105</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1416383621391997</v>
+        <v>0.2967266447734576</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2777330328181871</v>
+        <v>0.6950788989832013</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1417378445650081</v>
+        <v>0.2968590254241108</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.27910389438007</v>
+        <v>0.07658146469551608</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1425039950761703</v>
+        <v>0.2958044392543882</v>
       </c>
       <c r="J251" t="n">
-        <v>0.4900644518285531</v>
+        <v>0.2625972447848205</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1424017144128412</v>
+        <v>0.2980883374594809</v>
       </c>
       <c r="L251" t="n">
-        <v>0.7301995017134946</v>
+        <v>0.4701565304916271</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1424039749075197</v>
+        <v>0.2983305725830439</v>
       </c>
       <c r="N251" t="n">
-        <v>0.27910389438007</v>
+        <v>0.6864341009417416</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1425039950761703</v>
+        <v>0.2984636688047817</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.2766901089796284</v>
+        <v>0.07439433484038782</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1432701455873326</v>
+        <v>0.2973947857019924</v>
       </c>
       <c r="J252" t="n">
-        <v>0.4871943598878632</v>
+        <v>0.2593204750569585</v>
       </c>
       <c r="K252" t="n">
-        <v>0.143167315027964</v>
+        <v>0.2996909629296931</v>
       </c>
       <c r="L252" t="n">
-        <v>0.7225351379022336</v>
+        <v>0.462124030641396</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1431695876758397</v>
+        <v>0.2999345003926301</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2766901089796284</v>
+        <v>0.6729445365014026</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1432701455873326</v>
+        <v>0.3000683121854526</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.2792919359737338</v>
+        <v>0.06520216162845863</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1440362960984947</v>
+        <v>0.2989851321495967</v>
       </c>
       <c r="J253" t="n">
-        <v>0.4859385199508214</v>
+        <v>0.2540262655681045</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1439329156430869</v>
+        <v>0.3012935883999054</v>
       </c>
       <c r="L253" t="n">
-        <v>0.7252481715008328</v>
+        <v>0.4614601406437479</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1439352004441597</v>
+        <v>0.3015384282022163</v>
       </c>
       <c r="N253" t="n">
-        <v>0.2792919359737338</v>
+        <v>0.6591096203778732</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1440362960984947</v>
+        <v>0.3016729555661234</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.2780096347192577</v>
+        <v>0.0740048806416819</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1448024466096569</v>
+        <v>0.3005754785972009</v>
       </c>
       <c r="J254" t="n">
-        <v>0.4818971553803286</v>
+        <v>0.2520143915769302</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1446985162582096</v>
+        <v>0.3028962138701176</v>
       </c>
       <c r="L254" t="n">
-        <v>0.7209386732647742</v>
+        <v>0.4500644556030187</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1447008132124797</v>
+        <v>0.3031423560118026</v>
       </c>
       <c r="N254" t="n">
-        <v>0.2780096347192577</v>
+        <v>0.6458287672868401</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1448024466096569</v>
+        <v>0.3032775989467943</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.2774434645730716</v>
+        <v>0.06880242746201098</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1455685971208192</v>
+        <v>0.3021658250448051</v>
       </c>
       <c r="J255" t="n">
-        <v>0.482470489539285</v>
+        <v>0.2476846283421072</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1454641168733325</v>
+        <v>0.3044988393403299</v>
       </c>
       <c r="L255" t="n">
-        <v>0.7226067139495387</v>
+        <v>0.4401365706235446</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1454664259807997</v>
+        <v>0.3047462838213889</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2774434645730716</v>
+        <v>0.644501391943991</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1455685971208192</v>
+        <v>0.3048822423274652</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.2780936848920471</v>
+        <v>0.06759473767139931</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1463347476319814</v>
+        <v>0.3037561714924094</v>
       </c>
       <c r="J256" t="n">
-        <v>0.478858745790591</v>
+        <v>0.2430367511223077</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1462297174884553</v>
+        <v>0.3061014648105422</v>
       </c>
       <c r="L256" t="n">
-        <v>0.7158523643106069</v>
+        <v>0.4358760808096617</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1462320387491197</v>
+        <v>0.3063502116309751</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2780936848920471</v>
+        <v>0.6293269090650135</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1463347476319814</v>
+        <v>0.306486885708136</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.2758605550330556</v>
+        <v>0.06338174685180015</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1471008981431436</v>
+        <v>0.3053465179400136</v>
       </c>
       <c r="J257" t="n">
-        <v>0.4789621474971469</v>
+        <v>0.2377705351762029</v>
       </c>
       <c r="K257" t="n">
-        <v>0.146995318103578</v>
+        <v>0.3077040902807545</v>
       </c>
       <c r="L257" t="n">
-        <v>0.7102756951034608</v>
+        <v>0.4288825812657058</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1469976515174397</v>
+        <v>0.3079541394405614</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2758605550330556</v>
+        <v>0.6157047333655952</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1471008981431436</v>
+        <v>0.3080915290888069</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.2765443343529687</v>
+        <v>0.058163390585167</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1478670486543058</v>
+        <v>0.3069368643876179</v>
       </c>
       <c r="J258" t="n">
-        <v>0.4759809180218535</v>
+        <v>0.2331857557624651</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1477609187187008</v>
+        <v>0.3093067157509667</v>
       </c>
       <c r="L258" t="n">
-        <v>0.707676777083581</v>
+        <v>0.4183556670960136</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1477632642857597</v>
+        <v>0.3095580672501476</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2765443343529687</v>
+        <v>0.6104342795614228</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1478670486543058</v>
+        <v>0.3096961724694778</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.2759452822086579</v>
+        <v>0.05993960445345319</v>
       </c>
       <c r="G259" t="n">
-        <v>0.148633199165468</v>
+        <v>0.3085272108352221</v>
       </c>
       <c r="J259" t="n">
-        <v>0.4738152807276109</v>
+        <v>0.2309821881397656</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1485265193338237</v>
+        <v>0.310909341221179</v>
       </c>
       <c r="L259" t="n">
-        <v>0.706755681006449</v>
+        <v>0.4136949334049207</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1485288770540797</v>
+        <v>0.3111619950597339</v>
       </c>
       <c r="N259" t="n">
-        <v>0.2759452822086579</v>
+        <v>0.5932149623681848</v>
       </c>
       <c r="O259" t="n">
-        <v>0.148633199165468</v>
+        <v>0.3113008158501486</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.2765636579569948</v>
+        <v>0.05871032403861206</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1493993496766302</v>
+        <v>0.3101175572828263</v>
       </c>
       <c r="J260" t="n">
-        <v>0.4736654589773198</v>
+        <v>0.2266596075667764</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1492921199489465</v>
+        <v>0.3125119666913912</v>
       </c>
       <c r="L260" t="n">
-        <v>0.7070124776275453</v>
+        <v>0.4050999752967634</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1492944898223997</v>
+        <v>0.3127659228693201</v>
       </c>
       <c r="N260" t="n">
-        <v>0.2765636579569948</v>
+        <v>0.585846196501568</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1493993496766302</v>
+        <v>0.3129054592308195</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.2786997209548508</v>
+        <v>0.065475484922597</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1501655001877924</v>
+        <v>0.3117079037304306</v>
       </c>
       <c r="J261" t="n">
-        <v>0.4767316761338803</v>
+        <v>0.2220177893021691</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1500577205640693</v>
+        <v>0.3141145921616035</v>
       </c>
       <c r="L261" t="n">
-        <v>0.7073472377023517</v>
+        <v>0.3979703878758778</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1500601025907197</v>
+        <v>0.3143698506789064</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2786997209548508</v>
+        <v>0.5729273966772606</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1501655001877924</v>
+        <v>0.3145101026114904</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.2769537305590976</v>
+        <v>0.05523502268736142</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1509316506989546</v>
+        <v>0.3132982501780348</v>
       </c>
       <c r="J262" t="n">
-        <v>0.4704141555601931</v>
+        <v>0.2176565086046158</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1508233211791921</v>
+        <v>0.3157172176318158</v>
       </c>
       <c r="L262" t="n">
-        <v>0.7023600319863486</v>
+        <v>0.3920057662466</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1508257153590397</v>
+        <v>0.3159737784884927</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2769537305590976</v>
+        <v>0.5648579776109492</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1509316506989546</v>
+        <v>0.3161147459921613</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.2767259461266064</v>
+        <v>0.05798887291485864</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1516978012101168</v>
+        <v>0.314888596625639</v>
       </c>
       <c r="J263" t="n">
-        <v>0.4725131206191585</v>
+        <v>0.2122755407327878</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1515889217943149</v>
+        <v>0.317319843102028</v>
       </c>
       <c r="L263" t="n">
-        <v>0.6933509312350179</v>
+        <v>0.3840057055132657</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1515913281273597</v>
+        <v>0.3175777062980789</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2767259461266064</v>
+        <v>0.551137354018322</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1516978012101168</v>
+        <v>0.3177193893728322</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.2763166270142491</v>
+        <v>0.05773697118704207</v>
       </c>
       <c r="G264" t="n">
-        <v>0.152463951721279</v>
+        <v>0.3164789430732433</v>
       </c>
       <c r="J264" t="n">
-        <v>0.4702287946736771</v>
+        <v>0.2095746609453569</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1523545224094377</v>
+        <v>0.3189224685722403</v>
       </c>
       <c r="L264" t="n">
-        <v>0.6930200062038401</v>
+        <v>0.3745698007802116</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1523569408956797</v>
+        <v>0.3191816341076652</v>
       </c>
       <c r="N264" t="n">
-        <v>0.2763166270142491</v>
+        <v>0.5415649406150664</v>
       </c>
       <c r="O264" t="n">
-        <v>0.152463951721279</v>
+        <v>0.319324032753503</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1339.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1339.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.3981849768479517</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04413402646387327</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04413402646387327</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07061444234219724</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1664468733444803</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.05560887334448033</v>
+        <v>0.1895826526259745</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001616734555992784</v>
+        <v>0.005511797079909952</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,10 +9250,10 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.02648041587832397</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0005389115186642613</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.05560887334448033</v>
+        <v>0.02462465044392856</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001616734555992784</v>
+        <v>0.0004594120917162621</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.0665028</v>
+        <v>0.02462465044392856</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001353420018329939</v>
+        <v>0.0004594120917162621</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.1265028</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001439808530138233</v>
+        <v>0.001326882370911705</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.1865028</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001487274745417515</v>
+        <v>0.001301365402240326</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.06316669240145273</v>
+        <v>0.04771991697252975</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003180692895208475</v>
+        <v>0.0009188241834325242</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.1597316276118673</v>
+        <v>0.04771991697252975</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003205250940424525</v>
+        <v>0.0009188241834325242</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.2765437812659385</v>
+        <v>0.1680253568810089</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003207855619172514</v>
+        <v>0.001982515978312423</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.3847493897684767</v>
+        <v>0.2560623273057362</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003209286761341739</v>
+        <v>0.001980480890163115</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.06476329900666156</v>
+        <v>0.0665028</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004771039342812713</v>
+        <v>0.001353420018329939</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.1895826526259745</v>
+        <v>0.0665028</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004060260054989816</v>
+        <v>0.001353420018329939</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.3407222129167822</v>
+        <v>0.2351014128582481</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004319425590414699</v>
+        <v>0.002973773967468635</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.4918617732075898</v>
+        <v>0.355453175780123</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004461824236252546</v>
+        <v>0.002970721335244674</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.07336324188129564</v>
+        <v>0.08541564108256069</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00636138579041695</v>
+        <v>0.001837648366865048</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.2214428973166531</v>
+        <v>0.08541564108256069</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006410501880849051</v>
+        <v>0.001837648366865048</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.3892622352410541</v>
+        <v>0.296586261307912</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006415711238345029</v>
+        <v>0.003965031956624846</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.5595821546056967</v>
+        <v>0.4395918587356308</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006418573522683478</v>
+        <v>0.003960961780326231</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005389115186642613</v>
+        <v>0.001353420018329939</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02648041587832397</v>
+        <v>0.0665028</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.07406826089116955</v>
+        <v>0.1034458326006482</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007951732238021187</v>
+        <v>0.002297060458581311</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.2398798979594627</v>
+        <v>0.1034458326006482</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008013127351061314</v>
+        <v>0.002297060458581311</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.4199039076993138</v>
+        <v>0.3407222129167822</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008019639047931286</v>
+        <v>0.005105457831732947</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.6039752511999024</v>
+        <v>0.4918617732075898</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008023216903354348</v>
+        <v>0.004902966560876873</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0829800959020979</v>
+        <v>0.1210492226957031</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009542078685625425</v>
+        <v>0.002756472550297573</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.2568647392452154</v>
+        <v>0.1210492226957031</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009615752821273577</v>
+        <v>0.002756472550297573</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.4540837907808819</v>
+        <v>0.3617549204450825</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009623566857517543</v>
+        <v>0.00594754793493727</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.645026027383133</v>
+        <v>0.5255133507414325</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009627860284025215</v>
+        <v>0.005941442670489347</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.08720048677989528</v>
+        <v>0.1377237123900433</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01113242513322966</v>
+        <v>0.003215884642013834</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.2703056889010761</v>
+        <v>0.1377237123900433</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01121837829148584</v>
+        <v>0.003215884642013834</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.4821411174844684</v>
+        <v>0.3840270980976566</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.0112274946671038</v>
+        <v>0.006938805924093482</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.6916989426807234</v>
+        <v>0.5596882220785948</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01123250366469609</v>
+        <v>0.006931683115570904</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.08883117339037627</v>
+        <v>0.1529672027059863</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.0127227715808339</v>
+        <v>0.003675296733730097</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.2842110146542096</v>
+        <v>0.1529672027059863</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0128210037616981</v>
+        <v>0.003675296733730097</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.5057151208087839</v>
+        <v>0.4067400132620993</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01283142247669006</v>
+        <v>0.007930063913249692</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.7206584566180076</v>
+        <v>0.5963615060344079</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01283714704536696</v>
+        <v>0.007921923560652461</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.08597389559935559</v>
+        <v>0.1662775946658502</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01431311802843814</v>
+        <v>0.004134708825446359</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.2928889842317805</v>
+        <v>0.1662775946658502</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01442362923191036</v>
+        <v>0.004134708825446359</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.5217450337525381</v>
+        <v>0.4262841650606796</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01443535028627631</v>
+        <v>0.008921321902405905</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.7494690287203198</v>
+        <v>0.6247235133149014</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01444179042603782</v>
+        <v>0.008912164005734019</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.08973039327264767</v>
+        <v>0.1771527892919527</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01590346447604237</v>
+        <v>0.004594120917162621</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.3029478653609535</v>
+        <v>0.1771527892919527</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01602625470212263</v>
+        <v>0.004594120917162621</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.5368700893144414</v>
+        <v>0.4506500526156665</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01603927809586257</v>
+        <v>0.009912579891562115</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.7775951185129948</v>
+        <v>0.6572645546261051</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.0160464338067087</v>
+        <v>0.009902404450815578</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.09320240627606724</v>
+        <v>0.1850906876066116</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01749381092364661</v>
+        <v>0.005053533008878884</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.3111959257688934</v>
+        <v>0.1850906876066116</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01762888017233489</v>
+        <v>0.005053533008878884</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.551629520493204</v>
+        <v>0.4706281750493289</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01764320590544883</v>
+        <v>0.01090383788071833</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.8023011855213666</v>
+        <v>0.6866749406740482</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01765107718737956</v>
+        <v>0.01089264489589714</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.09249167447542889</v>
+        <v>0.1895826526259745</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01908415737125085</v>
+        <v>0.005511797079909952</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3176414331827651</v>
+        <v>0.1895826526259745</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01923150564254715</v>
+        <v>0.005511797079909952</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5689625602875361</v>
+        <v>0.4918090314839356</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01924713371503509</v>
+        <v>0.01189509586987454</v>
       </c>
       <c r="N77" t="n">
-        <v>0.82095168927077</v>
+        <v>0.7172449821647608</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01925572056805043</v>
+        <v>0.01188288534097869</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.08769993773654716</v>
+        <v>0.1921877460973177</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02067450381885509</v>
+        <v>0.005972357192311407</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3221926553297331</v>
+        <v>0.1921877460973177</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02083413111275942</v>
+        <v>0.005972357192311407</v>
       </c>
       <c r="L78" t="n">
-        <v>0.5797084416961477</v>
+        <v>0.5055831210417554</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02085106152462134</v>
+        <v>0.01288635385903075</v>
       </c>
       <c r="N78" t="n">
-        <v>0.8352110892865392</v>
+        <v>0.7387649898042719</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0208603639487213</v>
+        <v>0.01287312578606025</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.09592893592523677</v>
+        <v>0.194741262788314</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02226485026645933</v>
+        <v>0.006431769284027669</v>
       </c>
       <c r="J79" t="n">
-        <v>0.3268578599369622</v>
+        <v>0.194741262788314</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02243675658297168</v>
+        <v>0.006431769284027669</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5858063977177492</v>
+        <v>0.5243409428450574</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0224549893342076</v>
+        <v>0.01387761184818696</v>
       </c>
       <c r="N79" t="n">
-        <v>0.8509438450940081</v>
+        <v>0.7658252742986111</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02246500732939217</v>
+        <v>0.01386336623114181</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.09822208196826737</v>
+        <v>0.1972501034125365</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02385519671406356</v>
+        <v>0.006891181375743932</v>
       </c>
       <c r="J80" t="n">
-        <v>0.3320453147316171</v>
+        <v>0.1972501034125365</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02403938205318394</v>
+        <v>0.006891181375743932</v>
       </c>
       <c r="L80" t="n">
-        <v>0.5997956613510508</v>
+        <v>0.5446729960161105</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02405891714379386</v>
+        <v>0.01486886983734317</v>
       </c>
       <c r="N80" t="n">
-        <v>0.8644144162185123</v>
+        <v>0.7902161463538089</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02406965071006304</v>
+        <v>0.01485360667622337</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0934862472785479</v>
+        <v>0.1997146185154361</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0254455431616678</v>
+        <v>0.007350593467460194</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3383638566798233</v>
+        <v>0.1997146185154361</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0256420075233962</v>
+        <v>0.007350593467460194</v>
       </c>
       <c r="L81" t="n">
-        <v>0.6043192133230558</v>
+        <v>0.5603697796771834</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02566284495338012</v>
+        <v>0.01586012782649938</v>
       </c>
       <c r="N81" t="n">
-        <v>0.8759899085363363</v>
+        <v>0.8152279166758942</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02567429409073391</v>
+        <v>0.01584384712130492</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.09170863625232506</v>
+        <v>0.2021351586424645</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02703588960927204</v>
+        <v>0.007810005559176455</v>
       </c>
       <c r="J82" t="n">
-        <v>0.3434577414905539</v>
+        <v>0.2021351586424645</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02724463299360846</v>
+        <v>0.007810005559176455</v>
       </c>
       <c r="L82" t="n">
-        <v>0.6128537495021926</v>
+        <v>0.5751217929505451</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02726677276296637</v>
+        <v>0.0168513858156556</v>
       </c>
       <c r="N82" t="n">
-        <v>0.8868733877767692</v>
+        <v>0.8282508959708967</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02727893747140478</v>
+        <v>0.01683408756638648</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1008812720018001</v>
+        <v>0.2045120743390725</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02862623605687627</v>
+        <v>0.008269417650892718</v>
       </c>
       <c r="J83" t="n">
-        <v>0.3462181846279437</v>
+        <v>0.2045120743390725</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02884725846382073</v>
+        <v>0.008269417650892718</v>
       </c>
       <c r="L83" t="n">
-        <v>0.6190554807107402</v>
+        <v>0.5838195349584644</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02887070057255263</v>
+        <v>0.01784264380481181</v>
       </c>
       <c r="N83" t="n">
-        <v>0.8988263752957153</v>
+        <v>0.8563753949448463</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02888358085207565</v>
+        <v>0.01782432801146804</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.09999617763917404</v>
+        <v>0.2068457161507113</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03021658250448052</v>
+        <v>0.00872882974260898</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3504173563695299</v>
+        <v>0.2068457161507113</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03044988393403299</v>
+        <v>0.00872882974260898</v>
       </c>
       <c r="L84" t="n">
-        <v>0.627774268711816</v>
+        <v>0.5981535048232104</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03047462838213889</v>
+        <v>0.01883390179396802</v>
       </c>
       <c r="N84" t="n">
-        <v>0.9044763953268975</v>
+        <v>0.8670917243037719</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03048822423274652</v>
+        <v>0.0188145684565496</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1000453762766481</v>
+        <v>0.2091364346228324</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03180692895208475</v>
+        <v>0.009188241834325242</v>
       </c>
       <c r="J85" t="n">
-        <v>0.3555274269928494</v>
+        <v>0.2091364346228324</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03205250940424526</v>
+        <v>0.009188241834325242</v>
       </c>
       <c r="L85" t="n">
-        <v>0.6342599752685377</v>
+        <v>0.6129142016670517</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03207855619172514</v>
+        <v>0.01982515978312423</v>
       </c>
       <c r="N85" t="n">
-        <v>0.920950972104039</v>
+        <v>0.8919901947537034</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03209286761341739</v>
+        <v>0.01980480890163116</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.09602089102642347</v>
+        <v>0.2113845803008866</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03339727539968899</v>
+        <v>0.009647653926041505</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3595205667754394</v>
+        <v>0.2113845803008866</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03365513487445752</v>
+        <v>0.009647653926041505</v>
       </c>
       <c r="L86" t="n">
-        <v>0.640362462144023</v>
+        <v>0.6235921246122573</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0336824840013114</v>
+        <v>0.02081641777228044</v>
       </c>
       <c r="N86" t="n">
-        <v>0.9306776298608641</v>
+        <v>0.9022611170006709</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03369751099408826</v>
+        <v>0.02079504934671271</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.1059147450007013</v>
+        <v>0.2135905037303253</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03498762184729323</v>
+        <v>0.01010706601775777</v>
       </c>
       <c r="J87" t="n">
-        <v>0.3619689459948368</v>
+        <v>0.2135905037303253</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03525776034466978</v>
+        <v>0.01010706601775777</v>
       </c>
       <c r="L87" t="n">
-        <v>0.6518315911013894</v>
+        <v>0.6346777727810963</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03528641181089766</v>
+        <v>0.02180767576143665</v>
       </c>
       <c r="N87" t="n">
-        <v>0.9346838928310952</v>
+        <v>0.9135948017507032</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03530215437475912</v>
+        <v>0.02178528979179427</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1057189613116827</v>
+        <v>0.2157545554565996</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03657796829489746</v>
+        <v>0.01056647810947403</v>
       </c>
       <c r="J88" t="n">
-        <v>0.3643447349285787</v>
+        <v>0.2157545554565996</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03686038581488204</v>
+        <v>0.01056647810947403</v>
       </c>
       <c r="L88" t="n">
-        <v>0.654817223903755</v>
+        <v>0.6398616452958373</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03689033962048392</v>
+        <v>0.02279893375059287</v>
       </c>
       <c r="N88" t="n">
-        <v>0.9497972852484564</v>
+        <v>0.926781559709831</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03690679775542999</v>
+        <v>0.02277553023687583</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1034255630715688</v>
+        <v>0.2178770860251608</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0381683147425017</v>
+        <v>0.01102589020119029</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3673201038542022</v>
+        <v>0.2178770860251608</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03846301128509431</v>
+        <v>0.01102589020119029</v>
       </c>
       <c r="L89" t="n">
-        <v>0.6582692223142373</v>
+        <v>0.6510342412787494</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03849426743007017</v>
+        <v>0.02379019173974908</v>
       </c>
       <c r="N89" t="n">
-        <v>0.9489453313466707</v>
+        <v>0.9446117015840829</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03851144113610086</v>
+        <v>0.02376577068195739</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1050265733925609</v>
+        <v>0.2199584459814599</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03975866119010594</v>
+        <v>0.01148530229290655</v>
       </c>
       <c r="J90" t="n">
-        <v>0.3694672230492443</v>
+        <v>0.2199584459814599</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04006563675530656</v>
+        <v>0.01148530229290655</v>
       </c>
       <c r="L90" t="n">
-        <v>0.6652374480959536</v>
+        <v>0.6552860598521013</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04009819523965643</v>
+        <v>0.02478144972890529</v>
       </c>
       <c r="N90" t="n">
-        <v>0.9637555553594617</v>
+        <v>0.9468755380794887</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04011608451677173</v>
+        <v>0.02475601112703894</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.10151401538686</v>
+        <v>0.2219989858709484</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04134900763771018</v>
+        <v>0.01194471438462281</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3719582627912419</v>
+        <v>0.2219989858709484</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04166826222551883</v>
+        <v>0.01194471438462281</v>
       </c>
       <c r="L91" t="n">
-        <v>0.6662717630120221</v>
+        <v>0.6603076001381618</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04170212304924269</v>
+        <v>0.0257727077180615</v>
       </c>
       <c r="N91" t="n">
-        <v>0.9637554815205531</v>
+        <v>0.9647633799020778</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04172072789744261</v>
+        <v>0.0257462515721205</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.09987991216666731</v>
+        <v>0.2239990562390771</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04293935408531441</v>
+        <v>0.01240412647633908</v>
       </c>
       <c r="J92" t="n">
-        <v>0.3743653933577323</v>
+        <v>0.2239990562390771</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04327088769573109</v>
+        <v>0.01240412647633908</v>
       </c>
       <c r="L92" t="n">
-        <v>0.6737220288255601</v>
+        <v>0.6696893612592004</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04330605085882894</v>
+        <v>0.02676396570721771</v>
       </c>
       <c r="N92" t="n">
-        <v>0.974572634063668</v>
+        <v>0.9636655377578804</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04332537127811348</v>
+        <v>0.02673649201720206</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1112177466889607</v>
+        <v>0.2259590076312974</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04452970053291865</v>
+        <v>0.01286353856805534</v>
       </c>
       <c r="J93" t="n">
-        <v>0.3771607850262523</v>
+        <v>0.2259590076312974</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04487351316594335</v>
+        <v>0.01286353856805534</v>
       </c>
       <c r="L93" t="n">
-        <v>0.6727381072996855</v>
+        <v>0.6734218423374855</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0449099786684152</v>
+        <v>0.02775522369637393</v>
       </c>
       <c r="N93" t="n">
-        <v>0.9700345372225296</v>
+        <v>0.9768723223529259</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04493001465878434</v>
+        <v>0.02772673246228361</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1082151625316112</v>
+        <v>0.2278791905930605</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04612004698052288</v>
+        <v>0.0133229506597716</v>
       </c>
       <c r="J94" t="n">
-        <v>0.3749166080743391</v>
+        <v>0.2278791905930605</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04647613863615561</v>
+        <v>0.0133229506597716</v>
       </c>
       <c r="L94" t="n">
-        <v>0.6748698601975163</v>
+        <v>0.6761955424952858</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04651390647800146</v>
+        <v>0.02874648168553014</v>
       </c>
       <c r="N94" t="n">
-        <v>0.9797687152308618</v>
+        <v>0.9802740443932438</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04653465803945521</v>
+        <v>0.02871697290736517</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1031943642763528</v>
+        <v>0.2297599556698176</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04771039342812713</v>
+        <v>0.01378236275148786</v>
       </c>
       <c r="J95" t="n">
-        <v>0.3791653052519491</v>
+        <v>0.2297599556698176</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04807876410636788</v>
+        <v>0.01378236275148786</v>
       </c>
       <c r="L95" t="n">
         <v>0.6814444258335643</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04811783428758772</v>
+        <v>0.02973773967468634</v>
       </c>
       <c r="N95" t="n">
         <v>0.9837235464151797</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04813930142012608</v>
+        <v>0.02970721335244673</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1041036349192542</v>
+        <v>0.2316016534070197</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04930073987573136</v>
+        <v>0.01424177484320413</v>
       </c>
       <c r="J96" t="n">
-        <v>0.376133059066854</v>
+        <v>0.2316016534070197</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04968138957658014</v>
+        <v>0.01424177484320413</v>
       </c>
       <c r="L96" t="n">
-        <v>0.6793132140162345</v>
+        <v>0.6805285965385089</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04972176209717397</v>
+        <v>0.03072899766384256</v>
       </c>
       <c r="N96" t="n">
-        <v>0.9773946862495582</v>
+        <v>0.9758235454193229</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04974394480079695</v>
+        <v>0.03069745379752829</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1029484871256406</v>
+        <v>0.2334046343501182</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0508910863233356</v>
+        <v>0.01470118693492039</v>
       </c>
       <c r="J97" t="n">
-        <v>0.3752890057498237</v>
+        <v>0.2334046343501182</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05128401504679241</v>
+        <v>0.01470118693492039</v>
       </c>
       <c r="L97" t="n">
-        <v>0.6758319141399463</v>
+        <v>0.675812059761849</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05132568990676023</v>
+        <v>0.03172025565299877</v>
       </c>
       <c r="N97" t="n">
-        <v>0.9783900688038591</v>
+        <v>0.9745542814047152</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05134858818146782</v>
+        <v>0.03168769424260984</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1087331249454226</v>
+        <v>0.235169249044564</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05248143277093984</v>
+        <v>0.01516059902663665</v>
       </c>
       <c r="J98" t="n">
-        <v>0.3767177195171105</v>
+        <v>0.235169249044564</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05288664051700467</v>
+        <v>0.01516059902663665</v>
       </c>
       <c r="L98" t="n">
-        <v>0.6741379790418486</v>
+        <v>0.6744162628578105</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05292961771634649</v>
+        <v>0.03271151364215499</v>
       </c>
       <c r="N98" t="n">
-        <v>0.9750864007797588</v>
+        <v>0.9774741813628005</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05295323156213869</v>
+        <v>0.0326779346876914</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.100461752428511</v>
+        <v>0.2368958480358088</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05407177921854408</v>
+        <v>0.01562001111835291</v>
       </c>
       <c r="J99" t="n">
-        <v>0.3760338674350173</v>
+        <v>0.2368958480358088</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05448926598721693</v>
+        <v>0.01562001111835291</v>
       </c>
       <c r="L99" t="n">
-        <v>0.6730578330186848</v>
+        <v>0.6777795680791306</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05453354552593274</v>
+        <v>0.0337027716313112</v>
       </c>
       <c r="N99" t="n">
-        <v>0.9745218789961698</v>
+        <v>0.9726216455062171</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05455787494280956</v>
+        <v>0.03366817513277296</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1101385736248164</v>
+        <v>0.2385847818693033</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05566212566614831</v>
+        <v>0.01607942321006918</v>
       </c>
       <c r="J100" t="n">
-        <v>0.3753521165698466</v>
+        <v>0.2385847818693033</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05609189145742919</v>
+        <v>0.01607942321006918</v>
       </c>
       <c r="L100" t="n">
-        <v>0.6741179003671987</v>
+        <v>0.6732302419219777</v>
       </c>
       <c r="M100" t="n">
-        <v>0.056137473335519</v>
+        <v>0.0346940296204674</v>
       </c>
       <c r="N100" t="n">
-        <v>0.9697347002720056</v>
+        <v>0.9783350740476018</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05616251832348042</v>
+        <v>0.03465841557785452</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1087677925842495</v>
+        <v>0.2402364010904988</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05725247211375255</v>
+        <v>0.01653883530178544</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3730871339879013</v>
+        <v>0.2402364010904988</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05769451692764146</v>
+        <v>0.01653883530178544</v>
       </c>
       <c r="L101" t="n">
-        <v>0.6706446053841336</v>
+        <v>0.67549655088252</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05774140114510526</v>
+        <v>0.03568528760962362</v>
       </c>
       <c r="N101" t="n">
-        <v>0.9695630614261788</v>
+        <v>0.9734528671995921</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05776716170415129</v>
+        <v>0.03564865602293608</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.105353613356721</v>
+        <v>0.2418510562448467</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05884281856135678</v>
+        <v>0.0169982473935017</v>
       </c>
       <c r="J102" t="n">
-        <v>0.3738535867554838</v>
+        <v>0.2418510562448467</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05929714239785372</v>
+        <v>0.0169982473935017</v>
       </c>
       <c r="L102" t="n">
-        <v>0.6726643723662333</v>
+        <v>0.6750067614569261</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05934532895469152</v>
+        <v>0.03667654559877983</v>
       </c>
       <c r="N102" t="n">
-        <v>0.9664451592776024</v>
+        <v>0.9731134251748257</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05937180508482217</v>
+        <v>0.03663889646801764</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1049002399921415</v>
+        <v>0.2434290978777979</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06043316500896103</v>
+        <v>0.01745765948521796</v>
       </c>
       <c r="J103" t="n">
-        <v>0.3698661419388969</v>
+        <v>0.2434290978777979</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06089976786806597</v>
+        <v>0.01745765948521796</v>
       </c>
       <c r="L103" t="n">
-        <v>0.6645036256102415</v>
+        <v>0.6697891401413644</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06094925676427777</v>
+        <v>0.03766780358793604</v>
       </c>
       <c r="N103" t="n">
-        <v>0.9606191906451897</v>
+        <v>0.9694551481859397</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06097644846549304</v>
+        <v>0.03762913691309919</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.09841187654042186</v>
+        <v>0.2449708765348038</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06202351145656526</v>
+        <v>0.01791707157693422</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3694394666044434</v>
+        <v>0.2449708765348038</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06250239333827824</v>
+        <v>0.01791707157693422</v>
       </c>
       <c r="L104" t="n">
-        <v>0.663188789412901</v>
+        <v>0.6697719534320031</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06255318457386402</v>
+        <v>0.03865906157709225</v>
       </c>
       <c r="N104" t="n">
-        <v>0.9622233523478534</v>
+        <v>0.9685164364455716</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06258109184616389</v>
+        <v>0.03861937735818075</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1048927270514726</v>
+        <v>0.2464767427613155</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0636138579041695</v>
+        <v>0.01837648366865048</v>
       </c>
       <c r="J105" t="n">
-        <v>0.3662882278184259</v>
+        <v>0.2464767427613155</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06410501880849051</v>
+        <v>0.01837648366865048</v>
       </c>
       <c r="L105" t="n">
-        <v>0.6599462880709563</v>
+        <v>0.6673834678250109</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06415711238345029</v>
+        <v>0.03965031956624846</v>
       </c>
       <c r="N105" t="n">
-        <v>0.9544958412045064</v>
+        <v>0.9606356901663586</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06418573522683478</v>
+        <v>0.03960961780326231</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1003469955752045</v>
+        <v>0.2479470471027841</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06520420435177374</v>
+        <v>0.01883589576036675</v>
       </c>
       <c r="J106" t="n">
-        <v>0.367427092647147</v>
+        <v>0.2479470471027841</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06570764427870276</v>
+        <v>0.01883589576036675</v>
       </c>
       <c r="L106" t="n">
-        <v>0.6614025458811504</v>
+        <v>0.6662519498165558</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06576104019303654</v>
+        <v>0.04064157755540467</v>
       </c>
       <c r="N106" t="n">
-        <v>0.9536748540340618</v>
+        <v>0.9546513095609386</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06579037860750564</v>
+        <v>0.04059985824834387</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.09877888616152811</v>
+        <v>0.249382140104661</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06679455079937797</v>
+        <v>0.01929530785208301</v>
       </c>
       <c r="J107" t="n">
-        <v>0.3658707281569094</v>
+        <v>0.249382140104661</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06731026974891503</v>
+        <v>0.01929530785208301</v>
       </c>
       <c r="L107" t="n">
-        <v>0.6545839871402273</v>
+        <v>0.6597056659028065</v>
       </c>
       <c r="M107" t="n">
-        <v>0.0673649680026228</v>
+        <v>0.04163283554456089</v>
       </c>
       <c r="N107" t="n">
-        <v>0.9428985876554326</v>
+        <v>0.9513016948419484</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06739502198817651</v>
+        <v>0.04159009869342543</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1031926028603543</v>
+        <v>0.2507823723123971</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06838489724698221</v>
+        <v>0.01975471994379927</v>
       </c>
       <c r="J108" t="n">
-        <v>0.3621338014140158</v>
+        <v>0.2507823723123971</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0689128952191273</v>
+        <v>0.01975471994379927</v>
       </c>
       <c r="L108" t="n">
-        <v>0.64971703614493</v>
+        <v>0.6549728825799314</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06896889581220905</v>
+        <v>0.0426240935337171</v>
       </c>
       <c r="N108" t="n">
-        <v>0.939905238887532</v>
+        <v>0.9517252462220258</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06899966536884738</v>
+        <v>0.04258033913850699</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1045923497215936</v>
+        <v>0.2521480942714439</v>
       </c>
       <c r="G109" t="n">
-        <v>0.06997524369458645</v>
+        <v>0.02021413203551553</v>
       </c>
       <c r="J109" t="n">
-        <v>0.358730979484769</v>
+        <v>0.2521480942714439</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07051552068933956</v>
+        <v>0.02021413203551553</v>
       </c>
       <c r="L109" t="n">
-        <v>0.6515281171920025</v>
+        <v>0.6539818663440986</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07057282362179532</v>
+        <v>0.0436153515228733</v>
       </c>
       <c r="N109" t="n">
-        <v>0.9366330045492726</v>
+        <v>0.942560363913808</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07060430874951824</v>
+        <v>0.04357057958358854</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1009823307951567</v>
+        <v>0.2534796565272524</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07156559014219069</v>
+        <v>0.0206735441272318</v>
       </c>
       <c r="J110" t="n">
-        <v>0.3600769294354714</v>
+        <v>0.2534796565272524</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07211814615955181</v>
+        <v>0.0206735441272318</v>
       </c>
       <c r="L110" t="n">
-        <v>0.6440436545781882</v>
+        <v>0.6531608836914768</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07217675143138157</v>
+        <v>0.04460660951202952</v>
       </c>
       <c r="N110" t="n">
-        <v>0.9324200814595671</v>
+        <v>0.9445454481299325</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07220895213018912</v>
+        <v>0.0445608200286701</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1013667501309543</v>
+        <v>0.2547774096252738</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07315593658979493</v>
+        <v>0.02113295621894806</v>
       </c>
       <c r="J111" t="n">
-        <v>0.358086318332426</v>
+        <v>0.2547774096252738</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07372077162976408</v>
+        <v>0.02113295621894806</v>
       </c>
       <c r="L111" t="n">
-        <v>0.6433900726002308</v>
+        <v>0.6491382011182343</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07378067924096783</v>
+        <v>0.04559786750118573</v>
       </c>
       <c r="N111" t="n">
-        <v>0.9303046664373293</v>
+        <v>0.9378188990830363</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07381359551085999</v>
+        <v>0.04555106047375166</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1037498117788972</v>
+        <v>0.2560417041109593</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07474628303739916</v>
+        <v>0.02159236831066432</v>
       </c>
       <c r="J112" t="n">
-        <v>0.3558738132419352</v>
+        <v>0.2560417041109593</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07532339709997635</v>
+        <v>0.02159236831066432</v>
       </c>
       <c r="L112" t="n">
-        <v>0.6349937955548737</v>
+        <v>0.6472420851205394</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07538460705055408</v>
+        <v>0.04658912549034194</v>
       </c>
       <c r="N112" t="n">
-        <v>0.9211249563014718</v>
+        <v>0.9381191169857572</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07541823889153086</v>
+        <v>0.04654130091883322</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.09213571978889584</v>
+        <v>0.2572728905297601</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0763366294850034</v>
+        <v>0.02205178040238058</v>
       </c>
       <c r="J113" t="n">
-        <v>0.3533540812303019</v>
+        <v>0.2572728905297601</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07692602257018862</v>
+        <v>0.02205178040238058</v>
       </c>
       <c r="L113" t="n">
-        <v>0.6333812477388606</v>
+        <v>0.6435008021945605</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07698853486014035</v>
+        <v>0.04758038347949816</v>
       </c>
       <c r="N113" t="n">
-        <v>0.9173191478709073</v>
+        <v>0.9281845020507329</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07702288227220172</v>
+        <v>0.04753154136391478</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.09252864781667719</v>
+        <v>0.2584713194271274</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07792697593260764</v>
+        <v>0.02251119249409684</v>
       </c>
       <c r="J114" t="n">
-        <v>0.3504417893638286</v>
+        <v>0.2584713194271274</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07852864804040087</v>
+        <v>0.02251119249409684</v>
       </c>
       <c r="L114" t="n">
-        <v>0.6269788534489349</v>
+        <v>0.6393426188364663</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07859246266972661</v>
+        <v>0.04857164146865436</v>
       </c>
       <c r="N114" t="n">
-        <v>0.9140254379645494</v>
+        <v>0.9229534544906002</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07862752565287261</v>
+        <v>0.04852178180899633</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0928763443952817</v>
+        <v>0.2596373413485123</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07951732238021188</v>
+        <v>0.0229706045858131</v>
       </c>
       <c r="J115" t="n">
-        <v>0.3490516047088182</v>
+        <v>0.2596373413485123</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08013127351061312</v>
+        <v>0.0229706045858131</v>
       </c>
       <c r="L115" t="n">
-        <v>0.6229130369818404</v>
+        <v>0.6376958015424247</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08019639047931286</v>
+        <v>0.04956289945781058</v>
       </c>
       <c r="N115" t="n">
-        <v>0.9069820234013104</v>
+        <v>0.9206643745179968</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08023216903354347</v>
+        <v>0.04951202225407789</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0911379926342917</v>
+        <v>0.2607713068393661</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0811076688278161</v>
+        <v>0.02343001667752937</v>
       </c>
       <c r="J116" t="n">
-        <v>0.3458548325461834</v>
+        <v>0.2607713068393661</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08173389898082539</v>
+        <v>0.02343001667752937</v>
       </c>
       <c r="L116" t="n">
-        <v>0.6227179276160283</v>
+        <v>0.6366886168086044</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08180031828889912</v>
+        <v>0.05055415744696679</v>
       </c>
       <c r="N116" t="n">
-        <v>0.9008956044092653</v>
+        <v>0.9207556623455599</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08183681241421434</v>
+        <v>0.05050226269915944</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.09132728983084817</v>
+        <v>0.2618735664451399</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08269801527542035</v>
+        <v>0.02388942876924563</v>
       </c>
       <c r="J117" t="n">
-        <v>0.3436564591947744</v>
+        <v>0.2618735664451399</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08333652445103766</v>
+        <v>0.02388942876924563</v>
       </c>
       <c r="L117" t="n">
-        <v>0.6150853036790495</v>
+        <v>0.6372493311311739</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08340424609848537</v>
+        <v>0.051545415436123</v>
       </c>
       <c r="N117" t="n">
-        <v>0.8920431661952757</v>
+        <v>0.916665718185927</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08344145579488521</v>
+        <v>0.051492503144241</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.09645793328209223</v>
+        <v>0.262944470711285</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08428836172302459</v>
+        <v>0.02434884086096189</v>
       </c>
       <c r="J118" t="n">
-        <v>0.3414012008803647</v>
+        <v>0.262944470711285</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08493914992124992</v>
+        <v>0.02434884086096189</v>
       </c>
       <c r="L118" t="n">
-        <v>0.6094799735764321</v>
+        <v>0.6364062110063013</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08500817390807164</v>
+        <v>0.05253667342527921</v>
       </c>
       <c r="N118" t="n">
-        <v>0.8848995689830383</v>
+        <v>0.9118329422517355</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08504609917555607</v>
+        <v>0.05248274358932256</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0915436202851648</v>
+        <v>0.2639843701832524</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08587870817062881</v>
+        <v>0.02480825295267815</v>
       </c>
       <c r="J119" t="n">
-        <v>0.3384368446581995</v>
+        <v>0.2639843701832524</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08654177539146218</v>
+        <v>0.02480825295267815</v>
       </c>
       <c r="L119" t="n">
-        <v>0.6090880308256011</v>
+        <v>0.6290875229301552</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08661210171765789</v>
+        <v>0.05352793141443542</v>
       </c>
       <c r="N119" t="n">
-        <v>0.8749892625744371</v>
+        <v>0.9135957347556229</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08665074255622696</v>
+        <v>0.05347298403440411</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.08959804813720704</v>
+        <v>0.2649936154064934</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08746905461823305</v>
+        <v>0.02526766504439442</v>
       </c>
       <c r="J120" t="n">
-        <v>0.336111177583524</v>
+        <v>0.2649936154064934</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08814440086167445</v>
+        <v>0.02526766504439442</v>
       </c>
       <c r="L120" t="n">
-        <v>0.5986955689439812</v>
+        <v>0.6285215333989039</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08821602952724415</v>
+        <v>0.05451918940359163</v>
       </c>
       <c r="N120" t="n">
-        <v>0.8657366967713565</v>
+        <v>0.9119924959102264</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08825538593689781</v>
+        <v>0.05446322447948568</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.09163491413535993</v>
+        <v>0.2659725569264592</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0890594010658373</v>
+        <v>0.02572707713611068</v>
       </c>
       <c r="J121" t="n">
-        <v>0.3310719867115833</v>
+        <v>0.2659725569264592</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08974702633188671</v>
+        <v>0.02572707713611068</v>
       </c>
       <c r="L121" t="n">
-        <v>0.5992886814489968</v>
+        <v>0.629136508908716</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0898199573368304</v>
+        <v>0.05551044739274785</v>
       </c>
       <c r="N121" t="n">
-        <v>0.8607663213756793</v>
+        <v>0.9027616259281834</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08986002931756869</v>
+        <v>0.05545346492456723</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.08866791557676454</v>
+        <v>0.2669215452886011</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09064974751344153</v>
+        <v>0.02618648922782694</v>
       </c>
       <c r="J122" t="n">
-        <v>0.3273670590976228</v>
+        <v>0.2669215452886011</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09134965180209897</v>
+        <v>0.02618648922782694</v>
       </c>
       <c r="L122" t="n">
-        <v>0.5892534618580733</v>
+        <v>0.6300607159557594</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09142388514641667</v>
+        <v>0.05650170538190406</v>
       </c>
       <c r="N122" t="n">
-        <v>0.8503025861892899</v>
+        <v>0.9079415250221314</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09146467269823956</v>
+        <v>0.05644370536964879</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.08871074975856197</v>
+        <v>0.26784093103837</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09224009396104577</v>
+        <v>0.0266459013195432</v>
       </c>
       <c r="J123" t="n">
-        <v>0.3243441817968875</v>
+        <v>0.26784093103837</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09295227727231123</v>
+        <v>0.0266459013195432</v>
       </c>
       <c r="L123" t="n">
-        <v>0.5819760036886351</v>
+        <v>0.6255224210362029</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09302781295600292</v>
+        <v>0.05749296337106027</v>
       </c>
       <c r="N123" t="n">
-        <v>0.8407699410140719</v>
+        <v>0.899870593404708</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09306931607891042</v>
+        <v>0.05743394581473035</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.0917771139778932</v>
+        <v>0.2687310647212173</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09383044040865002</v>
+        <v>0.02710531341125946</v>
       </c>
       <c r="J124" t="n">
-        <v>0.3195511418646225</v>
+        <v>0.2687310647212173</v>
       </c>
       <c r="K124" t="n">
-        <v>0.0945549027425235</v>
+        <v>0.02710531341125946</v>
       </c>
       <c r="L124" t="n">
-        <v>0.5799424004581072</v>
+        <v>0.6246495340946547</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09463174076558918</v>
+        <v>0.05848422136021649</v>
       </c>
       <c r="N124" t="n">
-        <v>0.8326928356519094</v>
+        <v>0.9054776309877428</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09467395945958129</v>
+        <v>0.05842418625981191</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.08688070553189933</v>
+        <v>0.2695922968825941</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09542078685625426</v>
+        <v>0.02756472550297573</v>
       </c>
       <c r="J125" t="n">
-        <v>0.3174357263560733</v>
+        <v>0.2695922968825941</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09615752821273577</v>
+        <v>0.02756472550297573</v>
       </c>
       <c r="L125" t="n">
-        <v>0.5690387456839141</v>
+        <v>0.6242089491288156</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09623566857517543</v>
+        <v>0.05947547934937269</v>
       </c>
       <c r="N125" t="n">
-        <v>0.8235957199046857</v>
+        <v>0.9084577434229664</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09627860284025216</v>
+        <v>0.05941442670489346</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.08900398089015973</v>
+        <v>0.2704249780679516</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09701113330385848</v>
+        <v>0.02802413759469199</v>
       </c>
       <c r="J126" t="n">
-        <v>0.3144457223264847</v>
+        <v>0.2704249780679516</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09776015368294803</v>
+        <v>0.02802413759469199</v>
       </c>
       <c r="L126" t="n">
-        <v>0.5657511328834809</v>
+        <v>0.6274701059750685</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0978395963847617</v>
+        <v>0.0604667373385289</v>
       </c>
       <c r="N126" t="n">
-        <v>0.8177030435742854</v>
+        <v>0.9056501535372996</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09788324622092304</v>
+        <v>0.06040466714997503</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0900503721850156</v>
+        <v>0.271229458822741</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09860147975146272</v>
+        <v>0.02848354968640825</v>
       </c>
       <c r="J127" t="n">
-        <v>0.3111408098051833</v>
+        <v>0.271229458822741</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09936277915316027</v>
+        <v>0.02848354968640825</v>
       </c>
       <c r="L127" t="n">
-        <v>0.5580626261881358</v>
+        <v>0.6282240949206571</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09944352419434795</v>
+        <v>0.06145799532768512</v>
       </c>
       <c r="N127" t="n">
-        <v>0.8077271632782175</v>
+        <v>0.9064552913587771</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0994878896015939</v>
+        <v>0.06139490759505658</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.09002914390264474</v>
+        <v>0.2720060896924135</v>
       </c>
       <c r="G128" t="n">
-        <v>0.100191826199067</v>
+        <v>0.02894296177812451</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3101791323100475</v>
+        <v>0.2720060896924135</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1009654046233725</v>
+        <v>0.02894296177812451</v>
       </c>
       <c r="L128" t="n">
-        <v>0.5580508772672718</v>
+        <v>0.630162006252825</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1010474520039342</v>
+        <v>0.06244925331684133</v>
       </c>
       <c r="N128" t="n">
-        <v>0.8032782167961807</v>
+        <v>0.8975735869154347</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1010925329822648</v>
+        <v>0.06238514804013814</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.08195990372791709</v>
+        <v>0.2727552212224203</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1017821726466712</v>
+        <v>0.02940237386984077</v>
       </c>
       <c r="J129" t="n">
-        <v>0.303779953800799</v>
+        <v>0.2727552212224203</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1025680300935848</v>
+        <v>0.02940237386984077</v>
       </c>
       <c r="L129" t="n">
-        <v>0.5465979827279743</v>
+        <v>0.6258749302588161</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1026513798135205</v>
+        <v>0.06344051130599754</v>
       </c>
       <c r="N129" t="n">
-        <v>0.7899810660225546</v>
+        <v>0.9005054702353072</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1026971763629356</v>
+        <v>0.06337538848521969</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.07786225934570282</v>
+        <v>0.2734772039582125</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1033725190942754</v>
+        <v>0.02986178596155704</v>
       </c>
       <c r="J130" t="n">
-        <v>0.300411681461021</v>
+        <v>0.2734772039582125</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1041706555637971</v>
+        <v>0.02986178596155704</v>
       </c>
       <c r="L130" t="n">
-        <v>0.5449271854656579</v>
+        <v>0.6279539572258739</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1042553076231067</v>
+        <v>0.06443176929515375</v>
       </c>
       <c r="N130" t="n">
-        <v>0.7822138608851932</v>
+        <v>0.89755137134643</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1043018197436065</v>
+        <v>0.06436562893030125</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.08475581844087185</v>
+        <v>0.2741723884452413</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1049628655418797</v>
+        <v>0.0303211980532733</v>
       </c>
       <c r="J131" t="n">
-        <v>0.295942722474296</v>
+        <v>0.2741723884452413</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1057732810340093</v>
+        <v>0.0303211980532733</v>
       </c>
       <c r="L131" t="n">
-        <v>0.5354617283757372</v>
+        <v>0.6294901774412421</v>
       </c>
       <c r="M131" t="n">
-        <v>0.105859235432693</v>
+        <v>0.06542302728430997</v>
       </c>
       <c r="N131" t="n">
-        <v>0.7704547513119513</v>
+        <v>0.8981117202768376</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1059064631242774</v>
+        <v>0.06535586937538281</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.07466018869829433</v>
+        <v>0.274841125228958</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1065532119894839</v>
+        <v>0.03078061014498956</v>
       </c>
       <c r="J132" t="n">
-        <v>0.2945414840242068</v>
+        <v>0.274841125228958</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1073759065042216</v>
+        <v>0.03078061014498956</v>
       </c>
       <c r="L132" t="n">
-        <v>0.5317248543536274</v>
+        <v>0.6284746811921648</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1074631632422792</v>
+        <v>0.06641428527346618</v>
       </c>
       <c r="N132" t="n">
-        <v>0.767681887230683</v>
+        <v>0.8985869470545655</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1075111065049482</v>
+        <v>0.06634610982046436</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.08359497780284028</v>
+        <v>0.2754837648548137</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1081435584370882</v>
+        <v>0.03124002223670582</v>
       </c>
       <c r="J133" t="n">
-        <v>0.2909763732943361</v>
+        <v>0.2754837648548137</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1089785319744339</v>
+        <v>0.03124002223670582</v>
       </c>
       <c r="L133" t="n">
-        <v>0.5246398062947429</v>
+        <v>0.6329985587658851</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1090670910518655</v>
+        <v>0.06740554326262239</v>
       </c>
       <c r="N133" t="n">
-        <v>0.7586734185692428</v>
+        <v>0.8983774817076493</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1091157498856191</v>
+        <v>0.06733635026554592</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.08157979343937974</v>
+        <v>0.2761006578682597</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1097339048846924</v>
+        <v>0.03169943432842209</v>
       </c>
       <c r="J134" t="n">
-        <v>0.2880157974682668</v>
+        <v>0.2761006578682597</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1105811574446461</v>
+        <v>0.03169943432842209</v>
       </c>
       <c r="L134" t="n">
-        <v>0.5183298270944988</v>
+        <v>0.629952900449647</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1106710188614518</v>
+        <v>0.06839680125177859</v>
       </c>
       <c r="N134" t="n">
-        <v>0.7455074952554848</v>
+        <v>0.8997837542641238</v>
       </c>
       <c r="O134" t="n">
-        <v>0.11072039326629</v>
+        <v>0.06832659071062748</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.07563424329278279</v>
+        <v>0.2766921548147469</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1113242513322966</v>
+        <v>0.03215884642013835</v>
       </c>
       <c r="J135" t="n">
-        <v>0.2837281637295817</v>
+        <v>0.2766921548147469</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1121837829148584</v>
+        <v>0.03215884642013835</v>
       </c>
       <c r="L135" t="n">
-        <v>0.5073181596483098</v>
+        <v>0.6343287965306943</v>
       </c>
       <c r="M135" t="n">
-        <v>0.112274946671038</v>
+        <v>0.0693880592409348</v>
       </c>
       <c r="N135" t="n">
-        <v>0.7337622672172639</v>
+        <v>0.902906194752024</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1123250366469608</v>
+        <v>0.06931683115570904</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.07977793504791944</v>
+        <v>0.2772586062397268</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1129145977799009</v>
+        <v>0.0326182585118546</v>
       </c>
       <c r="J136" t="n">
-        <v>0.2785818792618633</v>
+        <v>0.2772586062397268</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1137864083850706</v>
+        <v>0.0326182585118546</v>
       </c>
       <c r="L136" t="n">
-        <v>0.5033280468515906</v>
+        <v>0.6344173372962705</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1138788744806243</v>
+        <v>0.07037931723009101</v>
       </c>
       <c r="N136" t="n">
-        <v>0.7313158843824341</v>
+        <v>0.8956452331993852</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1139296800276317</v>
+        <v>0.0703070716007906</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07303047638965976</v>
+        <v>0.2778003626886504</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1145049442275051</v>
+        <v>0.03307767060357087</v>
       </c>
       <c r="J137" t="n">
-        <v>0.2752453512486946</v>
+        <v>0.2778003626886504</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1153890338552829</v>
+        <v>0.03307767060357087</v>
       </c>
       <c r="L137" t="n">
-        <v>0.4991827315997558</v>
+        <v>0.6357096130336195</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1154828022902105</v>
+        <v>0.07137057521924724</v>
       </c>
       <c r="N137" t="n">
-        <v>0.71604649667885</v>
+        <v>0.8966012996342423</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1155343234083026</v>
+        <v>0.07129731204587215</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.07641147500287379</v>
+        <v>0.2783177747069689</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1160952906751093</v>
+        <v>0.03353708269528713</v>
       </c>
       <c r="J138" t="n">
-        <v>0.2727869868736583</v>
+        <v>0.2783177747069689</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1169916593254952</v>
+        <v>0.03353708269528713</v>
       </c>
       <c r="L138" t="n">
-        <v>0.4934054567882205</v>
+        <v>0.6351967140299848</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1170867300997968</v>
+        <v>0.07236183320840345</v>
       </c>
       <c r="N138" t="n">
-        <v>0.7082322540343655</v>
+        <v>0.8972748240846311</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1171389667889735</v>
+        <v>0.07228755249095371</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0759405385724316</v>
+        <v>0.2788111928401336</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1176856371227136</v>
+        <v>0.0339964947870034</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2734751933203372</v>
+        <v>0.2788111928401336</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1185942847957074</v>
+        <v>0.0339964947870034</v>
       </c>
       <c r="L139" t="n">
-        <v>0.4874194653123993</v>
+        <v>0.6344697305726102</v>
       </c>
       <c r="M139" t="n">
-        <v>0.118690657909383</v>
+        <v>0.07335309119755966</v>
       </c>
       <c r="N139" t="n">
-        <v>0.7028513063768358</v>
+        <v>0.9011662365785862</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1187436101696443</v>
+        <v>0.07327779293603527</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.07363727478320323</v>
+        <v>0.2792809676335956</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1192759835703178</v>
+        <v>0.03445590687871966</v>
       </c>
       <c r="J140" t="n">
-        <v>0.2706783777723139</v>
+        <v>0.2792809676335956</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1201969102659197</v>
+        <v>0.03445590687871966</v>
       </c>
       <c r="L140" t="n">
-        <v>0.4848480000677069</v>
+        <v>0.6345197529487395</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1202945857189693</v>
+        <v>0.07434434918671587</v>
       </c>
       <c r="N140" t="n">
-        <v>0.7072818036341144</v>
+        <v>0.9026759671441424</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1203482535503152</v>
+        <v>0.07426803338111683</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.07352129132005872</v>
+        <v>0.2797274496328061</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1208663300179221</v>
+        <v>0.03491531897043592</v>
       </c>
       <c r="J141" t="n">
-        <v>0.2701649474131714</v>
+        <v>0.2797274496328061</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1217995357361319</v>
+        <v>0.03491531897043592</v>
       </c>
       <c r="L141" t="n">
-        <v>0.4815143039495582</v>
+        <v>0.6352378714456165</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1218985135285555</v>
+        <v>0.07533560717587208</v>
       </c>
       <c r="N141" t="n">
-        <v>0.703101895734056</v>
+        <v>0.897004445809336</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1219528969309861</v>
+        <v>0.07525827382619839</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0735334672552504</v>
+        <v>0.2801509893832163</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1224566764655263</v>
+        <v>0.03537473106215219</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2709033094264924</v>
+        <v>0.2801509893832163</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1234021612063442</v>
+        <v>0.03537473106215219</v>
       </c>
       <c r="L142" t="n">
-        <v>0.4852416198533681</v>
+        <v>0.6348151763504843</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1235024413381418</v>
+        <v>0.07632686516502829</v>
       </c>
       <c r="N142" t="n">
-        <v>0.6972897326045151</v>
+        <v>0.8972521026022011</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1235575403116569</v>
+        <v>0.07624851427127995</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.07957521234844822</v>
+        <v>0.2805519374302773</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1240470229131305</v>
+        <v>0.03583414315386844</v>
       </c>
       <c r="J143" t="n">
-        <v>0.2681531274097818</v>
+        <v>0.2805519374302773</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1250047866765565</v>
+        <v>0.03583414315386844</v>
       </c>
       <c r="L143" t="n">
-        <v>0.4809055514869753</v>
+        <v>0.6398427579505872</v>
       </c>
       <c r="M143" t="n">
-        <v>0.125106369147728</v>
+        <v>0.0773181231541845</v>
       </c>
       <c r="N143" t="n">
-        <v>0.6963550360783137</v>
+        <v>0.9019193675507733</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1251621836923278</v>
+        <v>0.0772387547163615</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07764457155996457</v>
+        <v>0.2809306443194404</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1256373693607347</v>
+        <v>0.0362935552455847</v>
       </c>
       <c r="J144" t="n">
-        <v>0.2708033064544683</v>
+        <v>0.2809306443194404</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1266074121467687</v>
+        <v>0.0362935552455847</v>
       </c>
       <c r="L144" t="n">
-        <v>0.4862584155466282</v>
+        <v>0.6361117065331688</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1267102969573143</v>
+        <v>0.07830938114334071</v>
       </c>
       <c r="N144" t="n">
-        <v>0.6988064798972768</v>
+        <v>0.8951066706830875</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1267668270729987</v>
+        <v>0.07822899516144306</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06874010412425774</v>
+        <v>0.2812874605961568</v>
       </c>
       <c r="G145" t="n">
-        <v>0.127227715808339</v>
+        <v>0.03675296733730097</v>
       </c>
       <c r="J145" t="n">
-        <v>0.2694487208087742</v>
+        <v>0.2812874605961568</v>
       </c>
       <c r="K145" t="n">
-        <v>0.128210037616981</v>
+        <v>0.03675296733730097</v>
       </c>
       <c r="L145" t="n">
-        <v>0.4838835993075156</v>
+        <v>0.6401131123854725</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1283142247669006</v>
+        <v>0.07930063913249692</v>
       </c>
       <c r="N145" t="n">
-        <v>0.699807604512525</v>
+        <v>0.8941144420271792</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1283714704536696</v>
+        <v>0.07921923560652462</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.07586036927578588</v>
+        <v>0.2816227368058776</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1288180622559432</v>
+        <v>0.03721237942901723</v>
       </c>
       <c r="J146" t="n">
-        <v>0.2699843439377683</v>
+        <v>0.2816227368058776</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1298126630871933</v>
+        <v>0.03721237942901723</v>
       </c>
       <c r="L146" t="n">
-        <v>0.483172046926576</v>
+        <v>0.6383380657947425</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1299181525764868</v>
+        <v>0.08029189712165313</v>
       </c>
       <c r="N146" t="n">
-        <v>0.7049453195322539</v>
+        <v>0.8962431116110834</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1299761138343404</v>
+        <v>0.08020947605160618</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.07800392624900718</v>
+        <v>0.281936823494054</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1304084087035475</v>
+        <v>0.03767179152073349</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2717051493065196</v>
+        <v>0.281936823494054</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1314152885574055</v>
+        <v>0.03767179152073349</v>
       </c>
       <c r="L147" t="n">
-        <v>0.4832147025607477</v>
+        <v>0.6379776570482222</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1315220803860731</v>
+        <v>0.08128315511080934</v>
       </c>
       <c r="N147" t="n">
-        <v>0.6996065345646594</v>
+        <v>0.9004931094628352</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1315807572150113</v>
+        <v>0.08119971649668774</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.08016933427837991</v>
+        <v>0.2822300712061372</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1319987551511517</v>
+        <v>0.03813120361244976</v>
       </c>
       <c r="J148" t="n">
-        <v>0.2720061103800969</v>
+        <v>0.2822300712061372</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1330179140276178</v>
+        <v>0.03813120361244976</v>
       </c>
       <c r="L148" t="n">
-        <v>0.4900025103669693</v>
+        <v>0.6413229764331552</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1331260081956593</v>
+        <v>0.08227441309996557</v>
       </c>
       <c r="N148" t="n">
-        <v>0.706778159217937</v>
+        <v>0.8974648656104696</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1331854005956822</v>
+        <v>0.0821899569417693</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0753551525983622</v>
+        <v>0.2825028304875784</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1335891015987559</v>
+        <v>0.03859061570416602</v>
       </c>
       <c r="J149" t="n">
-        <v>0.270582200623569</v>
+        <v>0.2825028304875784</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1346205394978301</v>
+        <v>0.03859061570416602</v>
       </c>
       <c r="L149" t="n">
-        <v>0.4905264145021789</v>
+        <v>0.6373657515962624</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1347299360052456</v>
+        <v>0.08326567108912178</v>
       </c>
       <c r="N149" t="n">
-        <v>0.7084471031002819</v>
+        <v>0.9005590779540211</v>
       </c>
       <c r="O149" t="n">
-        <v>0.134790043976353</v>
+        <v>0.08318019738685085</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.07055994044341229</v>
+        <v>0.2827554518838288</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1351794480463602</v>
+        <v>0.03905002779588228</v>
       </c>
       <c r="J150" t="n">
-        <v>0.2731283935020051</v>
+        <v>0.2827554518838288</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1362231649680423</v>
+        <v>0.03905002779588228</v>
       </c>
       <c r="L150" t="n">
-        <v>0.4895773591233151</v>
+        <v>0.6377605258386473</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1363338638148319</v>
+        <v>0.08425692907827799</v>
       </c>
       <c r="N150" t="n">
-        <v>0.7087002758198899</v>
+        <v>0.8937825102437578</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1363946873570239</v>
+        <v>0.08417043783193241</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.07278225704798838</v>
+        <v>0.2829882859403396</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1367697944939644</v>
+        <v>0.03950943988759854</v>
       </c>
       <c r="J151" t="n">
-        <v>0.2723396624804738</v>
+        <v>0.2829882859403396</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1378257904382546</v>
+        <v>0.03950943988759854</v>
       </c>
       <c r="L151" t="n">
-        <v>0.4929462883873162</v>
+        <v>0.6408467916871599</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1379377916244181</v>
+        <v>0.0852481870674342</v>
       </c>
       <c r="N151" t="n">
-        <v>0.7060245869849571</v>
+        <v>0.8983366593944535</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1379993307376948</v>
+        <v>0.08516067827701397</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.07902066164654867</v>
+        <v>0.2832016832025619</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1383601409415686</v>
+        <v>0.0399688519793148</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2733109810240441</v>
+        <v>0.2832016832025619</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1394284159084669</v>
+        <v>0.0399688519793148</v>
       </c>
       <c r="L152" t="n">
-        <v>0.4937241464511206</v>
+        <v>0.6372246032597638</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1395417194340044</v>
+        <v>0.0862394450565904</v>
       </c>
       <c r="N152" t="n">
-        <v>0.7098069462036787</v>
+        <v>0.8937197927018836</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1396039741183656</v>
+        <v>0.08615091872209552</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.07627371347355136</v>
+        <v>0.2833959942159469</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1399504873891729</v>
+        <v>0.04042826407103107</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2733373225977849</v>
+        <v>0.2833959942159469</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1410310413786791</v>
+        <v>0.04042826407103107</v>
       </c>
       <c r="L153" t="n">
-        <v>0.4946018774716665</v>
+        <v>0.6384940146744229</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1411456472435906</v>
+        <v>0.08723070304574661</v>
       </c>
       <c r="N153" t="n">
-        <v>0.7126342630842499</v>
+        <v>0.9017301774618234</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1412086174990365</v>
+        <v>0.08714115916717709</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.07358031123708586</v>
+        <v>0.2835715695259458</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1415408338367772</v>
+        <v>0.04088767616274733</v>
       </c>
       <c r="J154" t="n">
-        <v>0.273713660666765</v>
+        <v>0.2835715695259458</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1426336668488914</v>
+        <v>0.04088767616274733</v>
       </c>
       <c r="L154" t="n">
-        <v>0.4967704256058925</v>
+        <v>0.6405550800491006</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1427495750531769</v>
+        <v>0.08822196103490283</v>
       </c>
       <c r="N154" t="n">
-        <v>0.7137934472348668</v>
+        <v>0.9029660809700486</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1428132608797074</v>
+        <v>0.08813139961225863</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0721134868288559</v>
+        <v>0.2837287596780098</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1431311802843814</v>
+        <v>0.04134708825446359</v>
       </c>
       <c r="J155" t="n">
-        <v>0.2758592302865004</v>
+        <v>0.2837287596780098</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1442362923191036</v>
+        <v>0.04134708825446359</v>
       </c>
       <c r="L155" t="n">
-        <v>0.4998314527233949</v>
+        <v>0.6366078535017605</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1443535028627631</v>
+        <v>0.08921321902405904</v>
       </c>
       <c r="N155" t="n">
-        <v>0.7174538449046399</v>
+        <v>0.898425770522334</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1444179042603782</v>
+        <v>0.0891216400573402</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.07685586788240903</v>
+        <v>0.2838679152175902</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1447215267319856</v>
+        <v>0.04180650034617985</v>
       </c>
       <c r="J156" t="n">
-        <v>0.2785176673338969</v>
+        <v>0.2838679152175902</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1458389177893159</v>
+        <v>0.04180650034617985</v>
       </c>
       <c r="L156" t="n">
-        <v>0.4977300517235036</v>
+        <v>0.6363523891503666</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1459574306723494</v>
+        <v>0.09020447701321525</v>
       </c>
       <c r="N156" t="n">
-        <v>0.723162494071097</v>
+        <v>0.8940075134144554</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1460225476410491</v>
+        <v>0.09011188050242175</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.08376396116344997</v>
+        <v>0.283989386690138</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1463118731795899</v>
+        <v>0.04226591243789611</v>
       </c>
       <c r="J157" t="n">
-        <v>0.2821753710982915</v>
+        <v>0.283989386690138</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1474415432595282</v>
+        <v>0.04226591243789611</v>
       </c>
       <c r="L157" t="n">
-        <v>0.502611404857761</v>
+        <v>0.6387887411128824</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1475613584819357</v>
+        <v>0.09119573500237146</v>
       </c>
       <c r="N157" t="n">
-        <v>0.7286435933982922</v>
+        <v>0.8976095769421883</v>
       </c>
       <c r="O157" t="n">
-        <v>0.14762719102172</v>
+        <v>0.09110212094750332</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.08379427343768348</v>
+        <v>0.2840935246411045</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1479022196271941</v>
+        <v>0.04272532452961238</v>
       </c>
       <c r="J158" t="n">
-        <v>0.2826806026220889</v>
+        <v>0.2840935246411045</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1490441687297404</v>
+        <v>0.04272532452961238</v>
       </c>
       <c r="L158" t="n">
-        <v>0.508502138081193</v>
+        <v>0.6416169635072714</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1491652862915219</v>
+        <v>0.09218699299152767</v>
       </c>
       <c r="N158" t="n">
-        <v>0.7413019755524368</v>
+        <v>0.9020302284013075</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1492318344023909</v>
+        <v>0.09209236139258486</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.08590331147081429</v>
+        <v>0.2841806796159408</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1494925660747983</v>
+        <v>0.04318473662132864</v>
       </c>
       <c r="J159" t="n">
-        <v>0.2897816229476935</v>
+        <v>0.2841806796159408</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1506467941999527</v>
+        <v>0.04318473662132864</v>
       </c>
       <c r="L159" t="n">
-        <v>0.5202288773488257</v>
+        <v>0.6359371104514973</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1507692141011082</v>
+        <v>0.09317825098068389</v>
       </c>
       <c r="N159" t="n">
-        <v>0.7452424731997433</v>
+        <v>0.895367735087589</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1508364777830617</v>
+        <v>0.09308260183766644</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.08004758202854714</v>
+        <v>0.2842512021600982</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1510829125224026</v>
+        <v>0.0436441487130449</v>
       </c>
       <c r="J160" t="n">
-        <v>0.2916266931175096</v>
+        <v>0.2842512021600982</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1522494196701649</v>
+        <v>0.0436441487130449</v>
       </c>
       <c r="L160" t="n">
-        <v>0.5223182486156852</v>
+        <v>0.6379492360635237</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1523731419106944</v>
+        <v>0.09416950896984011</v>
       </c>
       <c r="N160" t="n">
-        <v>0.7584699190064244</v>
+        <v>0.9029203642968078</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1524411211637326</v>
+        <v>0.09407284228274798</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.08818359187658684</v>
+        <v>0.2843054428190278</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1526732589700068</v>
+        <v>0.04410356080476116</v>
       </c>
       <c r="J161" t="n">
-        <v>0.2941640741739417</v>
+        <v>0.2843054428190278</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1538520451403772</v>
+        <v>0.04410356080476116</v>
       </c>
       <c r="L161" t="n">
-        <v>0.5284968778367977</v>
+        <v>0.6409533944613145</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1539770697202807</v>
+        <v>0.09516076695899632</v>
       </c>
       <c r="N161" t="n">
-        <v>0.7701891456386909</v>
+        <v>0.9048863833247396</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1540457645444034</v>
+        <v>0.09506308272782955</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.08326784778063809</v>
+        <v>0.2843437521381808</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1542636054176111</v>
+        <v>0.04456297289647743</v>
       </c>
       <c r="J162" t="n">
-        <v>0.2985420271593944</v>
+        <v>0.2843437521381808</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1554546706105895</v>
+        <v>0.04456297289647743</v>
       </c>
       <c r="L162" t="n">
-        <v>0.540791390967189</v>
+        <v>0.6403496397628332</v>
       </c>
       <c r="M162" t="n">
-        <v>0.155580997529867</v>
+        <v>0.09615202494815252</v>
       </c>
       <c r="N162" t="n">
-        <v>0.7783049857627558</v>
+        <v>0.9005640594671596</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1556504079250743</v>
+        <v>0.0960533231729111</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0842568565064056</v>
+        <v>0.2843664806630084</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1558539518652153</v>
+        <v>0.04502238498819369</v>
       </c>
       <c r="J163" t="n">
-        <v>0.302608813116272</v>
+        <v>0.2843664806630084</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1570572960808017</v>
+        <v>0.04502238498819369</v>
       </c>
       <c r="L163" t="n">
-        <v>0.5477284139618853</v>
+        <v>0.6399380260860434</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1571849253394532</v>
+        <v>0.09714328293730873</v>
       </c>
       <c r="N163" t="n">
-        <v>0.7824222720448304</v>
+        <v>0.8984516600198429</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1572550513057452</v>
+        <v>0.09704356361799266</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.08011250134040332</v>
+        <v>0.2843739789389618</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1574442983128195</v>
+        <v>0.04548179707990995</v>
       </c>
       <c r="J164" t="n">
-        <v>0.306612693086979</v>
+        <v>0.2843739789389618</v>
       </c>
       <c r="K164" t="n">
-        <v>0.158659921551014</v>
+        <v>0.04548179707990995</v>
       </c>
       <c r="L164" t="n">
-        <v>0.5531345727759125</v>
+        <v>0.6390186075489089</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1587888531490395</v>
+        <v>0.09813454092646494</v>
       </c>
       <c r="N164" t="n">
-        <v>0.7936458371511275</v>
+        <v>0.9017474522785653</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1588596946864161</v>
+        <v>0.09803380406307421</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.08191008147411968</v>
+        <v>0.2843739789389618</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1590346447604238</v>
+        <v>0.04548179707990995</v>
       </c>
       <c r="J165" t="n">
-        <v>0.3104689896461154</v>
+        <v>0.2843739789389618</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1602625470212262</v>
+        <v>0.04548179707990995</v>
       </c>
       <c r="L165" t="n">
-        <v>0.5563204507318774</v>
+        <v>0.6358914382693932</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1603927809586257</v>
+        <v>0.09912579891562116</v>
       </c>
       <c r="N165" t="n">
-        <v>0.7998768968511845</v>
+        <v>0.9038497035391024</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1604643380670869</v>
+        <v>0.09902404450815577</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.08668855186896829</v>
+        <v>0.2801428416157188</v>
       </c>
       <c r="G166" t="n">
-        <v>0.160624991208028</v>
+        <v>0.04548152855144594</v>
       </c>
       <c r="J166" t="n">
-        <v>0.3123929554864183</v>
+        <v>0.2801428416157188</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1618651724914385</v>
+        <v>0.04548152855144594</v>
       </c>
       <c r="L166" t="n">
-        <v>0.5591297344279439</v>
+        <v>0.6395565723654599</v>
       </c>
       <c r="M166" t="n">
-        <v>0.161996708768212</v>
+        <v>0.1001170569047774</v>
       </c>
       <c r="N166" t="n">
-        <v>0.8065747884887056</v>
+        <v>0.904456681097229</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1620689814477578</v>
+        <v>0.1000142849532373</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0884492922612462</v>
+        <v>0.2759549371683128</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1622153376556322</v>
+        <v>0.04548126002298192</v>
       </c>
       <c r="J167" t="n">
-        <v>0.316151924580177</v>
+        <v>0.2759549371683128</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1634677979616508</v>
+        <v>0.04548126002298192</v>
       </c>
       <c r="L167" t="n">
-        <v>0.5659213245017273</v>
+        <v>0.6345140639550729</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1636006365777982</v>
+        <v>0.1011083148939336</v>
       </c>
       <c r="N167" t="n">
-        <v>0.8134020798013781</v>
+        <v>0.9027666522487208</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1636736248284287</v>
+        <v>0.1010045253983189</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.08919368238725051</v>
+        <v>0.2718117501678066</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1638056841032365</v>
+        <v>0.0454809914945179</v>
       </c>
       <c r="J168" t="n">
-        <v>0.3174507105438276</v>
+        <v>0.2718117501678066</v>
       </c>
       <c r="K168" t="n">
-        <v>0.165070423431863</v>
+        <v>0.0454809914945179</v>
       </c>
       <c r="L168" t="n">
-        <v>0.5706038932007308</v>
+        <v>0.6344639671561957</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1652045643873845</v>
+        <v>0.1020995728830898</v>
       </c>
       <c r="N168" t="n">
-        <v>0.8228713066863975</v>
+        <v>0.8983778842893531</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1652782682090995</v>
+        <v>0.1019947658434004</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.08692310198327827</v>
+        <v>0.2677147651849013</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1653960305508407</v>
+        <v>0.04548072296605388</v>
       </c>
       <c r="J169" t="n">
-        <v>0.3215941269938067</v>
+        <v>0.2677147651849013</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1666730489020753</v>
+        <v>0.04548072296605388</v>
       </c>
       <c r="L169" t="n">
-        <v>0.5757861127724578</v>
+        <v>0.6352063360867918</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1668084921969707</v>
+        <v>0.103090830872246</v>
       </c>
       <c r="N169" t="n">
-        <v>0.8328950050409594</v>
+        <v>0.9067886445149012</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1668829115897704</v>
+        <v>0.102985006288482</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.09463893078562655</v>
+        <v>0.2636654667906559</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1669863769984449</v>
+        <v>0.04548045443758987</v>
       </c>
       <c r="J170" t="n">
-        <v>0.3210869875465506</v>
+        <v>0.2636654667906559</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1682756743722876</v>
+        <v>0.04548045443758987</v>
       </c>
       <c r="L170" t="n">
-        <v>0.5806766554644115</v>
+        <v>0.6399412248648252</v>
       </c>
       <c r="M170" t="n">
-        <v>0.168412420006557</v>
+        <v>0.1040820888614022</v>
       </c>
       <c r="N170" t="n">
-        <v>0.8359857107622606</v>
+        <v>0.9027972002211406</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1684875549704413</v>
+        <v>0.1039752467335636</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.09334254853059246</v>
+        <v>0.2596653395557752</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1685767234460492</v>
+        <v>0.04548018590912585</v>
       </c>
       <c r="J171" t="n">
-        <v>0.3237341058184955</v>
+        <v>0.2596653395557752</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1698782998424998</v>
+        <v>0.04548018590912585</v>
       </c>
       <c r="L171" t="n">
-        <v>0.5801841935240952</v>
+        <v>0.6385686876082592</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1700163478161433</v>
+        <v>0.1050733468505584</v>
       </c>
       <c r="N171" t="n">
-        <v>0.8385559597474963</v>
+        <v>0.9019018187038468</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1700921983511121</v>
+        <v>0.1049654871786451</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.090035334954473</v>
+        <v>0.2557158680513143</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1701670698936534</v>
+        <v>0.04547991738066184</v>
       </c>
       <c r="J172" t="n">
-        <v>0.327640295426078</v>
+        <v>0.2557158680513143</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1714809253127121</v>
+        <v>0.04547991738066184</v>
       </c>
       <c r="L172" t="n">
-        <v>0.5879173991990124</v>
+        <v>0.6361887784350578</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1716202756257295</v>
+        <v>0.1060646048397147</v>
       </c>
       <c r="N172" t="n">
-        <v>0.8521182878938627</v>
+        <v>0.904300767258795</v>
       </c>
       <c r="O172" t="n">
-        <v>0.171696841731783</v>
+        <v>0.1059557276237267</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0927186697935653</v>
+        <v>0.2518185368479823</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1717574163412576</v>
+        <v>0.04547964885219782</v>
       </c>
       <c r="J173" t="n">
-        <v>0.3303103699857343</v>
+        <v>0.2518185368479823</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1730835507829244</v>
+        <v>0.04547964885219782</v>
       </c>
       <c r="L173" t="n">
-        <v>0.5937849447366664</v>
+        <v>0.6348015514631845</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1732242034353158</v>
+        <v>0.1070558628288708</v>
       </c>
       <c r="N173" t="n">
-        <v>0.850385231098556</v>
+        <v>0.9079923131817609</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1733014851124539</v>
+        <v>0.1069459680688082</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.09739393278416641</v>
+        <v>0.2479748305168298</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1733477627888619</v>
+        <v>0.0454793803237338</v>
       </c>
       <c r="J174" t="n">
-        <v>0.3325491431139008</v>
+        <v>0.2479748305168298</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1746861762531366</v>
+        <v>0.0454793803237338</v>
       </c>
       <c r="L174" t="n">
-        <v>0.5943955023845603</v>
+        <v>0.6364070608106028</v>
       </c>
       <c r="M174" t="n">
-        <v>0.174828131244902</v>
+        <v>0.1080471208180271</v>
       </c>
       <c r="N174" t="n">
-        <v>0.8639693252587717</v>
+        <v>0.9024747237685196</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1749061284931248</v>
+        <v>0.1079362085138898</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.09906250366257341</v>
+        <v>0.2441862336285706</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1749381092364661</v>
+        <v>0.04547911179526978</v>
       </c>
       <c r="J175" t="n">
-        <v>0.3361614284270139</v>
+        <v>0.2441862336285706</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1762888017233489</v>
+        <v>0.04547911179526978</v>
       </c>
       <c r="L175" t="n">
-        <v>0.6023577443901976</v>
+        <v>0.6351053605952763</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1764320590544883</v>
+        <v>0.1090383788071833</v>
       </c>
       <c r="N175" t="n">
-        <v>0.8694831062717059</v>
+        <v>0.906846266314846</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1765107718737956</v>
+        <v>0.1089264489589714</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.09473862220698978</v>
+        <v>0.2404542307542503</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1765284556840704</v>
+        <v>0.04547884326680576</v>
       </c>
       <c r="J176" t="n">
-        <v>0.3347520395415099</v>
+        <v>0.2404542307542503</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1778914271935611</v>
+        <v>0.04547884326680576</v>
       </c>
       <c r="L176" t="n">
-        <v>0.6026803430010813</v>
+        <v>0.6390965049351691</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1780359868640745</v>
+        <v>0.1100296367963395</v>
       </c>
       <c r="N176" t="n">
-        <v>0.8687391100345547</v>
+        <v>0.9084052081165166</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1781154152544665</v>
+        <v>0.1099166894040529</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.09545384459227316</v>
+        <v>0.2367803064645876</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1781188021316746</v>
+        <v>0.04547857473834174</v>
       </c>
       <c r="J177" t="n">
-        <v>0.3392188048602754</v>
+        <v>0.2367803064645876</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1794940526637734</v>
+        <v>0.04547857473834174</v>
       </c>
       <c r="L177" t="n">
-        <v>0.6099176131964602</v>
+        <v>0.6365805479482444</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1796399146736608</v>
+        <v>0.1110208947854957</v>
       </c>
       <c r="N177" t="n">
-        <v>0.8743438110524862</v>
+        <v>0.9078498164693056</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1797200586351374</v>
+        <v>0.1109069298491345</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.09018814745031536</v>
+        <v>0.2331659453306236</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1797091485792788</v>
+        <v>0.04547830620987773</v>
       </c>
       <c r="J178" t="n">
-        <v>0.3433067293980245</v>
+        <v>0.2331659453306236</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1810966781339857</v>
+        <v>0.04547830620987773</v>
       </c>
       <c r="L178" t="n">
-        <v>0.6155821297731754</v>
+        <v>0.6347575437524662</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1812438424832471</v>
+        <v>0.1120121527746519</v>
       </c>
       <c r="N178" t="n">
-        <v>0.8872828385626004</v>
+        <v>0.9046783586689895</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1813247020158082</v>
+        <v>0.111897170294216</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.1019178293450126</v>
+        <v>0.2296126319230816</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1812994950268831</v>
+        <v>0.04547803768141371</v>
       </c>
       <c r="J179" t="n">
-        <v>0.3438331412798029</v>
+        <v>0.2296126319230816</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1826993036041979</v>
+        <v>0.04547803768141371</v>
       </c>
       <c r="L179" t="n">
-        <v>0.620226331883706</v>
+        <v>0.6335275464657978</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1828477702928333</v>
+        <v>0.1130034107638081</v>
       </c>
       <c r="N179" t="n">
-        <v>0.8911452602524039</v>
+        <v>0.9047891020113428</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1829293453964791</v>
+        <v>0.1128874107392976</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.09661918884026127</v>
+        <v>0.2261218508129974</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1828898414744873</v>
+        <v>0.0454777691529497</v>
       </c>
       <c r="J180" t="n">
-        <v>0.3472153510651456</v>
+        <v>0.2261218508129974</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1843019290744102</v>
+        <v>0.0454777691529497</v>
       </c>
       <c r="L180" t="n">
-        <v>0.6206012456114341</v>
+        <v>0.633790610206203</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1844516981024196</v>
+        <v>0.1139946687529643</v>
       </c>
       <c r="N180" t="n">
-        <v>0.898415731517987</v>
+        <v>0.9057803137921416</v>
       </c>
       <c r="O180" t="n">
-        <v>0.18453398877715</v>
+        <v>0.1138776511843791</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1022685244999575</v>
+        <v>0.2226950865711002</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1844801879220915</v>
+        <v>0.04547750062448568</v>
       </c>
       <c r="J181" t="n">
-        <v>0.3473706693135875</v>
+        <v>0.2226950865711002</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1859045545446225</v>
+        <v>0.04547750062448568</v>
       </c>
       <c r="L181" t="n">
-        <v>0.6257578970397408</v>
+        <v>0.6332467890916457</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1860556259120058</v>
+        <v>0.1149859267421205</v>
       </c>
       <c r="N181" t="n">
-        <v>0.9032789077554406</v>
+        <v>0.9009502613071605</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1861386321578208</v>
+        <v>0.1148678916294607</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1038421348879977</v>
+        <v>0.2193338237684198</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1860705343696958</v>
+        <v>0.04547723209602166</v>
       </c>
       <c r="J182" t="n">
-        <v>0.352716406584663</v>
+        <v>0.2193338237684198</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1875071800148347</v>
+        <v>0.04547723209602166</v>
       </c>
       <c r="L182" t="n">
-        <v>0.629447312252008</v>
+        <v>0.6329961372400891</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1876595537215921</v>
+        <v>0.1159771847312768</v>
       </c>
       <c r="N182" t="n">
-        <v>0.9086194443608546</v>
+        <v>0.9054972118521756</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1877432755384917</v>
+        <v>0.1158581320745422</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0963163185682781</v>
+        <v>0.2160395469757621</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1876608808173</v>
+        <v>0.04547696356755765</v>
       </c>
       <c r="J183" t="n">
-        <v>0.3537698734379072</v>
+        <v>0.2160395469757621</v>
       </c>
       <c r="K183" t="n">
-        <v>0.189109805485047</v>
+        <v>0.04547696356755765</v>
       </c>
       <c r="L183" t="n">
-        <v>0.6372205173316169</v>
+        <v>0.6358387087694972</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1892634815311784</v>
+        <v>0.116968442720433</v>
       </c>
       <c r="N183" t="n">
-        <v>0.9108219967303195</v>
+        <v>0.9065194327229622</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1893479189191626</v>
+        <v>0.1168483725196238</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.09366737410469492</v>
+        <v>0.2128137407639384</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1892512272649043</v>
+        <v>0.04547669503909363</v>
       </c>
       <c r="J184" t="n">
-        <v>0.3548483804328549</v>
+        <v>0.2128137407639384</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1907124309552592</v>
+        <v>0.04547669503909363</v>
       </c>
       <c r="L184" t="n">
-        <v>0.6346285383619494</v>
+        <v>0.6370745577978336</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1908674093407646</v>
+        <v>0.1179597007095892</v>
       </c>
       <c r="N184" t="n">
-        <v>0.9209712202599261</v>
+        <v>0.9081151912152952</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1909525622998335</v>
+        <v>0.1178386129647054</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.09893534304323146</v>
+        <v>0.2096578897039703</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1908415737125085</v>
+        <v>0.04547642651062961</v>
       </c>
       <c r="J185" t="n">
-        <v>0.3565931932639028</v>
+        <v>0.2096578897039703</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1923150564254715</v>
+        <v>0.04547642651062961</v>
       </c>
       <c r="L185" t="n">
-        <v>0.6360492954492758</v>
+        <v>0.6321037384430617</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1924713371503509</v>
+        <v>0.1189509586987454</v>
       </c>
       <c r="N185" t="n">
-        <v>0.919080128708849</v>
+        <v>0.9076827546249502</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1925572056805043</v>
+        <v>0.1188288534097869</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1051972466376828</v>
+        <v>0.2065734783666012</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1924319201601127</v>
+        <v>0.04547615798216559</v>
       </c>
       <c r="J186" t="n">
-        <v>0.3562047029208473</v>
+        <v>0.2065734783666012</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1939176818956838</v>
+        <v>0.04547615798216559</v>
       </c>
       <c r="L186" t="n">
-        <v>0.6367910384790232</v>
+        <v>0.6334263048231454</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1940752649599371</v>
+        <v>0.1199422166879016</v>
       </c>
       <c r="N186" t="n">
-        <v>0.9240529482182709</v>
+        <v>0.9095203902477027</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1941618490611752</v>
+        <v>0.1198190938548685</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.100453446896886</v>
+        <v>0.2035619913228465</v>
       </c>
       <c r="G187" t="n">
-        <v>0.194022266607717</v>
+        <v>0.04547588945370157</v>
       </c>
       <c r="J187" t="n">
-        <v>0.3582966491273051</v>
+        <v>0.2035619913228465</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1955203073658961</v>
+        <v>0.04547588945370157</v>
       </c>
       <c r="L187" t="n">
-        <v>0.6399975991901643</v>
+        <v>0.6360316487979807</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1956791927695234</v>
+        <v>0.1209334746770578</v>
       </c>
       <c r="N187" t="n">
-        <v>0.9296749612676045</v>
+        <v>0.9025996329190604</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1957664924418461</v>
+        <v>0.1208093342999501</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.09970385659634917</v>
+        <v>0.200624913143456</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1956126130553212</v>
+        <v>0.04547562092523755</v>
       </c>
       <c r="J188" t="n">
-        <v>0.3575687275749458</v>
+        <v>0.200624913143456</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1971229328361083</v>
+        <v>0.04547562092523755</v>
       </c>
       <c r="L188" t="n">
-        <v>0.6456684293385274</v>
+        <v>0.6347645218134949</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1972831205791096</v>
+        <v>0.121924732666214</v>
       </c>
       <c r="N188" t="n">
-        <v>0.9263453753595676</v>
+        <v>0.9085432009062291</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1973711358225169</v>
+        <v>0.1217995747450316</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1009483885115802</v>
+        <v>0.1977637283994386</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1972029595029254</v>
+        <v>0.04547535239677354</v>
       </c>
       <c r="J189" t="n">
-        <v>0.3607206339554397</v>
+        <v>0.1977637283994386</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1987255583063205</v>
+        <v>0.04547535239677354</v>
       </c>
       <c r="L189" t="n">
-        <v>0.6452029806799404</v>
+        <v>0.6310337550282999</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1988870483886959</v>
+        <v>0.1229159906553702</v>
       </c>
       <c r="N189" t="n">
-        <v>0.9268633979968788</v>
+        <v>0.902055380451567</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1989757792031878</v>
+        <v>0.1227898151901132</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.09718695541808697</v>
+        <v>0.1949738596637869</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1987933059505297</v>
+        <v>0.04547508386830952</v>
       </c>
       <c r="J190" t="n">
-        <v>0.3591520639604563</v>
+        <v>0.1949738596637869</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2003281837765328</v>
+        <v>0.04547508386830952</v>
       </c>
       <c r="L190" t="n">
-        <v>0.6458007049702316</v>
+        <v>0.6317626456214007</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2004909761982821</v>
+        <v>0.1239072486445265</v>
       </c>
       <c r="N190" t="n">
-        <v>0.9348282366822549</v>
+        <v>0.9070696327823935</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2005804225838587</v>
+        <v>0.1237800556351947</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1004194700913774</v>
+        <v>0.1922204195209196</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2003836523981339</v>
+        <v>0.04547481533984551</v>
       </c>
       <c r="J191" t="n">
-        <v>0.3619627132816653</v>
+        <v>0.1922204195209196</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2019308092467451</v>
+        <v>0.04547481533984551</v>
       </c>
       <c r="L191" t="n">
-        <v>0.6508610539652291</v>
+        <v>0.6275744907718018</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2020949040078684</v>
+        <v>0.1248985066336827</v>
       </c>
       <c r="N191" t="n">
-        <v>0.9368390989184141</v>
+        <v>0.9043194191260278</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2021850659645295</v>
+        <v>0.1247702960802763</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1036458453069595</v>
+        <v>0.1894988305438335</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2019739988457382</v>
+        <v>0.04547454681138149</v>
       </c>
       <c r="J192" t="n">
-        <v>0.3611522776107367</v>
+        <v>0.1894988305438335</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2035334347169574</v>
+        <v>0.04547454681138149</v>
       </c>
       <c r="L192" t="n">
-        <v>0.6505834794207609</v>
+        <v>0.6259925876585081</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2036988318174547</v>
+        <v>0.1258897646228389</v>
       </c>
       <c r="N192" t="n">
-        <v>0.9383951922080744</v>
+        <v>0.9022382007097904</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2037897093452004</v>
+        <v>0.1257605365253578</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.09986599384034109</v>
+        <v>0.1868105773035283</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2035643452933424</v>
+        <v>0.04547427828291747</v>
       </c>
       <c r="J193" t="n">
-        <v>0.3636204526393401</v>
+        <v>0.1868105773035283</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2051360601871696</v>
+        <v>0.04547427828291747</v>
       </c>
       <c r="L193" t="n">
-        <v>0.6472674330926553</v>
+        <v>0.6240402334605241</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2053027596270409</v>
+        <v>0.1268810226119951</v>
       </c>
       <c r="N193" t="n">
-        <v>0.9342957240539538</v>
+        <v>0.8950594387610009</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2053943527258713</v>
+        <v>0.1267507769704394</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1060798284670302</v>
+        <v>0.1841571443707677</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2051546917409466</v>
+        <v>0.04547400975445345</v>
       </c>
       <c r="J194" t="n">
-        <v>0.3613669340591456</v>
+        <v>0.1841571443707677</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2067386856573819</v>
+        <v>0.04547400975445345</v>
       </c>
       <c r="L194" t="n">
-        <v>0.6545123667367405</v>
+        <v>0.6233407253568544</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2069066874366272</v>
+        <v>0.1278722806011513</v>
       </c>
       <c r="N194" t="n">
-        <v>0.9444399019587695</v>
+        <v>0.8946165945069788</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2069989961065422</v>
+        <v>0.127741017415521</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.09728726196253476</v>
+        <v>0.1815400163165483</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2067450381885509</v>
+        <v>0.04547374122598944</v>
       </c>
       <c r="J195" t="n">
-        <v>0.3617914175618227</v>
+        <v>0.1815400163165483</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2083413111275942</v>
+        <v>0.04547374122598944</v>
       </c>
       <c r="L195" t="n">
-        <v>0.6549177321088443</v>
+        <v>0.6227173605265037</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2085106152462134</v>
+        <v>0.1288635385903075</v>
       </c>
       <c r="N195" t="n">
-        <v>0.9402269334252393</v>
+        <v>0.8928431291750445</v>
       </c>
       <c r="O195" t="n">
-        <v>0.208603639487213</v>
+        <v>0.1287312578606025</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.09748820710236261</v>
+        <v>0.1789606777116372</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2083353846361551</v>
+        <v>0.04547347269752542</v>
       </c>
       <c r="J196" t="n">
-        <v>0.3656935988390413</v>
+        <v>0.1789606777116372</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2099439365978064</v>
+        <v>0.04547347269752542</v>
       </c>
       <c r="L196" t="n">
-        <v>0.6544829809647955</v>
+        <v>0.6203934361484771</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2101145430557997</v>
+        <v>0.1298547965794637</v>
       </c>
       <c r="N196" t="n">
-        <v>0.9444560259560821</v>
+        <v>0.8872725039925169</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2102082828678839</v>
+        <v>0.1297214983056841</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1026825766620218</v>
+        <v>0.1764206131270274</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2099257310837594</v>
+        <v>0.0454732041690614</v>
       </c>
       <c r="J197" t="n">
-        <v>0.3650731735824712</v>
+        <v>0.1764206131270274</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2115465620680187</v>
+        <v>0.0454732041690614</v>
       </c>
       <c r="L197" t="n">
-        <v>0.6524075650604214</v>
+        <v>0.6110922494017786</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2117184708653859</v>
+        <v>0.1308460545686199</v>
       </c>
       <c r="N197" t="n">
-        <v>0.9463263870540142</v>
+        <v>0.8854381801867168</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2118129262485547</v>
+        <v>0.1307117387507656</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1018702834170201</v>
+        <v>0.1739213071335435</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2115160775313636</v>
+        <v>0.04547293564059739</v>
       </c>
       <c r="J198" t="n">
-        <v>0.3666298374837823</v>
+        <v>0.1739213071335435</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2131491875382309</v>
+        <v>0.04547293564059739</v>
       </c>
       <c r="L198" t="n">
-        <v>0.6591909361515507</v>
+        <v>0.6126370974654133</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2133223986749722</v>
+        <v>0.1318373125577761</v>
       </c>
       <c r="N198" t="n">
-        <v>0.9458372242217548</v>
+        <v>0.8765736189849627</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2134175696292256</v>
+        <v>0.1317019791958472</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1010512401428656</v>
+        <v>0.1714642443020135</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2131064239789678</v>
+        <v>0.04547266711213337</v>
       </c>
       <c r="J199" t="n">
-        <v>0.3649632862346443</v>
+        <v>0.1714642443020135</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2147518130084432</v>
+        <v>0.04547266711213337</v>
       </c>
       <c r="L199" t="n">
-        <v>0.6576325459940113</v>
+        <v>0.606851277518386</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2149263264845585</v>
+        <v>0.1328285705469324</v>
       </c>
       <c r="N199" t="n">
-        <v>0.9494877449620207</v>
+        <v>0.8717122816145755</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2150222130098965</v>
+        <v>0.1326922196409287</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1052253596150662</v>
+        <v>0.1690509092034251</v>
       </c>
       <c r="G200" t="n">
-        <v>0.214696770426572</v>
+        <v>0.04547239858366935</v>
       </c>
       <c r="J200" t="n">
-        <v>0.3686732155267269</v>
+        <v>0.1690509092034251</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2163544384786555</v>
+        <v>0.04547239858366935</v>
       </c>
       <c r="L200" t="n">
-        <v>0.6603318463436316</v>
+        <v>0.6030580867397012</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2165302542941447</v>
+        <v>0.1338198285360886</v>
       </c>
       <c r="N200" t="n">
-        <v>0.9486771567775307</v>
+        <v>0.8686876293028742</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2166268563905673</v>
+        <v>0.1336824600860103</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1063925546091297</v>
+        <v>0.1666827864085544</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2162871168741763</v>
+        <v>0.04547213005520533</v>
       </c>
       <c r="J201" t="n">
-        <v>0.3667593210517001</v>
+        <v>0.1666827864085544</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2179570639488677</v>
+        <v>0.04547213005520533</v>
       </c>
       <c r="L201" t="n">
-        <v>0.6617882889562394</v>
+        <v>0.6035808223083635</v>
       </c>
       <c r="M201" t="n">
-        <v>0.218134182103731</v>
+        <v>0.1348110865252448</v>
       </c>
       <c r="N201" t="n">
-        <v>0.9558046671710017</v>
+        <v>0.8588331232771789</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2182314997712382</v>
+        <v>0.1346727005310918</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1045527379005642</v>
+        <v>0.1643613604883855</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2178774633217805</v>
+        <v>0.04547186152674132</v>
       </c>
       <c r="J202" t="n">
-        <v>0.3682212985012336</v>
+        <v>0.1643613604883855</v>
       </c>
       <c r="K202" t="n">
-        <v>0.21955968941908</v>
+        <v>0.04547186152674132</v>
       </c>
       <c r="L202" t="n">
-        <v>0.6623013255876631</v>
+        <v>0.5963427814033778</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2197381099133172</v>
+        <v>0.135802344514401</v>
       </c>
       <c r="N202" t="n">
-        <v>0.9501694836451517</v>
+        <v>0.8618822247648095</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2198361431519091</v>
+        <v>0.1356629409761734</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1067058222648775</v>
+        <v>0.1620881160136981</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2194678097693848</v>
+        <v>0.0454715929982773</v>
       </c>
       <c r="J203" t="n">
-        <v>0.3668588435669972</v>
+        <v>0.1620881160136981</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2211623148892922</v>
+        <v>0.0454715929982773</v>
       </c>
       <c r="L203" t="n">
-        <v>0.6595704079937307</v>
+        <v>0.5910672612037488</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2213420377229035</v>
+        <v>0.1367936025035572</v>
       </c>
       <c r="N203" t="n">
-        <v>0.9592708137026991</v>
+        <v>0.8574683949930857</v>
       </c>
       <c r="O203" t="n">
-        <v>0.22144078653258</v>
+        <v>0.136653181421255</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1058517204775777</v>
+        <v>0.1598645375554723</v>
       </c>
       <c r="G204" t="n">
-        <v>0.221058156216989</v>
+        <v>0.04547132446981329</v>
       </c>
       <c r="J204" t="n">
-        <v>0.3695716519406607</v>
+        <v>0.1598645375554723</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2227649403595045</v>
+        <v>0.04547132446981329</v>
       </c>
       <c r="L204" t="n">
-        <v>0.6646949879302704</v>
+        <v>0.5868775588884807</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2229459655324897</v>
+        <v>0.1377848604927134</v>
       </c>
       <c r="N204" t="n">
-        <v>0.9523078648463614</v>
+        <v>0.8464250951893268</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2230454299132509</v>
+        <v>0.1376434218663365</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1079903453141725</v>
+        <v>0.1576921096844924</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2226485026645932</v>
+        <v>0.04547105594134927</v>
       </c>
       <c r="J205" t="n">
-        <v>0.3695594193138939</v>
+        <v>0.1576921096844924</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2243675658297168</v>
+        <v>0.04547105594134927</v>
       </c>
       <c r="L205" t="n">
-        <v>0.6610745171531103</v>
+        <v>0.5879969716365788</v>
       </c>
       <c r="M205" t="n">
-        <v>0.224549893342076</v>
+        <v>0.1387761184818696</v>
       </c>
       <c r="N205" t="n">
-        <v>0.962979844578856</v>
+        <v>0.8442857865808535</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2246500732939217</v>
+        <v>0.1386336623114181</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.10012160955017</v>
+        <v>0.1555723169717337</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2242388491121975</v>
+        <v>0.04547078741288525</v>
       </c>
       <c r="J206" t="n">
-        <v>0.3716218413783666</v>
+        <v>0.1555723169717337</v>
       </c>
       <c r="K206" t="n">
-        <v>0.225970191299929</v>
+        <v>0.04547078741288525</v>
       </c>
       <c r="L206" t="n">
-        <v>0.6617084474180784</v>
+        <v>0.5818487966270476</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2261538211516623</v>
+        <v>0.1397673764710258</v>
       </c>
       <c r="N206" t="n">
-        <v>0.9586859604029012</v>
+        <v>0.8380839303949845</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2262547166745926</v>
+        <v>0.1396239027564996</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1002454259610781</v>
+        <v>0.153506643987985</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2258291955598017</v>
+        <v>0.04547051888442123</v>
       </c>
       <c r="J207" t="n">
-        <v>0.3699586138257485</v>
+        <v>0.153506643987985</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2275728167701413</v>
+        <v>0.04547051888442123</v>
       </c>
       <c r="L207" t="n">
-        <v>0.6688962304810031</v>
+        <v>0.5770563310388914</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2277577489612485</v>
+        <v>0.140758634460182</v>
       </c>
       <c r="N207" t="n">
-        <v>0.9604254198212145</v>
+        <v>0.8332529878590405</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2278593600552635</v>
+        <v>0.1406141432015812</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1063617073224047</v>
+        <v>0.1514965753042173</v>
       </c>
       <c r="G208" t="n">
-        <v>0.227419542007406</v>
+        <v>0.04547025035595722</v>
       </c>
       <c r="J208" t="n">
-        <v>0.3720694323477097</v>
+        <v>0.1514965753042173</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2291754422403535</v>
+        <v>0.04547025035595722</v>
       </c>
       <c r="L208" t="n">
-        <v>0.6637373180977124</v>
+        <v>0.5775428720511153</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2293616767708348</v>
+        <v>0.1417498924493382</v>
       </c>
       <c r="N208" t="n">
-        <v>0.9630974303365143</v>
+        <v>0.8250264202003406</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2294640034359343</v>
+        <v>0.1416043836466628</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1054703664096577</v>
+        <v>0.149543595491224</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2290098884550102</v>
+        <v>0.0454699818274932</v>
       </c>
       <c r="J209" t="n">
-        <v>0.3705539926359197</v>
+        <v>0.149543595491224</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2307780677105658</v>
+        <v>0.0454699818274932</v>
       </c>
       <c r="L209" t="n">
-        <v>0.6675311620240344</v>
+        <v>0.5719317168427239</v>
       </c>
       <c r="M209" t="n">
-        <v>0.230965604580421</v>
+        <v>0.1427411504384945</v>
       </c>
       <c r="N209" t="n">
-        <v>0.9625011994515178</v>
+        <v>0.8258376886462049</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2310686468166052</v>
+        <v>0.1425946240917443</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1075713159983451</v>
+        <v>0.1476491891199712</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2306002349026144</v>
+        <v>0.04546971329902918</v>
       </c>
       <c r="J210" t="n">
-        <v>0.3732119903820484</v>
+        <v>0.1476491891199712</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2323806931807781</v>
+        <v>0.04546971329902918</v>
       </c>
       <c r="L210" t="n">
-        <v>0.6697772140157974</v>
+        <v>0.5729461625927218</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2325695323900073</v>
+        <v>0.1437324084276507</v>
       </c>
       <c r="N210" t="n">
-        <v>0.9630359346689432</v>
+        <v>0.8245202544239534</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2326732901972761</v>
+        <v>0.1435848645368259</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1026644688639748</v>
+        <v>0.1458148407612572</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2321905813502187</v>
+        <v>0.04546944477056516</v>
       </c>
       <c r="J211" t="n">
-        <v>0.3704431212777656</v>
+        <v>0.1458148407612572</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2339833186509904</v>
+        <v>0.04546944477056516</v>
       </c>
       <c r="L211" t="n">
-        <v>0.6669749258288292</v>
+        <v>0.563809506480114</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2341734601995936</v>
+        <v>0.1447236664168069</v>
       </c>
       <c r="N211" t="n">
-        <v>0.9677008434915082</v>
+        <v>0.8116075787609052</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2342779335779469</v>
+        <v>0.1445751049819074</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.09874973778205473</v>
+        <v>0.1440420349860431</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2337809277978229</v>
+        <v>0.04546917624210114</v>
       </c>
       <c r="J212" t="n">
-        <v>0.373247081014741</v>
+        <v>0.1440420349860431</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2355859441212026</v>
+        <v>0.04546917624210114</v>
       </c>
       <c r="L212" t="n">
-        <v>0.6694237492189583</v>
+        <v>0.5623450456839046</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2357773880091798</v>
+        <v>0.1457149244059631</v>
       </c>
       <c r="N212" t="n">
-        <v>0.9688951334219305</v>
+        <v>0.8119331228843802</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2358825769586178</v>
+        <v>0.145565345426989</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1088270355280929</v>
+        <v>0.1423322563651325</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2353712742454271</v>
+        <v>0.04546890771363712</v>
       </c>
       <c r="J213" t="n">
-        <v>0.3743235652846447</v>
+        <v>0.1423322563651325</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2371885695914149</v>
+        <v>0.04546890771363712</v>
       </c>
       <c r="L213" t="n">
-        <v>0.6704231359420127</v>
+        <v>0.5621760773830988</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2373813158187661</v>
+        <v>0.1467061823951193</v>
       </c>
       <c r="N213" t="n">
-        <v>0.9675180119629281</v>
+        <v>0.808630348021699</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2374872203392887</v>
+        <v>0.1465555858720705</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.108896274877597</v>
+        <v>0.1406869894694809</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2369616206930314</v>
+        <v>0.04546863918517311</v>
       </c>
       <c r="J214" t="n">
-        <v>0.3725722697791461</v>
+        <v>0.1406869894694809</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2387911950616271</v>
+        <v>0.04546863918517311</v>
       </c>
       <c r="L214" t="n">
-        <v>0.6677725377538207</v>
+        <v>0.558225898756701</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2389852436283523</v>
+        <v>0.1476974403842755</v>
       </c>
       <c r="N214" t="n">
-        <v>0.9666686866172187</v>
+        <v>0.8050327154001804</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2390918637199595</v>
+        <v>0.1475458263171521</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1089573686060752</v>
+        <v>0.1406869894694809</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2385519671406356</v>
+        <v>0.04546863918517311</v>
       </c>
       <c r="J215" t="n">
-        <v>0.3737928901899153</v>
+        <v>0.1406869894694809</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2403938205318394</v>
+        <v>0.04546863918517311</v>
       </c>
       <c r="L215" t="n">
-        <v>0.6695714064102102</v>
+        <v>0.5558178069837161</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2405891714379386</v>
+        <v>0.1486886983734317</v>
       </c>
       <c r="N215" t="n">
-        <v>0.9646463648875201</v>
+        <v>0.7986736862471446</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2406965071006304</v>
+        <v>0.1485360667622337</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1060102294890354</v>
+        <v>0.1371814605651361</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2401423135882399</v>
+        <v>0.0454479617853733</v>
       </c>
       <c r="J216" t="n">
-        <v>0.374985122208622</v>
+        <v>0.1371814605651361</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2419964460020517</v>
+        <v>0.0454479617853733</v>
       </c>
       <c r="L216" t="n">
-        <v>0.6736191936670092</v>
+        <v>0.5577750992431485</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2421930992475248</v>
+        <v>0.1496799563625879</v>
       </c>
       <c r="N216" t="n">
-        <v>0.9694502542765504</v>
+        <v>0.8041867217899115</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2423011504813013</v>
+        <v>0.1495263072073152</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.09905477030198545</v>
+        <v>0.1337028972552326</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2417326600358441</v>
+        <v>0.04542728438557347</v>
       </c>
       <c r="J217" t="n">
-        <v>0.3733486615269359</v>
+        <v>0.1337028972552326</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2435990714722639</v>
+        <v>0.04542728438557347</v>
       </c>
       <c r="L217" t="n">
-        <v>0.6697153512800462</v>
+        <v>0.5524210727140031</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2437970270571111</v>
+        <v>0.1506712143517442</v>
       </c>
       <c r="N217" t="n">
-        <v>0.964579562287027</v>
+        <v>0.7940052832558002</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2439057938619721</v>
+        <v>0.1505165476523968</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1040909038204333</v>
+        <v>0.1302518067822367</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2433230064834483</v>
+        <v>0.04540660698577367</v>
       </c>
       <c r="J218" t="n">
-        <v>0.3734832038365269</v>
+        <v>0.1302518067822367</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2452016969424762</v>
+        <v>0.04540660698577367</v>
       </c>
       <c r="L218" t="n">
-        <v>0.6711593310051492</v>
+        <v>0.5532790245752846</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2454009548666974</v>
+        <v>0.1516624723409004</v>
       </c>
       <c r="N218" t="n">
-        <v>0.967633496421668</v>
+        <v>0.7906628318721314</v>
       </c>
       <c r="O218" t="n">
-        <v>0.245510437242643</v>
+        <v>0.1515067880974783</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1071185428198869</v>
+        <v>0.1268286963886116</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2449133529310526</v>
+        <v>0.04538592958597385</v>
       </c>
       <c r="J219" t="n">
-        <v>0.3722884448290649</v>
+        <v>0.1268286963886116</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2468043224126884</v>
+        <v>0.04538592958597385</v>
       </c>
       <c r="L219" t="n">
-        <v>0.6744505845981462</v>
+        <v>0.5534722520059976</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2470048826762836</v>
+        <v>0.1526537303300566</v>
       </c>
       <c r="N219" t="n">
-        <v>0.9661112641831915</v>
+        <v>0.7903928288662243</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2471150806233139</v>
+        <v>0.1524970285425599</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1051376000758542</v>
+        <v>0.1234340733168236</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2465036993786568</v>
+        <v>0.04536525218617403</v>
       </c>
       <c r="J220" t="n">
-        <v>0.3744640801962195</v>
+        <v>0.1234340733168236</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2484069478829007</v>
+        <v>0.04536525218617403</v>
       </c>
       <c r="L220" t="n">
-        <v>0.6697885638148655</v>
+        <v>0.5469240521851467</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2486088104858698</v>
+        <v>0.1536449883192128</v>
       </c>
       <c r="N220" t="n">
-        <v>0.9668120730743144</v>
+        <v>0.7882287354653985</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2487197240039848</v>
+        <v>0.1534872689876415</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1011479883638431</v>
+        <v>0.120068444809338</v>
       </c>
       <c r="G221" t="n">
-        <v>0.248094045826261</v>
+        <v>0.04534457478637421</v>
       </c>
       <c r="J221" t="n">
-        <v>0.3741098056296606</v>
+        <v>0.120068444809338</v>
       </c>
       <c r="K221" t="n">
-        <v>0.250009573353113</v>
+        <v>0.04534457478637421</v>
       </c>
       <c r="L221" t="n">
-        <v>0.6729727204111353</v>
+        <v>0.5508577222917368</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2502127382954561</v>
+        <v>0.154636246308369</v>
       </c>
       <c r="N221" t="n">
-        <v>0.9699351305977555</v>
+        <v>0.7954039575806604</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2503243673846556</v>
+        <v>0.154477509432723</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1061364185815606</v>
+        <v>0.116732318108621</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2496843922738653</v>
+        <v>0.04532389738657441</v>
       </c>
       <c r="J222" t="n">
-        <v>0.3719253168210581</v>
+        <v>0.116732318108621</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2516121988233253</v>
+        <v>0.04532389738657441</v>
       </c>
       <c r="L222" t="n">
-        <v>0.6741025061427836</v>
+        <v>0.5508028222792424</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2518166661050424</v>
+        <v>0.1556275042975252</v>
       </c>
       <c r="N222" t="n">
-        <v>0.9714796442562323</v>
+        <v>0.7903527791266074</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2519290107653265</v>
+        <v>0.1554677498778046</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1009193963290472</v>
+        <v>0.113426200457136</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2512747387214695</v>
+        <v>0.04530321998677458</v>
       </c>
       <c r="J223" t="n">
-        <v>0.3727672701355583</v>
+        <v>0.113426200457136</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2532148242935375</v>
+        <v>0.04530321998677458</v>
       </c>
       <c r="L223" t="n">
-        <v>0.6701329506835568</v>
+        <v>0.5499494920992971</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2534205939146286</v>
+        <v>0.1566187622866814</v>
       </c>
       <c r="N223" t="n">
-        <v>0.9675102509926872</v>
+        <v>0.7964029083916515</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2535336541459974</v>
+        <v>0.1564579903228861</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1094591317763723</v>
+        <v>0.1101505990973491</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2528650851690737</v>
+        <v>0.04528254258697477</v>
       </c>
       <c r="J224" t="n">
-        <v>0.3701373483173098</v>
+        <v>0.1101505990973491</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2548174497637498</v>
+        <v>0.04528254258697477</v>
       </c>
       <c r="L224" t="n">
-        <v>0.6658897543507136</v>
+        <v>0.5510975422433775</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2550245217242149</v>
+        <v>0.1576100202758376</v>
       </c>
       <c r="N224" t="n">
-        <v>0.9685650632223972</v>
+        <v>0.7926543403866324</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2551382975266682</v>
+        <v>0.1574482307679677</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1007828165817312</v>
+        <v>0.1069060212717258</v>
       </c>
       <c r="G225" t="n">
-        <v>0.254455431616678</v>
+        <v>0.04526186518717495</v>
       </c>
       <c r="J225" t="n">
-        <v>0.3698303714759559</v>
+        <v>0.1069060212717258</v>
       </c>
       <c r="K225" t="n">
-        <v>0.256420075233962</v>
+        <v>0.04526186518717495</v>
       </c>
       <c r="L225" t="n">
-        <v>0.6631421955777096</v>
+        <v>0.54874696800708</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2566284495338012</v>
+        <v>0.1586012782649938</v>
       </c>
       <c r="N225" t="n">
-        <v>0.9546863414873528</v>
+        <v>0.7966070701223906</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2567429409073391</v>
+        <v>0.1584384712130492</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.09991764240331913</v>
+        <v>0.1036929742227312</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2560457780642822</v>
+        <v>0.04524118778737513</v>
       </c>
       <c r="J226" t="n">
-        <v>0.3683412057196787</v>
+        <v>0.1036929742227312</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2580227007041743</v>
+        <v>0.04524118778737513</v>
       </c>
       <c r="L226" t="n">
-        <v>0.6618611858571213</v>
+        <v>0.5507977646860013</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2582323773433874</v>
+        <v>0.1595925362541501</v>
       </c>
       <c r="N226" t="n">
-        <v>0.949221141570928</v>
+        <v>0.7969610926097657</v>
       </c>
       <c r="O226" t="n">
-        <v>0.25834758428801</v>
+        <v>0.1594287116581308</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1068908008993313</v>
+        <v>0.1005119651928316</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2576361245118864</v>
+        <v>0.04522051038757532</v>
       </c>
       <c r="J227" t="n">
-        <v>0.36216471715666</v>
+        <v>0.1005119651928316</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2596253261743866</v>
+        <v>0.04522051038757532</v>
       </c>
       <c r="L227" t="n">
-        <v>0.6524176366815247</v>
+        <v>0.5474499275757375</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2598363051529737</v>
+        <v>0.1605837942433063</v>
       </c>
       <c r="N227" t="n">
-        <v>0.9465165192564968</v>
+        <v>0.7901164028595977</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2599522276686808</v>
+        <v>0.1604189521032124</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.09472948372796283</v>
+        <v>0.09736350142449024</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2592264709594907</v>
+        <v>0.0451998329877755</v>
       </c>
       <c r="J228" t="n">
-        <v>0.3601957718950821</v>
+        <v>0.09736350142449024</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2612279516445988</v>
+        <v>0.0451998329877755</v>
       </c>
       <c r="L228" t="n">
-        <v>0.6434824595434969</v>
+        <v>0.5481034519718853</v>
       </c>
       <c r="M228" t="n">
-        <v>0.26144023296256</v>
+        <v>0.1615750522324625</v>
       </c>
       <c r="N228" t="n">
-        <v>0.9333195303274326</v>
+        <v>0.7931729958827269</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2615568710493517</v>
+        <v>0.1614091925482939</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.1044608825474091</v>
+        <v>0.09424809016017355</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2608168174070949</v>
+        <v>0.04517915558797569</v>
       </c>
       <c r="J229" t="n">
-        <v>0.3565292360431265</v>
+        <v>0.09424809016017355</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2628305771148111</v>
+        <v>0.04517915558797569</v>
       </c>
       <c r="L229" t="n">
-        <v>0.6405265659356142</v>
+        <v>0.5479583331700409</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2630441607721462</v>
+        <v>0.1625663102216187</v>
       </c>
       <c r="N229" t="n">
-        <v>0.9217772305671104</v>
+        <v>0.7902308666899935</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2631615144300226</v>
+        <v>0.1623994329933755</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.09511218901586524</v>
+        <v>0.09116623864234666</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2624071638546992</v>
+        <v>0.04515847818817587</v>
       </c>
       <c r="J230" t="n">
-        <v>0.3525599757089758</v>
+        <v>0.09116623864234666</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2644332025850233</v>
+        <v>0.04515847818817587</v>
       </c>
       <c r="L230" t="n">
-        <v>0.6328208673504527</v>
+        <v>0.5463145664658009</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2646480885817324</v>
+        <v>0.1635575682107749</v>
       </c>
       <c r="N230" t="n">
-        <v>0.9153366757589039</v>
+        <v>0.7929900102922369</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2647661578106934</v>
+        <v>0.163389673438457</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.09571059479152649</v>
+        <v>0.08811845411347577</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2639975103023035</v>
+        <v>0.04513780078837606</v>
       </c>
       <c r="J231" t="n">
-        <v>0.3465828570008114</v>
+        <v>0.08811845411347577</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2660358280552356</v>
+        <v>0.04513780078837606</v>
       </c>
       <c r="L231" t="n">
-        <v>0.6196362752805888</v>
+        <v>0.5486721471547618</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2662520163913187</v>
+        <v>0.1645488261999311</v>
       </c>
       <c r="N231" t="n">
-        <v>0.8966449216861863</v>
+        <v>0.7937504217002973</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2663708011913643</v>
+        <v>0.1643799138835386</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.1002832915325882</v>
+        <v>0.08510524381602438</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2655878567499076</v>
+        <v>0.04511712338857624</v>
       </c>
       <c r="J232" t="n">
-        <v>0.3423927460268158</v>
+        <v>0.08510524381602438</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2676384535254479</v>
+        <v>0.04511712338857624</v>
       </c>
       <c r="L232" t="n">
-        <v>0.6135437012185994</v>
+        <v>0.54853107053252</v>
       </c>
       <c r="M232" t="n">
-        <v>0.267855944200905</v>
+        <v>0.1655400841890873</v>
       </c>
       <c r="N232" t="n">
-        <v>0.8873490241323323</v>
+        <v>0.7961120959250154</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2679754445720352</v>
+        <v>0.1653701543286201</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.09885747089724539</v>
+        <v>0.08212711499245864</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2671782031975119</v>
+        <v>0.04509644598877643</v>
       </c>
       <c r="J233" t="n">
-        <v>0.3354845088951706</v>
+        <v>0.08212711499245864</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2692410789956601</v>
+        <v>0.04509644598877643</v>
       </c>
       <c r="L233" t="n">
-        <v>0.6054140566570606</v>
+        <v>0.5487913318946719</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2694598720104912</v>
+        <v>0.1665313421782436</v>
       </c>
       <c r="N233" t="n">
-        <v>0.871696038880716</v>
+        <v>0.7933750279772303</v>
       </c>
       <c r="O233" t="n">
-        <v>0.269580087952706</v>
+        <v>0.1663603947737017</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.08646032454369343</v>
+        <v>0.07918457488524386</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2687685496451162</v>
+        <v>0.04507576858897661</v>
       </c>
       <c r="J234" t="n">
-        <v>0.3316530117140581</v>
+        <v>0.07918457488524386</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2708437044658724</v>
+        <v>0.04507576858897661</v>
       </c>
       <c r="L234" t="n">
-        <v>0.5988182530885489</v>
+        <v>0.5511529265368138</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2710637998200774</v>
+        <v>0.1675226001673998</v>
       </c>
       <c r="N234" t="n">
-        <v>0.8556330217147108</v>
+        <v>0.7933392128677825</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2711847313333769</v>
+        <v>0.1673506352187833</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0851190441301275</v>
+        <v>0.07627813073684528</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2703588960927203</v>
+        <v>0.04505509118917679</v>
       </c>
       <c r="J235" t="n">
-        <v>0.3260931205916599</v>
+        <v>0.07627813073684528</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2724463299360846</v>
+        <v>0.04505509118917679</v>
       </c>
       <c r="L235" t="n">
-        <v>0.5879272020056406</v>
+        <v>0.5498158497545425</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2726677276296637</v>
+        <v>0.168513858156556</v>
       </c>
       <c r="N235" t="n">
-        <v>0.8519070284176911</v>
+        <v>0.7946046456075122</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2727893747140478</v>
+        <v>0.1683408756638648</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.08686082131474282</v>
+        <v>0.07340828978972894</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2719492425403246</v>
+        <v>0.04503441378937698</v>
       </c>
       <c r="J236" t="n">
-        <v>0.3239997016361584</v>
+        <v>0.07340828978972894</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2740489554062969</v>
+        <v>0.04503441378937698</v>
       </c>
       <c r="L236" t="n">
-        <v>0.5774118149009123</v>
+        <v>0.5503800968434539</v>
       </c>
       <c r="M236" t="n">
-        <v>0.27427165543925</v>
+        <v>0.1695051161457122</v>
       </c>
       <c r="N236" t="n">
-        <v>0.839365114773031</v>
+        <v>0.7919713212072594</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2743940180947186</v>
+        <v>0.1693311161089464</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.08570780430932629</v>
+        <v>0.07057555928635859</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2735395889879289</v>
+        <v>0.04501373638957716</v>
       </c>
       <c r="J237" t="n">
-        <v>0.3180667012145453</v>
+        <v>0.07057555928635859</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2756515808765092</v>
+        <v>0.04501373638957716</v>
       </c>
       <c r="L237" t="n">
-        <v>0.5744423044878548</v>
+        <v>0.5468456630991451</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2758755832488362</v>
+        <v>0.1704963741348684</v>
       </c>
       <c r="N237" t="n">
-        <v>0.8258538355864262</v>
+        <v>0.7879392346778638</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2759986614753895</v>
+        <v>0.1703213565540279</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.08258451755451512</v>
+        <v>0.06778044646920026</v>
       </c>
       <c r="G238" t="n">
-        <v>0.275129935435533</v>
+        <v>0.04499305898977735</v>
       </c>
       <c r="J238" t="n">
-        <v>0.3152104903011055</v>
+        <v>0.06778044646920026</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2772542063467214</v>
+        <v>0.04499305898977735</v>
       </c>
       <c r="L238" t="n">
-        <v>0.5633067526567529</v>
+        <v>0.552112543817212</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2774795110584225</v>
+        <v>0.1714876321240246</v>
       </c>
       <c r="N238" t="n">
-        <v>0.8173377398579493</v>
+        <v>0.788308381030165</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2776033048560604</v>
+        <v>0.1713115969991095</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.08845708929555582</v>
+        <v>0.06502345858071917</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2767202818831373</v>
+        <v>0.04497238158997753</v>
       </c>
       <c r="J239" t="n">
-        <v>0.3093399860052692</v>
+        <v>0.06502345858071917</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2788568318169337</v>
+        <v>0.04497238158997753</v>
       </c>
       <c r="L239" t="n">
-        <v>0.5551454792175284</v>
+        <v>0.5518807342932514</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2790834388680087</v>
+        <v>0.1724788901131808</v>
       </c>
       <c r="N239" t="n">
-        <v>0.8074844864266562</v>
+        <v>0.7944787552750041</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2792079482367312</v>
+        <v>0.172301837444191</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.08732545511440168</v>
+        <v>0.06230303162331491</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2783106283307415</v>
+        <v>0.04495170419017772</v>
       </c>
       <c r="J240" t="n">
-        <v>0.3059549635857081</v>
+        <v>0.06230303162331491</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2804594572871459</v>
+        <v>0.04495170419017772</v>
       </c>
       <c r="L240" t="n">
-        <v>0.5490580792745178</v>
+        <v>0.5498502298228597</v>
       </c>
       <c r="M240" t="n">
-        <v>0.280687366677595</v>
+        <v>0.173470148102337</v>
       </c>
       <c r="N240" t="n">
-        <v>0.7926934900082345</v>
+        <v>0.7943503524232207</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2808125916174021</v>
+        <v>0.1732920778892726</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.0831895505930062</v>
+        <v>0.05960724539905202</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2799009747783458</v>
+        <v>0.0449310267903779</v>
       </c>
       <c r="J241" t="n">
-        <v>0.301755198301094</v>
+        <v>0.05960724539905202</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2820620827573582</v>
+        <v>0.0449310267903779</v>
       </c>
       <c r="L241" t="n">
-        <v>0.5419441479320571</v>
+        <v>0.546921025701633</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2822912944871813</v>
+        <v>0.1744614060914932</v>
       </c>
       <c r="N241" t="n">
-        <v>0.7814641653183718</v>
+        <v>0.7899231674856548</v>
       </c>
       <c r="O241" t="n">
-        <v>0.282417234998073</v>
+        <v>0.1742823183343542</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.07904931131332263</v>
+        <v>0.05693453591033001</v>
       </c>
       <c r="G242" t="n">
-        <v>0.28149132122595</v>
+        <v>0.04491034939057809</v>
       </c>
       <c r="J242" t="n">
-        <v>0.2998404654100986</v>
+        <v>0.05693453591033001</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2836647082275705</v>
+        <v>0.04491034939057809</v>
       </c>
       <c r="L242" t="n">
-        <v>0.5351032802944821</v>
+        <v>0.5503931172251683</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2838952222967675</v>
+        <v>0.1754526640806494</v>
       </c>
       <c r="N242" t="n">
-        <v>0.7787959270727558</v>
+        <v>0.7955971954731464</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2840218783787439</v>
+        <v>0.1752725587794357</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.08590467285730441</v>
+        <v>0.0542854103996141</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2830816676735543</v>
+        <v>0.04488967199077826</v>
       </c>
       <c r="J243" t="n">
-        <v>0.2939105401713936</v>
+        <v>0.0542854103996141</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2852673336977827</v>
+        <v>0.04488967199077826</v>
       </c>
       <c r="L243" t="n">
-        <v>0.5287350714661291</v>
+        <v>0.5509664996890616</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2854991501063538</v>
+        <v>0.1764439220698057</v>
       </c>
       <c r="N243" t="n">
-        <v>0.7686881899870737</v>
+        <v>0.7957724313965355</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2856265217594148</v>
+        <v>0.1762627992245173</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.08375557080690493</v>
+        <v>0.05166037610937038</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2846720141211585</v>
+        <v>0.04486899459097846</v>
       </c>
       <c r="J244" t="n">
-        <v>0.2894651978436508</v>
+        <v>0.05166037610937038</v>
       </c>
       <c r="K244" t="n">
-        <v>0.286869959167995</v>
+        <v>0.04486899459097846</v>
       </c>
       <c r="L244" t="n">
-        <v>0.5242391165513341</v>
+        <v>0.5459411683889095</v>
       </c>
       <c r="M244" t="n">
-        <v>0.28710307791594</v>
+        <v>0.1774351800589619</v>
       </c>
       <c r="N244" t="n">
-        <v>0.7547403687770131</v>
+        <v>0.7905488702666621</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2872311651400856</v>
+        <v>0.1772530396695988</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.07560194074407756</v>
+        <v>0.04905994028206256</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2862623605687628</v>
+        <v>0.04484831719117863</v>
       </c>
       <c r="J245" t="n">
-        <v>0.286004213685542</v>
+        <v>0.04905994028206256</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2884725846382072</v>
+        <v>0.04484831719117863</v>
       </c>
       <c r="L245" t="n">
-        <v>0.5183150106544335</v>
+        <v>0.5496171186203085</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2887070057255263</v>
+        <v>0.1784264380481181</v>
       </c>
       <c r="N245" t="n">
-        <v>0.7479518781582617</v>
+        <v>0.7891265070943663</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2888358085207565</v>
+        <v>0.1782432801146804</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.07244371825077561</v>
+        <v>0.04648461016015676</v>
       </c>
       <c r="G246" t="n">
-        <v>0.287852707016367</v>
+        <v>0.04482763979137882</v>
       </c>
       <c r="J246" t="n">
-        <v>0.2836273629557389</v>
+        <v>0.04648461016015676</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2900752101084196</v>
+        <v>0.04482763979137882</v>
       </c>
       <c r="L246" t="n">
-        <v>0.5099623488797629</v>
+        <v>0.5457943456788548</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2903109335351126</v>
+        <v>0.1794176960372743</v>
       </c>
       <c r="N246" t="n">
-        <v>0.7373221328465065</v>
+        <v>0.790505336890488</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2904404519014274</v>
+        <v>0.179233520559762</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.08128083890895255</v>
+        <v>0.04393489298611811</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2894430534639712</v>
+        <v>0.044806962391579</v>
       </c>
       <c r="J247" t="n">
-        <v>0.2802344209129133</v>
+        <v>0.04393489298611811</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2916778355786318</v>
+        <v>0.044806962391579</v>
       </c>
       <c r="L247" t="n">
-        <v>0.5012807263316587</v>
+        <v>0.5455728448601451</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2919148613446988</v>
+        <v>0.1804089540264305</v>
       </c>
       <c r="N247" t="n">
-        <v>0.7258505475574353</v>
+        <v>0.7917853546658675</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2920450952820982</v>
+        <v>0.1802237610048435</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.07411323830056166</v>
+        <v>0.041411296002412</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2910333999115755</v>
+        <v>0.04478628499177919</v>
       </c>
       <c r="J248" t="n">
-        <v>0.2735251628157369</v>
+        <v>0.041411296002412</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2932804610488441</v>
+        <v>0.04478628499177919</v>
       </c>
       <c r="L248" t="n">
-        <v>0.4955697381144569</v>
+        <v>0.5498526114597758</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2935187891542851</v>
+        <v>0.1814002120155867</v>
       </c>
       <c r="N248" t="n">
-        <v>0.7122365370067363</v>
+        <v>0.7939665554313449</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2936497386627691</v>
+        <v>0.1812140014499251</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.07894085200755638</v>
+        <v>0.03891432645150442</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2926237463591797</v>
+        <v>0.04476560759197937</v>
       </c>
       <c r="J249" t="n">
-        <v>0.2720993639228815</v>
+        <v>0.03891432645150442</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2948830865190563</v>
+        <v>0.04476560759197937</v>
       </c>
       <c r="L249" t="n">
-        <v>0.4847289793324937</v>
+        <v>0.5457336407733432</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2951227169638713</v>
+        <v>0.1823914700047429</v>
       </c>
       <c r="N249" t="n">
-        <v>0.7004795159100954</v>
+        <v>0.7884489341977596</v>
       </c>
       <c r="O249" t="n">
-        <v>0.29525438204344</v>
+        <v>0.1822042418950066</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0697636156118901</v>
+        <v>0.03644449157585913</v>
       </c>
       <c r="G250" t="n">
-        <v>0.294214092806784</v>
+        <v>0.04474493019217956</v>
       </c>
       <c r="J250" t="n">
-        <v>0.2682567994930187</v>
+        <v>0.03644449157585913</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2964857119892686</v>
+        <v>0.04474493019217956</v>
       </c>
       <c r="L250" t="n">
-        <v>0.482658045090105</v>
+        <v>0.5517159280964439</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2967266447734576</v>
+        <v>0.1833827279938991</v>
       </c>
       <c r="N250" t="n">
-        <v>0.6950788989832013</v>
+        <v>0.7915324859759525</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2968590254241108</v>
+        <v>0.1831944823400882</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.07658146469551608</v>
+        <v>0.03400229861794218</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2958044392543882</v>
+        <v>0.04472425279237974</v>
       </c>
       <c r="J251" t="n">
-        <v>0.2625972447848205</v>
+        <v>0.03400229861794218</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2980883374594809</v>
+        <v>0.04472425279237974</v>
       </c>
       <c r="L251" t="n">
-        <v>0.4701565304916271</v>
+        <v>0.5470994687246744</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2983305725830439</v>
+        <v>0.1843739859830553</v>
       </c>
       <c r="N251" t="n">
-        <v>0.6864341009417416</v>
+        <v>0.7904172057767629</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2984636688047817</v>
+        <v>0.1841847227851697</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.07439433484038782</v>
+        <v>0.03158825482021879</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2973947857019924</v>
+        <v>0.04470357539257992</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2593204750569585</v>
+        <v>0.03158825482021879</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2996909629296931</v>
+        <v>0.04470357539257992</v>
       </c>
       <c r="L252" t="n">
-        <v>0.462124030641396</v>
+        <v>0.5501842579536309</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2999345003926301</v>
+        <v>0.1853652439722115</v>
       </c>
       <c r="N252" t="n">
-        <v>0.6729445365014026</v>
+        <v>0.7908030886110311</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3000683121854526</v>
+        <v>0.1851749632302513</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.06520216162845863</v>
+        <v>0.02920286742515496</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2989851321495967</v>
+        <v>0.04468289799278011</v>
       </c>
       <c r="J253" t="n">
-        <v>0.2540262655681045</v>
+        <v>0.02920286742515496</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3012935883999054</v>
+        <v>0.04468289799278011</v>
       </c>
       <c r="L253" t="n">
-        <v>0.4614601406437479</v>
+        <v>0.5511702910789101</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3015384282022163</v>
+        <v>0.1863565019613678</v>
       </c>
       <c r="N253" t="n">
-        <v>0.6591096203778732</v>
+        <v>0.787690129489597</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3016729555661234</v>
+        <v>0.1861652036753329</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0740048806416819</v>
+        <v>0.02684664367521464</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3005754785972009</v>
+        <v>0.04466222059298029</v>
       </c>
       <c r="J254" t="n">
-        <v>0.2520143915769302</v>
+        <v>0.02684664367521464</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3028962138701176</v>
+        <v>0.04466222059298029</v>
       </c>
       <c r="L254" t="n">
-        <v>0.4500644556030187</v>
+        <v>0.5503575633961083</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3031423560118026</v>
+        <v>0.187347759950524</v>
       </c>
       <c r="N254" t="n">
-        <v>0.6458287672868401</v>
+        <v>0.7871783234233007</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3032775989467943</v>
+        <v>0.1871554441204144</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.06880242746201098</v>
+        <v>0.02452009081286366</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3021658250448051</v>
+        <v>0.04464154319318048</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2476846283421072</v>
+        <v>0.02452009081286366</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3044988393403299</v>
+        <v>0.04464154319318048</v>
       </c>
       <c r="L255" t="n">
-        <v>0.4401365706235446</v>
+        <v>0.5469460702008219</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3047462838213889</v>
+        <v>0.1883390179396802</v>
       </c>
       <c r="N255" t="n">
-        <v>0.644501391943991</v>
+        <v>0.7958676654229828</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3048822423274652</v>
+        <v>0.188145684565496</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.06759473767139931</v>
+        <v>0.02222371608056742</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3037561714924094</v>
+        <v>0.04462086579338066</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2430367511223077</v>
+        <v>0.02222371608056742</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3061014648105422</v>
+        <v>0.04462086579338066</v>
       </c>
       <c r="L256" t="n">
-        <v>0.4358760808096617</v>
+        <v>0.5462358067886475</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3063502116309751</v>
+        <v>0.1893302759288364</v>
       </c>
       <c r="N256" t="n">
-        <v>0.6293269090650135</v>
+        <v>0.7953581504994824</v>
       </c>
       <c r="O256" t="n">
-        <v>0.306486885708136</v>
+        <v>0.1891359250105775</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.06338174685180015</v>
+        <v>0.01995802672079114</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3053465179400136</v>
+        <v>0.04460018839358084</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2377705351762029</v>
+        <v>0.01995802672079114</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3077040902807545</v>
+        <v>0.04460018839358084</v>
       </c>
       <c r="L257" t="n">
-        <v>0.4288825812657058</v>
+        <v>0.5469267684551813</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3079541394405614</v>
+        <v>0.1903215339179926</v>
       </c>
       <c r="N257" t="n">
-        <v>0.6157047333655952</v>
+        <v>0.7922497736636402</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3080915290888069</v>
+        <v>0.1901261654556591</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.058163390585167</v>
+        <v>0.01772352997600066</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3069368643876179</v>
+        <v>0.04457951099378103</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2331857557624651</v>
+        <v>0.01772352997600066</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3093067157509667</v>
+        <v>0.04457951099378103</v>
       </c>
       <c r="L258" t="n">
-        <v>0.4183556670960136</v>
+        <v>0.5509189504960199</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3095580672501476</v>
+        <v>0.1913127919071488</v>
       </c>
       <c r="N258" t="n">
-        <v>0.6104342795614228</v>
+        <v>0.7898425299262961</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3096961724694778</v>
+        <v>0.1911164059007406</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.05993960445345319</v>
+        <v>0.01552073308866012</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3085272108352221</v>
+        <v>0.04455883359398122</v>
       </c>
       <c r="J259" t="n">
-        <v>0.2309821881397656</v>
+        <v>0.01552073308866012</v>
       </c>
       <c r="K259" t="n">
-        <v>0.310909341221179</v>
+        <v>0.04455883359398122</v>
       </c>
       <c r="L259" t="n">
-        <v>0.4136949334049207</v>
+        <v>0.5496123482067599</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3111619950597339</v>
+        <v>0.192304049896305</v>
       </c>
       <c r="N259" t="n">
-        <v>0.5932149623681848</v>
+        <v>0.7918364142982897</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3113008158501486</v>
+        <v>0.1921066463458222</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.05871032403861206</v>
+        <v>0.01335014330123532</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3101175572828263</v>
+        <v>0.0445381561941814</v>
       </c>
       <c r="J260" t="n">
-        <v>0.2266596075667764</v>
+        <v>0.01335014330123532</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3125119666913912</v>
+        <v>0.0445381561941814</v>
       </c>
       <c r="L260" t="n">
-        <v>0.4050999752967634</v>
+        <v>0.5451069568829975</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3127659228693201</v>
+        <v>0.1932953078854613</v>
       </c>
       <c r="N260" t="n">
-        <v>0.585846196501568</v>
+        <v>0.7895314217904614</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3129054592308195</v>
+        <v>0.1930968867909038</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.065475484922597</v>
+        <v>0.0112122678561916</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3117079037304306</v>
+        <v>0.04451747879438158</v>
       </c>
       <c r="J261" t="n">
-        <v>0.2220177893021691</v>
+        <v>0.0112122678561916</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3141145921616035</v>
+        <v>0.04451747879438158</v>
       </c>
       <c r="L261" t="n">
-        <v>0.3979703878758778</v>
+        <v>0.5451027718203293</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3143698506789064</v>
+        <v>0.1942865658746175</v>
       </c>
       <c r="N261" t="n">
-        <v>0.5729273966772606</v>
+        <v>0.7919275474136511</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3145101026114904</v>
+        <v>0.1940871272359853</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.05523502268736142</v>
+        <v>0.009107613995994787</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3132982501780348</v>
+        <v>0.04449680139458177</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2176565086046158</v>
+        <v>0.009107613995994787</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3157172176318158</v>
+        <v>0.04449680139458177</v>
       </c>
       <c r="L262" t="n">
-        <v>0.3920057662466</v>
+        <v>0.5479997883143516</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3159737784884927</v>
+        <v>0.1952778238637737</v>
       </c>
       <c r="N262" t="n">
-        <v>0.5648579776109492</v>
+        <v>0.791124786178699</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3161147459921613</v>
+        <v>0.1950773676810669</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.05798887291485864</v>
+        <v>0.007036688963108953</v>
       </c>
       <c r="G263" t="n">
-        <v>0.314888596625639</v>
+        <v>0.04447612399478195</v>
       </c>
       <c r="J263" t="n">
-        <v>0.2122755407327878</v>
+        <v>0.007036688963108953</v>
       </c>
       <c r="K263" t="n">
-        <v>0.317319843102028</v>
+        <v>0.04447612399478195</v>
       </c>
       <c r="L263" t="n">
-        <v>0.3840057055132657</v>
+        <v>0.548298001660661</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3175777062980789</v>
+        <v>0.1962690818529299</v>
       </c>
       <c r="N263" t="n">
-        <v>0.551137354018322</v>
+        <v>0.788923133096445</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3177193893728322</v>
+        <v>0.1960676081261484</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.05773697118704207</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3164789430732433</v>
+        <v>0.04445544659498214</v>
       </c>
       <c r="J264" t="n">
-        <v>0.2095746609453569</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3189224685722403</v>
+        <v>0.04445544659498214</v>
       </c>
       <c r="L264" t="n">
-        <v>0.3745698007802116</v>
+        <v>0.5480974071548537</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3191816341076652</v>
+        <v>0.1972603398420861</v>
       </c>
       <c r="N264" t="n">
-        <v>0.5415649406150664</v>
+        <v>0.7913225831777293</v>
       </c>
       <c r="O264" t="n">
-        <v>0.319324032753503</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.19705784857123</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0444422887002453</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.0444422887002453</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.008232866252793847</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04444255722870931</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.008232866252793847</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.04444255722870931</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.0114537990541327</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04444282575717333</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.0114537990541327</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.04444282575717333</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.01466271838942243</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04444309428563734</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.01466271838942243</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.04444309428563734</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.01785954424434866</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04444336281410136</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.01785954424434866</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.04444336281410136</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.02104419660431833</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04444363134256538</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.02104419660431833</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.04444363134256538</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.02421659545501606</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0444438998710294</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.02421659545501606</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.0444438998710294</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.0273766607818498</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04444416839949341</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.0273766607818498</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.04444416839949341</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.03052431257050309</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04444443692795743</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.03052431257050309</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.04444443692795743</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.03365947080638498</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04444470545642145</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.03365947080638498</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.04444470545642145</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.03678205547517793</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04444497398488547</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.03678205547517793</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.04444497398488547</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.03989198656229209</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04444524251334948</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.03989198656229209</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.04444524251334948</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.04298918405340882</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0444455110418135</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.04298918405340882</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.0444455110418135</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.04607356793393932</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04444577957027752</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.04607356793393932</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.04444577957027752</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.04914505818956388</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04444604809874154</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.04914505818956388</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.04444604809874154</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.05220357480569482</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04444631662720555</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.05220357480569482</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.04444631662720555</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.05524903776801129</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04444658515566957</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.05524903776801129</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.04444658515566957</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.0582813670619268</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04444685368413358</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.0582813670619268</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.04444685368413358</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.06130048267305377</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0444471222125976</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.06130048267305377</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.0444471222125976</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.06430630458700351</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04444739074106162</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.06430630458700351</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.04444739074106162</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.06729875278919115</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04444765926952563</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.06729875278919115</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.04444765926952563</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.07027774726529304</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04444792779798965</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.07027774726529304</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.04444792779798965</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.07324320800072545</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04444819632645367</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.07324320800072545</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.04444819632645367</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.07619505498116361</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04444846485491769</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.07619505498116361</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.04444846485491769</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.07913320819202493</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04444873338338171</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.07913320819202493</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.04444873338338171</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.0820579143446705</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04444900191184573</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.0820579143446705</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.04444900191184573</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.08497105377864134</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04444927044030974</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.08497105377864134</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.04444927044030974</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.08787287320529738</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04444953896877376</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.08787287320529738</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.04444953896877376</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.09076329261005839</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04444980749723777</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.09076329261005839</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.04444980749723777</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.09364223197859617</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04445007602570179</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.09364223197859617</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04445007602570179</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.09650961129633143</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04445034455416581</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.09650961129633143</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.04445034455416581</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.099365350548935</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04445061308262983</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.099365350548935</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.04445061308262983</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.1022093697218286</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04445088161109384</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.1022093697218286</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.04445088161109384</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.1050415888006206</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04445115013955786</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.1050415888006206</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.04445115013955786</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.1078619277709182</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04445141866802188</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.1078619277709182</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.04445141866802188</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.1106703066181446</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04445168719648589</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.1106703066181446</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.04445168719648589</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.1134666453279682</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04445195572494991</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.1134666453279682</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.04445195572494991</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.1162508638858133</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04445222425341393</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.1162508638858133</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.04445222425341393</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.119022882277347</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04445249278187795</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.119022882277347</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.04445249278187795</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.1217826204879948</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04445276131034196</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.1217826204879948</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.04445276131034196</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.1245299985034227</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04445302983880598</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.1245299985034227</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.04445302983880598</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.1272649363090572</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04445329836726999</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.1272649363090572</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.04445329836726999</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.1299873538905635</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04445356689573401</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.1299873538905635</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.04445356689573401</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.1326971712333689</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04445383542419803</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.1326971712333689</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.04445383542419803</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.1353943083231375</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04445410395266205</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.1353943083231375</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.04445410395266205</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.1380786851452979</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04445437248112607</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.1380786851452979</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.04445437248112607</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.140750221685513</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04445464100959009</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.140750221685513</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.04445464100959009</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.1434088379292125</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0444549095380541</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.1434088379292125</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.0444549095380541</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.1460544538620582</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04445517806651812</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.1460544538620582</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.04445517806651812</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.1486869894694809</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04445544659498214</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.1486869894694809</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.04445544659498214</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.1486869894694809</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0444422887002453</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.1486869894694809</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.0444422887002453</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.1519382860239998</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04446350315697314</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.1519382860239998</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.04446350315697314</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.1551696974908071</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04448471761370099</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.1551696974908071</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.04448471761370099</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.1583809638118739</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04450593207042884</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.1583809638118739</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.04450593207042884</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.1615718249291684</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0445271465271567</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.1615718249291684</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.0445271465271567</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.1647420207846598</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04454836098388455</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.1647420207846598</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.04454836098388455</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.1678912913203164</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04456957544061239</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.1678912913203164</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.04456957544061239</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.1710193764781091</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04459078989734024</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.1710193764781091</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.04459078989734024</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.1741260162000062</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.0446120043540681</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.1741260162000062</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.0446120043540681</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.1772109504279761</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04463321881079594</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.1772109504279761</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.04463321881079594</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.1802739191039895</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0446544332675238</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.1802739191039895</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.0446544332675238</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.1833146621700148</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04467564772425164</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.1833146621700148</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.04467564772425164</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.1863329195680212</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0446968621809795</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.1863329195680212</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.0446968621809795</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.1893284312399772</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04471807663770735</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.1893284312399772</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.04471807663770735</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.1923009371278532</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.0447392910944352</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.1923009371278532</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.0447392910944352</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.195250177173618</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04476050555116304</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.195250177173618</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.04476050555116304</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.1981758913192397</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04478172000789089</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.1981758913192397</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.04478172000789089</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.2010778195066892</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04480293446461875</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.2010778195066892</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.04480293446461875</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.2039557016779348</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.0448241489213466</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.2039557016779348</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.0448241489213466</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.2068092777749456</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04484536337807445</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.2068092777749456</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.04484536337807445</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.2096382877396902</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04486657783480229</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.2096382877396902</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.04486657783480229</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.2124424715141391</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04488779229153015</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.2124424715141391</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.04488779229153015</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.2152215690402609</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.044909006748258</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.2152215690402609</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.044909006748258</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.2179753202600239</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04493022120498585</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.2179753202600239</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.04493022120498585</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.2207034651153987</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.0449514356617137</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.2207034651153987</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.0449514356617137</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.2234068054519798</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04497265011844155</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.2234068054519798</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.04497265011844155</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.2260914526334916</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.0449938645751694</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.2260914526334916</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.0449938645751694</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.2287582085055284</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04501507903189725</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.2287582085055284</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.04501507903189725</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.2314068130100607</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0450362934886251</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.2314068130100607</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.0450362934886251</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.2340370060890572</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04505750794535295</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.2340370060890572</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.04505750794535295</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.2366485276844862</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04507872240208079</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.2366485276844862</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.04507872240208079</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.2392411177383184</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04509993685880865</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.2392411177383184</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.04509993685880865</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.241814516192522</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.0451211513155365</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.241814516192522</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.0451211513155365</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.2443684629890665</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04514236577226435</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.2443684629890665</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.04514236577226435</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.2469026980699202</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0451635802289922</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.2469026980699202</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.0451635802289922</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.2494169613770537</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.04518479468572005</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.2494169613770537</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.04518479468572005</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.2519109928524355</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.0452060091424479</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.2519109928524355</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.0452060091424479</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.254384532438034</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04522722359917575</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.254384532438034</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.04522722359917575</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.2568373200758198</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.0452484380559036</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.2568373200758198</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.0452484380559036</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.2592690957077615</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04526965251263145</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.2592690957077615</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.04526965251263145</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.2616795992758281</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0452908669693593</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.2616795992758281</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.0452908669693593</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.2640685707219881</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04531208142608715</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.2640685707219881</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.04531208142608715</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.2664357499882122</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.045333295882815</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.2664357499882122</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.045333295882815</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.2687808770164686</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04535451033954285</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.2687808770164686</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.04535451033954285</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.2711036917487261</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0453757247962707</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.2711036917487261</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.0453757247962707</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.273403934126955</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04539693925299855</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.273403934126955</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.04539693925299855</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.2756813440931239</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.04541815370972641</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.2756813440931239</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.04541815370972641</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.2779356615892021</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04543936816645425</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.2779356615892021</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.04543936816645425</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.2801666265571578</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.0454605826231821</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.2801666265571578</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.0454605826231821</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.2823739789389618</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04548179707990995</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.2823739789389618</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.04548179707990995</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.2823739789389618</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04548179707990995</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.2823739789389618</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.04548179707990995</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.2774409697244851</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04866222342856905</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.2774409697244851</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.04866222342856905</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.2730756536739238</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05184264977722814</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.2730756536739238</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.05184264977722814</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.2692455015796861</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05502307612588724</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.2692455015796861</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.05502307612588724</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.2659179842341803</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05820350247454634</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.2659179842341803</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.05820350247454634</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.2630605724298145</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06138392882320544</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.2630605724298145</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.06138392882320544</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.2606407369589968</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06456435517186454</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.2606407369589968</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.06456435517186454</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.2586259486141355</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06774478152052361</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.2586259486141355</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.06774478152052361</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.2569836781876389</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07092520786918272</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.2569836781876389</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07092520786918272</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.255681396471915</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07410563421784182</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.255681396471915</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.07410563421784182</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.2546865742593721</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07728606056650091</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.2546865742593721</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.07728606056650091</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.2539666823424184</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08046648691516001</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.2539666823424184</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08046648691516001</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.253489191513462</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.08364691326381909</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.253489191513462</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.08364691326381909</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.2532215725649112</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0868273396124782</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.2532215725649112</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.0868273396124782</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.2531312962891742</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.0900077659611373</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.2531312962891742</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.0900077659611373</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.2539598957117911</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.0931881923097964</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.2539598957117911</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.0931881923097964</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.2564401146541389</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.09636861865845549</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.2564401146541389</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.09636861865845549</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.2600387355189848</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.09954904500711459</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.2600387355189848</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.09954904500711459</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.2642149080871702</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1027294713557737</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.2642149080871702</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1027294713557737</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.2684277821395363</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1059098977044328</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.2684277821395363</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1059098977044328</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.2721365074569244</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1090903240530919</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.2721365074569244</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1090903240530919</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.2748002338201758</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.112270750401751</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.2748002338201758</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.112270750401751</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.2758781110101317</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1154511767504101</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.2758781110101317</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1154511767504101</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.2753979223646459</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1186316030990692</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.2753979223646459</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.1186316030990692</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.2739079125891462</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1218120294477282</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.2739079125891462</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1218120294477282</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.2715020681232766</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1249924557963873</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.2715020681232766</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1249924557963873</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.2682731240981498</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1281728821450464</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.2682731240981498</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1281728821450464</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.264313815644878</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1313533084937056</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.264313815644878</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1313533084937056</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.2597168778945738</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1345337348423646</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.2597168778945738</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1345337348423646</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.2545750459783494</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1377141611910238</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.2545750459783494</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1377141611910238</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.2489810550273175</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1408945875396828</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.2489810550273175</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1408945875396828</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.2430276401725903</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1440750138883419</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.2430276401725903</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.1440750138883419</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.2368075365452804</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.147255440237001</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.2368075365452804</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.147255440237001</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.2304134792765</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.2304134792765</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.2233735241762129</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1536162929343192</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.2233735241762129</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.1536162929343192</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.211248784662078</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1567967192829783</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.211248784662078</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1567967192829783</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.197707208493108</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1599771456316374</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.197707208493108</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1599771456316374</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.1885583904854382</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1631575719802965</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.1885583904854382</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1631575719802965</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.1874312756994473</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1663379983289556</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.1874312756994473</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1663379983289556</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.1874993890592657</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1695184246776147</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.1874993890592657</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1695184246776147</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.1876362392969879</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1726988510262738</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.1876362392969879</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1726988510262738</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.1878465103233691</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1758792773749329</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.1878465103233691</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1758792773749329</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.188134886049165</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.179059703723592</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.188134886049165</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.179059703723592</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1885060503851309</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1822401300722511</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.1885060503851309</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1822401300722511</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.188964687242022</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1854205564209102</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.188964687242022</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.1854205564209102</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1895154805305939</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1886009827695693</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.1895154805305939</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1886009827695693</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1905311029959759</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1917814091182284</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.1905311029959759</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1917814091182284</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1953286017305297</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1949618354668875</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.1953286017305297</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.1949618354668875</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.2020602859478921</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1981422618155466</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.2020602859478921</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.1981422618155466</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.2074329451077778</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2013226881642056</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.2074329451077778</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2013226881642056</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.211284043740438</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2045031145128647</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.211284043740438</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2045031145128647</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.2147572022492512</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2076835408615238</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.2147572022492512</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2076835408615238</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.2179574471511103</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2108639672101829</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.2179574471511103</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2108639672101829</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.2209898049629078</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2140443935588421</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.2209898049629078</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2140443935588421</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.2239593022015366</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2172248199075011</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.2239593022015366</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.2172248199075011</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.2269313566112917</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2204052462561602</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.2269313566112917</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.2204052462561602</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.2295814155556389</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2235856726048193</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.2295814155556389</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2235856726048193</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.2320940669902273</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2267660989534784</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.2320940669902273</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2267660989534784</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.2348255041320058</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2299465253021375</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.2348255041320058</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2299465253021375</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.2381319201979233</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2331269516507966</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.2381319201979233</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2331269516507966</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.2425967469889287</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2363073779994557</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.2425967469889287</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2363073779994557</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.2484848865303586</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2394878043481148</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.2484848865303586</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2394878043481148</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.2556034818037859</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2426682306967739</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.2556034818037859</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2426682306967739</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.263759231545167</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.245848657045433</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.263759231545167</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.245848657045433</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.2727588344904583</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2490290833940921</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.2727588344904583</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2490290833940921</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.2824089893756164</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2522095097427512</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.2824089893756164</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.2522095097427512</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.2925163949365978</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2553899360914103</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.2925163949365978</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2553899360914103</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.3028877499093587</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2585703624400694</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.3028877499093587</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2585703624400694</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.3133297530298559</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2617507887887285</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.3133297530298559</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2617507887887285</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.3236491030340458</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2649312151373875</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.3236491030340458</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2649312151373875</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.3336524986578847</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2681116414860467</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.3336524986578847</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2681116414860467</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.3431466386373291</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2712920678347058</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.3431466386373291</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2712920678347058</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.3519382217083357</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2744724941833649</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.3519382217083357</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2744724941833649</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.3598339466068609</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.277652920532024</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.3598339466068609</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.277652920532024</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.3666405120688609</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2808333468806831</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.3666405120688609</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2808333468806831</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.3721646168302926</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2840137732293421</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.3721646168302926</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2840137732293421</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.3762129596271121</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2871941995780012</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.3762129596271121</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.2871941995780012</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.3791653052519491</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2903746259266603</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.3791653052519491</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2903746259266603</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.378763913047472</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2935550522753194</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.378763913047472</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.2935550522753194</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.3690232855257576</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2967354786239785</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.3690232855257576</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.2967354786239785</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.3489320488136222</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2999159049726376</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.3489320488136222</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.2999159049726376</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.3220574806419056</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3030963313212967</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.3220574806419056</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3030963313212967</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.291966858741448</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3062767576699558</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.291966858741448</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3062767576699558</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.262227460843089</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3094571840186149</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.262227460843089</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3094571840186149</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.2364065646776689</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.312637610367274</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.2364065646776689</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.312637610367274</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.2180714479760274</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3158180367159331</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.2180714479760274</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3158180367159331</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.2081967011000585</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3189984630645922</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.2081967011000585</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.3189984630645922</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.199435836104399</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3221788894132513</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.199435836104399</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3221788894132513</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.1910763721146954</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3253593157619104</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.1910763721146954</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3253593157619104</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.1831704207655815</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3285397421105695</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.1831704207655815</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3285397421105695</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.1757700936916914</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3317201684592286</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.1757700936916914</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3317201684592286</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.1689275025276593</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3349005948078877</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.1689275025276593</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3349005948078877</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.1626947589081191</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3380810211565468</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.1626947589081191</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3380810211565468</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.1571239744677048</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3412614475052059</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.1571239744677048</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3412614475052059</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.1522672608410506</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.344441873853865</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.1522672608410506</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.344441873853865</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.1481767296627906</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.347622300202524</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.1481767296627906</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.347622300202524</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.1449044925675587</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3508027265511832</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.1449044925675587</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.3508027265511832</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.142502661189989</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3539831528998422</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.142502661189989</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3539831528998422</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.1410233471647155</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3571635792485013</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.1410233471647155</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3571635792485013</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.1405186621263723</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3603440055971604</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.1405186621263723</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3603440055971604</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
